--- a/artifact/script/web-05.xlsx
+++ b/artifact/script/web-05.xlsx
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$111</definedName>
+    <definedName name="web">'#system'!$U$2:$U$112</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2257" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3153" uniqueCount="444">
   <si>
     <t>description</t>
   </si>
@@ -1391,6 +1391,9 @@
   </si>
   <si>
     <t>saveTableAsCsv(locator,nextPageLocator,file)</t>
+  </si>
+  <si>
+    <t>dragAndDrop(fromLocator,toLocator)</t>
   </si>
 </sst>
 </file>
@@ -1398,7 +1401,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="71" x14ac:knownFonts="1">
+  <fonts count="101" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1851,8 +1854,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="112">
+  <fills count="166">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2483,8 +2674,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="115">
+  <borders count="171">
     <border>
       <left/>
       <right/>
@@ -3650,6 +4147,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -3657,7 +4718,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="127">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3921,49 +4982,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="55" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="87" borderId="94" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="94" fillId="87" fontId="56" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="57" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="90" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="90" fontId="58" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="93" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="102" fillId="93" fontId="59" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="60" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="61" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="62" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="99" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="106" fillId="99" fontId="63" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="102" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="110" fillId="102" fontId="64" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="105" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="105" fontId="65" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="105" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="105" fontId="66" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="108" fontId="67" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="68" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="108" fontId="69" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="70" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="122" fillId="114" fontId="71" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="72" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="126" fillId="117" fontId="73" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="120" fontId="74" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="75" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="76" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="77" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="134" fillId="126" fontId="78" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="138" fillId="129" fontId="79" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="132" fontId="80" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="132" fontId="81" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="82" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="138" fontId="83" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="84" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="85" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="141" borderId="150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="144" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="147" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="153" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="156" borderId="166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="159" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="159" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4288,7 +5439,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA111"/>
+  <dimension ref="A1:AA112"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -5500,7 +6651,7 @@
         <v>337</v>
       </c>
       <c r="U59" t="s">
-        <v>214</v>
+        <v>443</v>
       </c>
     </row>
     <row r="60">
@@ -5508,7 +6659,7 @@
         <v>309</v>
       </c>
       <c r="U60" t="s">
-        <v>389</v>
+        <v>214</v>
       </c>
     </row>
     <row r="61">
@@ -5516,7 +6667,7 @@
         <v>310</v>
       </c>
       <c r="U61" t="s">
-        <v>138</v>
+        <v>389</v>
       </c>
     </row>
     <row r="62">
@@ -5524,7 +6675,7 @@
         <v>369</v>
       </c>
       <c r="U62" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="63">
@@ -5532,7 +6683,7 @@
         <v>370</v>
       </c>
       <c r="U63" t="s">
-        <v>439</v>
+        <v>139</v>
       </c>
     </row>
     <row r="64">
@@ -5540,7 +6691,7 @@
         <v>345</v>
       </c>
       <c r="U64" t="s">
-        <v>140</v>
+        <v>439</v>
       </c>
     </row>
     <row r="65">
@@ -5548,7 +6699,7 @@
         <v>313</v>
       </c>
       <c r="U65" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="66">
@@ -5556,7 +6707,7 @@
         <v>269</v>
       </c>
       <c r="U66" t="s">
-        <v>197</v>
+        <v>141</v>
       </c>
     </row>
     <row r="67">
@@ -5564,7 +6715,7 @@
         <v>353</v>
       </c>
       <c r="U67" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="68">
@@ -5572,7 +6723,7 @@
         <v>314</v>
       </c>
       <c r="U68" t="s">
-        <v>142</v>
+        <v>198</v>
       </c>
     </row>
     <row r="69">
@@ -5580,7 +6731,7 @@
         <v>410</v>
       </c>
       <c r="U69" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="70">
@@ -5588,7 +6739,7 @@
         <v>304</v>
       </c>
       <c r="U70" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="71">
@@ -5596,7 +6747,7 @@
         <v>411</v>
       </c>
       <c r="U71" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="72">
@@ -5604,7 +6755,7 @@
         <v>262</v>
       </c>
       <c r="U72" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="73">
@@ -5612,7 +6763,7 @@
         <v>344</v>
       </c>
       <c r="U73" t="s">
-        <v>199</v>
+        <v>146</v>
       </c>
     </row>
     <row r="74">
@@ -5620,7 +6771,7 @@
         <v>280</v>
       </c>
       <c r="U74" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="75">
@@ -5628,7 +6779,7 @@
         <v>286</v>
       </c>
       <c r="U75" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="76">
@@ -5636,7 +6787,7 @@
         <v>291</v>
       </c>
       <c r="U76" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="77">
@@ -5644,7 +6795,7 @@
         <v>429</v>
       </c>
       <c r="U77" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
     </row>
     <row r="78">
@@ -5652,7 +6803,7 @@
         <v>332</v>
       </c>
       <c r="U78" t="s">
-        <v>147</v>
+        <v>215</v>
       </c>
     </row>
     <row r="79">
@@ -5660,7 +6811,7 @@
         <v>270</v>
       </c>
       <c r="U79" t="s">
-        <v>203</v>
+        <v>147</v>
       </c>
     </row>
     <row r="80">
@@ -5668,7 +6819,7 @@
         <v>281</v>
       </c>
       <c r="U80" t="s">
-        <v>440</v>
+        <v>203</v>
       </c>
     </row>
     <row r="81">
@@ -5676,7 +6827,7 @@
         <v>287</v>
       </c>
       <c r="U81" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="82">
@@ -5684,7 +6835,7 @@
         <v>276</v>
       </c>
       <c r="U82" t="s">
-        <v>204</v>
+        <v>442</v>
       </c>
     </row>
     <row r="83">
@@ -5692,7 +6843,7 @@
         <v>271</v>
       </c>
       <c r="U83" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="84">
@@ -5700,7 +6851,7 @@
         <v>288</v>
       </c>
       <c r="U84" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="85">
@@ -5708,7 +6859,7 @@
         <v>272</v>
       </c>
       <c r="U85" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="86">
@@ -5716,7 +6867,7 @@
         <v>273</v>
       </c>
       <c r="U86" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
     </row>
     <row r="87">
@@ -5724,7 +6875,7 @@
         <v>305</v>
       </c>
       <c r="U87" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
     </row>
     <row r="88">
@@ -5732,7 +6883,7 @@
         <v>311</v>
       </c>
       <c r="U88" t="s">
-        <v>149</v>
+        <v>208</v>
       </c>
     </row>
     <row r="89">
@@ -5740,7 +6891,7 @@
         <v>295</v>
       </c>
       <c r="U89" t="s">
-        <v>383</v>
+        <v>149</v>
       </c>
     </row>
     <row r="90">
@@ -5748,7 +6899,7 @@
         <v>340</v>
       </c>
       <c r="U90" t="s">
-        <v>150</v>
+        <v>383</v>
       </c>
     </row>
     <row r="91">
@@ -5756,7 +6907,7 @@
         <v>277</v>
       </c>
       <c r="U91" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="92">
@@ -5764,101 +6915,106 @@
         <v>278</v>
       </c>
       <c r="U92" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>47</v>
+        <v>166</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>167</v>
+        <v>47</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="U112" t="s">
         <v>170</v>
       </c>
     </row>

--- a/artifact/script/web-05.xlsx
+++ b/artifact/script/web-05.xlsx
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$112</definedName>
+    <definedName name="web">'#system'!$U$2:$U$113</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3153" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3602" uniqueCount="446">
   <si>
     <t>description</t>
   </si>
@@ -1394,6 +1394,12 @@
   </si>
   <si>
     <t>dragAndDrop(fromLocator,toLocator)</t>
+  </si>
+  <si>
+    <t>checkAll(locator)</t>
+  </si>
+  <si>
+    <t>uncheckAll(locator)</t>
   </si>
 </sst>
 </file>
@@ -1401,7 +1407,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="101" x14ac:knownFonts="1">
+  <fonts count="116" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2042,8 +2048,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="166">
+  <fills count="193">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2980,8 +3080,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="171">
+  <borders count="199">
     <border>
       <left/>
       <right/>
@@ -4711,6 +4964,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4718,7 +5253,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="142">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5072,49 +5607,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="85" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="141" borderId="150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="150" fillId="141" fontId="86" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="87" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="144" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="154" fillId="144" fontId="88" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="89" fillId="147" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="147" fontId="89" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="90" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="91" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="92" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="153" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="162" fillId="153" fontId="93" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="156" borderId="166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="166" fillId="156" fontId="94" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="159" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="159" fontId="95" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="159" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="159" fontId="96" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="97" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="162" fontId="97" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="98" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="165" fontId="98" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="99" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="162" fontId="99" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="100" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="168" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="171" borderId="182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="174" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="180" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="183" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="186" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="186" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5439,7 +6019,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA112"/>
+  <dimension ref="A1:AA113"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -6539,7 +7119,7 @@
         <v>342</v>
       </c>
       <c r="U45" t="s">
-        <v>213</v>
+        <v>444</v>
       </c>
     </row>
     <row r="46">
@@ -6547,7 +7127,7 @@
         <v>211</v>
       </c>
       <c r="U46" t="s">
-        <v>76</v>
+        <v>213</v>
       </c>
     </row>
     <row r="47">
@@ -6555,7 +7135,7 @@
         <v>320</v>
       </c>
       <c r="U47" t="s">
-        <v>127</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48">
@@ -6563,7 +7143,7 @@
         <v>339</v>
       </c>
       <c r="U48" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49">
@@ -6571,7 +7151,7 @@
         <v>368</v>
       </c>
       <c r="U49" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="50">
@@ -6579,7 +7159,7 @@
         <v>302</v>
       </c>
       <c r="U50" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="51">
@@ -6587,7 +7167,7 @@
         <v>356</v>
       </c>
       <c r="U51" t="s">
-        <v>346</v>
+        <v>130</v>
       </c>
     </row>
     <row r="52">
@@ -6595,7 +7175,7 @@
         <v>331</v>
       </c>
       <c r="U52" t="s">
-        <v>131</v>
+        <v>346</v>
       </c>
     </row>
     <row r="53">
@@ -6603,7 +7183,7 @@
         <v>268</v>
       </c>
       <c r="U53" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="54">
@@ -6611,7 +7191,7 @@
         <v>292</v>
       </c>
       <c r="U54" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="55">
@@ -6619,7 +7199,7 @@
         <v>293</v>
       </c>
       <c r="U55" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="56">
@@ -6627,7 +7207,7 @@
         <v>294</v>
       </c>
       <c r="U56" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="57">
@@ -6635,7 +7215,7 @@
         <v>303</v>
       </c>
       <c r="U57" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="58">
@@ -6643,7 +7223,7 @@
         <v>312</v>
       </c>
       <c r="U58" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="59">
@@ -6651,7 +7231,7 @@
         <v>337</v>
       </c>
       <c r="U59" t="s">
-        <v>443</v>
+        <v>137</v>
       </c>
     </row>
     <row r="60">
@@ -6659,7 +7239,7 @@
         <v>309</v>
       </c>
       <c r="U60" t="s">
-        <v>214</v>
+        <v>443</v>
       </c>
     </row>
     <row r="61">
@@ -6667,7 +7247,7 @@
         <v>310</v>
       </c>
       <c r="U61" t="s">
-        <v>389</v>
+        <v>214</v>
       </c>
     </row>
     <row r="62">
@@ -6675,7 +7255,7 @@
         <v>369</v>
       </c>
       <c r="U62" t="s">
-        <v>138</v>
+        <v>389</v>
       </c>
     </row>
     <row r="63">
@@ -6683,7 +7263,7 @@
         <v>370</v>
       </c>
       <c r="U63" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="64">
@@ -6691,7 +7271,7 @@
         <v>345</v>
       </c>
       <c r="U64" t="s">
-        <v>439</v>
+        <v>139</v>
       </c>
     </row>
     <row r="65">
@@ -6975,46 +7555,51 @@
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>163</v>
+        <v>445</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>47</v>
+        <v>166</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>167</v>
+        <v>47</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="U113" t="s">
         <v>170</v>
       </c>
     </row>

--- a/artifact/script/web-05.xlsx
+++ b/artifact/script/web-05.xlsx
@@ -19,16 +19,16 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="base">'#system'!$C$2:$C$33</definedName>
-    <definedName name="csv">'#system'!$D$2:$D$4</definedName>
+    <definedName name="csv">'#system'!$D$2:$D$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
     <definedName name="excel">'#system'!$F$2:$F$8</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$21</definedName>
+    <definedName name="io">'#system'!$I$2:$I$22</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$12</definedName>
+    <definedName name="json">'#system'!$K$2:$K$13</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -42,8 +42,8 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$113</definedName>
-    <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
+    <definedName name="web">'#system'!$U$2:$U$114</definedName>
+    <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
     <definedName name="ws.async">'#system'!$Y$2:$Y$8</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3602" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4967" uniqueCount="452">
   <si>
     <t>description</t>
   </si>
@@ -1400,6 +1400,24 @@
   </si>
   <si>
     <t>uncheckAll(locator)</t>
+  </si>
+  <si>
+    <t>fromExcel(excel,worksheet,csvFile)</t>
+  </si>
+  <si>
+    <t>writeFileAsIs(file,content,append)</t>
+  </si>
+  <si>
+    <t>fromCsv(csv,header,jsonFile)</t>
+  </si>
+  <si>
+    <t>focus(locator)</t>
+  </si>
+  <si>
+    <t>replyCancel(text)</t>
+  </si>
+  <si>
+    <t>replyOK(text)</t>
   </si>
 </sst>
 </file>
@@ -1407,7 +1425,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="116" x14ac:knownFonts="1">
+  <fonts count="161" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2142,8 +2160,290 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="193">
+  <fills count="274">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3233,8 +3533,467 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="199">
+  <borders count="283">
     <border>
       <left/>
       <right/>
@@ -5246,6 +6005,852 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -5253,7 +6858,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="187">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5652,49 +7257,184 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="100" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="101" fillId="168" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="178" fillId="168" fontId="101" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="102" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="103" fillId="171" borderId="182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="182" fillId="171" fontId="103" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="104" fillId="174" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="174" fontId="104" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="105" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="106" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="106" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="107" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="108" fillId="180" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="190" fillId="180" fontId="108" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="109" fillId="183" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="194" fillId="183" fontId="109" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="110" fillId="186" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="186" fontId="110" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="111" fillId="186" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="186" fontId="111" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="112" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="189" fontId="112" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="113" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="192" fontId="113" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="114" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="189" fontId="114" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="115" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="206" fillId="195" fontId="116" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="117" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="210" fillId="198" fontId="118" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="214" fillId="201" fontId="119" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="120" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="204" fontId="121" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="122" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="218" fillId="207" fontId="123" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="222" fillId="210" fontId="124" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="213" fontId="125" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="213" fontId="126" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="216" fontId="127" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="219" fontId="128" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="216" fontId="129" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="130" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="234" fillId="222" fontId="131" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="132" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="238" fillId="225" fontId="133" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="242" fillId="228" fontId="134" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="135" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="231" fontId="136" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="137" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="246" fillId="234" fontId="138" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="250" fillId="237" fontId="139" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="240" fontId="140" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="240" fontId="141" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="243" fontId="142" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="246" fontId="143" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="243" fontId="144" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="145" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="249" borderId="262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="252" borderId="266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="255" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="261" borderId="274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="264" borderId="278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="267" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="267" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="270" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="273" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="270" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6019,7 +7759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA113"/>
+  <dimension ref="A1:AA114"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -6345,6 +8085,9 @@
       <c r="C5" t="s">
         <v>224</v>
       </c>
+      <c r="D5" t="s">
+        <v>446</v>
+      </c>
       <c r="E5" t="s">
         <v>336</v>
       </c>
@@ -6438,7 +8181,7 @@
         <v>98</v>
       </c>
       <c r="V6" t="s">
-        <v>175</v>
+        <v>450</v>
       </c>
       <c r="W6" t="s">
         <v>180</v>
@@ -6493,6 +8236,9 @@
       <c r="U7" t="s">
         <v>99</v>
       </c>
+      <c r="V7" t="s">
+        <v>451</v>
+      </c>
       <c r="W7" t="s">
         <v>181</v>
       </c>
@@ -6543,6 +8289,9 @@
       <c r="U8" t="s">
         <v>100</v>
       </c>
+      <c r="V8" t="s">
+        <v>175</v>
+      </c>
       <c r="W8" t="s">
         <v>182</v>
       </c>
@@ -6611,7 +8360,7 @@
         <v>17</v>
       </c>
       <c r="K10" t="s">
-        <v>39</v>
+        <v>448</v>
       </c>
       <c r="M10" t="s">
         <v>434</v>
@@ -6646,7 +8395,7 @@
         <v>42</v>
       </c>
       <c r="K11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M11" t="s">
         <v>92</v>
@@ -6678,7 +8427,7 @@
         <v>80</v>
       </c>
       <c r="K12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M12" t="s">
         <v>41</v>
@@ -6706,6 +8455,9 @@
       <c r="I13" t="s">
         <v>81</v>
       </c>
+      <c r="K13" t="s">
+        <v>43</v>
+      </c>
       <c r="M13" t="s">
         <v>93</v>
       </c>
@@ -6856,7 +8608,7 @@
         <v>297</v>
       </c>
       <c r="I20" t="s">
-        <v>45</v>
+        <v>447</v>
       </c>
       <c r="U20" t="s">
         <v>107</v>
@@ -6873,7 +8625,7 @@
         <v>298</v>
       </c>
       <c r="I21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U21" t="s">
         <v>108</v>
@@ -6889,6 +8641,9 @@
       <c r="E22" t="s">
         <v>299</v>
       </c>
+      <c r="I22" t="s">
+        <v>46</v>
+      </c>
       <c r="U22" t="s">
         <v>109</v>
       </c>
@@ -7263,7 +9018,7 @@
         <v>370</v>
       </c>
       <c r="U63" t="s">
-        <v>138</v>
+        <v>449</v>
       </c>
     </row>
     <row r="64">
@@ -7271,7 +9026,7 @@
         <v>345</v>
       </c>
       <c r="U64" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="65">
@@ -7279,7 +9034,7 @@
         <v>313</v>
       </c>
       <c r="U65" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="66">
@@ -7287,7 +9042,7 @@
         <v>269</v>
       </c>
       <c r="U66" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="67">
@@ -7295,7 +9050,7 @@
         <v>353</v>
       </c>
       <c r="U67" t="s">
-        <v>197</v>
+        <v>141</v>
       </c>
     </row>
     <row r="68">
@@ -7303,7 +9058,7 @@
         <v>314</v>
       </c>
       <c r="U68" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="69">
@@ -7311,7 +9066,7 @@
         <v>410</v>
       </c>
       <c r="U69" t="s">
-        <v>142</v>
+        <v>198</v>
       </c>
     </row>
     <row r="70">
@@ -7319,7 +9074,7 @@
         <v>304</v>
       </c>
       <c r="U70" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="71">
@@ -7327,7 +9082,7 @@
         <v>411</v>
       </c>
       <c r="U71" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="72">
@@ -7335,7 +9090,7 @@
         <v>262</v>
       </c>
       <c r="U72" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="73">
@@ -7343,7 +9098,7 @@
         <v>344</v>
       </c>
       <c r="U73" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="74">
@@ -7351,7 +9106,7 @@
         <v>280</v>
       </c>
       <c r="U74" t="s">
-        <v>199</v>
+        <v>146</v>
       </c>
     </row>
     <row r="75">
@@ -7359,7 +9114,7 @@
         <v>286</v>
       </c>
       <c r="U75" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="76">
@@ -7367,7 +9122,7 @@
         <v>291</v>
       </c>
       <c r="U76" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="77">
@@ -7375,7 +9130,7 @@
         <v>429</v>
       </c>
       <c r="U77" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="78">
@@ -7383,7 +9138,7 @@
         <v>332</v>
       </c>
       <c r="U78" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
     </row>
     <row r="79">
@@ -7391,7 +9146,7 @@
         <v>270</v>
       </c>
       <c r="U79" t="s">
-        <v>147</v>
+        <v>215</v>
       </c>
     </row>
     <row r="80">
@@ -7399,7 +9154,7 @@
         <v>281</v>
       </c>
       <c r="U80" t="s">
-        <v>203</v>
+        <v>147</v>
       </c>
     </row>
     <row r="81">
@@ -7407,7 +9162,7 @@
         <v>287</v>
       </c>
       <c r="U81" t="s">
-        <v>440</v>
+        <v>203</v>
       </c>
     </row>
     <row r="82">
@@ -7415,7 +9170,7 @@
         <v>276</v>
       </c>
       <c r="U82" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="83">
@@ -7423,7 +9178,7 @@
         <v>271</v>
       </c>
       <c r="U83" t="s">
-        <v>204</v>
+        <v>442</v>
       </c>
     </row>
     <row r="84">
@@ -7431,7 +9186,7 @@
         <v>288</v>
       </c>
       <c r="U84" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="85">
@@ -7439,7 +9194,7 @@
         <v>272</v>
       </c>
       <c r="U85" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="86">
@@ -7447,7 +9202,7 @@
         <v>273</v>
       </c>
       <c r="U86" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="87">
@@ -7455,7 +9210,7 @@
         <v>305</v>
       </c>
       <c r="U87" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
     </row>
     <row r="88">
@@ -7463,7 +9218,7 @@
         <v>311</v>
       </c>
       <c r="U88" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
     </row>
     <row r="89">
@@ -7471,7 +9226,7 @@
         <v>295</v>
       </c>
       <c r="U89" t="s">
-        <v>149</v>
+        <v>208</v>
       </c>
     </row>
     <row r="90">
@@ -7479,7 +9234,7 @@
         <v>340</v>
       </c>
       <c r="U90" t="s">
-        <v>383</v>
+        <v>149</v>
       </c>
     </row>
     <row r="91">
@@ -7487,7 +9242,7 @@
         <v>277</v>
       </c>
       <c r="U91" t="s">
-        <v>150</v>
+        <v>383</v>
       </c>
     </row>
     <row r="92">
@@ -7495,111 +9250,116 @@
         <v>278</v>
       </c>
       <c r="U92" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>445</v>
+        <v>162</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>163</v>
+        <v>445</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>47</v>
+        <v>166</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>167</v>
+        <v>47</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="U114" t="s">
         <v>170</v>
       </c>
     </row>

--- a/artifact/script/web-05.xlsx
+++ b/artifact/script/web-05.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10904"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/tutorials/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58349933-5936-F843-9A3E-9DA4F72874ED}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{58349933-5936-F843-9A3E-9DA4F72874ED}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="10960" windowWidth="51200" windowHeight="21040" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="21040" windowWidth="51200" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="10960"/>
   </bookViews>
   <sheets>
-    <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
-    <sheet name="locators-xpath" sheetId="9" r:id="rId2"/>
+    <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
+    <sheet name="locators-xpath" r:id="rId2" sheetId="9"/>
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
@@ -23,12 +23,12 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$8</definedName>
+    <definedName name="excel">'#system'!$F$2:$F$10</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$13</definedName>
+    <definedName name="json">'#system'!$K$2:$K$14</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="505">
   <si>
     <t>description</t>
   </si>
@@ -1571,13 +1571,20 @@
   </si>
   <si>
     <t>web automation workshop 05 - BrowserStack</t>
+  </si>
+  <si>
+    <t>csv(file,worksheet,range,header,output)</t>
+  </si>
+  <si>
+    <t>json(file,worksheet,range,header,output)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="41" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1654,8 +1661,196 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="58">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1674,8 +1869,314 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="59">
     <border>
       <left/>
       <right/>
@@ -1713,144 +2214,798 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+  <cellXfs count="66">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="10" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="9" numFmtId="49" xfId="2">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="6" numFmtId="49" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="10" fillId="6" fontId="11" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="14" fillId="9" fontId="13" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="12" fontId="14" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="16" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="18" fontId="18" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="26" fillId="21" fontId="19" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="24" fontId="20" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="24" fontId="21" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="27" fontId="22" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="30" fontId="23" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="27" fontId="24" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="39" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="45" borderId="50" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="48" borderId="54" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="51" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="51" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="54" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="54" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="1"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="3"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -1884,7 +3039,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <mruColors>
       <color rgb="FFF8F7F9"/>
@@ -1909,10 +3064,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1947,7 +3102,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -1982,7 +3137,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -2076,21 +3231,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2107,7 +3262,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2159,26 +3314,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z114"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AA114"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="18" width="8.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="18" customWidth="true" width="8.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2258,7 +3413,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>370</v>
       </c>
@@ -2338,7 +3493,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -2355,7 +3510,7 @@
         <v>87</v>
       </c>
       <c r="F3" t="s">
-        <v>327</v>
+        <v>503</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
@@ -2412,7 +3567,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -2429,7 +3584,7 @@
         <v>386</v>
       </c>
       <c r="F4" t="s">
-        <v>328</v>
+        <v>504</v>
       </c>
       <c r="H4" t="s">
         <v>350</v>
@@ -2483,7 +3638,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -2500,7 +3655,7 @@
         <v>335</v>
       </c>
       <c r="F5" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="H5" t="s">
         <v>347</v>
@@ -2548,7 +3703,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -2562,7 +3717,7 @@
         <v>387</v>
       </c>
       <c r="F6" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="I6" t="s">
         <v>16</v>
@@ -2604,7 +3759,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -2618,13 +3773,13 @@
         <v>365</v>
       </c>
       <c r="F7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I7" t="s">
         <v>79</v>
       </c>
       <c r="K7" t="s">
-        <v>34</v>
+        <v>314</v>
       </c>
       <c r="M7" t="s">
         <v>33</v>
@@ -2660,7 +3815,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>346</v>
       </c>
@@ -2674,13 +3829,13 @@
         <v>366</v>
       </c>
       <c r="F8" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I8" t="s">
         <v>38</v>
       </c>
       <c r="K8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M8" t="s">
         <v>90</v>
@@ -2713,7 +3868,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -2726,11 +3881,14 @@
       <c r="E9" t="s">
         <v>305</v>
       </c>
+      <c r="F9" t="s">
+        <v>323</v>
+      </c>
       <c r="I9" t="s">
         <v>389</v>
       </c>
       <c r="K9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M9" t="s">
         <v>91</v>
@@ -2754,7 +3912,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>332</v>
       </c>
@@ -2764,11 +3922,14 @@
       <c r="E10" t="s">
         <v>351</v>
       </c>
+      <c r="F10" t="s">
+        <v>324</v>
+      </c>
       <c r="I10" t="s">
         <v>17</v>
       </c>
       <c r="K10" t="s">
-        <v>498</v>
+        <v>36</v>
       </c>
       <c r="M10" t="s">
         <v>433</v>
@@ -2789,7 +3950,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -2803,7 +3964,7 @@
         <v>42</v>
       </c>
       <c r="K11" t="s">
-        <v>39</v>
+        <v>498</v>
       </c>
       <c r="M11" t="s">
         <v>92</v>
@@ -2821,7 +3982,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" t="s">
         <v>195</v>
       </c>
@@ -2835,7 +3996,7 @@
         <v>80</v>
       </c>
       <c r="K12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M12" t="s">
         <v>41</v>
@@ -2850,7 +4011,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -2864,7 +4025,7 @@
         <v>81</v>
       </c>
       <c r="K13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M13" t="s">
         <v>93</v>
@@ -2879,7 +4040,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" t="s">
         <v>238</v>
       </c>
@@ -2892,6 +4053,9 @@
       <c r="I14" t="s">
         <v>82</v>
       </c>
+      <c r="K14" t="s">
+        <v>43</v>
+      </c>
       <c r="M14" t="s">
         <v>94</v>
       </c>
@@ -2905,7 +4069,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -2931,7 +4095,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" t="s">
         <v>395</v>
       </c>
@@ -2954,7 +4118,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" t="s">
         <v>411</v>
       </c>
@@ -2971,7 +4135,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" t="s">
         <v>412</v>
       </c>
@@ -2988,7 +4152,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19" t="s">
         <v>356</v>
       </c>
@@ -3005,7 +4169,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="A20" t="s">
         <v>396</v>
       </c>
@@ -3022,7 +4186,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="A21" t="s">
         <v>53</v>
       </c>
@@ -3039,7 +4203,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22">
       <c r="A22" t="s">
         <v>54</v>
       </c>
@@ -3056,7 +4220,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23">
       <c r="A23" t="s">
         <v>55</v>
       </c>
@@ -3070,7 +4234,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24">
       <c r="A24" t="s">
         <v>56</v>
       </c>
@@ -3084,7 +4248,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25">
       <c r="A25" t="s">
         <v>413</v>
       </c>
@@ -3098,7 +4262,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26">
       <c r="A26" t="s">
         <v>226</v>
       </c>
@@ -3112,7 +4276,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27">
       <c r="C27" t="s">
         <v>64</v>
       </c>
@@ -3123,7 +4287,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28">
       <c r="C28" t="s">
         <v>65</v>
       </c>
@@ -3134,7 +4298,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29">
       <c r="C29" t="s">
         <v>66</v>
       </c>
@@ -3145,7 +4309,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30">
       <c r="C30" t="s">
         <v>67</v>
       </c>
@@ -3156,7 +4320,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31">
       <c r="C31" t="s">
         <v>68</v>
       </c>
@@ -3167,7 +4331,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32">
       <c r="C32" t="s">
         <v>69</v>
       </c>
@@ -3178,7 +4342,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="33" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="33">
       <c r="C33" t="s">
         <v>70</v>
       </c>
@@ -3189,7 +4353,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="34" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="34">
       <c r="E34" t="s">
         <v>329</v>
       </c>
@@ -3197,7 +4361,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="35" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="35">
       <c r="E35" t="s">
         <v>306</v>
       </c>
@@ -3205,7 +4369,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="36" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="36">
       <c r="E36" t="s">
         <v>260</v>
       </c>
@@ -3213,7 +4377,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="37" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="37">
       <c r="E37" t="s">
         <v>307</v>
       </c>
@@ -3221,7 +4385,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="38" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="38">
       <c r="E38" t="s">
         <v>266</v>
       </c>
@@ -3229,7 +4393,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="39" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="39">
       <c r="E39" t="s">
         <v>77</v>
       </c>
@@ -3237,7 +4401,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="40" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="40">
       <c r="E40" t="s">
         <v>211</v>
       </c>
@@ -3245,7 +4409,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="41" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="41">
       <c r="E41" t="s">
         <v>288</v>
       </c>
@@ -3253,7 +4417,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="42" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="42">
       <c r="E42" t="s">
         <v>299</v>
       </c>
@@ -3261,7 +4425,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="43" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="43">
       <c r="E43" t="s">
         <v>300</v>
       </c>
@@ -3269,7 +4433,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="44" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="44">
       <c r="E44" t="s">
         <v>342</v>
       </c>
@@ -3277,7 +4441,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="45" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="45">
       <c r="E45" t="s">
         <v>341</v>
       </c>
@@ -3285,7 +4449,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="46" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="46">
       <c r="E46" t="s">
         <v>210</v>
       </c>
@@ -3293,7 +4457,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="47" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="47">
       <c r="E47" t="s">
         <v>319</v>
       </c>
@@ -3301,7 +4465,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="48" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="48">
       <c r="E48" t="s">
         <v>338</v>
       </c>
@@ -3309,7 +4473,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="49" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="49">
       <c r="E49" t="s">
         <v>367</v>
       </c>
@@ -3317,7 +4481,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="50" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="50">
       <c r="E50" t="s">
         <v>301</v>
       </c>
@@ -3325,7 +4489,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="51" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="51">
       <c r="E51" t="s">
         <v>355</v>
       </c>
@@ -3333,7 +4497,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="52" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="52">
       <c r="E52" t="s">
         <v>330</v>
       </c>
@@ -3341,7 +4505,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="53" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="53">
       <c r="E53" t="s">
         <v>267</v>
       </c>
@@ -3349,7 +4513,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="54" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="54">
       <c r="E54" t="s">
         <v>291</v>
       </c>
@@ -3357,7 +4521,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="55" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="55">
       <c r="E55" t="s">
         <v>292</v>
       </c>
@@ -3365,7 +4529,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="56" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="56">
       <c r="E56" t="s">
         <v>293</v>
       </c>
@@ -3373,7 +4537,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="57" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="57">
       <c r="E57" t="s">
         <v>302</v>
       </c>
@@ -3381,7 +4545,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="58" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="58">
       <c r="E58" t="s">
         <v>311</v>
       </c>
@@ -3389,7 +4553,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="59" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="59">
       <c r="E59" t="s">
         <v>336</v>
       </c>
@@ -3397,7 +4561,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="60" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="60">
       <c r="E60" t="s">
         <v>308</v>
       </c>
@@ -3405,7 +4569,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="61" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="61">
       <c r="E61" t="s">
         <v>309</v>
       </c>
@@ -3413,7 +4577,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="62" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="62">
       <c r="E62" t="s">
         <v>368</v>
       </c>
@@ -3421,7 +4585,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="63" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="63">
       <c r="E63" t="s">
         <v>369</v>
       </c>
@@ -3429,7 +4593,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="64" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="64">
       <c r="E64" t="s">
         <v>344</v>
       </c>
@@ -3437,7 +4601,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="65" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="65">
       <c r="E65" t="s">
         <v>312</v>
       </c>
@@ -3445,7 +4609,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="66" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="66">
       <c r="E66" t="s">
         <v>268</v>
       </c>
@@ -3453,7 +4617,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="67" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="67">
       <c r="E67" t="s">
         <v>352</v>
       </c>
@@ -3461,7 +4625,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="68" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="68">
       <c r="E68" t="s">
         <v>313</v>
       </c>
@@ -3469,7 +4633,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="69" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="69">
       <c r="E69" t="s">
         <v>409</v>
       </c>
@@ -3477,7 +4641,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="70" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="70">
       <c r="E70" t="s">
         <v>303</v>
       </c>
@@ -3485,7 +4649,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="71" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="71">
       <c r="E71" t="s">
         <v>410</v>
       </c>
@@ -3493,7 +4657,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="72" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="72">
       <c r="E72" t="s">
         <v>261</v>
       </c>
@@ -3501,7 +4665,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="73" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="73">
       <c r="E73" t="s">
         <v>343</v>
       </c>
@@ -3509,7 +4673,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="74" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="74">
       <c r="E74" t="s">
         <v>279</v>
       </c>
@@ -3517,7 +4681,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="75" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="75">
       <c r="E75" t="s">
         <v>285</v>
       </c>
@@ -3525,7 +4689,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="76" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="76">
       <c r="E76" t="s">
         <v>290</v>
       </c>
@@ -3533,7 +4697,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="77" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="77">
       <c r="E77" t="s">
         <v>428</v>
       </c>
@@ -3541,7 +4705,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="78" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="78">
       <c r="E78" t="s">
         <v>331</v>
       </c>
@@ -3549,7 +4713,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="79" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="79">
       <c r="E79" t="s">
         <v>269</v>
       </c>
@@ -3557,7 +4721,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="80" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="80">
       <c r="E80" t="s">
         <v>280</v>
       </c>
@@ -3565,7 +4729,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="81" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="81">
       <c r="E81" t="s">
         <v>286</v>
       </c>
@@ -3573,7 +4737,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="82" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="82">
       <c r="E82" t="s">
         <v>275</v>
       </c>
@@ -3581,7 +4745,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="83" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="83">
       <c r="E83" t="s">
         <v>270</v>
       </c>
@@ -3589,7 +4753,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="84" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="84">
       <c r="E84" t="s">
         <v>287</v>
       </c>
@@ -3597,7 +4761,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="85" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="85">
       <c r="E85" t="s">
         <v>271</v>
       </c>
@@ -3605,7 +4769,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="86" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="86">
       <c r="E86" t="s">
         <v>272</v>
       </c>
@@ -3613,7 +4777,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="87" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="87">
       <c r="E87" t="s">
         <v>304</v>
       </c>
@@ -3621,7 +4785,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="88" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="88">
       <c r="E88" t="s">
         <v>310</v>
       </c>
@@ -3629,7 +4793,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="89" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="89">
       <c r="E89" t="s">
         <v>294</v>
       </c>
@@ -3637,7 +4801,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="90" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="90">
       <c r="E90" t="s">
         <v>339</v>
       </c>
@@ -3645,7 +4809,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="91" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="91">
       <c r="E91" t="s">
         <v>276</v>
       </c>
@@ -3653,7 +4817,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="92" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="92">
       <c r="E92" t="s">
         <v>277</v>
       </c>
@@ -3661,148 +4825,148 @@
         <v>149</v>
       </c>
     </row>
-    <row r="93" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="93">
       <c r="U93" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="94" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="94">
       <c r="U94" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="95" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="95">
       <c r="U95" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="96" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="96">
       <c r="U96" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="97" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="97">
       <c r="U97" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="98" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="98">
       <c r="U98" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="99" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="99">
       <c r="U99" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="100" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="100">
       <c r="U100" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="101" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="101">
       <c r="U101" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="102" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="102">
       <c r="U102" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="103" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="103">
       <c r="U103" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="104" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="104">
       <c r="U104" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="105" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="105">
       <c r="U105" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="106" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="106">
       <c r="U106" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="107" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="107">
       <c r="U107" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="108" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="108">
       <c r="U108" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="109" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="109">
       <c r="U109" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="110" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="110">
       <c r="U110" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="111" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="111">
       <c r="U111" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="112" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="112">
       <c r="U112" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="113" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="113">
       <c r="U113" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="114" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="114">
       <c r="U114" t="s">
         <v>169</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{691DC43E-2E2B-AE40-B88B-B3C5C7CE75EB}">
-  <dimension ref="A1:O1002"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{691DC43E-2E2B-AE40-B88B-B3C5C7CE75EB}">
+  <dimension ref="A1:P1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="true" workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="26" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="58.83203125" style="8" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.83203125" style="13" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="46.1640625" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="7" width="33.1640625" style="9" customWidth="1" collapsed="1"/>
-    <col min="8" max="9" width="18.1640625" style="9" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.1640625" style="22" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.6640625" style="10" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="15" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="16" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19" style="15" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.83203125" style="10" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.83203125" style="3" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="26" width="20.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="8" width="58.83203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="13" width="10.83203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="9" width="46.1640625" collapsed="true"/>
+    <col min="5" max="7" customWidth="true" style="9" width="33.1640625" collapsed="true"/>
+    <col min="8" max="9" customWidth="true" style="9" width="18.1640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="22" width="18.1640625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="10" width="1.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="15" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="16" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="15" width="19.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="10" width="49.83203125" collapsed="true"/>
+    <col min="16" max="16384" style="3" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -3833,7 +4997,7 @@
       <c r="N1" s="32"/>
       <c r="O1" s="33"/>
     </row>
-    <row r="2" spans="1:15" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="93" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>502</v>
       </c>
@@ -3856,7 +5020,7 @@
       <c r="N2" s="35"/>
       <c r="O2" s="35"/>
     </row>
-    <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="10" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="25"/>
       <c r="B3" s="4"/>
       <c r="C3" s="11"/>
@@ -3873,7 +5037,7 @@
       <c r="N3" s="14"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:15" s="5" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="20" r="4" s="5" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>220</v>
       </c>
@@ -3918,7 +5082,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="24" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
         <v>440</v>
       </c>
@@ -3947,7 +5111,7 @@
       <c r="N5" s="14"/>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="24" r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="25"/>
       <c r="B6" s="4" t="s">
         <v>443</v>
@@ -3976,7 +5140,7 @@
       <c r="N6" s="14"/>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="24" r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="25"/>
       <c r="B7" s="4" t="s">
         <v>453</v>
@@ -4003,7 +5167,7 @@
       <c r="N7" s="14"/>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="24" r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="25"/>
       <c r="B8" s="4"/>
       <c r="C8" s="12" t="s">
@@ -4028,7 +5192,7 @@
       <c r="N8" s="14"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="24" r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="25"/>
       <c r="B9" s="4" t="s">
         <v>444</v>
@@ -4055,7 +5219,7 @@
       <c r="N9" s="14"/>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="24" r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="25"/>
       <c r="B10" s="4"/>
       <c r="C10" s="12" t="s">
@@ -4080,7 +5244,7 @@
       <c r="N10" s="14"/>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="24" r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="25"/>
       <c r="B11" s="4"/>
       <c r="C11" s="12" t="s">
@@ -4105,7 +5269,7 @@
       <c r="N11" s="14"/>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="24" r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="25"/>
       <c r="B12" s="4"/>
       <c r="C12" s="12" t="s">
@@ -4130,7 +5294,7 @@
       <c r="N12" s="14"/>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="24" r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="25"/>
       <c r="B13" s="4" t="s">
         <v>457</v>
@@ -4161,7 +5325,7 @@
       <c r="N13" s="14"/>
       <c r="O13" s="2"/>
     </row>
-    <row r="14" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="24" r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="25"/>
       <c r="B14" s="4"/>
       <c r="C14" s="12" t="s">
@@ -4190,7 +5354,7 @@
       <c r="N14" s="14"/>
       <c r="O14" s="2"/>
     </row>
-    <row r="15" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="24" r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="25"/>
       <c r="B15" s="4" t="s">
         <v>460</v>
@@ -4219,7 +5383,7 @@
       <c r="N15" s="14"/>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="24" r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="25"/>
       <c r="B16" s="4" t="s">
         <v>462</v>
@@ -4248,7 +5412,7 @@
       <c r="N16" s="14"/>
       <c r="O16" s="2"/>
     </row>
-    <row r="17" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="24" r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="25" t="s">
         <v>463</v>
       </c>
@@ -4277,7 +5441,7 @@
       <c r="N17" s="14"/>
       <c r="O17" s="2"/>
     </row>
-    <row r="18" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="24" r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="25"/>
       <c r="B18" s="4"/>
       <c r="C18" s="12" t="s">
@@ -4304,7 +5468,7 @@
       <c r="N18" s="14"/>
       <c r="O18" s="2"/>
     </row>
-    <row r="19" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="24" r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="25"/>
       <c r="B19" s="4" t="s">
         <v>479</v>
@@ -4331,7 +5495,7 @@
       <c r="N19" s="14"/>
       <c r="O19" s="2"/>
     </row>
-    <row r="20" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="24" r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="25"/>
       <c r="B20" s="4" t="s">
         <v>480</v>
@@ -4360,7 +5524,7 @@
       <c r="N20" s="14"/>
       <c r="O20" s="2"/>
     </row>
-    <row r="21" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="24" r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="25"/>
       <c r="B21" s="4" t="s">
         <v>481</v>
@@ -4389,7 +5553,7 @@
       <c r="N21" s="14"/>
       <c r="O21" s="2"/>
     </row>
-    <row r="22" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="24" r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="25" t="s">
         <v>483</v>
       </c>
@@ -4418,7 +5582,7 @@
       <c r="N22" s="14"/>
       <c r="O22" s="2"/>
     </row>
-    <row r="23" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="24" r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="25"/>
       <c r="B23" s="4" t="s">
         <v>492</v>
@@ -4443,7 +5607,7 @@
       <c r="N23" s="14"/>
       <c r="O23" s="2"/>
     </row>
-    <row r="24" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="24" r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="25"/>
       <c r="B24" s="4"/>
       <c r="C24" s="12" t="s">
@@ -4470,7 +5634,7 @@
       <c r="N24" s="14"/>
       <c r="O24" s="2"/>
     </row>
-    <row r="25" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="24" r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="25"/>
       <c r="B25" s="4" t="s">
         <v>480</v>
@@ -4499,7 +5663,7 @@
       <c r="N25" s="14"/>
       <c r="O25" s="2"/>
     </row>
-    <row r="26" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="24" r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="25"/>
       <c r="B26" s="4" t="s">
         <v>481</v>
@@ -4528,7 +5692,7 @@
       <c r="N26" s="14"/>
       <c r="O26" s="2"/>
     </row>
-    <row r="27" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="24" r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="25"/>
       <c r="B27" s="4"/>
       <c r="C27" s="12"/>
@@ -4545,7 +5709,7 @@
       <c r="N27" s="14"/>
       <c r="O27" s="2"/>
     </row>
-    <row r="28" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="24" r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="25"/>
       <c r="B28" s="4"/>
       <c r="C28" s="12"/>
@@ -4562,7 +5726,7 @@
       <c r="N28" s="14"/>
       <c r="O28" s="2"/>
     </row>
-    <row r="29" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="24" r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="25"/>
       <c r="B29" s="4"/>
       <c r="C29" s="12"/>
@@ -4579,7 +5743,7 @@
       <c r="N29" s="14"/>
       <c r="O29" s="2"/>
     </row>
-    <row r="30" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="24" r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="25"/>
       <c r="B30" s="7"/>
       <c r="C30" s="12"/>
@@ -4596,7 +5760,7 @@
       <c r="N30" s="14"/>
       <c r="O30" s="2"/>
     </row>
-    <row r="31" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="24" r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="25"/>
       <c r="B31" s="4"/>
       <c r="C31" s="12"/>
@@ -4613,7 +5777,7 @@
       <c r="N31" s="14"/>
       <c r="O31" s="2"/>
     </row>
-    <row r="32" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="24" r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="25"/>
       <c r="B32" s="4"/>
       <c r="C32" s="12"/>
@@ -4630,7 +5794,7 @@
       <c r="N32" s="14"/>
       <c r="O32" s="2"/>
     </row>
-    <row r="33" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="24" r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="25"/>
       <c r="B33" s="4"/>
       <c r="C33" s="12"/>
@@ -4647,7 +5811,7 @@
       <c r="N33" s="14"/>
       <c r="O33" s="2"/>
     </row>
-    <row r="34" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="24" r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="25"/>
       <c r="B34" s="4"/>
       <c r="C34" s="12"/>
@@ -4664,7 +5828,7 @@
       <c r="N34" s="14"/>
       <c r="O34" s="2"/>
     </row>
-    <row r="35" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="24" r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="25"/>
       <c r="B35" s="4"/>
       <c r="C35" s="12"/>
@@ -4681,7 +5845,7 @@
       <c r="N35" s="14"/>
       <c r="O35" s="2"/>
     </row>
-    <row r="36" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="24" r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="25"/>
       <c r="B36" s="4"/>
       <c r="C36" s="12"/>
@@ -4698,7 +5862,7 @@
       <c r="N36" s="14"/>
       <c r="O36" s="2"/>
     </row>
-    <row r="37" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="24" r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="25"/>
       <c r="B37" s="4"/>
       <c r="C37" s="12"/>
@@ -4715,7 +5879,7 @@
       <c r="N37" s="14"/>
       <c r="O37" s="2"/>
     </row>
-    <row r="38" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="25"/>
       <c r="B38" s="4"/>
       <c r="C38" s="12"/>
@@ -4732,7 +5896,7 @@
       <c r="N38" s="14"/>
       <c r="O38" s="2"/>
     </row>
-    <row r="39" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="25"/>
       <c r="B39" s="4"/>
       <c r="C39" s="12"/>
@@ -4749,7 +5913,7 @@
       <c r="N39" s="14"/>
       <c r="O39" s="2"/>
     </row>
-    <row r="40" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="25"/>
       <c r="B40" s="4"/>
       <c r="C40" s="12"/>
@@ -4766,7 +5930,7 @@
       <c r="N40" s="14"/>
       <c r="O40" s="2"/>
     </row>
-    <row r="41" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="25"/>
       <c r="B41" s="4"/>
       <c r="C41" s="12"/>
@@ -4783,7 +5947,7 @@
       <c r="N41" s="14"/>
       <c r="O41" s="2"/>
     </row>
-    <row r="42" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="25"/>
       <c r="B42" s="4"/>
       <c r="C42" s="12"/>
@@ -4800,7 +5964,7 @@
       <c r="N42" s="14"/>
       <c r="O42" s="2"/>
     </row>
-    <row r="43" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="25"/>
       <c r="B43" s="4"/>
       <c r="C43" s="12"/>
@@ -4817,7 +5981,7 @@
       <c r="N43" s="14"/>
       <c r="O43" s="2"/>
     </row>
-    <row r="44" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="25"/>
       <c r="B44" s="4"/>
       <c r="C44" s="12"/>
@@ -4834,7 +5998,7 @@
       <c r="N44" s="14"/>
       <c r="O44" s="2"/>
     </row>
-    <row r="45" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="25"/>
       <c r="B45" s="4"/>
       <c r="C45" s="12"/>
@@ -4851,7 +6015,7 @@
       <c r="N45" s="14"/>
       <c r="O45" s="2"/>
     </row>
-    <row r="46" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="25"/>
       <c r="B46" s="4"/>
       <c r="C46" s="12"/>
@@ -4868,7 +6032,7 @@
       <c r="N46" s="14"/>
       <c r="O46" s="2"/>
     </row>
-    <row r="47" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="25"/>
       <c r="B47" s="4"/>
       <c r="C47" s="12"/>
@@ -4885,7 +6049,7 @@
       <c r="N47" s="14"/>
       <c r="O47" s="2"/>
     </row>
-    <row r="48" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="25"/>
       <c r="B48" s="4"/>
       <c r="C48" s="12"/>
@@ -4902,7 +6066,7 @@
       <c r="N48" s="14"/>
       <c r="O48" s="2"/>
     </row>
-    <row r="49" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="25"/>
       <c r="B49" s="4"/>
       <c r="C49" s="12"/>
@@ -4919,7 +6083,7 @@
       <c r="N49" s="14"/>
       <c r="O49" s="2"/>
     </row>
-    <row r="50" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="25"/>
       <c r="B50" s="4"/>
       <c r="C50" s="12"/>
@@ -4936,7 +6100,7 @@
       <c r="N50" s="14"/>
       <c r="O50" s="2"/>
     </row>
-    <row r="51" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="25"/>
       <c r="B51" s="4"/>
       <c r="C51" s="12"/>
@@ -4953,7 +6117,7 @@
       <c r="N51" s="14"/>
       <c r="O51" s="2"/>
     </row>
-    <row r="52" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="25"/>
       <c r="B52" s="4"/>
       <c r="C52" s="12"/>
@@ -4970,7 +6134,7 @@
       <c r="N52" s="14"/>
       <c r="O52" s="2"/>
     </row>
-    <row r="53" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="25"/>
       <c r="B53" s="4"/>
       <c r="C53" s="12"/>
@@ -4987,7 +6151,7 @@
       <c r="N53" s="14"/>
       <c r="O53" s="2"/>
     </row>
-    <row r="54" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="25"/>
       <c r="B54" s="4"/>
       <c r="C54" s="12"/>
@@ -5004,7 +6168,7 @@
       <c r="N54" s="14"/>
       <c r="O54" s="2"/>
     </row>
-    <row r="55" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="25"/>
       <c r="B55" s="4"/>
       <c r="C55" s="12"/>
@@ -5021,7 +6185,7 @@
       <c r="N55" s="14"/>
       <c r="O55" s="2"/>
     </row>
-    <row r="56" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="25"/>
       <c r="B56" s="4"/>
       <c r="C56" s="12"/>
@@ -5038,7 +6202,7 @@
       <c r="N56" s="14"/>
       <c r="O56" s="2"/>
     </row>
-    <row r="57" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="25"/>
       <c r="B57" s="4"/>
       <c r="C57" s="12"/>
@@ -5055,7 +6219,7 @@
       <c r="N57" s="14"/>
       <c r="O57" s="2"/>
     </row>
-    <row r="58" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="25"/>
       <c r="B58" s="4"/>
       <c r="C58" s="12"/>
@@ -5072,7 +6236,7 @@
       <c r="N58" s="14"/>
       <c r="O58" s="2"/>
     </row>
-    <row r="59" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="25"/>
       <c r="B59" s="4"/>
       <c r="C59" s="12"/>
@@ -5089,7 +6253,7 @@
       <c r="N59" s="14"/>
       <c r="O59" s="2"/>
     </row>
-    <row r="60" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="25"/>
       <c r="B60" s="4"/>
       <c r="C60" s="12"/>
@@ -5106,7 +6270,7 @@
       <c r="N60" s="14"/>
       <c r="O60" s="2"/>
     </row>
-    <row r="61" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="25"/>
       <c r="B61" s="4"/>
       <c r="C61" s="12"/>
@@ -5123,7 +6287,7 @@
       <c r="N61" s="14"/>
       <c r="O61" s="2"/>
     </row>
-    <row r="62" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="25"/>
       <c r="B62" s="4"/>
       <c r="C62" s="12"/>
@@ -5140,7 +6304,7 @@
       <c r="N62" s="14"/>
       <c r="O62" s="2"/>
     </row>
-    <row r="63" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="25"/>
       <c r="B63" s="4"/>
       <c r="C63" s="12"/>
@@ -5157,7 +6321,7 @@
       <c r="N63" s="14"/>
       <c r="O63" s="2"/>
     </row>
-    <row r="64" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="25"/>
       <c r="B64" s="4"/>
       <c r="C64" s="12"/>
@@ -5174,7 +6338,7 @@
       <c r="N64" s="14"/>
       <c r="O64" s="2"/>
     </row>
-    <row r="65" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="25"/>
       <c r="B65" s="4"/>
       <c r="C65" s="12"/>
@@ -5191,7 +6355,7 @@
       <c r="N65" s="14"/>
       <c r="O65" s="2"/>
     </row>
-    <row r="66" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="25"/>
       <c r="B66" s="4"/>
       <c r="C66" s="12"/>
@@ -5208,7 +6372,7 @@
       <c r="N66" s="14"/>
       <c r="O66" s="2"/>
     </row>
-    <row r="67" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="25"/>
       <c r="B67" s="4"/>
       <c r="C67" s="12"/>
@@ -5225,7 +6389,7 @@
       <c r="N67" s="14"/>
       <c r="O67" s="2"/>
     </row>
-    <row r="68" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="25"/>
       <c r="B68" s="4"/>
       <c r="C68" s="12"/>
@@ -5242,7 +6406,7 @@
       <c r="N68" s="14"/>
       <c r="O68" s="2"/>
     </row>
-    <row r="69" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" s="25"/>
       <c r="B69" s="4"/>
       <c r="C69" s="12"/>
@@ -5259,7 +6423,7 @@
       <c r="N69" s="14"/>
       <c r="O69" s="2"/>
     </row>
-    <row r="70" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" s="25"/>
       <c r="B70" s="4"/>
       <c r="C70" s="12"/>
@@ -5276,7 +6440,7 @@
       <c r="N70" s="14"/>
       <c r="O70" s="2"/>
     </row>
-    <row r="71" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="25"/>
       <c r="B71" s="4"/>
       <c r="C71" s="12"/>
@@ -5293,7 +6457,7 @@
       <c r="N71" s="14"/>
       <c r="O71" s="2"/>
     </row>
-    <row r="72" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="25"/>
       <c r="B72" s="4"/>
       <c r="C72" s="12"/>
@@ -5310,7 +6474,7 @@
       <c r="N72" s="14"/>
       <c r="O72" s="2"/>
     </row>
-    <row r="73" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="25"/>
       <c r="B73" s="4"/>
       <c r="C73" s="12"/>
@@ -5327,7 +6491,7 @@
       <c r="N73" s="14"/>
       <c r="O73" s="2"/>
     </row>
-    <row r="74" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="25"/>
       <c r="B74" s="4"/>
       <c r="C74" s="12"/>
@@ -5344,7 +6508,7 @@
       <c r="N74" s="14"/>
       <c r="O74" s="2"/>
     </row>
-    <row r="75" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="25"/>
       <c r="B75" s="4"/>
       <c r="C75" s="12"/>
@@ -5361,7 +6525,7 @@
       <c r="N75" s="14"/>
       <c r="O75" s="2"/>
     </row>
-    <row r="76" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="25"/>
       <c r="B76" s="4"/>
       <c r="C76" s="12"/>
@@ -5378,7 +6542,7 @@
       <c r="N76" s="14"/>
       <c r="O76" s="2"/>
     </row>
-    <row r="77" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="25"/>
       <c r="B77" s="4"/>
       <c r="C77" s="12"/>
@@ -5395,7 +6559,7 @@
       <c r="N77" s="14"/>
       <c r="O77" s="2"/>
     </row>
-    <row r="78" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="25"/>
       <c r="B78" s="4"/>
       <c r="C78" s="12"/>
@@ -5412,7 +6576,7 @@
       <c r="N78" s="14"/>
       <c r="O78" s="2"/>
     </row>
-    <row r="79" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="25"/>
       <c r="B79" s="4"/>
       <c r="C79" s="12"/>
@@ -5429,7 +6593,7 @@
       <c r="N79" s="14"/>
       <c r="O79" s="2"/>
     </row>
-    <row r="80" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="25"/>
       <c r="B80" s="4"/>
       <c r="C80" s="12"/>
@@ -5446,7 +6610,7 @@
       <c r="N80" s="14"/>
       <c r="O80" s="2"/>
     </row>
-    <row r="81" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="25"/>
       <c r="B81" s="4"/>
       <c r="C81" s="12"/>
@@ -5463,7 +6627,7 @@
       <c r="N81" s="14"/>
       <c r="O81" s="2"/>
     </row>
-    <row r="82" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" s="25"/>
       <c r="B82" s="4"/>
       <c r="C82" s="12"/>
@@ -5480,7 +6644,7 @@
       <c r="N82" s="14"/>
       <c r="O82" s="2"/>
     </row>
-    <row r="83" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" s="25"/>
       <c r="B83" s="4"/>
       <c r="C83" s="12"/>
@@ -5497,7 +6661,7 @@
       <c r="N83" s="14"/>
       <c r="O83" s="2"/>
     </row>
-    <row r="84" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" s="25"/>
       <c r="B84" s="4"/>
       <c r="C84" s="12"/>
@@ -5514,7 +6678,7 @@
       <c r="N84" s="14"/>
       <c r="O84" s="2"/>
     </row>
-    <row r="85" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="25"/>
       <c r="B85" s="4"/>
       <c r="C85" s="12"/>
@@ -5531,7 +6695,7 @@
       <c r="N85" s="14"/>
       <c r="O85" s="2"/>
     </row>
-    <row r="86" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" s="25"/>
       <c r="B86" s="4"/>
       <c r="C86" s="12"/>
@@ -5548,7 +6712,7 @@
       <c r="N86" s="14"/>
       <c r="O86" s="2"/>
     </row>
-    <row r="87" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" s="25"/>
       <c r="B87" s="4"/>
       <c r="C87" s="12"/>
@@ -5565,7 +6729,7 @@
       <c r="N87" s="14"/>
       <c r="O87" s="2"/>
     </row>
-    <row r="88" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" s="25"/>
       <c r="B88" s="4"/>
       <c r="C88" s="12"/>
@@ -5582,7 +6746,7 @@
       <c r="N88" s="14"/>
       <c r="O88" s="2"/>
     </row>
-    <row r="89" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="25"/>
       <c r="B89" s="4"/>
       <c r="C89" s="12"/>
@@ -5599,7 +6763,7 @@
       <c r="N89" s="14"/>
       <c r="O89" s="2"/>
     </row>
-    <row r="90" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" s="25"/>
       <c r="B90" s="4"/>
       <c r="C90" s="12"/>
@@ -5616,7 +6780,7 @@
       <c r="N90" s="14"/>
       <c r="O90" s="2"/>
     </row>
-    <row r="91" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" s="25"/>
       <c r="B91" s="4"/>
       <c r="C91" s="12"/>
@@ -5633,7 +6797,7 @@
       <c r="N91" s="14"/>
       <c r="O91" s="2"/>
     </row>
-    <row r="92" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" s="25"/>
       <c r="B92" s="4"/>
       <c r="C92" s="12"/>
@@ -5650,7 +6814,7 @@
       <c r="N92" s="14"/>
       <c r="O92" s="2"/>
     </row>
-    <row r="93" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" s="25"/>
       <c r="B93" s="4"/>
       <c r="C93" s="12"/>
@@ -5667,7 +6831,7 @@
       <c r="N93" s="14"/>
       <c r="O93" s="2"/>
     </row>
-    <row r="94" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" s="25"/>
       <c r="B94" s="4"/>
       <c r="C94" s="12"/>
@@ -5684,7 +6848,7 @@
       <c r="N94" s="14"/>
       <c r="O94" s="2"/>
     </row>
-    <row r="95" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" s="25"/>
       <c r="B95" s="4"/>
       <c r="C95" s="12"/>
@@ -5701,7 +6865,7 @@
       <c r="N95" s="14"/>
       <c r="O95" s="2"/>
     </row>
-    <row r="96" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" s="25"/>
       <c r="B96" s="4"/>
       <c r="C96" s="12"/>
@@ -5718,7 +6882,7 @@
       <c r="N96" s="14"/>
       <c r="O96" s="2"/>
     </row>
-    <row r="97" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" s="25"/>
       <c r="B97" s="4"/>
       <c r="C97" s="12"/>
@@ -5735,7 +6899,7 @@
       <c r="N97" s="14"/>
       <c r="O97" s="2"/>
     </row>
-    <row r="98" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" s="25"/>
       <c r="B98" s="4"/>
       <c r="C98" s="12"/>
@@ -5752,7 +6916,7 @@
       <c r="N98" s="14"/>
       <c r="O98" s="2"/>
     </row>
-    <row r="99" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" s="25"/>
       <c r="B99" s="4"/>
       <c r="C99" s="12"/>
@@ -5769,7 +6933,7 @@
       <c r="N99" s="14"/>
       <c r="O99" s="2"/>
     </row>
-    <row r="100" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" s="25"/>
       <c r="B100" s="4"/>
       <c r="C100" s="12"/>
@@ -5786,7 +6950,7 @@
       <c r="N100" s="14"/>
       <c r="O100" s="2"/>
     </row>
-    <row r="101" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" s="25"/>
       <c r="B101" s="4"/>
       <c r="C101" s="12"/>
@@ -5803,7 +6967,7 @@
       <c r="N101" s="14"/>
       <c r="O101" s="2"/>
     </row>
-    <row r="102" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" s="25"/>
       <c r="B102" s="4"/>
       <c r="C102" s="12"/>
@@ -5820,7 +6984,7 @@
       <c r="N102" s="14"/>
       <c r="O102" s="2"/>
     </row>
-    <row r="103" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" s="25"/>
       <c r="B103" s="4"/>
       <c r="C103" s="12"/>
@@ -5837,7 +7001,7 @@
       <c r="N103" s="14"/>
       <c r="O103" s="2"/>
     </row>
-    <row r="104" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" s="25"/>
       <c r="B104" s="4"/>
       <c r="C104" s="12"/>
@@ -5854,7 +7018,7 @@
       <c r="N104" s="14"/>
       <c r="O104" s="2"/>
     </row>
-    <row r="105" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" s="25"/>
       <c r="B105" s="4"/>
       <c r="C105" s="12"/>
@@ -5871,7 +7035,7 @@
       <c r="N105" s="14"/>
       <c r="O105" s="2"/>
     </row>
-    <row r="106" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" s="25"/>
       <c r="B106" s="4"/>
       <c r="C106" s="12"/>
@@ -5888,7 +7052,7 @@
       <c r="N106" s="14"/>
       <c r="O106" s="2"/>
     </row>
-    <row r="107" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" s="25"/>
       <c r="B107" s="4"/>
       <c r="C107" s="12"/>
@@ -5905,7 +7069,7 @@
       <c r="N107" s="14"/>
       <c r="O107" s="2"/>
     </row>
-    <row r="108" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" s="25"/>
       <c r="B108" s="4"/>
       <c r="C108" s="12"/>
@@ -5922,7 +7086,7 @@
       <c r="N108" s="14"/>
       <c r="O108" s="2"/>
     </row>
-    <row r="109" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" s="25"/>
       <c r="B109" s="4"/>
       <c r="C109" s="12"/>
@@ -5939,7 +7103,7 @@
       <c r="N109" s="14"/>
       <c r="O109" s="2"/>
     </row>
-    <row r="110" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" s="25"/>
       <c r="B110" s="4"/>
       <c r="C110" s="12"/>
@@ -5956,7 +7120,7 @@
       <c r="N110" s="14"/>
       <c r="O110" s="2"/>
     </row>
-    <row r="111" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" s="25"/>
       <c r="B111" s="4"/>
       <c r="C111" s="12"/>
@@ -5973,7 +7137,7 @@
       <c r="N111" s="14"/>
       <c r="O111" s="2"/>
     </row>
-    <row r="112" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" s="25"/>
       <c r="B112" s="4"/>
       <c r="C112" s="12"/>
@@ -5990,7 +7154,7 @@
       <c r="N112" s="14"/>
       <c r="O112" s="2"/>
     </row>
-    <row r="113" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" s="25"/>
       <c r="B113" s="4"/>
       <c r="C113" s="12"/>
@@ -6007,7 +7171,7 @@
       <c r="N113" s="14"/>
       <c r="O113" s="2"/>
     </row>
-    <row r="114" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" s="25"/>
       <c r="B114" s="4"/>
       <c r="C114" s="12"/>
@@ -6024,7 +7188,7 @@
       <c r="N114" s="14"/>
       <c r="O114" s="2"/>
     </row>
-    <row r="115" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" s="25"/>
       <c r="B115" s="4"/>
       <c r="C115" s="12"/>
@@ -6041,7 +7205,7 @@
       <c r="N115" s="14"/>
       <c r="O115" s="2"/>
     </row>
-    <row r="116" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" s="25"/>
       <c r="B116" s="4"/>
       <c r="C116" s="12"/>
@@ -6058,7 +7222,7 @@
       <c r="N116" s="14"/>
       <c r="O116" s="2"/>
     </row>
-    <row r="117" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" s="25"/>
       <c r="B117" s="4"/>
       <c r="C117" s="12"/>
@@ -6075,7 +7239,7 @@
       <c r="N117" s="14"/>
       <c r="O117" s="2"/>
     </row>
-    <row r="118" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" s="25"/>
       <c r="B118" s="4"/>
       <c r="C118" s="12"/>
@@ -6092,7 +7256,7 @@
       <c r="N118" s="14"/>
       <c r="O118" s="2"/>
     </row>
-    <row r="119" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" s="25"/>
       <c r="B119" s="4"/>
       <c r="C119" s="12"/>
@@ -6109,7 +7273,7 @@
       <c r="N119" s="14"/>
       <c r="O119" s="2"/>
     </row>
-    <row r="120" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" s="25"/>
       <c r="B120" s="4"/>
       <c r="C120" s="12"/>
@@ -6126,7 +7290,7 @@
       <c r="N120" s="14"/>
       <c r="O120" s="2"/>
     </row>
-    <row r="121" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121" s="25"/>
       <c r="B121" s="4"/>
       <c r="C121" s="12"/>
@@ -6143,7 +7307,7 @@
       <c r="N121" s="14"/>
       <c r="O121" s="2"/>
     </row>
-    <row r="122" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122" s="25"/>
       <c r="B122" s="4"/>
       <c r="C122" s="12"/>
@@ -6160,7 +7324,7 @@
       <c r="N122" s="14"/>
       <c r="O122" s="2"/>
     </row>
-    <row r="123" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123" s="25"/>
       <c r="B123" s="4"/>
       <c r="C123" s="12"/>
@@ -6177,7 +7341,7 @@
       <c r="N123" s="14"/>
       <c r="O123" s="2"/>
     </row>
-    <row r="124" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124" s="25"/>
       <c r="B124" s="4"/>
       <c r="C124" s="12"/>
@@ -6194,7 +7358,7 @@
       <c r="N124" s="14"/>
       <c r="O124" s="2"/>
     </row>
-    <row r="125" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125" s="25"/>
       <c r="B125" s="4"/>
       <c r="C125" s="12"/>
@@ -6211,7 +7375,7 @@
       <c r="N125" s="14"/>
       <c r="O125" s="2"/>
     </row>
-    <row r="126" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" s="25"/>
       <c r="B126" s="4"/>
       <c r="C126" s="12"/>
@@ -6228,7 +7392,7 @@
       <c r="N126" s="14"/>
       <c r="O126" s="2"/>
     </row>
-    <row r="127" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" s="25"/>
       <c r="B127" s="4"/>
       <c r="C127" s="12"/>
@@ -6245,7 +7409,7 @@
       <c r="N127" s="14"/>
       <c r="O127" s="2"/>
     </row>
-    <row r="128" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" s="25"/>
       <c r="B128" s="4"/>
       <c r="C128" s="12"/>
@@ -6262,7 +7426,7 @@
       <c r="N128" s="14"/>
       <c r="O128" s="2"/>
     </row>
-    <row r="129" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" s="25"/>
       <c r="B129" s="4"/>
       <c r="C129" s="12"/>
@@ -6279,7 +7443,7 @@
       <c r="N129" s="14"/>
       <c r="O129" s="2"/>
     </row>
-    <row r="130" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130" s="25"/>
       <c r="B130" s="4"/>
       <c r="C130" s="12"/>
@@ -6296,7 +7460,7 @@
       <c r="N130" s="14"/>
       <c r="O130" s="2"/>
     </row>
-    <row r="131" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131" s="25"/>
       <c r="B131" s="4"/>
       <c r="C131" s="12"/>
@@ -6313,7 +7477,7 @@
       <c r="N131" s="14"/>
       <c r="O131" s="2"/>
     </row>
-    <row r="132" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132" s="25"/>
       <c r="B132" s="4"/>
       <c r="C132" s="12"/>
@@ -6330,7 +7494,7 @@
       <c r="N132" s="14"/>
       <c r="O132" s="2"/>
     </row>
-    <row r="133" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133" s="25"/>
       <c r="B133" s="4"/>
       <c r="C133" s="12"/>
@@ -6347,7 +7511,7 @@
       <c r="N133" s="14"/>
       <c r="O133" s="2"/>
     </row>
-    <row r="134" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A134" s="25"/>
       <c r="B134" s="4"/>
       <c r="C134" s="12"/>
@@ -6364,7 +7528,7 @@
       <c r="N134" s="14"/>
       <c r="O134" s="2"/>
     </row>
-    <row r="135" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135" s="25"/>
       <c r="B135" s="4"/>
       <c r="C135" s="12"/>
@@ -6381,7 +7545,7 @@
       <c r="N135" s="14"/>
       <c r="O135" s="2"/>
     </row>
-    <row r="136" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A136" s="25"/>
       <c r="B136" s="4"/>
       <c r="C136" s="12"/>
@@ -6398,7 +7562,7 @@
       <c r="N136" s="14"/>
       <c r="O136" s="2"/>
     </row>
-    <row r="137" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137" s="25"/>
       <c r="B137" s="4"/>
       <c r="C137" s="12"/>
@@ -6415,7 +7579,7 @@
       <c r="N137" s="14"/>
       <c r="O137" s="2"/>
     </row>
-    <row r="138" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A138" s="25"/>
       <c r="B138" s="4"/>
       <c r="C138" s="12"/>
@@ -6432,7 +7596,7 @@
       <c r="N138" s="14"/>
       <c r="O138" s="2"/>
     </row>
-    <row r="139" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A139" s="25"/>
       <c r="B139" s="4"/>
       <c r="C139" s="12"/>
@@ -6449,7 +7613,7 @@
       <c r="N139" s="14"/>
       <c r="O139" s="2"/>
     </row>
-    <row r="140" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A140" s="25"/>
       <c r="B140" s="4"/>
       <c r="C140" s="12"/>
@@ -6466,7 +7630,7 @@
       <c r="N140" s="14"/>
       <c r="O140" s="2"/>
     </row>
-    <row r="141" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141" s="25"/>
       <c r="B141" s="4"/>
       <c r="C141" s="12"/>
@@ -6483,7 +7647,7 @@
       <c r="N141" s="14"/>
       <c r="O141" s="2"/>
     </row>
-    <row r="142" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142" s="25"/>
       <c r="B142" s="4"/>
       <c r="C142" s="12"/>
@@ -6500,7 +7664,7 @@
       <c r="N142" s="14"/>
       <c r="O142" s="2"/>
     </row>
-    <row r="143" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143" s="25"/>
       <c r="B143" s="4"/>
       <c r="C143" s="12"/>
@@ -6517,7 +7681,7 @@
       <c r="N143" s="14"/>
       <c r="O143" s="2"/>
     </row>
-    <row r="144" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A144" s="25"/>
       <c r="B144" s="4"/>
       <c r="C144" s="12"/>
@@ -6534,7 +7698,7 @@
       <c r="N144" s="14"/>
       <c r="O144" s="2"/>
     </row>
-    <row r="145" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A145" s="25"/>
       <c r="B145" s="4"/>
       <c r="C145" s="12"/>
@@ -6551,7 +7715,7 @@
       <c r="N145" s="14"/>
       <c r="O145" s="2"/>
     </row>
-    <row r="146" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A146" s="25"/>
       <c r="B146" s="4"/>
       <c r="C146" s="12"/>
@@ -6568,7 +7732,7 @@
       <c r="N146" s="14"/>
       <c r="O146" s="2"/>
     </row>
-    <row r="147" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A147" s="25"/>
       <c r="B147" s="4"/>
       <c r="C147" s="12"/>
@@ -6585,7 +7749,7 @@
       <c r="N147" s="14"/>
       <c r="O147" s="2"/>
     </row>
-    <row r="148" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="148" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A148" s="25"/>
       <c r="B148" s="4"/>
       <c r="C148" s="12"/>
@@ -6602,7 +7766,7 @@
       <c r="N148" s="14"/>
       <c r="O148" s="2"/>
     </row>
-    <row r="149" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="149" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A149" s="25"/>
       <c r="B149" s="4"/>
       <c r="C149" s="12"/>
@@ -6619,7 +7783,7 @@
       <c r="N149" s="14"/>
       <c r="O149" s="2"/>
     </row>
-    <row r="150" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A150" s="25"/>
       <c r="B150" s="4"/>
       <c r="C150" s="12"/>
@@ -6636,7 +7800,7 @@
       <c r="N150" s="14"/>
       <c r="O150" s="2"/>
     </row>
-    <row r="151" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A151" s="25"/>
       <c r="B151" s="4"/>
       <c r="C151" s="12"/>
@@ -6653,7 +7817,7 @@
       <c r="N151" s="14"/>
       <c r="O151" s="2"/>
     </row>
-    <row r="152" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="152" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A152" s="25"/>
       <c r="B152" s="4"/>
       <c r="C152" s="12"/>
@@ -6670,7 +7834,7 @@
       <c r="N152" s="14"/>
       <c r="O152" s="2"/>
     </row>
-    <row r="153" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="153" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A153" s="25"/>
       <c r="B153" s="4"/>
       <c r="C153" s="12"/>
@@ -6687,7 +7851,7 @@
       <c r="N153" s="14"/>
       <c r="O153" s="2"/>
     </row>
-    <row r="154" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="154" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A154" s="25"/>
       <c r="B154" s="4"/>
       <c r="C154" s="12"/>
@@ -6704,7 +7868,7 @@
       <c r="N154" s="14"/>
       <c r="O154" s="2"/>
     </row>
-    <row r="155" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="155" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A155" s="25"/>
       <c r="B155" s="4"/>
       <c r="C155" s="12"/>
@@ -6721,7 +7885,7 @@
       <c r="N155" s="14"/>
       <c r="O155" s="2"/>
     </row>
-    <row r="156" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="156" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A156" s="25"/>
       <c r="B156" s="4"/>
       <c r="C156" s="12"/>
@@ -6738,7 +7902,7 @@
       <c r="N156" s="14"/>
       <c r="O156" s="2"/>
     </row>
-    <row r="157" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="157" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A157" s="25"/>
       <c r="B157" s="4"/>
       <c r="C157" s="12"/>
@@ -6755,7 +7919,7 @@
       <c r="N157" s="14"/>
       <c r="O157" s="2"/>
     </row>
-    <row r="158" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="158" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A158" s="25"/>
       <c r="B158" s="4"/>
       <c r="C158" s="12"/>
@@ -6772,7 +7936,7 @@
       <c r="N158" s="14"/>
       <c r="O158" s="2"/>
     </row>
-    <row r="159" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="159" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A159" s="25"/>
       <c r="B159" s="4"/>
       <c r="C159" s="12"/>
@@ -6789,7 +7953,7 @@
       <c r="N159" s="14"/>
       <c r="O159" s="2"/>
     </row>
-    <row r="160" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="160" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A160" s="25"/>
       <c r="B160" s="4"/>
       <c r="C160" s="12"/>
@@ -6806,7 +7970,7 @@
       <c r="N160" s="14"/>
       <c r="O160" s="2"/>
     </row>
-    <row r="161" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="161" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A161" s="25"/>
       <c r="B161" s="4"/>
       <c r="C161" s="12"/>
@@ -6823,7 +7987,7 @@
       <c r="N161" s="14"/>
       <c r="O161" s="2"/>
     </row>
-    <row r="162" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="162" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A162" s="25"/>
       <c r="B162" s="4"/>
       <c r="C162" s="12"/>
@@ -6840,7 +8004,7 @@
       <c r="N162" s="14"/>
       <c r="O162" s="2"/>
     </row>
-    <row r="163" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="163" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A163" s="25"/>
       <c r="B163" s="4"/>
       <c r="C163" s="12"/>
@@ -6857,7 +8021,7 @@
       <c r="N163" s="14"/>
       <c r="O163" s="2"/>
     </row>
-    <row r="164" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="164" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A164" s="25"/>
       <c r="B164" s="4"/>
       <c r="C164" s="12"/>
@@ -6874,7 +8038,7 @@
       <c r="N164" s="14"/>
       <c r="O164" s="2"/>
     </row>
-    <row r="165" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="165" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A165" s="25"/>
       <c r="B165" s="4"/>
       <c r="C165" s="12"/>
@@ -6891,7 +8055,7 @@
       <c r="N165" s="14"/>
       <c r="O165" s="2"/>
     </row>
-    <row r="166" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="166" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A166" s="25"/>
       <c r="B166" s="4"/>
       <c r="C166" s="12"/>
@@ -6908,7 +8072,7 @@
       <c r="N166" s="14"/>
       <c r="O166" s="2"/>
     </row>
-    <row r="167" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="167" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A167" s="25"/>
       <c r="B167" s="4"/>
       <c r="C167" s="12"/>
@@ -6925,7 +8089,7 @@
       <c r="N167" s="14"/>
       <c r="O167" s="2"/>
     </row>
-    <row r="168" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="168" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A168" s="25"/>
       <c r="B168" s="4"/>
       <c r="C168" s="12"/>
@@ -6942,7 +8106,7 @@
       <c r="N168" s="14"/>
       <c r="O168" s="2"/>
     </row>
-    <row r="169" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="169" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A169" s="25"/>
       <c r="B169" s="4"/>
       <c r="C169" s="12"/>
@@ -6959,7 +8123,7 @@
       <c r="N169" s="14"/>
       <c r="O169" s="2"/>
     </row>
-    <row r="170" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="170" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A170" s="25"/>
       <c r="B170" s="4"/>
       <c r="C170" s="12"/>
@@ -6976,7 +8140,7 @@
       <c r="N170" s="14"/>
       <c r="O170" s="2"/>
     </row>
-    <row r="171" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="171" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A171" s="25"/>
       <c r="B171" s="4"/>
       <c r="C171" s="12"/>
@@ -6993,7 +8157,7 @@
       <c r="N171" s="14"/>
       <c r="O171" s="2"/>
     </row>
-    <row r="172" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="172" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A172" s="25"/>
       <c r="B172" s="4"/>
       <c r="C172" s="12"/>
@@ -7010,7 +8174,7 @@
       <c r="N172" s="14"/>
       <c r="O172" s="2"/>
     </row>
-    <row r="173" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="173" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A173" s="25"/>
       <c r="B173" s="4"/>
       <c r="C173" s="12"/>
@@ -7027,7 +8191,7 @@
       <c r="N173" s="14"/>
       <c r="O173" s="2"/>
     </row>
-    <row r="174" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="174" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A174" s="25"/>
       <c r="B174" s="4"/>
       <c r="C174" s="12"/>
@@ -7044,7 +8208,7 @@
       <c r="N174" s="14"/>
       <c r="O174" s="2"/>
     </row>
-    <row r="175" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="175" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A175" s="25"/>
       <c r="B175" s="4"/>
       <c r="C175" s="12"/>
@@ -7061,7 +8225,7 @@
       <c r="N175" s="14"/>
       <c r="O175" s="2"/>
     </row>
-    <row r="176" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="176" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A176" s="25"/>
       <c r="B176" s="4"/>
       <c r="C176" s="12"/>
@@ -7078,7 +8242,7 @@
       <c r="N176" s="14"/>
       <c r="O176" s="2"/>
     </row>
-    <row r="177" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="177" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A177" s="25"/>
       <c r="B177" s="4"/>
       <c r="C177" s="12"/>
@@ -7095,7 +8259,7 @@
       <c r="N177" s="14"/>
       <c r="O177" s="2"/>
     </row>
-    <row r="178" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="178" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A178" s="25"/>
       <c r="B178" s="4"/>
       <c r="C178" s="12"/>
@@ -7112,7 +8276,7 @@
       <c r="N178" s="14"/>
       <c r="O178" s="2"/>
     </row>
-    <row r="179" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="179" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A179" s="25"/>
       <c r="B179" s="4"/>
       <c r="C179" s="12"/>
@@ -7129,7 +8293,7 @@
       <c r="N179" s="14"/>
       <c r="O179" s="2"/>
     </row>
-    <row r="180" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="180" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A180" s="25"/>
       <c r="B180" s="4"/>
       <c r="C180" s="12"/>
@@ -7146,7 +8310,7 @@
       <c r="N180" s="14"/>
       <c r="O180" s="2"/>
     </row>
-    <row r="181" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="181" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A181" s="25"/>
       <c r="B181" s="4"/>
       <c r="C181" s="12"/>
@@ -7163,7 +8327,7 @@
       <c r="N181" s="14"/>
       <c r="O181" s="2"/>
     </row>
-    <row r="182" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="182" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A182" s="25"/>
       <c r="B182" s="4"/>
       <c r="C182" s="12"/>
@@ -7180,7 +8344,7 @@
       <c r="N182" s="14"/>
       <c r="O182" s="2"/>
     </row>
-    <row r="183" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="183" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A183" s="25"/>
       <c r="B183" s="4"/>
       <c r="C183" s="12"/>
@@ -7197,7 +8361,7 @@
       <c r="N183" s="14"/>
       <c r="O183" s="2"/>
     </row>
-    <row r="184" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="184" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A184" s="25"/>
       <c r="B184" s="4"/>
       <c r="C184" s="12"/>
@@ -7214,7 +8378,7 @@
       <c r="N184" s="14"/>
       <c r="O184" s="2"/>
     </row>
-    <row r="185" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="185" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A185" s="25"/>
       <c r="B185" s="4"/>
       <c r="C185" s="12"/>
@@ -7231,7 +8395,7 @@
       <c r="N185" s="14"/>
       <c r="O185" s="2"/>
     </row>
-    <row r="186" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="186" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A186" s="25"/>
       <c r="B186" s="4"/>
       <c r="C186" s="12"/>
@@ -7248,7 +8412,7 @@
       <c r="N186" s="14"/>
       <c r="O186" s="2"/>
     </row>
-    <row r="187" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="187" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A187" s="25"/>
       <c r="B187" s="4"/>
       <c r="C187" s="12"/>
@@ -7265,7 +8429,7 @@
       <c r="N187" s="14"/>
       <c r="O187" s="2"/>
     </row>
-    <row r="188" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="188" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A188" s="25"/>
       <c r="B188" s="4"/>
       <c r="C188" s="12"/>
@@ -7282,7 +8446,7 @@
       <c r="N188" s="14"/>
       <c r="O188" s="2"/>
     </row>
-    <row r="189" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="189" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A189" s="25"/>
       <c r="B189" s="4"/>
       <c r="C189" s="12"/>
@@ -7299,7 +8463,7 @@
       <c r="N189" s="14"/>
       <c r="O189" s="2"/>
     </row>
-    <row r="190" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="190" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A190" s="25"/>
       <c r="B190" s="4"/>
       <c r="C190" s="12"/>
@@ -7316,7 +8480,7 @@
       <c r="N190" s="14"/>
       <c r="O190" s="2"/>
     </row>
-    <row r="191" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="191" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A191" s="25"/>
       <c r="B191" s="4"/>
       <c r="C191" s="12"/>
@@ -7333,7 +8497,7 @@
       <c r="N191" s="14"/>
       <c r="O191" s="2"/>
     </row>
-    <row r="192" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="192" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A192" s="25"/>
       <c r="B192" s="4"/>
       <c r="C192" s="12"/>
@@ -7350,7 +8514,7 @@
       <c r="N192" s="14"/>
       <c r="O192" s="2"/>
     </row>
-    <row r="193" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="193" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A193" s="25"/>
       <c r="B193" s="4"/>
       <c r="C193" s="12"/>
@@ -7367,7 +8531,7 @@
       <c r="N193" s="14"/>
       <c r="O193" s="2"/>
     </row>
-    <row r="194" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="194" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A194" s="25"/>
       <c r="B194" s="4"/>
       <c r="C194" s="12"/>
@@ -7384,7 +8548,7 @@
       <c r="N194" s="14"/>
       <c r="O194" s="2"/>
     </row>
-    <row r="195" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="195" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A195" s="25"/>
       <c r="B195" s="4"/>
       <c r="C195" s="12"/>
@@ -7401,7 +8565,7 @@
       <c r="N195" s="14"/>
       <c r="O195" s="2"/>
     </row>
-    <row r="196" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="196" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A196" s="25"/>
       <c r="B196" s="4"/>
       <c r="C196" s="12"/>
@@ -7418,7 +8582,7 @@
       <c r="N196" s="14"/>
       <c r="O196" s="2"/>
     </row>
-    <row r="197" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="197" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A197" s="25"/>
       <c r="B197" s="4"/>
       <c r="C197" s="12"/>
@@ -7435,7 +8599,7 @@
       <c r="N197" s="14"/>
       <c r="O197" s="2"/>
     </row>
-    <row r="198" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="198" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A198" s="25"/>
       <c r="B198" s="4"/>
       <c r="C198" s="12"/>
@@ -7452,7 +8616,7 @@
       <c r="N198" s="14"/>
       <c r="O198" s="2"/>
     </row>
-    <row r="199" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="199" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A199" s="25"/>
       <c r="B199" s="4"/>
       <c r="C199" s="12"/>
@@ -7469,7 +8633,7 @@
       <c r="N199" s="14"/>
       <c r="O199" s="2"/>
     </row>
-    <row r="200" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="200" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A200" s="25"/>
       <c r="B200" s="4"/>
       <c r="C200" s="12"/>
@@ -7486,7 +8650,7 @@
       <c r="N200" s="14"/>
       <c r="O200" s="2"/>
     </row>
-    <row r="201" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="201" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A201" s="25"/>
       <c r="B201" s="4"/>
       <c r="C201" s="12"/>
@@ -7503,7 +8667,7 @@
       <c r="N201" s="14"/>
       <c r="O201" s="2"/>
     </row>
-    <row r="202" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="202" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A202" s="25"/>
       <c r="B202" s="4"/>
       <c r="C202" s="12"/>
@@ -7520,7 +8684,7 @@
       <c r="N202" s="14"/>
       <c r="O202" s="2"/>
     </row>
-    <row r="203" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="203" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A203" s="25"/>
       <c r="B203" s="4"/>
       <c r="C203" s="12"/>
@@ -7537,7 +8701,7 @@
       <c r="N203" s="14"/>
       <c r="O203" s="2"/>
     </row>
-    <row r="204" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="204" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A204" s="25"/>
       <c r="B204" s="4"/>
       <c r="C204" s="12"/>
@@ -7554,7 +8718,7 @@
       <c r="N204" s="14"/>
       <c r="O204" s="2"/>
     </row>
-    <row r="205" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="205" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A205" s="25"/>
       <c r="B205" s="4"/>
       <c r="C205" s="12"/>
@@ -7571,7 +8735,7 @@
       <c r="N205" s="14"/>
       <c r="O205" s="2"/>
     </row>
-    <row r="206" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="206" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A206" s="25"/>
       <c r="B206" s="4"/>
       <c r="C206" s="12"/>
@@ -7588,7 +8752,7 @@
       <c r="N206" s="14"/>
       <c r="O206" s="2"/>
     </row>
-    <row r="207" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="207" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A207" s="25"/>
       <c r="B207" s="4"/>
       <c r="C207" s="12"/>
@@ -7605,7 +8769,7 @@
       <c r="N207" s="14"/>
       <c r="O207" s="2"/>
     </row>
-    <row r="208" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="208" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A208" s="25"/>
       <c r="B208" s="4"/>
       <c r="C208" s="12"/>
@@ -7622,7 +8786,7 @@
       <c r="N208" s="14"/>
       <c r="O208" s="2"/>
     </row>
-    <row r="209" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="209" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A209" s="25"/>
       <c r="B209" s="4"/>
       <c r="C209" s="12"/>
@@ -7639,7 +8803,7 @@
       <c r="N209" s="14"/>
       <c r="O209" s="2"/>
     </row>
-    <row r="210" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="210" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A210" s="25"/>
       <c r="B210" s="4"/>
       <c r="C210" s="12"/>
@@ -7656,7 +8820,7 @@
       <c r="N210" s="14"/>
       <c r="O210" s="2"/>
     </row>
-    <row r="211" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="211" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A211" s="25"/>
       <c r="B211" s="4"/>
       <c r="C211" s="12"/>
@@ -7673,7 +8837,7 @@
       <c r="N211" s="14"/>
       <c r="O211" s="2"/>
     </row>
-    <row r="212" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="212" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A212" s="25"/>
       <c r="B212" s="4"/>
       <c r="C212" s="12"/>
@@ -7690,7 +8854,7 @@
       <c r="N212" s="14"/>
       <c r="O212" s="2"/>
     </row>
-    <row r="213" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="213" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A213" s="25"/>
       <c r="B213" s="4"/>
       <c r="C213" s="12"/>
@@ -7707,7 +8871,7 @@
       <c r="N213" s="14"/>
       <c r="O213" s="2"/>
     </row>
-    <row r="214" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="214" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A214" s="25"/>
       <c r="B214" s="4"/>
       <c r="C214" s="12"/>
@@ -7724,7 +8888,7 @@
       <c r="N214" s="14"/>
       <c r="O214" s="2"/>
     </row>
-    <row r="215" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="215" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A215" s="25"/>
       <c r="B215" s="4"/>
       <c r="C215" s="12"/>
@@ -7741,7 +8905,7 @@
       <c r="N215" s="14"/>
       <c r="O215" s="2"/>
     </row>
-    <row r="216" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="216" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A216" s="25"/>
       <c r="B216" s="4"/>
       <c r="C216" s="12"/>
@@ -7758,7 +8922,7 @@
       <c r="N216" s="14"/>
       <c r="O216" s="2"/>
     </row>
-    <row r="217" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="217" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A217" s="25"/>
       <c r="B217" s="4"/>
       <c r="C217" s="12"/>
@@ -7775,7 +8939,7 @@
       <c r="N217" s="14"/>
       <c r="O217" s="2"/>
     </row>
-    <row r="218" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="218" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A218" s="25"/>
       <c r="B218" s="4"/>
       <c r="C218" s="12"/>
@@ -7792,7 +8956,7 @@
       <c r="N218" s="14"/>
       <c r="O218" s="2"/>
     </row>
-    <row r="219" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="219" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A219" s="25"/>
       <c r="B219" s="4"/>
       <c r="C219" s="12"/>
@@ -7809,7 +8973,7 @@
       <c r="N219" s="14"/>
       <c r="O219" s="2"/>
     </row>
-    <row r="220" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="220" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A220" s="25"/>
       <c r="B220" s="4"/>
       <c r="C220" s="12"/>
@@ -7826,7 +8990,7 @@
       <c r="N220" s="14"/>
       <c r="O220" s="2"/>
     </row>
-    <row r="221" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="221" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A221" s="25"/>
       <c r="B221" s="4"/>
       <c r="C221" s="12"/>
@@ -7843,7 +9007,7 @@
       <c r="N221" s="14"/>
       <c r="O221" s="2"/>
     </row>
-    <row r="222" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="222" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A222" s="25"/>
       <c r="B222" s="4"/>
       <c r="C222" s="12"/>
@@ -7860,7 +9024,7 @@
       <c r="N222" s="14"/>
       <c r="O222" s="2"/>
     </row>
-    <row r="223" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="223" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A223" s="25"/>
       <c r="B223" s="4"/>
       <c r="C223" s="12"/>
@@ -7877,7 +9041,7 @@
       <c r="N223" s="14"/>
       <c r="O223" s="2"/>
     </row>
-    <row r="224" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="224" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A224" s="25"/>
       <c r="B224" s="4"/>
       <c r="C224" s="12"/>
@@ -7894,7 +9058,7 @@
       <c r="N224" s="14"/>
       <c r="O224" s="2"/>
     </row>
-    <row r="225" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="225" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A225" s="25"/>
       <c r="B225" s="4"/>
       <c r="C225" s="12"/>
@@ -7911,7 +9075,7 @@
       <c r="N225" s="14"/>
       <c r="O225" s="2"/>
     </row>
-    <row r="226" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="226" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A226" s="25"/>
       <c r="B226" s="4"/>
       <c r="C226" s="12"/>
@@ -7928,7 +9092,7 @@
       <c r="N226" s="14"/>
       <c r="O226" s="2"/>
     </row>
-    <row r="227" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="227" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A227" s="25"/>
       <c r="B227" s="4"/>
       <c r="C227" s="12"/>
@@ -7945,7 +9109,7 @@
       <c r="N227" s="14"/>
       <c r="O227" s="2"/>
     </row>
-    <row r="228" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="228" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A228" s="25"/>
       <c r="B228" s="4"/>
       <c r="C228" s="12"/>
@@ -7962,7 +9126,7 @@
       <c r="N228" s="14"/>
       <c r="O228" s="2"/>
     </row>
-    <row r="229" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="229" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A229" s="25"/>
       <c r="B229" s="4"/>
       <c r="C229" s="12"/>
@@ -7979,7 +9143,7 @@
       <c r="N229" s="14"/>
       <c r="O229" s="2"/>
     </row>
-    <row r="230" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="230" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A230" s="25"/>
       <c r="B230" s="4"/>
       <c r="C230" s="12"/>
@@ -7996,7 +9160,7 @@
       <c r="N230" s="14"/>
       <c r="O230" s="2"/>
     </row>
-    <row r="231" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="231" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A231" s="25"/>
       <c r="B231" s="4"/>
       <c r="C231" s="12"/>
@@ -8013,7 +9177,7 @@
       <c r="N231" s="14"/>
       <c r="O231" s="2"/>
     </row>
-    <row r="232" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="232" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A232" s="25"/>
       <c r="B232" s="4"/>
       <c r="C232" s="12"/>
@@ -8030,7 +9194,7 @@
       <c r="N232" s="14"/>
       <c r="O232" s="2"/>
     </row>
-    <row r="233" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="233" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A233" s="25"/>
       <c r="B233" s="4"/>
       <c r="C233" s="12"/>
@@ -8047,7 +9211,7 @@
       <c r="N233" s="14"/>
       <c r="O233" s="2"/>
     </row>
-    <row r="234" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="234" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A234" s="25"/>
       <c r="B234" s="4"/>
       <c r="C234" s="12"/>
@@ -8064,7 +9228,7 @@
       <c r="N234" s="14"/>
       <c r="O234" s="2"/>
     </row>
-    <row r="235" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="235" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A235" s="25"/>
       <c r="B235" s="4"/>
       <c r="C235" s="12"/>
@@ -8081,7 +9245,7 @@
       <c r="N235" s="14"/>
       <c r="O235" s="2"/>
     </row>
-    <row r="236" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="236" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A236" s="25"/>
       <c r="B236" s="4"/>
       <c r="C236" s="12"/>
@@ -8098,7 +9262,7 @@
       <c r="N236" s="14"/>
       <c r="O236" s="2"/>
     </row>
-    <row r="237" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="237" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A237" s="25"/>
       <c r="B237" s="4"/>
       <c r="C237" s="12"/>
@@ -8115,7 +9279,7 @@
       <c r="N237" s="14"/>
       <c r="O237" s="2"/>
     </row>
-    <row r="238" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="238" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A238" s="25"/>
       <c r="B238" s="4"/>
       <c r="C238" s="12"/>
@@ -8132,7 +9296,7 @@
       <c r="N238" s="14"/>
       <c r="O238" s="2"/>
     </row>
-    <row r="239" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="239" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A239" s="25"/>
       <c r="B239" s="4"/>
       <c r="C239" s="12"/>
@@ -8149,7 +9313,7 @@
       <c r="N239" s="14"/>
       <c r="O239" s="2"/>
     </row>
-    <row r="240" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="240" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A240" s="25"/>
       <c r="B240" s="4"/>
       <c r="C240" s="12"/>
@@ -8166,7 +9330,7 @@
       <c r="N240" s="14"/>
       <c r="O240" s="2"/>
     </row>
-    <row r="241" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="241" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A241" s="25"/>
       <c r="B241" s="4"/>
       <c r="C241" s="12"/>
@@ -8183,7 +9347,7 @@
       <c r="N241" s="14"/>
       <c r="O241" s="2"/>
     </row>
-    <row r="242" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="242" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A242" s="25"/>
       <c r="B242" s="4"/>
       <c r="C242" s="12"/>
@@ -8200,7 +9364,7 @@
       <c r="N242" s="14"/>
       <c r="O242" s="2"/>
     </row>
-    <row r="243" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="243" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A243" s="25"/>
       <c r="B243" s="4"/>
       <c r="C243" s="12"/>
@@ -8217,7 +9381,7 @@
       <c r="N243" s="14"/>
       <c r="O243" s="2"/>
     </row>
-    <row r="244" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="244" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A244" s="25"/>
       <c r="B244" s="4"/>
       <c r="C244" s="12"/>
@@ -8234,7 +9398,7 @@
       <c r="N244" s="14"/>
       <c r="O244" s="2"/>
     </row>
-    <row r="245" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="245" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A245" s="25"/>
       <c r="B245" s="4"/>
       <c r="C245" s="12"/>
@@ -8251,7 +9415,7 @@
       <c r="N245" s="14"/>
       <c r="O245" s="2"/>
     </row>
-    <row r="246" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="246" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A246" s="25"/>
       <c r="B246" s="4"/>
       <c r="C246" s="12"/>
@@ -8268,7 +9432,7 @@
       <c r="N246" s="14"/>
       <c r="O246" s="2"/>
     </row>
-    <row r="247" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="247" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A247" s="25"/>
       <c r="B247" s="4"/>
       <c r="C247" s="12"/>
@@ -8285,7 +9449,7 @@
       <c r="N247" s="14"/>
       <c r="O247" s="2"/>
     </row>
-    <row r="248" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="248" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A248" s="25"/>
       <c r="B248" s="4"/>
       <c r="C248" s="12"/>
@@ -8302,7 +9466,7 @@
       <c r="N248" s="14"/>
       <c r="O248" s="2"/>
     </row>
-    <row r="249" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="249" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A249" s="25"/>
       <c r="B249" s="4"/>
       <c r="C249" s="12"/>
@@ -8319,7 +9483,7 @@
       <c r="N249" s="14"/>
       <c r="O249" s="2"/>
     </row>
-    <row r="250" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="250" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A250" s="25"/>
       <c r="B250" s="4"/>
       <c r="C250" s="12"/>
@@ -8336,7 +9500,7 @@
       <c r="N250" s="14"/>
       <c r="O250" s="2"/>
     </row>
-    <row r="251" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="251" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A251" s="25"/>
       <c r="B251" s="4"/>
       <c r="C251" s="12"/>
@@ -8353,7 +9517,7 @@
       <c r="N251" s="14"/>
       <c r="O251" s="2"/>
     </row>
-    <row r="252" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="252" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A252" s="25"/>
       <c r="B252" s="4"/>
       <c r="C252" s="12"/>
@@ -8370,7 +9534,7 @@
       <c r="N252" s="14"/>
       <c r="O252" s="2"/>
     </row>
-    <row r="253" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="253" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A253" s="25"/>
       <c r="B253" s="4"/>
       <c r="C253" s="12"/>
@@ -8387,7 +9551,7 @@
       <c r="N253" s="14"/>
       <c r="O253" s="2"/>
     </row>
-    <row r="254" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="254" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A254" s="25"/>
       <c r="B254" s="4"/>
       <c r="C254" s="12"/>
@@ -8404,7 +9568,7 @@
       <c r="N254" s="14"/>
       <c r="O254" s="2"/>
     </row>
-    <row r="255" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="255" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A255" s="25"/>
       <c r="B255" s="4"/>
       <c r="C255" s="12"/>
@@ -8421,7 +9585,7 @@
       <c r="N255" s="14"/>
       <c r="O255" s="2"/>
     </row>
-    <row r="256" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="256" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A256" s="25"/>
       <c r="B256" s="4"/>
       <c r="C256" s="12"/>
@@ -8438,7 +9602,7 @@
       <c r="N256" s="14"/>
       <c r="O256" s="2"/>
     </row>
-    <row r="257" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="257" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A257" s="25"/>
       <c r="B257" s="4"/>
       <c r="C257" s="12"/>
@@ -8455,7 +9619,7 @@
       <c r="N257" s="14"/>
       <c r="O257" s="2"/>
     </row>
-    <row r="258" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="258" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A258" s="25"/>
       <c r="B258" s="4"/>
       <c r="C258" s="12"/>
@@ -8472,7 +9636,7 @@
       <c r="N258" s="14"/>
       <c r="O258" s="2"/>
     </row>
-    <row r="259" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="259" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A259" s="25"/>
       <c r="B259" s="4"/>
       <c r="C259" s="12"/>
@@ -8489,7 +9653,7 @@
       <c r="N259" s="14"/>
       <c r="O259" s="2"/>
     </row>
-    <row r="260" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="260" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A260" s="25"/>
       <c r="B260" s="4"/>
       <c r="C260" s="12"/>
@@ -8506,7 +9670,7 @@
       <c r="N260" s="14"/>
       <c r="O260" s="2"/>
     </row>
-    <row r="261" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="261" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A261" s="25"/>
       <c r="B261" s="4"/>
       <c r="C261" s="12"/>
@@ -8523,7 +9687,7 @@
       <c r="N261" s="14"/>
       <c r="O261" s="2"/>
     </row>
-    <row r="262" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="262" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A262" s="25"/>
       <c r="B262" s="4"/>
       <c r="C262" s="12"/>
@@ -8540,7 +9704,7 @@
       <c r="N262" s="14"/>
       <c r="O262" s="2"/>
     </row>
-    <row r="263" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="263" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A263" s="25"/>
       <c r="B263" s="4"/>
       <c r="C263" s="12"/>
@@ -8557,7 +9721,7 @@
       <c r="N263" s="14"/>
       <c r="O263" s="2"/>
     </row>
-    <row r="264" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="264" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A264" s="25"/>
       <c r="B264" s="4"/>
       <c r="C264" s="12"/>
@@ -8574,7 +9738,7 @@
       <c r="N264" s="14"/>
       <c r="O264" s="2"/>
     </row>
-    <row r="265" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="265" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A265" s="25"/>
       <c r="B265" s="4"/>
       <c r="C265" s="12"/>
@@ -8591,7 +9755,7 @@
       <c r="N265" s="14"/>
       <c r="O265" s="2"/>
     </row>
-    <row r="266" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="266" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A266" s="25"/>
       <c r="B266" s="4"/>
       <c r="C266" s="12"/>
@@ -8608,7 +9772,7 @@
       <c r="N266" s="14"/>
       <c r="O266" s="2"/>
     </row>
-    <row r="267" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="267" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A267" s="25"/>
       <c r="B267" s="4"/>
       <c r="C267" s="12"/>
@@ -8625,7 +9789,7 @@
       <c r="N267" s="14"/>
       <c r="O267" s="2"/>
     </row>
-    <row r="268" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="268" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A268" s="25"/>
       <c r="B268" s="4"/>
       <c r="C268" s="12"/>
@@ -8642,7 +9806,7 @@
       <c r="N268" s="14"/>
       <c r="O268" s="2"/>
     </row>
-    <row r="269" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="269" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A269" s="25"/>
       <c r="B269" s="4"/>
       <c r="C269" s="12"/>
@@ -8659,7 +9823,7 @@
       <c r="N269" s="14"/>
       <c r="O269" s="2"/>
     </row>
-    <row r="270" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="270" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A270" s="25"/>
       <c r="B270" s="4"/>
       <c r="C270" s="12"/>
@@ -8676,7 +9840,7 @@
       <c r="N270" s="14"/>
       <c r="O270" s="2"/>
     </row>
-    <row r="271" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="271" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A271" s="25"/>
       <c r="B271" s="4"/>
       <c r="C271" s="12"/>
@@ -8693,7 +9857,7 @@
       <c r="N271" s="14"/>
       <c r="O271" s="2"/>
     </row>
-    <row r="272" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="272" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A272" s="25"/>
       <c r="B272" s="4"/>
       <c r="C272" s="12"/>
@@ -8710,7 +9874,7 @@
       <c r="N272" s="14"/>
       <c r="O272" s="2"/>
     </row>
-    <row r="273" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="273" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A273" s="25"/>
       <c r="B273" s="4"/>
       <c r="C273" s="12"/>
@@ -8727,7 +9891,7 @@
       <c r="N273" s="14"/>
       <c r="O273" s="2"/>
     </row>
-    <row r="274" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="274" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A274" s="25"/>
       <c r="B274" s="4"/>
       <c r="C274" s="12"/>
@@ -8744,7 +9908,7 @@
       <c r="N274" s="14"/>
       <c r="O274" s="2"/>
     </row>
-    <row r="275" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="275" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A275" s="25"/>
       <c r="B275" s="4"/>
       <c r="C275" s="12"/>
@@ -8761,7 +9925,7 @@
       <c r="N275" s="14"/>
       <c r="O275" s="2"/>
     </row>
-    <row r="276" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="276" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A276" s="25"/>
       <c r="B276" s="4"/>
       <c r="C276" s="12"/>
@@ -8778,7 +9942,7 @@
       <c r="N276" s="14"/>
       <c r="O276" s="2"/>
     </row>
-    <row r="277" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="277" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A277" s="25"/>
       <c r="B277" s="4"/>
       <c r="C277" s="12"/>
@@ -8795,7 +9959,7 @@
       <c r="N277" s="14"/>
       <c r="O277" s="2"/>
     </row>
-    <row r="278" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="278" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A278" s="25"/>
       <c r="B278" s="4"/>
       <c r="C278" s="12"/>
@@ -8812,7 +9976,7 @@
       <c r="N278" s="14"/>
       <c r="O278" s="2"/>
     </row>
-    <row r="279" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="279" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A279" s="25"/>
       <c r="B279" s="4"/>
       <c r="C279" s="12"/>
@@ -8829,7 +9993,7 @@
       <c r="N279" s="14"/>
       <c r="O279" s="2"/>
     </row>
-    <row r="280" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="280" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A280" s="25"/>
       <c r="B280" s="4"/>
       <c r="C280" s="12"/>
@@ -8846,7 +10010,7 @@
       <c r="N280" s="14"/>
       <c r="O280" s="2"/>
     </row>
-    <row r="281" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="281" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A281" s="25"/>
       <c r="B281" s="4"/>
       <c r="C281" s="12"/>
@@ -8863,7 +10027,7 @@
       <c r="N281" s="14"/>
       <c r="O281" s="2"/>
     </row>
-    <row r="282" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="282" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A282" s="25"/>
       <c r="B282" s="4"/>
       <c r="C282" s="12"/>
@@ -8880,7 +10044,7 @@
       <c r="N282" s="14"/>
       <c r="O282" s="2"/>
     </row>
-    <row r="283" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="283" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A283" s="25"/>
       <c r="B283" s="4"/>
       <c r="C283" s="12"/>
@@ -8897,7 +10061,7 @@
       <c r="N283" s="14"/>
       <c r="O283" s="2"/>
     </row>
-    <row r="284" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="284" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A284" s="25"/>
       <c r="B284" s="4"/>
       <c r="C284" s="12"/>
@@ -8914,7 +10078,7 @@
       <c r="N284" s="14"/>
       <c r="O284" s="2"/>
     </row>
-    <row r="285" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="285" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A285" s="25"/>
       <c r="B285" s="4"/>
       <c r="C285" s="12"/>
@@ -8931,7 +10095,7 @@
       <c r="N285" s="14"/>
       <c r="O285" s="2"/>
     </row>
-    <row r="286" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="286" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A286" s="25"/>
       <c r="B286" s="4"/>
       <c r="C286" s="12"/>
@@ -8948,7 +10112,7 @@
       <c r="N286" s="14"/>
       <c r="O286" s="2"/>
     </row>
-    <row r="287" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="287" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A287" s="25"/>
       <c r="B287" s="4"/>
       <c r="C287" s="12"/>
@@ -8965,7 +10129,7 @@
       <c r="N287" s="14"/>
       <c r="O287" s="2"/>
     </row>
-    <row r="288" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="288" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A288" s="25"/>
       <c r="B288" s="4"/>
       <c r="C288" s="12"/>
@@ -8982,7 +10146,7 @@
       <c r="N288" s="14"/>
       <c r="O288" s="2"/>
     </row>
-    <row r="289" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="289" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A289" s="25"/>
       <c r="B289" s="4"/>
       <c r="C289" s="12"/>
@@ -8999,7 +10163,7 @@
       <c r="N289" s="14"/>
       <c r="O289" s="2"/>
     </row>
-    <row r="290" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="290" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A290" s="25"/>
       <c r="B290" s="4"/>
       <c r="C290" s="12"/>
@@ -9016,7 +10180,7 @@
       <c r="N290" s="14"/>
       <c r="O290" s="2"/>
     </row>
-    <row r="291" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="291" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A291" s="25"/>
       <c r="B291" s="4"/>
       <c r="C291" s="12"/>
@@ -9033,7 +10197,7 @@
       <c r="N291" s="14"/>
       <c r="O291" s="2"/>
     </row>
-    <row r="292" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="292" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A292" s="25"/>
       <c r="B292" s="4"/>
       <c r="C292" s="12"/>
@@ -9050,7 +10214,7 @@
       <c r="N292" s="14"/>
       <c r="O292" s="2"/>
     </row>
-    <row r="293" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="293" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A293" s="25"/>
       <c r="B293" s="4"/>
       <c r="C293" s="12"/>
@@ -9067,7 +10231,7 @@
       <c r="N293" s="14"/>
       <c r="O293" s="2"/>
     </row>
-    <row r="294" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="294" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A294" s="25"/>
       <c r="B294" s="4"/>
       <c r="C294" s="12"/>
@@ -9084,7 +10248,7 @@
       <c r="N294" s="14"/>
       <c r="O294" s="2"/>
     </row>
-    <row r="295" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="295" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A295" s="25"/>
       <c r="B295" s="4"/>
       <c r="C295" s="12"/>
@@ -9101,7 +10265,7 @@
       <c r="N295" s="14"/>
       <c r="O295" s="2"/>
     </row>
-    <row r="296" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="296" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A296" s="25"/>
       <c r="B296" s="4"/>
       <c r="C296" s="12"/>
@@ -9118,7 +10282,7 @@
       <c r="N296" s="14"/>
       <c r="O296" s="2"/>
     </row>
-    <row r="297" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="297" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A297" s="25"/>
       <c r="B297" s="4"/>
       <c r="C297" s="12"/>
@@ -9135,7 +10299,7 @@
       <c r="N297" s="14"/>
       <c r="O297" s="2"/>
     </row>
-    <row r="298" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="298" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A298" s="25"/>
       <c r="B298" s="4"/>
       <c r="C298" s="12"/>
@@ -9152,7 +10316,7 @@
       <c r="N298" s="14"/>
       <c r="O298" s="2"/>
     </row>
-    <row r="299" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="299" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A299" s="25"/>
       <c r="B299" s="4"/>
       <c r="C299" s="12"/>
@@ -9169,7 +10333,7 @@
       <c r="N299" s="14"/>
       <c r="O299" s="2"/>
     </row>
-    <row r="300" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="300" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A300" s="25"/>
       <c r="B300" s="4"/>
       <c r="C300" s="12"/>
@@ -9186,7 +10350,7 @@
       <c r="N300" s="14"/>
       <c r="O300" s="2"/>
     </row>
-    <row r="301" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="301" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A301" s="25"/>
       <c r="B301" s="4"/>
       <c r="C301" s="12"/>
@@ -9203,7 +10367,7 @@
       <c r="N301" s="14"/>
       <c r="O301" s="2"/>
     </row>
-    <row r="302" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="302" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A302" s="25"/>
       <c r="B302" s="4"/>
       <c r="C302" s="12"/>
@@ -9220,7 +10384,7 @@
       <c r="N302" s="14"/>
       <c r="O302" s="2"/>
     </row>
-    <row r="303" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="303" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A303" s="25"/>
       <c r="B303" s="4"/>
       <c r="C303" s="12"/>
@@ -9237,7 +10401,7 @@
       <c r="N303" s="14"/>
       <c r="O303" s="2"/>
     </row>
-    <row r="304" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="304" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A304" s="25"/>
       <c r="B304" s="4"/>
       <c r="C304" s="12"/>
@@ -9254,7 +10418,7 @@
       <c r="N304" s="14"/>
       <c r="O304" s="2"/>
     </row>
-    <row r="305" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="305" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A305" s="25"/>
       <c r="B305" s="4"/>
       <c r="C305" s="12"/>
@@ -9271,7 +10435,7 @@
       <c r="N305" s="14"/>
       <c r="O305" s="2"/>
     </row>
-    <row r="306" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="306" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A306" s="25"/>
       <c r="B306" s="4"/>
       <c r="C306" s="12"/>
@@ -9288,7 +10452,7 @@
       <c r="N306" s="14"/>
       <c r="O306" s="2"/>
     </row>
-    <row r="307" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="307" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A307" s="25"/>
       <c r="B307" s="4"/>
       <c r="C307" s="12"/>
@@ -9305,7 +10469,7 @@
       <c r="N307" s="14"/>
       <c r="O307" s="2"/>
     </row>
-    <row r="308" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="308" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A308" s="25"/>
       <c r="B308" s="4"/>
       <c r="C308" s="12"/>
@@ -9322,7 +10486,7 @@
       <c r="N308" s="14"/>
       <c r="O308" s="2"/>
     </row>
-    <row r="309" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="309" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A309" s="25"/>
       <c r="B309" s="4"/>
       <c r="C309" s="12"/>
@@ -9339,7 +10503,7 @@
       <c r="N309" s="14"/>
       <c r="O309" s="2"/>
     </row>
-    <row r="310" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="310" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A310" s="25"/>
       <c r="B310" s="4"/>
       <c r="C310" s="12"/>
@@ -9356,7 +10520,7 @@
       <c r="N310" s="14"/>
       <c r="O310" s="2"/>
     </row>
-    <row r="311" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="311" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A311" s="25"/>
       <c r="B311" s="4"/>
       <c r="C311" s="12"/>
@@ -9373,7 +10537,7 @@
       <c r="N311" s="14"/>
       <c r="O311" s="2"/>
     </row>
-    <row r="312" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="312" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A312" s="25"/>
       <c r="B312" s="4"/>
       <c r="C312" s="12"/>
@@ -9390,7 +10554,7 @@
       <c r="N312" s="14"/>
       <c r="O312" s="2"/>
     </row>
-    <row r="313" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="313" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A313" s="25"/>
       <c r="B313" s="4"/>
       <c r="C313" s="12"/>
@@ -9407,7 +10571,7 @@
       <c r="N313" s="14"/>
       <c r="O313" s="2"/>
     </row>
-    <row r="314" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="314" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A314" s="25"/>
       <c r="B314" s="4"/>
       <c r="C314" s="12"/>
@@ -9424,7 +10588,7 @@
       <c r="N314" s="14"/>
       <c r="O314" s="2"/>
     </row>
-    <row r="315" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="315" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A315" s="25"/>
       <c r="B315" s="4"/>
       <c r="C315" s="12"/>
@@ -9441,7 +10605,7 @@
       <c r="N315" s="14"/>
       <c r="O315" s="2"/>
     </row>
-    <row r="316" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="316" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A316" s="25"/>
       <c r="B316" s="4"/>
       <c r="C316" s="12"/>
@@ -9458,7 +10622,7 @@
       <c r="N316" s="14"/>
       <c r="O316" s="2"/>
     </row>
-    <row r="317" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="317" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A317" s="25"/>
       <c r="B317" s="4"/>
       <c r="C317" s="12"/>
@@ -9475,7 +10639,7 @@
       <c r="N317" s="14"/>
       <c r="O317" s="2"/>
     </row>
-    <row r="318" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="318" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A318" s="25"/>
       <c r="B318" s="4"/>
       <c r="C318" s="12"/>
@@ -9492,7 +10656,7 @@
       <c r="N318" s="14"/>
       <c r="O318" s="2"/>
     </row>
-    <row r="319" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="319" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A319" s="25"/>
       <c r="B319" s="4"/>
       <c r="C319" s="12"/>
@@ -9509,7 +10673,7 @@
       <c r="N319" s="14"/>
       <c r="O319" s="2"/>
     </row>
-    <row r="320" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="320" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A320" s="25"/>
       <c r="B320" s="4"/>
       <c r="C320" s="12"/>
@@ -9526,7 +10690,7 @@
       <c r="N320" s="14"/>
       <c r="O320" s="2"/>
     </row>
-    <row r="321" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="321" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A321" s="25"/>
       <c r="B321" s="4"/>
       <c r="C321" s="12"/>
@@ -9543,7 +10707,7 @@
       <c r="N321" s="14"/>
       <c r="O321" s="2"/>
     </row>
-    <row r="322" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="322" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A322" s="25"/>
       <c r="B322" s="4"/>
       <c r="C322" s="12"/>
@@ -9560,7 +10724,7 @@
       <c r="N322" s="14"/>
       <c r="O322" s="2"/>
     </row>
-    <row r="323" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="323" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A323" s="25"/>
       <c r="B323" s="4"/>
       <c r="C323" s="12"/>
@@ -9577,7 +10741,7 @@
       <c r="N323" s="14"/>
       <c r="O323" s="2"/>
     </row>
-    <row r="324" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="324" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A324" s="25"/>
       <c r="B324" s="4"/>
       <c r="C324" s="12"/>
@@ -9594,7 +10758,7 @@
       <c r="N324" s="14"/>
       <c r="O324" s="2"/>
     </row>
-    <row r="325" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="325" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A325" s="25"/>
       <c r="B325" s="4"/>
       <c r="C325" s="12"/>
@@ -9611,7 +10775,7 @@
       <c r="N325" s="14"/>
       <c r="O325" s="2"/>
     </row>
-    <row r="326" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="326" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A326" s="25"/>
       <c r="B326" s="4"/>
       <c r="C326" s="12"/>
@@ -9628,7 +10792,7 @@
       <c r="N326" s="14"/>
       <c r="O326" s="2"/>
     </row>
-    <row r="327" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="327" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A327" s="25"/>
       <c r="B327" s="4"/>
       <c r="C327" s="12"/>
@@ -9645,7 +10809,7 @@
       <c r="N327" s="14"/>
       <c r="O327" s="2"/>
     </row>
-    <row r="328" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="328" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A328" s="25"/>
       <c r="B328" s="4"/>
       <c r="C328" s="12"/>
@@ -9662,7 +10826,7 @@
       <c r="N328" s="14"/>
       <c r="O328" s="2"/>
     </row>
-    <row r="329" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="329" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A329" s="25"/>
       <c r="B329" s="4"/>
       <c r="C329" s="12"/>
@@ -9679,7 +10843,7 @@
       <c r="N329" s="14"/>
       <c r="O329" s="2"/>
     </row>
-    <row r="330" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="330" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A330" s="25"/>
       <c r="B330" s="4"/>
       <c r="C330" s="12"/>
@@ -9696,7 +10860,7 @@
       <c r="N330" s="14"/>
       <c r="O330" s="2"/>
     </row>
-    <row r="331" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="331" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A331" s="25"/>
       <c r="B331" s="4"/>
       <c r="C331" s="12"/>
@@ -9713,7 +10877,7 @@
       <c r="N331" s="14"/>
       <c r="O331" s="2"/>
     </row>
-    <row r="332" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="332" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A332" s="25"/>
       <c r="B332" s="4"/>
       <c r="C332" s="12"/>
@@ -9730,7 +10894,7 @@
       <c r="N332" s="14"/>
       <c r="O332" s="2"/>
     </row>
-    <row r="333" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="333" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A333" s="25"/>
       <c r="B333" s="4"/>
       <c r="C333" s="12"/>
@@ -9747,7 +10911,7 @@
       <c r="N333" s="14"/>
       <c r="O333" s="2"/>
     </row>
-    <row r="334" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="334" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A334" s="25"/>
       <c r="B334" s="4"/>
       <c r="C334" s="12"/>
@@ -9764,7 +10928,7 @@
       <c r="N334" s="14"/>
       <c r="O334" s="2"/>
     </row>
-    <row r="335" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="335" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A335" s="25"/>
       <c r="B335" s="4"/>
       <c r="C335" s="12"/>
@@ -9781,7 +10945,7 @@
       <c r="N335" s="14"/>
       <c r="O335" s="2"/>
     </row>
-    <row r="336" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="336" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A336" s="25"/>
       <c r="B336" s="4"/>
       <c r="C336" s="12"/>
@@ -9798,7 +10962,7 @@
       <c r="N336" s="14"/>
       <c r="O336" s="2"/>
     </row>
-    <row r="337" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="337" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A337" s="25"/>
       <c r="B337" s="4"/>
       <c r="C337" s="12"/>
@@ -9815,7 +10979,7 @@
       <c r="N337" s="14"/>
       <c r="O337" s="2"/>
     </row>
-    <row r="338" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="338" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A338" s="25"/>
       <c r="B338" s="4"/>
       <c r="C338" s="12"/>
@@ -9832,7 +10996,7 @@
       <c r="N338" s="14"/>
       <c r="O338" s="2"/>
     </row>
-    <row r="339" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="339" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A339" s="25"/>
       <c r="B339" s="4"/>
       <c r="C339" s="12"/>
@@ -9849,7 +11013,7 @@
       <c r="N339" s="14"/>
       <c r="O339" s="2"/>
     </row>
-    <row r="340" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="340" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A340" s="25"/>
       <c r="B340" s="4"/>
       <c r="C340" s="12"/>
@@ -9866,7 +11030,7 @@
       <c r="N340" s="14"/>
       <c r="O340" s="2"/>
     </row>
-    <row r="341" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="341" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A341" s="25"/>
       <c r="B341" s="4"/>
       <c r="C341" s="12"/>
@@ -9883,7 +11047,7 @@
       <c r="N341" s="14"/>
       <c r="O341" s="2"/>
     </row>
-    <row r="342" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="342" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A342" s="25"/>
       <c r="B342" s="4"/>
       <c r="C342" s="12"/>
@@ -9900,7 +11064,7 @@
       <c r="N342" s="14"/>
       <c r="O342" s="2"/>
     </row>
-    <row r="343" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="343" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A343" s="25"/>
       <c r="B343" s="4"/>
       <c r="C343" s="12"/>
@@ -9917,7 +11081,7 @@
       <c r="N343" s="14"/>
       <c r="O343" s="2"/>
     </row>
-    <row r="344" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="344" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A344" s="25"/>
       <c r="B344" s="4"/>
       <c r="C344" s="12"/>
@@ -9934,7 +11098,7 @@
       <c r="N344" s="14"/>
       <c r="O344" s="2"/>
     </row>
-    <row r="345" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="345" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A345" s="25"/>
       <c r="B345" s="4"/>
       <c r="C345" s="12"/>
@@ -9951,7 +11115,7 @@
       <c r="N345" s="14"/>
       <c r="O345" s="2"/>
     </row>
-    <row r="346" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="346" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A346" s="25"/>
       <c r="B346" s="4"/>
       <c r="C346" s="12"/>
@@ -9968,7 +11132,7 @@
       <c r="N346" s="14"/>
       <c r="O346" s="2"/>
     </row>
-    <row r="347" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="347" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A347" s="25"/>
       <c r="B347" s="4"/>
       <c r="C347" s="12"/>
@@ -9985,7 +11149,7 @@
       <c r="N347" s="14"/>
       <c r="O347" s="2"/>
     </row>
-    <row r="348" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="348" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A348" s="25"/>
       <c r="B348" s="4"/>
       <c r="C348" s="12"/>
@@ -10002,7 +11166,7 @@
       <c r="N348" s="14"/>
       <c r="O348" s="2"/>
     </row>
-    <row r="349" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="349" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A349" s="25"/>
       <c r="B349" s="4"/>
       <c r="C349" s="12"/>
@@ -10019,7 +11183,7 @@
       <c r="N349" s="14"/>
       <c r="O349" s="2"/>
     </row>
-    <row r="350" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="350" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A350" s="25"/>
       <c r="B350" s="4"/>
       <c r="C350" s="12"/>
@@ -10036,7 +11200,7 @@
       <c r="N350" s="14"/>
       <c r="O350" s="2"/>
     </row>
-    <row r="351" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="351" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A351" s="25"/>
       <c r="B351" s="4"/>
       <c r="C351" s="12"/>
@@ -10053,7 +11217,7 @@
       <c r="N351" s="14"/>
       <c r="O351" s="2"/>
     </row>
-    <row r="352" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="352" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A352" s="25"/>
       <c r="B352" s="4"/>
       <c r="C352" s="12"/>
@@ -10070,7 +11234,7 @@
       <c r="N352" s="14"/>
       <c r="O352" s="2"/>
     </row>
-    <row r="353" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="353" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A353" s="25"/>
       <c r="B353" s="4"/>
       <c r="C353" s="12"/>
@@ -10087,7 +11251,7 @@
       <c r="N353" s="14"/>
       <c r="O353" s="2"/>
     </row>
-    <row r="354" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="354" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A354" s="25"/>
       <c r="B354" s="4"/>
       <c r="C354" s="12"/>
@@ -10104,7 +11268,7 @@
       <c r="N354" s="14"/>
       <c r="O354" s="2"/>
     </row>
-    <row r="355" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="355" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A355" s="25"/>
       <c r="B355" s="4"/>
       <c r="C355" s="12"/>
@@ -10121,7 +11285,7 @@
       <c r="N355" s="14"/>
       <c r="O355" s="2"/>
     </row>
-    <row r="356" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="356" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A356" s="25"/>
       <c r="B356" s="4"/>
       <c r="C356" s="12"/>
@@ -10138,7 +11302,7 @@
       <c r="N356" s="14"/>
       <c r="O356" s="2"/>
     </row>
-    <row r="357" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="357" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A357" s="25"/>
       <c r="B357" s="4"/>
       <c r="C357" s="12"/>
@@ -10155,7 +11319,7 @@
       <c r="N357" s="14"/>
       <c r="O357" s="2"/>
     </row>
-    <row r="358" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="358" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A358" s="25"/>
       <c r="B358" s="4"/>
       <c r="C358" s="12"/>
@@ -10172,7 +11336,7 @@
       <c r="N358" s="14"/>
       <c r="O358" s="2"/>
     </row>
-    <row r="359" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="359" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A359" s="25"/>
       <c r="B359" s="4"/>
       <c r="C359" s="12"/>
@@ -10189,7 +11353,7 @@
       <c r="N359" s="14"/>
       <c r="O359" s="2"/>
     </row>
-    <row r="360" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="360" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A360" s="25"/>
       <c r="B360" s="4"/>
       <c r="C360" s="12"/>
@@ -10206,7 +11370,7 @@
       <c r="N360" s="14"/>
       <c r="O360" s="2"/>
     </row>
-    <row r="361" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="361" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A361" s="25"/>
       <c r="B361" s="4"/>
       <c r="C361" s="12"/>
@@ -10223,7 +11387,7 @@
       <c r="N361" s="14"/>
       <c r="O361" s="2"/>
     </row>
-    <row r="362" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="362" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A362" s="25"/>
       <c r="B362" s="4"/>
       <c r="C362" s="12"/>
@@ -10240,7 +11404,7 @@
       <c r="N362" s="14"/>
       <c r="O362" s="2"/>
     </row>
-    <row r="363" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="363" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A363" s="25"/>
       <c r="B363" s="4"/>
       <c r="C363" s="12"/>
@@ -10257,7 +11421,7 @@
       <c r="N363" s="14"/>
       <c r="O363" s="2"/>
     </row>
-    <row r="364" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="364" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A364" s="25"/>
       <c r="B364" s="4"/>
       <c r="C364" s="12"/>
@@ -10274,7 +11438,7 @@
       <c r="N364" s="14"/>
       <c r="O364" s="2"/>
     </row>
-    <row r="365" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="365" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A365" s="25"/>
       <c r="B365" s="4"/>
       <c r="C365" s="12"/>
@@ -10291,7 +11455,7 @@
       <c r="N365" s="14"/>
       <c r="O365" s="2"/>
     </row>
-    <row r="366" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="366" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A366" s="25"/>
       <c r="B366" s="4"/>
       <c r="C366" s="12"/>
@@ -10308,7 +11472,7 @@
       <c r="N366" s="14"/>
       <c r="O366" s="2"/>
     </row>
-    <row r="367" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="367" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A367" s="25"/>
       <c r="B367" s="4"/>
       <c r="C367" s="12"/>
@@ -10325,7 +11489,7 @@
       <c r="N367" s="14"/>
       <c r="O367" s="2"/>
     </row>
-    <row r="368" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="368" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A368" s="25"/>
       <c r="B368" s="4"/>
       <c r="C368" s="12"/>
@@ -10342,7 +11506,7 @@
       <c r="N368" s="14"/>
       <c r="O368" s="2"/>
     </row>
-    <row r="369" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="369" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A369" s="25"/>
       <c r="B369" s="4"/>
       <c r="C369" s="12"/>
@@ -10359,7 +11523,7 @@
       <c r="N369" s="14"/>
       <c r="O369" s="2"/>
     </row>
-    <row r="370" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="370" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A370" s="25"/>
       <c r="B370" s="4"/>
       <c r="C370" s="12"/>
@@ -10376,7 +11540,7 @@
       <c r="N370" s="14"/>
       <c r="O370" s="2"/>
     </row>
-    <row r="371" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="371" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A371" s="25"/>
       <c r="B371" s="4"/>
       <c r="C371" s="12"/>
@@ -10393,7 +11557,7 @@
       <c r="N371" s="14"/>
       <c r="O371" s="2"/>
     </row>
-    <row r="372" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="372" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A372" s="25"/>
       <c r="B372" s="4"/>
       <c r="C372" s="12"/>
@@ -10410,7 +11574,7 @@
       <c r="N372" s="14"/>
       <c r="O372" s="2"/>
     </row>
-    <row r="373" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="373" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A373" s="25"/>
       <c r="B373" s="4"/>
       <c r="C373" s="12"/>
@@ -10427,7 +11591,7 @@
       <c r="N373" s="14"/>
       <c r="O373" s="2"/>
     </row>
-    <row r="374" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="374" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A374" s="25"/>
       <c r="B374" s="4"/>
       <c r="C374" s="12"/>
@@ -10444,7 +11608,7 @@
       <c r="N374" s="14"/>
       <c r="O374" s="2"/>
     </row>
-    <row r="375" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="375" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A375" s="25"/>
       <c r="B375" s="4"/>
       <c r="C375" s="12"/>
@@ -10461,7 +11625,7 @@
       <c r="N375" s="14"/>
       <c r="O375" s="2"/>
     </row>
-    <row r="376" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="376" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A376" s="25"/>
       <c r="B376" s="4"/>
       <c r="C376" s="12"/>
@@ -10478,7 +11642,7 @@
       <c r="N376" s="14"/>
       <c r="O376" s="2"/>
     </row>
-    <row r="377" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="377" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A377" s="25"/>
       <c r="B377" s="4"/>
       <c r="C377" s="12"/>
@@ -10495,7 +11659,7 @@
       <c r="N377" s="14"/>
       <c r="O377" s="2"/>
     </row>
-    <row r="378" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="378" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A378" s="25"/>
       <c r="B378" s="4"/>
       <c r="C378" s="12"/>
@@ -10512,7 +11676,7 @@
       <c r="N378" s="14"/>
       <c r="O378" s="2"/>
     </row>
-    <row r="379" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="379" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A379" s="25"/>
       <c r="B379" s="4"/>
       <c r="C379" s="12"/>
@@ -10529,7 +11693,7 @@
       <c r="N379" s="14"/>
       <c r="O379" s="2"/>
     </row>
-    <row r="380" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="380" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A380" s="25"/>
       <c r="B380" s="4"/>
       <c r="C380" s="12"/>
@@ -10546,7 +11710,7 @@
       <c r="N380" s="14"/>
       <c r="O380" s="2"/>
     </row>
-    <row r="381" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="381" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A381" s="25"/>
       <c r="B381" s="4"/>
       <c r="C381" s="12"/>
@@ -10563,7 +11727,7 @@
       <c r="N381" s="14"/>
       <c r="O381" s="2"/>
     </row>
-    <row r="382" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="382" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A382" s="25"/>
       <c r="B382" s="4"/>
       <c r="C382" s="12"/>
@@ -10580,7 +11744,7 @@
       <c r="N382" s="14"/>
       <c r="O382" s="2"/>
     </row>
-    <row r="383" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="383" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A383" s="25"/>
       <c r="B383" s="4"/>
       <c r="C383" s="12"/>
@@ -10597,7 +11761,7 @@
       <c r="N383" s="14"/>
       <c r="O383" s="2"/>
     </row>
-    <row r="384" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="384" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A384" s="25"/>
       <c r="B384" s="4"/>
       <c r="C384" s="12"/>
@@ -10614,7 +11778,7 @@
       <c r="N384" s="14"/>
       <c r="O384" s="2"/>
     </row>
-    <row r="385" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="385" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A385" s="25"/>
       <c r="B385" s="4"/>
       <c r="C385" s="12"/>
@@ -10631,7 +11795,7 @@
       <c r="N385" s="14"/>
       <c r="O385" s="2"/>
     </row>
-    <row r="386" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="386" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A386" s="25"/>
       <c r="B386" s="4"/>
       <c r="C386" s="12"/>
@@ -10648,7 +11812,7 @@
       <c r="N386" s="14"/>
       <c r="O386" s="2"/>
     </row>
-    <row r="387" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="387" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A387" s="25"/>
       <c r="B387" s="4"/>
       <c r="C387" s="12"/>
@@ -10665,7 +11829,7 @@
       <c r="N387" s="14"/>
       <c r="O387" s="2"/>
     </row>
-    <row r="388" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="388" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A388" s="25"/>
       <c r="B388" s="4"/>
       <c r="C388" s="12"/>
@@ -10682,7 +11846,7 @@
       <c r="N388" s="14"/>
       <c r="O388" s="2"/>
     </row>
-    <row r="389" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="389" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A389" s="25"/>
       <c r="B389" s="4"/>
       <c r="C389" s="12"/>
@@ -10699,7 +11863,7 @@
       <c r="N389" s="14"/>
       <c r="O389" s="2"/>
     </row>
-    <row r="390" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="390" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A390" s="25"/>
       <c r="B390" s="4"/>
       <c r="C390" s="12"/>
@@ -10716,7 +11880,7 @@
       <c r="N390" s="14"/>
       <c r="O390" s="2"/>
     </row>
-    <row r="391" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="391" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A391" s="25"/>
       <c r="B391" s="4"/>
       <c r="C391" s="12"/>
@@ -10733,7 +11897,7 @@
       <c r="N391" s="14"/>
       <c r="O391" s="2"/>
     </row>
-    <row r="392" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="392" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A392" s="25"/>
       <c r="B392" s="4"/>
       <c r="C392" s="12"/>
@@ -10750,7 +11914,7 @@
       <c r="N392" s="14"/>
       <c r="O392" s="2"/>
     </row>
-    <row r="393" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="393" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A393" s="25"/>
       <c r="B393" s="4"/>
       <c r="C393" s="12"/>
@@ -10767,7 +11931,7 @@
       <c r="N393" s="14"/>
       <c r="O393" s="2"/>
     </row>
-    <row r="394" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="394" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A394" s="25"/>
       <c r="B394" s="4"/>
       <c r="C394" s="12"/>
@@ -10784,7 +11948,7 @@
       <c r="N394" s="14"/>
       <c r="O394" s="2"/>
     </row>
-    <row r="395" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="395" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A395" s="25"/>
       <c r="B395" s="4"/>
       <c r="C395" s="12"/>
@@ -10801,7 +11965,7 @@
       <c r="N395" s="14"/>
       <c r="O395" s="2"/>
     </row>
-    <row r="396" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="396" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A396" s="25"/>
       <c r="B396" s="4"/>
       <c r="C396" s="12"/>
@@ -10818,7 +11982,7 @@
       <c r="N396" s="14"/>
       <c r="O396" s="2"/>
     </row>
-    <row r="397" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="397" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A397" s="25"/>
       <c r="B397" s="4"/>
       <c r="C397" s="12"/>
@@ -10835,7 +11999,7 @@
       <c r="N397" s="14"/>
       <c r="O397" s="2"/>
     </row>
-    <row r="398" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="398" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A398" s="25"/>
       <c r="B398" s="4"/>
       <c r="C398" s="12"/>
@@ -10852,7 +12016,7 @@
       <c r="N398" s="14"/>
       <c r="O398" s="2"/>
     </row>
-    <row r="399" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="399" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A399" s="25"/>
       <c r="B399" s="4"/>
       <c r="C399" s="12"/>
@@ -10869,7 +12033,7 @@
       <c r="N399" s="14"/>
       <c r="O399" s="2"/>
     </row>
-    <row r="400" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="400" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A400" s="25"/>
       <c r="B400" s="4"/>
       <c r="C400" s="12"/>
@@ -10886,7 +12050,7 @@
       <c r="N400" s="14"/>
       <c r="O400" s="2"/>
     </row>
-    <row r="401" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="401" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A401" s="25"/>
       <c r="B401" s="4"/>
       <c r="C401" s="12"/>
@@ -10903,7 +12067,7 @@
       <c r="N401" s="14"/>
       <c r="O401" s="2"/>
     </row>
-    <row r="402" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="402" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A402" s="25"/>
       <c r="B402" s="4"/>
       <c r="C402" s="12"/>
@@ -10920,7 +12084,7 @@
       <c r="N402" s="14"/>
       <c r="O402" s="2"/>
     </row>
-    <row r="403" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="403" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A403" s="25"/>
       <c r="B403" s="4"/>
       <c r="C403" s="12"/>
@@ -10937,7 +12101,7 @@
       <c r="N403" s="14"/>
       <c r="O403" s="2"/>
     </row>
-    <row r="404" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="404" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A404" s="25"/>
       <c r="B404" s="4"/>
       <c r="C404" s="12"/>
@@ -10954,7 +12118,7 @@
       <c r="N404" s="14"/>
       <c r="O404" s="2"/>
     </row>
-    <row r="405" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="405" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A405" s="25"/>
       <c r="B405" s="4"/>
       <c r="C405" s="12"/>
@@ -10971,7 +12135,7 @@
       <c r="N405" s="14"/>
       <c r="O405" s="2"/>
     </row>
-    <row r="406" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="406" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A406" s="25"/>
       <c r="B406" s="4"/>
       <c r="C406" s="12"/>
@@ -10988,7 +12152,7 @@
       <c r="N406" s="14"/>
       <c r="O406" s="2"/>
     </row>
-    <row r="407" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="407" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A407" s="25"/>
       <c r="B407" s="4"/>
       <c r="C407" s="12"/>
@@ -11005,7 +12169,7 @@
       <c r="N407" s="14"/>
       <c r="O407" s="2"/>
     </row>
-    <row r="408" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="408" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A408" s="25"/>
       <c r="B408" s="4"/>
       <c r="C408" s="12"/>
@@ -11022,7 +12186,7 @@
       <c r="N408" s="14"/>
       <c r="O408" s="2"/>
     </row>
-    <row r="409" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="409" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A409" s="25"/>
       <c r="B409" s="4"/>
       <c r="C409" s="12"/>
@@ -11039,7 +12203,7 @@
       <c r="N409" s="14"/>
       <c r="O409" s="2"/>
     </row>
-    <row r="410" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="410" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A410" s="25"/>
       <c r="B410" s="4"/>
       <c r="C410" s="12"/>
@@ -11056,7 +12220,7 @@
       <c r="N410" s="14"/>
       <c r="O410" s="2"/>
     </row>
-    <row r="411" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="411" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A411" s="25"/>
       <c r="B411" s="4"/>
       <c r="C411" s="12"/>
@@ -11073,7 +12237,7 @@
       <c r="N411" s="14"/>
       <c r="O411" s="2"/>
     </row>
-    <row r="412" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="412" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A412" s="25"/>
       <c r="B412" s="4"/>
       <c r="C412" s="12"/>
@@ -11090,7 +12254,7 @@
       <c r="N412" s="14"/>
       <c r="O412" s="2"/>
     </row>
-    <row r="413" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="413" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A413" s="25"/>
       <c r="B413" s="4"/>
       <c r="C413" s="12"/>
@@ -11107,7 +12271,7 @@
       <c r="N413" s="14"/>
       <c r="O413" s="2"/>
     </row>
-    <row r="414" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="414" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A414" s="25"/>
       <c r="B414" s="4"/>
       <c r="C414" s="12"/>
@@ -11124,7 +12288,7 @@
       <c r="N414" s="14"/>
       <c r="O414" s="2"/>
     </row>
-    <row r="415" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="415" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A415" s="25"/>
       <c r="B415" s="4"/>
       <c r="C415" s="12"/>
@@ -11141,7 +12305,7 @@
       <c r="N415" s="14"/>
       <c r="O415" s="2"/>
     </row>
-    <row r="416" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="416" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A416" s="25"/>
       <c r="B416" s="4"/>
       <c r="C416" s="12"/>
@@ -11158,7 +12322,7 @@
       <c r="N416" s="14"/>
       <c r="O416" s="2"/>
     </row>
-    <row r="417" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="417" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A417" s="25"/>
       <c r="B417" s="4"/>
       <c r="C417" s="12"/>
@@ -11175,7 +12339,7 @@
       <c r="N417" s="14"/>
       <c r="O417" s="2"/>
     </row>
-    <row r="418" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="418" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A418" s="25"/>
       <c r="B418" s="4"/>
       <c r="C418" s="12"/>
@@ -11192,7 +12356,7 @@
       <c r="N418" s="14"/>
       <c r="O418" s="2"/>
     </row>
-    <row r="419" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="419" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A419" s="25"/>
       <c r="B419" s="4"/>
       <c r="C419" s="12"/>
@@ -11209,7 +12373,7 @@
       <c r="N419" s="14"/>
       <c r="O419" s="2"/>
     </row>
-    <row r="420" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="420" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A420" s="25"/>
       <c r="B420" s="4"/>
       <c r="C420" s="12"/>
@@ -11226,7 +12390,7 @@
       <c r="N420" s="14"/>
       <c r="O420" s="2"/>
     </row>
-    <row r="421" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="421" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A421" s="25"/>
       <c r="B421" s="4"/>
       <c r="C421" s="12"/>
@@ -11243,7 +12407,7 @@
       <c r="N421" s="14"/>
       <c r="O421" s="2"/>
     </row>
-    <row r="422" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="422" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A422" s="25"/>
       <c r="B422" s="4"/>
       <c r="C422" s="12"/>
@@ -11260,7 +12424,7 @@
       <c r="N422" s="14"/>
       <c r="O422" s="2"/>
     </row>
-    <row r="423" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="423" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A423" s="25"/>
       <c r="B423" s="4"/>
       <c r="C423" s="12"/>
@@ -11277,7 +12441,7 @@
       <c r="N423" s="14"/>
       <c r="O423" s="2"/>
     </row>
-    <row r="424" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="424" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A424" s="25"/>
       <c r="B424" s="4"/>
       <c r="C424" s="12"/>
@@ -11294,7 +12458,7 @@
       <c r="N424" s="14"/>
       <c r="O424" s="2"/>
     </row>
-    <row r="425" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="425" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A425" s="25"/>
       <c r="B425" s="4"/>
       <c r="C425" s="12"/>
@@ -11311,7 +12475,7 @@
       <c r="N425" s="14"/>
       <c r="O425" s="2"/>
     </row>
-    <row r="426" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="426" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A426" s="25"/>
       <c r="B426" s="4"/>
       <c r="C426" s="12"/>
@@ -11328,7 +12492,7 @@
       <c r="N426" s="14"/>
       <c r="O426" s="2"/>
     </row>
-    <row r="427" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="427" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A427" s="25"/>
       <c r="B427" s="4"/>
       <c r="C427" s="12"/>
@@ -11345,7 +12509,7 @@
       <c r="N427" s="14"/>
       <c r="O427" s="2"/>
     </row>
-    <row r="428" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="428" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A428" s="25"/>
       <c r="B428" s="4"/>
       <c r="C428" s="12"/>
@@ -11362,7 +12526,7 @@
       <c r="N428" s="14"/>
       <c r="O428" s="2"/>
     </row>
-    <row r="429" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="429" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A429" s="25"/>
       <c r="B429" s="4"/>
       <c r="C429" s="12"/>
@@ -11379,7 +12543,7 @@
       <c r="N429" s="14"/>
       <c r="O429" s="2"/>
     </row>
-    <row r="430" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="430" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A430" s="25"/>
       <c r="B430" s="4"/>
       <c r="C430" s="12"/>
@@ -11396,7 +12560,7 @@
       <c r="N430" s="14"/>
       <c r="O430" s="2"/>
     </row>
-    <row r="431" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="431" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A431" s="25"/>
       <c r="B431" s="4"/>
       <c r="C431" s="12"/>
@@ -11413,7 +12577,7 @@
       <c r="N431" s="14"/>
       <c r="O431" s="2"/>
     </row>
-    <row r="432" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="432" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A432" s="25"/>
       <c r="B432" s="4"/>
       <c r="C432" s="12"/>
@@ -11430,7 +12594,7 @@
       <c r="N432" s="14"/>
       <c r="O432" s="2"/>
     </row>
-    <row r="433" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="433" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A433" s="25"/>
       <c r="B433" s="4"/>
       <c r="C433" s="12"/>
@@ -11447,7 +12611,7 @@
       <c r="N433" s="14"/>
       <c r="O433" s="2"/>
     </row>
-    <row r="434" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="434" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A434" s="25"/>
       <c r="B434" s="4"/>
       <c r="C434" s="12"/>
@@ -11464,7 +12628,7 @@
       <c r="N434" s="14"/>
       <c r="O434" s="2"/>
     </row>
-    <row r="435" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="435" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A435" s="25"/>
       <c r="B435" s="4"/>
       <c r="C435" s="12"/>
@@ -11481,7 +12645,7 @@
       <c r="N435" s="14"/>
       <c r="O435" s="2"/>
     </row>
-    <row r="436" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="436" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A436" s="25"/>
       <c r="B436" s="4"/>
       <c r="C436" s="12"/>
@@ -11498,7 +12662,7 @@
       <c r="N436" s="14"/>
       <c r="O436" s="2"/>
     </row>
-    <row r="437" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="437" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A437" s="25"/>
       <c r="B437" s="4"/>
       <c r="C437" s="12"/>
@@ -11515,7 +12679,7 @@
       <c r="N437" s="14"/>
       <c r="O437" s="2"/>
     </row>
-    <row r="438" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="438" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A438" s="25"/>
       <c r="B438" s="4"/>
       <c r="C438" s="12"/>
@@ -11532,7 +12696,7 @@
       <c r="N438" s="14"/>
       <c r="O438" s="2"/>
     </row>
-    <row r="439" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="439" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A439" s="25"/>
       <c r="B439" s="4"/>
       <c r="C439" s="12"/>
@@ -11549,7 +12713,7 @@
       <c r="N439" s="14"/>
       <c r="O439" s="2"/>
     </row>
-    <row r="440" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="440" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A440" s="25"/>
       <c r="B440" s="4"/>
       <c r="C440" s="12"/>
@@ -11566,7 +12730,7 @@
       <c r="N440" s="14"/>
       <c r="O440" s="2"/>
     </row>
-    <row r="441" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="441" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A441" s="25"/>
       <c r="B441" s="4"/>
       <c r="C441" s="12"/>
@@ -11583,7 +12747,7 @@
       <c r="N441" s="14"/>
       <c r="O441" s="2"/>
     </row>
-    <row r="442" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="442" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A442" s="25"/>
       <c r="B442" s="4"/>
       <c r="C442" s="12"/>
@@ -11600,7 +12764,7 @@
       <c r="N442" s="14"/>
       <c r="O442" s="2"/>
     </row>
-    <row r="443" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="443" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A443" s="25"/>
       <c r="B443" s="4"/>
       <c r="C443" s="12"/>
@@ -11617,7 +12781,7 @@
       <c r="N443" s="14"/>
       <c r="O443" s="2"/>
     </row>
-    <row r="444" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="444" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A444" s="25"/>
       <c r="B444" s="4"/>
       <c r="C444" s="12"/>
@@ -11634,7 +12798,7 @@
       <c r="N444" s="14"/>
       <c r="O444" s="2"/>
     </row>
-    <row r="445" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="445" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A445" s="25"/>
       <c r="B445" s="4"/>
       <c r="C445" s="12"/>
@@ -11651,7 +12815,7 @@
       <c r="N445" s="14"/>
       <c r="O445" s="2"/>
     </row>
-    <row r="446" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="446" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A446" s="25"/>
       <c r="B446" s="4"/>
       <c r="C446" s="12"/>
@@ -11668,7 +12832,7 @@
       <c r="N446" s="14"/>
       <c r="O446" s="2"/>
     </row>
-    <row r="447" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="447" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A447" s="25"/>
       <c r="B447" s="4"/>
       <c r="C447" s="12"/>
@@ -11685,7 +12849,7 @@
       <c r="N447" s="14"/>
       <c r="O447" s="2"/>
     </row>
-    <row r="448" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="448" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A448" s="25"/>
       <c r="B448" s="4"/>
       <c r="C448" s="12"/>
@@ -11702,7 +12866,7 @@
       <c r="N448" s="14"/>
       <c r="O448" s="2"/>
     </row>
-    <row r="449" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="449" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A449" s="25"/>
       <c r="B449" s="4"/>
       <c r="C449" s="12"/>
@@ -11719,7 +12883,7 @@
       <c r="N449" s="14"/>
       <c r="O449" s="2"/>
     </row>
-    <row r="450" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="450" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A450" s="25"/>
       <c r="B450" s="4"/>
       <c r="C450" s="12"/>
@@ -11736,7 +12900,7 @@
       <c r="N450" s="14"/>
       <c r="O450" s="2"/>
     </row>
-    <row r="451" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="451" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A451" s="25"/>
       <c r="B451" s="4"/>
       <c r="C451" s="12"/>
@@ -11753,7 +12917,7 @@
       <c r="N451" s="14"/>
       <c r="O451" s="2"/>
     </row>
-    <row r="452" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="452" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A452" s="25"/>
       <c r="B452" s="4"/>
       <c r="C452" s="12"/>
@@ -11770,7 +12934,7 @@
       <c r="N452" s="14"/>
       <c r="O452" s="2"/>
     </row>
-    <row r="453" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="453" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A453" s="25"/>
       <c r="B453" s="4"/>
       <c r="C453" s="12"/>
@@ -11787,7 +12951,7 @@
       <c r="N453" s="14"/>
       <c r="O453" s="2"/>
     </row>
-    <row r="454" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="454" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A454" s="25"/>
       <c r="B454" s="4"/>
       <c r="C454" s="12"/>
@@ -11804,7 +12968,7 @@
       <c r="N454" s="14"/>
       <c r="O454" s="2"/>
     </row>
-    <row r="455" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="455" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A455" s="25"/>
       <c r="B455" s="4"/>
       <c r="C455" s="12"/>
@@ -11821,7 +12985,7 @@
       <c r="N455" s="14"/>
       <c r="O455" s="2"/>
     </row>
-    <row r="456" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="456" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A456" s="25"/>
       <c r="B456" s="4"/>
       <c r="C456" s="12"/>
@@ -11838,7 +13002,7 @@
       <c r="N456" s="14"/>
       <c r="O456" s="2"/>
     </row>
-    <row r="457" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="457" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A457" s="25"/>
       <c r="B457" s="4"/>
       <c r="C457" s="12"/>
@@ -11855,7 +13019,7 @@
       <c r="N457" s="14"/>
       <c r="O457" s="2"/>
     </row>
-    <row r="458" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="458" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A458" s="25"/>
       <c r="B458" s="4"/>
       <c r="C458" s="12"/>
@@ -11872,7 +13036,7 @@
       <c r="N458" s="14"/>
       <c r="O458" s="2"/>
     </row>
-    <row r="459" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="459" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A459" s="25"/>
       <c r="B459" s="4"/>
       <c r="C459" s="12"/>
@@ -11889,7 +13053,7 @@
       <c r="N459" s="14"/>
       <c r="O459" s="2"/>
     </row>
-    <row r="460" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="460" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A460" s="25"/>
       <c r="B460" s="4"/>
       <c r="C460" s="12"/>
@@ -11906,7 +13070,7 @@
       <c r="N460" s="14"/>
       <c r="O460" s="2"/>
     </row>
-    <row r="461" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="461" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A461" s="25"/>
       <c r="B461" s="4"/>
       <c r="C461" s="12"/>
@@ -11923,7 +13087,7 @@
       <c r="N461" s="14"/>
       <c r="O461" s="2"/>
     </row>
-    <row r="462" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="462" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A462" s="25"/>
       <c r="B462" s="4"/>
       <c r="C462" s="12"/>
@@ -11940,7 +13104,7 @@
       <c r="N462" s="14"/>
       <c r="O462" s="2"/>
     </row>
-    <row r="463" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="463" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A463" s="25"/>
       <c r="B463" s="4"/>
       <c r="C463" s="12"/>
@@ -11957,7 +13121,7 @@
       <c r="N463" s="14"/>
       <c r="O463" s="2"/>
     </row>
-    <row r="464" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="464" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A464" s="25"/>
       <c r="B464" s="4"/>
       <c r="C464" s="12"/>
@@ -11974,7 +13138,7 @@
       <c r="N464" s="14"/>
       <c r="O464" s="2"/>
     </row>
-    <row r="465" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="465" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A465" s="25"/>
       <c r="B465" s="4"/>
       <c r="C465" s="12"/>
@@ -11991,7 +13155,7 @@
       <c r="N465" s="14"/>
       <c r="O465" s="2"/>
     </row>
-    <row r="466" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="466" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A466" s="25"/>
       <c r="B466" s="4"/>
       <c r="C466" s="12"/>
@@ -12008,7 +13172,7 @@
       <c r="N466" s="14"/>
       <c r="O466" s="2"/>
     </row>
-    <row r="467" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="467" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A467" s="25"/>
       <c r="B467" s="4"/>
       <c r="C467" s="12"/>
@@ -12025,7 +13189,7 @@
       <c r="N467" s="14"/>
       <c r="O467" s="2"/>
     </row>
-    <row r="468" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="468" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A468" s="25"/>
       <c r="B468" s="4"/>
       <c r="C468" s="12"/>
@@ -12042,7 +13206,7 @@
       <c r="N468" s="14"/>
       <c r="O468" s="2"/>
     </row>
-    <row r="469" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="469" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A469" s="25"/>
       <c r="B469" s="4"/>
       <c r="C469" s="12"/>
@@ -12059,7 +13223,7 @@
       <c r="N469" s="14"/>
       <c r="O469" s="2"/>
     </row>
-    <row r="470" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="470" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A470" s="25"/>
       <c r="B470" s="4"/>
       <c r="C470" s="12"/>
@@ -12076,7 +13240,7 @@
       <c r="N470" s="14"/>
       <c r="O470" s="2"/>
     </row>
-    <row r="471" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="471" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A471" s="25"/>
       <c r="B471" s="4"/>
       <c r="C471" s="12"/>
@@ -12093,7 +13257,7 @@
       <c r="N471" s="14"/>
       <c r="O471" s="2"/>
     </row>
-    <row r="472" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="472" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A472" s="25"/>
       <c r="B472" s="4"/>
       <c r="C472" s="12"/>
@@ -12110,7 +13274,7 @@
       <c r="N472" s="14"/>
       <c r="O472" s="2"/>
     </row>
-    <row r="473" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="473" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A473" s="25"/>
       <c r="B473" s="4"/>
       <c r="C473" s="12"/>
@@ -12127,7 +13291,7 @@
       <c r="N473" s="14"/>
       <c r="O473" s="2"/>
     </row>
-    <row r="474" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="474" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A474" s="25"/>
       <c r="B474" s="4"/>
       <c r="C474" s="12"/>
@@ -12144,7 +13308,7 @@
       <c r="N474" s="14"/>
       <c r="O474" s="2"/>
     </row>
-    <row r="475" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="475" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A475" s="25"/>
       <c r="B475" s="4"/>
       <c r="C475" s="12"/>
@@ -12161,7 +13325,7 @@
       <c r="N475" s="14"/>
       <c r="O475" s="2"/>
     </row>
-    <row r="476" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="476" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A476" s="25"/>
       <c r="B476" s="4"/>
       <c r="C476" s="12"/>
@@ -12178,7 +13342,7 @@
       <c r="N476" s="14"/>
       <c r="O476" s="2"/>
     </row>
-    <row r="477" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="477" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A477" s="25"/>
       <c r="B477" s="4"/>
       <c r="C477" s="12"/>
@@ -12195,7 +13359,7 @@
       <c r="N477" s="14"/>
       <c r="O477" s="2"/>
     </row>
-    <row r="478" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="478" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A478" s="25"/>
       <c r="B478" s="4"/>
       <c r="C478" s="12"/>
@@ -12212,7 +13376,7 @@
       <c r="N478" s="14"/>
       <c r="O478" s="2"/>
     </row>
-    <row r="479" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="479" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A479" s="25"/>
       <c r="B479" s="4"/>
       <c r="C479" s="12"/>
@@ -12229,7 +13393,7 @@
       <c r="N479" s="14"/>
       <c r="O479" s="2"/>
     </row>
-    <row r="480" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="480" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A480" s="25"/>
       <c r="B480" s="4"/>
       <c r="C480" s="12"/>
@@ -12246,7 +13410,7 @@
       <c r="N480" s="14"/>
       <c r="O480" s="2"/>
     </row>
-    <row r="481" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="481" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A481" s="25"/>
       <c r="B481" s="4"/>
       <c r="C481" s="12"/>
@@ -12263,7 +13427,7 @@
       <c r="N481" s="14"/>
       <c r="O481" s="2"/>
     </row>
-    <row r="482" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="482" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A482" s="25"/>
       <c r="B482" s="4"/>
       <c r="C482" s="12"/>
@@ -12280,7 +13444,7 @@
       <c r="N482" s="14"/>
       <c r="O482" s="2"/>
     </row>
-    <row r="483" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="483" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A483" s="25"/>
       <c r="B483" s="4"/>
       <c r="C483" s="12"/>
@@ -12297,7 +13461,7 @@
       <c r="N483" s="14"/>
       <c r="O483" s="2"/>
     </row>
-    <row r="484" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="484" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A484" s="25"/>
       <c r="B484" s="4"/>
       <c r="C484" s="12"/>
@@ -12314,7 +13478,7 @@
       <c r="N484" s="14"/>
       <c r="O484" s="2"/>
     </row>
-    <row r="485" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="485" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A485" s="25"/>
       <c r="B485" s="4"/>
       <c r="C485" s="12"/>
@@ -12331,7 +13495,7 @@
       <c r="N485" s="14"/>
       <c r="O485" s="2"/>
     </row>
-    <row r="486" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="486" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A486" s="25"/>
       <c r="B486" s="4"/>
       <c r="C486" s="12"/>
@@ -12348,7 +13512,7 @@
       <c r="N486" s="14"/>
       <c r="O486" s="2"/>
     </row>
-    <row r="487" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="487" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A487" s="25"/>
       <c r="B487" s="4"/>
       <c r="C487" s="12"/>
@@ -12365,7 +13529,7 @@
       <c r="N487" s="14"/>
       <c r="O487" s="2"/>
     </row>
-    <row r="488" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="488" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A488" s="25"/>
       <c r="B488" s="4"/>
       <c r="C488" s="12"/>
@@ -12382,7 +13546,7 @@
       <c r="N488" s="14"/>
       <c r="O488" s="2"/>
     </row>
-    <row r="489" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="489" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A489" s="25"/>
       <c r="B489" s="4"/>
       <c r="C489" s="12"/>
@@ -12399,7 +13563,7 @@
       <c r="N489" s="14"/>
       <c r="O489" s="2"/>
     </row>
-    <row r="490" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="490" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A490" s="25"/>
       <c r="B490" s="4"/>
       <c r="C490" s="12"/>
@@ -12416,7 +13580,7 @@
       <c r="N490" s="14"/>
       <c r="O490" s="2"/>
     </row>
-    <row r="491" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="491" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A491" s="25"/>
       <c r="B491" s="4"/>
       <c r="C491" s="12"/>
@@ -12433,7 +13597,7 @@
       <c r="N491" s="14"/>
       <c r="O491" s="2"/>
     </row>
-    <row r="492" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="492" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A492" s="25"/>
       <c r="B492" s="4"/>
       <c r="C492" s="12"/>
@@ -12450,7 +13614,7 @@
       <c r="N492" s="14"/>
       <c r="O492" s="2"/>
     </row>
-    <row r="493" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="493" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A493" s="25"/>
       <c r="B493" s="4"/>
       <c r="C493" s="12"/>
@@ -12467,7 +13631,7 @@
       <c r="N493" s="14"/>
       <c r="O493" s="2"/>
     </row>
-    <row r="494" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="494" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A494" s="25"/>
       <c r="B494" s="4"/>
       <c r="C494" s="12"/>
@@ -12484,7 +13648,7 @@
       <c r="N494" s="14"/>
       <c r="O494" s="2"/>
     </row>
-    <row r="495" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="495" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A495" s="25"/>
       <c r="B495" s="4"/>
       <c r="C495" s="12"/>
@@ -12501,7 +13665,7 @@
       <c r="N495" s="14"/>
       <c r="O495" s="2"/>
     </row>
-    <row r="496" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="496" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A496" s="25"/>
       <c r="B496" s="4"/>
       <c r="C496" s="12"/>
@@ -12518,7 +13682,7 @@
       <c r="N496" s="14"/>
       <c r="O496" s="2"/>
     </row>
-    <row r="497" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="497" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A497" s="25"/>
       <c r="B497" s="4"/>
       <c r="C497" s="12"/>
@@ -12535,7 +13699,7 @@
       <c r="N497" s="14"/>
       <c r="O497" s="2"/>
     </row>
-    <row r="498" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="498" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A498" s="25"/>
       <c r="B498" s="4"/>
       <c r="C498" s="12"/>
@@ -12552,7 +13716,7 @@
       <c r="N498" s="14"/>
       <c r="O498" s="2"/>
     </row>
-    <row r="499" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="499" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A499" s="25"/>
       <c r="B499" s="4"/>
       <c r="C499" s="12"/>
@@ -12569,7 +13733,7 @@
       <c r="N499" s="14"/>
       <c r="O499" s="2"/>
     </row>
-    <row r="500" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="500" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A500" s="25"/>
       <c r="B500" s="4"/>
       <c r="C500" s="12"/>
@@ -12586,7 +13750,7 @@
       <c r="N500" s="14"/>
       <c r="O500" s="2"/>
     </row>
-    <row r="501" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="501" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A501" s="25"/>
       <c r="B501" s="4"/>
       <c r="C501" s="12"/>
@@ -12603,7 +13767,7 @@
       <c r="N501" s="14"/>
       <c r="O501" s="2"/>
     </row>
-    <row r="502" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="502" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A502" s="25"/>
       <c r="B502" s="4"/>
       <c r="C502" s="12"/>
@@ -12620,7 +13784,7 @@
       <c r="N502" s="14"/>
       <c r="O502" s="2"/>
     </row>
-    <row r="503" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="503" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A503" s="25"/>
       <c r="B503" s="4"/>
       <c r="C503" s="12"/>
@@ -12637,7 +13801,7 @@
       <c r="N503" s="14"/>
       <c r="O503" s="2"/>
     </row>
-    <row r="504" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="504" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A504" s="25"/>
       <c r="B504" s="4"/>
       <c r="C504" s="12"/>
@@ -12654,7 +13818,7 @@
       <c r="N504" s="14"/>
       <c r="O504" s="2"/>
     </row>
-    <row r="505" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="505" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A505" s="25"/>
       <c r="B505" s="4"/>
       <c r="C505" s="12"/>
@@ -12671,7 +13835,7 @@
       <c r="N505" s="14"/>
       <c r="O505" s="2"/>
     </row>
-    <row r="506" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="506" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A506" s="25"/>
       <c r="B506" s="4"/>
       <c r="C506" s="12"/>
@@ -12688,7 +13852,7 @@
       <c r="N506" s="14"/>
       <c r="O506" s="2"/>
     </row>
-    <row r="507" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="507" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A507" s="25"/>
       <c r="B507" s="4"/>
       <c r="C507" s="12"/>
@@ -12705,7 +13869,7 @@
       <c r="N507" s="14"/>
       <c r="O507" s="2"/>
     </row>
-    <row r="508" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="508" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A508" s="25"/>
       <c r="B508" s="4"/>
       <c r="C508" s="12"/>
@@ -12722,7 +13886,7 @@
       <c r="N508" s="14"/>
       <c r="O508" s="2"/>
     </row>
-    <row r="509" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="509" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A509" s="25"/>
       <c r="B509" s="4"/>
       <c r="C509" s="12"/>
@@ -12739,7 +13903,7 @@
       <c r="N509" s="14"/>
       <c r="O509" s="2"/>
     </row>
-    <row r="510" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="510" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A510" s="25"/>
       <c r="B510" s="4"/>
       <c r="C510" s="12"/>
@@ -12756,7 +13920,7 @@
       <c r="N510" s="14"/>
       <c r="O510" s="2"/>
     </row>
-    <row r="511" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="511" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A511" s="25"/>
       <c r="B511" s="4"/>
       <c r="C511" s="12"/>
@@ -12773,7 +13937,7 @@
       <c r="N511" s="14"/>
       <c r="O511" s="2"/>
     </row>
-    <row r="512" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="512" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A512" s="25"/>
       <c r="B512" s="4"/>
       <c r="C512" s="12"/>
@@ -12790,7 +13954,7 @@
       <c r="N512" s="14"/>
       <c r="O512" s="2"/>
     </row>
-    <row r="513" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="513" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A513" s="25"/>
       <c r="B513" s="4"/>
       <c r="C513" s="12"/>
@@ -12807,7 +13971,7 @@
       <c r="N513" s="14"/>
       <c r="O513" s="2"/>
     </row>
-    <row r="514" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="514" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A514" s="25"/>
       <c r="B514" s="4"/>
       <c r="C514" s="12"/>
@@ -12824,7 +13988,7 @@
       <c r="N514" s="14"/>
       <c r="O514" s="2"/>
     </row>
-    <row r="515" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="515" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A515" s="25"/>
       <c r="B515" s="4"/>
       <c r="C515" s="12"/>
@@ -12841,7 +14005,7 @@
       <c r="N515" s="14"/>
       <c r="O515" s="2"/>
     </row>
-    <row r="516" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="516" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A516" s="25"/>
       <c r="B516" s="4"/>
       <c r="C516" s="12"/>
@@ -12858,7 +14022,7 @@
       <c r="N516" s="14"/>
       <c r="O516" s="2"/>
     </row>
-    <row r="517" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="517" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A517" s="25"/>
       <c r="B517" s="4"/>
       <c r="C517" s="12"/>
@@ -12875,7 +14039,7 @@
       <c r="N517" s="14"/>
       <c r="O517" s="2"/>
     </row>
-    <row r="518" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="518" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A518" s="25"/>
       <c r="B518" s="4"/>
       <c r="C518" s="12"/>
@@ -12892,7 +14056,7 @@
       <c r="N518" s="14"/>
       <c r="O518" s="2"/>
     </row>
-    <row r="519" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="519" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A519" s="25"/>
       <c r="B519" s="4"/>
       <c r="C519" s="12"/>
@@ -12909,7 +14073,7 @@
       <c r="N519" s="14"/>
       <c r="O519" s="2"/>
     </row>
-    <row r="520" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="520" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A520" s="25"/>
       <c r="B520" s="4"/>
       <c r="C520" s="12"/>
@@ -12926,7 +14090,7 @@
       <c r="N520" s="14"/>
       <c r="O520" s="2"/>
     </row>
-    <row r="521" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="521" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A521" s="25"/>
       <c r="B521" s="4"/>
       <c r="C521" s="12"/>
@@ -12943,7 +14107,7 @@
       <c r="N521" s="14"/>
       <c r="O521" s="2"/>
     </row>
-    <row r="522" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="522" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A522" s="25"/>
       <c r="B522" s="4"/>
       <c r="C522" s="12"/>
@@ -12960,7 +14124,7 @@
       <c r="N522" s="14"/>
       <c r="O522" s="2"/>
     </row>
-    <row r="523" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="523" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A523" s="25"/>
       <c r="B523" s="4"/>
       <c r="C523" s="12"/>
@@ -12977,7 +14141,7 @@
       <c r="N523" s="14"/>
       <c r="O523" s="2"/>
     </row>
-    <row r="524" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="524" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A524" s="25"/>
       <c r="B524" s="4"/>
       <c r="C524" s="12"/>
@@ -12994,7 +14158,7 @@
       <c r="N524" s="14"/>
       <c r="O524" s="2"/>
     </row>
-    <row r="525" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="525" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A525" s="25"/>
       <c r="B525" s="4"/>
       <c r="C525" s="12"/>
@@ -13011,7 +14175,7 @@
       <c r="N525" s="14"/>
       <c r="O525" s="2"/>
     </row>
-    <row r="526" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="526" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A526" s="25"/>
       <c r="B526" s="4"/>
       <c r="C526" s="12"/>
@@ -13028,7 +14192,7 @@
       <c r="N526" s="14"/>
       <c r="O526" s="2"/>
     </row>
-    <row r="527" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="527" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A527" s="25"/>
       <c r="B527" s="4"/>
       <c r="C527" s="12"/>
@@ -13045,7 +14209,7 @@
       <c r="N527" s="14"/>
       <c r="O527" s="2"/>
     </row>
-    <row r="528" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="528" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A528" s="25"/>
       <c r="B528" s="4"/>
       <c r="C528" s="12"/>
@@ -13062,7 +14226,7 @@
       <c r="N528" s="14"/>
       <c r="O528" s="2"/>
     </row>
-    <row r="529" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="529" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A529" s="25"/>
       <c r="B529" s="4"/>
       <c r="C529" s="12"/>
@@ -13079,7 +14243,7 @@
       <c r="N529" s="14"/>
       <c r="O529" s="2"/>
     </row>
-    <row r="530" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="530" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A530" s="25"/>
       <c r="B530" s="4"/>
       <c r="C530" s="12"/>
@@ -13096,7 +14260,7 @@
       <c r="N530" s="14"/>
       <c r="O530" s="2"/>
     </row>
-    <row r="531" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="531" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A531" s="25"/>
       <c r="B531" s="4"/>
       <c r="C531" s="12"/>
@@ -13113,7 +14277,7 @@
       <c r="N531" s="14"/>
       <c r="O531" s="2"/>
     </row>
-    <row r="532" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="532" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A532" s="25"/>
       <c r="B532" s="4"/>
       <c r="C532" s="12"/>
@@ -13130,7 +14294,7 @@
       <c r="N532" s="14"/>
       <c r="O532" s="2"/>
     </row>
-    <row r="533" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="533" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A533" s="25"/>
       <c r="B533" s="4"/>
       <c r="C533" s="12"/>
@@ -13147,7 +14311,7 @@
       <c r="N533" s="14"/>
       <c r="O533" s="2"/>
     </row>
-    <row r="534" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="534" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A534" s="25"/>
       <c r="B534" s="4"/>
       <c r="C534" s="12"/>
@@ -13164,7 +14328,7 @@
       <c r="N534" s="14"/>
       <c r="O534" s="2"/>
     </row>
-    <row r="535" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="535" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A535" s="25"/>
       <c r="B535" s="4"/>
       <c r="C535" s="12"/>
@@ -13181,7 +14345,7 @@
       <c r="N535" s="14"/>
       <c r="O535" s="2"/>
     </row>
-    <row r="536" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="536" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A536" s="25"/>
       <c r="B536" s="4"/>
       <c r="C536" s="12"/>
@@ -13198,7 +14362,7 @@
       <c r="N536" s="14"/>
       <c r="O536" s="2"/>
     </row>
-    <row r="537" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="537" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A537" s="25"/>
       <c r="B537" s="4"/>
       <c r="C537" s="12"/>
@@ -13215,7 +14379,7 @@
       <c r="N537" s="14"/>
       <c r="O537" s="2"/>
     </row>
-    <row r="538" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="538" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A538" s="25"/>
       <c r="B538" s="4"/>
       <c r="C538" s="12"/>
@@ -13232,7 +14396,7 @@
       <c r="N538" s="14"/>
       <c r="O538" s="2"/>
     </row>
-    <row r="539" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="539" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A539" s="25"/>
       <c r="B539" s="4"/>
       <c r="C539" s="12"/>
@@ -13249,7 +14413,7 @@
       <c r="N539" s="14"/>
       <c r="O539" s="2"/>
     </row>
-    <row r="540" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="540" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A540" s="25"/>
       <c r="B540" s="4"/>
       <c r="C540" s="12"/>
@@ -13266,7 +14430,7 @@
       <c r="N540" s="14"/>
       <c r="O540" s="2"/>
     </row>
-    <row r="541" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="541" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A541" s="25"/>
       <c r="B541" s="4"/>
       <c r="C541" s="12"/>
@@ -13283,7 +14447,7 @@
       <c r="N541" s="14"/>
       <c r="O541" s="2"/>
     </row>
-    <row r="542" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="542" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A542" s="25"/>
       <c r="B542" s="4"/>
       <c r="C542" s="12"/>
@@ -13300,7 +14464,7 @@
       <c r="N542" s="14"/>
       <c r="O542" s="2"/>
     </row>
-    <row r="543" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="543" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A543" s="25"/>
       <c r="B543" s="4"/>
       <c r="C543" s="12"/>
@@ -13317,7 +14481,7 @@
       <c r="N543" s="14"/>
       <c r="O543" s="2"/>
     </row>
-    <row r="544" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="544" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A544" s="25"/>
       <c r="B544" s="4"/>
       <c r="C544" s="12"/>
@@ -13334,7 +14498,7 @@
       <c r="N544" s="14"/>
       <c r="O544" s="2"/>
     </row>
-    <row r="545" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="545" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A545" s="25"/>
       <c r="B545" s="4"/>
       <c r="C545" s="12"/>
@@ -13351,7 +14515,7 @@
       <c r="N545" s="14"/>
       <c r="O545" s="2"/>
     </row>
-    <row r="546" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="546" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A546" s="25"/>
       <c r="B546" s="4"/>
       <c r="C546" s="12"/>
@@ -13368,7 +14532,7 @@
       <c r="N546" s="14"/>
       <c r="O546" s="2"/>
     </row>
-    <row r="547" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="547" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A547" s="25"/>
       <c r="B547" s="4"/>
       <c r="C547" s="12"/>
@@ -13385,7 +14549,7 @@
       <c r="N547" s="14"/>
       <c r="O547" s="2"/>
     </row>
-    <row r="548" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="548" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A548" s="25"/>
       <c r="B548" s="4"/>
       <c r="C548" s="12"/>
@@ -13402,7 +14566,7 @@
       <c r="N548" s="14"/>
       <c r="O548" s="2"/>
     </row>
-    <row r="549" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="549" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A549" s="25"/>
       <c r="B549" s="4"/>
       <c r="C549" s="12"/>
@@ -13419,7 +14583,7 @@
       <c r="N549" s="14"/>
       <c r="O549" s="2"/>
     </row>
-    <row r="550" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="550" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A550" s="25"/>
       <c r="B550" s="4"/>
       <c r="C550" s="12"/>
@@ -13436,7 +14600,7 @@
       <c r="N550" s="14"/>
       <c r="O550" s="2"/>
     </row>
-    <row r="551" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="551" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A551" s="25"/>
       <c r="B551" s="4"/>
       <c r="C551" s="12"/>
@@ -13453,7 +14617,7 @@
       <c r="N551" s="14"/>
       <c r="O551" s="2"/>
     </row>
-    <row r="552" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="552" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A552" s="25"/>
       <c r="B552" s="4"/>
       <c r="C552" s="12"/>
@@ -13470,7 +14634,7 @@
       <c r="N552" s="14"/>
       <c r="O552" s="2"/>
     </row>
-    <row r="553" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="553" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A553" s="25"/>
       <c r="B553" s="4"/>
       <c r="C553" s="12"/>
@@ -13487,7 +14651,7 @@
       <c r="N553" s="14"/>
       <c r="O553" s="2"/>
     </row>
-    <row r="554" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="554" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A554" s="25"/>
       <c r="B554" s="4"/>
       <c r="C554" s="12"/>
@@ -13504,7 +14668,7 @@
       <c r="N554" s="14"/>
       <c r="O554" s="2"/>
     </row>
-    <row r="555" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="555" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A555" s="25"/>
       <c r="B555" s="4"/>
       <c r="C555" s="12"/>
@@ -13521,7 +14685,7 @@
       <c r="N555" s="14"/>
       <c r="O555" s="2"/>
     </row>
-    <row r="556" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="556" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A556" s="25"/>
       <c r="B556" s="4"/>
       <c r="C556" s="12"/>
@@ -13538,7 +14702,7 @@
       <c r="N556" s="14"/>
       <c r="O556" s="2"/>
     </row>
-    <row r="557" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="557" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A557" s="25"/>
       <c r="B557" s="4"/>
       <c r="C557" s="12"/>
@@ -13555,7 +14719,7 @@
       <c r="N557" s="14"/>
       <c r="O557" s="2"/>
     </row>
-    <row r="558" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="558" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A558" s="25"/>
       <c r="B558" s="4"/>
       <c r="C558" s="12"/>
@@ -13572,7 +14736,7 @@
       <c r="N558" s="14"/>
       <c r="O558" s="2"/>
     </row>
-    <row r="559" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="559" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A559" s="25"/>
       <c r="B559" s="4"/>
       <c r="C559" s="12"/>
@@ -13589,7 +14753,7 @@
       <c r="N559" s="14"/>
       <c r="O559" s="2"/>
     </row>
-    <row r="560" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="560" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A560" s="25"/>
       <c r="B560" s="4"/>
       <c r="C560" s="12"/>
@@ -13606,7 +14770,7 @@
       <c r="N560" s="14"/>
       <c r="O560" s="2"/>
     </row>
-    <row r="561" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="561" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A561" s="25"/>
       <c r="B561" s="4"/>
       <c r="C561" s="12"/>
@@ -13623,7 +14787,7 @@
       <c r="N561" s="14"/>
       <c r="O561" s="2"/>
     </row>
-    <row r="562" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="562" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A562" s="25"/>
       <c r="B562" s="4"/>
       <c r="C562" s="12"/>
@@ -13640,7 +14804,7 @@
       <c r="N562" s="14"/>
       <c r="O562" s="2"/>
     </row>
-    <row r="563" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="563" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A563" s="25"/>
       <c r="B563" s="4"/>
       <c r="C563" s="12"/>
@@ -13657,7 +14821,7 @@
       <c r="N563" s="14"/>
       <c r="O563" s="2"/>
     </row>
-    <row r="564" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="564" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A564" s="25"/>
       <c r="B564" s="4"/>
       <c r="C564" s="12"/>
@@ -13674,7 +14838,7 @@
       <c r="N564" s="14"/>
       <c r="O564" s="2"/>
     </row>
-    <row r="565" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="565" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A565" s="25"/>
       <c r="B565" s="4"/>
       <c r="C565" s="12"/>
@@ -13691,7 +14855,7 @@
       <c r="N565" s="14"/>
       <c r="O565" s="2"/>
     </row>
-    <row r="566" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="566" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A566" s="25"/>
       <c r="B566" s="4"/>
       <c r="C566" s="12"/>
@@ -13708,7 +14872,7 @@
       <c r="N566" s="14"/>
       <c r="O566" s="2"/>
     </row>
-    <row r="567" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="567" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A567" s="25"/>
       <c r="B567" s="4"/>
       <c r="C567" s="12"/>
@@ -13725,7 +14889,7 @@
       <c r="N567" s="14"/>
       <c r="O567" s="2"/>
     </row>
-    <row r="568" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="568" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A568" s="25"/>
       <c r="B568" s="4"/>
       <c r="C568" s="12"/>
@@ -13742,7 +14906,7 @@
       <c r="N568" s="14"/>
       <c r="O568" s="2"/>
     </row>
-    <row r="569" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="569" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A569" s="25"/>
       <c r="B569" s="4"/>
       <c r="C569" s="12"/>
@@ -13759,7 +14923,7 @@
       <c r="N569" s="14"/>
       <c r="O569" s="2"/>
     </row>
-    <row r="570" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="570" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A570" s="25"/>
       <c r="B570" s="4"/>
       <c r="C570" s="12"/>
@@ -13776,7 +14940,7 @@
       <c r="N570" s="14"/>
       <c r="O570" s="2"/>
     </row>
-    <row r="571" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="571" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A571" s="25"/>
       <c r="B571" s="4"/>
       <c r="C571" s="12"/>
@@ -13793,7 +14957,7 @@
       <c r="N571" s="14"/>
       <c r="O571" s="2"/>
     </row>
-    <row r="572" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="572" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A572" s="25"/>
       <c r="B572" s="4"/>
       <c r="C572" s="12"/>
@@ -13810,7 +14974,7 @@
       <c r="N572" s="14"/>
       <c r="O572" s="2"/>
     </row>
-    <row r="573" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="573" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A573" s="25"/>
       <c r="B573" s="4"/>
       <c r="C573" s="12"/>
@@ -13827,7 +14991,7 @@
       <c r="N573" s="14"/>
       <c r="O573" s="2"/>
     </row>
-    <row r="574" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="574" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A574" s="25"/>
       <c r="B574" s="4"/>
       <c r="C574" s="12"/>
@@ -13844,7 +15008,7 @@
       <c r="N574" s="14"/>
       <c r="O574" s="2"/>
     </row>
-    <row r="575" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="575" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A575" s="25"/>
       <c r="B575" s="4"/>
       <c r="C575" s="12"/>
@@ -13861,7 +15025,7 @@
       <c r="N575" s="14"/>
       <c r="O575" s="2"/>
     </row>
-    <row r="576" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="576" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A576" s="25"/>
       <c r="B576" s="4"/>
       <c r="C576" s="12"/>
@@ -13878,7 +15042,7 @@
       <c r="N576" s="14"/>
       <c r="O576" s="2"/>
     </row>
-    <row r="577" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="577" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A577" s="25"/>
       <c r="B577" s="4"/>
       <c r="C577" s="12"/>
@@ -13895,7 +15059,7 @@
       <c r="N577" s="14"/>
       <c r="O577" s="2"/>
     </row>
-    <row r="578" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="578" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A578" s="25"/>
       <c r="B578" s="4"/>
       <c r="C578" s="12"/>
@@ -13912,7 +15076,7 @@
       <c r="N578" s="14"/>
       <c r="O578" s="2"/>
     </row>
-    <row r="579" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="579" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A579" s="25"/>
       <c r="B579" s="4"/>
       <c r="C579" s="12"/>
@@ -13929,7 +15093,7 @@
       <c r="N579" s="14"/>
       <c r="O579" s="2"/>
     </row>
-    <row r="580" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="580" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A580" s="25"/>
       <c r="B580" s="4"/>
       <c r="C580" s="12"/>
@@ -13946,7 +15110,7 @@
       <c r="N580" s="14"/>
       <c r="O580" s="2"/>
     </row>
-    <row r="581" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="581" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A581" s="25"/>
       <c r="B581" s="4"/>
       <c r="C581" s="12"/>
@@ -13963,7 +15127,7 @@
       <c r="N581" s="14"/>
       <c r="O581" s="2"/>
     </row>
-    <row r="582" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="582" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A582" s="25"/>
       <c r="B582" s="4"/>
       <c r="C582" s="12"/>
@@ -13980,7 +15144,7 @@
       <c r="N582" s="14"/>
       <c r="O582" s="2"/>
     </row>
-    <row r="583" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="583" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A583" s="25"/>
       <c r="B583" s="4"/>
       <c r="C583" s="12"/>
@@ -13997,7 +15161,7 @@
       <c r="N583" s="14"/>
       <c r="O583" s="2"/>
     </row>
-    <row r="584" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="584" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A584" s="25"/>
       <c r="B584" s="4"/>
       <c r="C584" s="12"/>
@@ -14014,7 +15178,7 @@
       <c r="N584" s="14"/>
       <c r="O584" s="2"/>
     </row>
-    <row r="585" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="585" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A585" s="25"/>
       <c r="B585" s="4"/>
       <c r="C585" s="12"/>
@@ -14031,7 +15195,7 @@
       <c r="N585" s="14"/>
       <c r="O585" s="2"/>
     </row>
-    <row r="586" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="586" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A586" s="25"/>
       <c r="B586" s="4"/>
       <c r="C586" s="12"/>
@@ -14048,7 +15212,7 @@
       <c r="N586" s="14"/>
       <c r="O586" s="2"/>
     </row>
-    <row r="587" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="587" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A587" s="25"/>
       <c r="B587" s="4"/>
       <c r="C587" s="12"/>
@@ -14065,7 +15229,7 @@
       <c r="N587" s="14"/>
       <c r="O587" s="2"/>
     </row>
-    <row r="588" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="588" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A588" s="25"/>
       <c r="B588" s="4"/>
       <c r="C588" s="12"/>
@@ -14082,7 +15246,7 @@
       <c r="N588" s="14"/>
       <c r="O588" s="2"/>
     </row>
-    <row r="589" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="589" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A589" s="25"/>
       <c r="B589" s="4"/>
       <c r="C589" s="12"/>
@@ -14099,7 +15263,7 @@
       <c r="N589" s="14"/>
       <c r="O589" s="2"/>
     </row>
-    <row r="590" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="590" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A590" s="25"/>
       <c r="B590" s="4"/>
       <c r="C590" s="12"/>
@@ -14116,7 +15280,7 @@
       <c r="N590" s="14"/>
       <c r="O590" s="2"/>
     </row>
-    <row r="591" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="591" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A591" s="25"/>
       <c r="B591" s="4"/>
       <c r="C591" s="12"/>
@@ -14133,7 +15297,7 @@
       <c r="N591" s="14"/>
       <c r="O591" s="2"/>
     </row>
-    <row r="592" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="592" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A592" s="25"/>
       <c r="B592" s="4"/>
       <c r="C592" s="12"/>
@@ -14150,7 +15314,7 @@
       <c r="N592" s="14"/>
       <c r="O592" s="2"/>
     </row>
-    <row r="593" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="593" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A593" s="25"/>
       <c r="B593" s="4"/>
       <c r="C593" s="12"/>
@@ -14167,7 +15331,7 @@
       <c r="N593" s="14"/>
       <c r="O593" s="2"/>
     </row>
-    <row r="594" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="594" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A594" s="25"/>
       <c r="B594" s="4"/>
       <c r="C594" s="12"/>
@@ -14184,7 +15348,7 @@
       <c r="N594" s="14"/>
       <c r="O594" s="2"/>
     </row>
-    <row r="595" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="595" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A595" s="25"/>
       <c r="B595" s="4"/>
       <c r="C595" s="12"/>
@@ -14201,7 +15365,7 @@
       <c r="N595" s="14"/>
       <c r="O595" s="2"/>
     </row>
-    <row r="596" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="596" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A596" s="25"/>
       <c r="B596" s="4"/>
       <c r="C596" s="12"/>
@@ -14218,7 +15382,7 @@
       <c r="N596" s="14"/>
       <c r="O596" s="2"/>
     </row>
-    <row r="597" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="597" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A597" s="25"/>
       <c r="B597" s="4"/>
       <c r="C597" s="12"/>
@@ -14235,7 +15399,7 @@
       <c r="N597" s="14"/>
       <c r="O597" s="2"/>
     </row>
-    <row r="598" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="598" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A598" s="25"/>
       <c r="B598" s="4"/>
       <c r="C598" s="12"/>
@@ -14252,7 +15416,7 @@
       <c r="N598" s="14"/>
       <c r="O598" s="2"/>
     </row>
-    <row r="599" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="599" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A599" s="25"/>
       <c r="B599" s="4"/>
       <c r="C599" s="12"/>
@@ -14269,7 +15433,7 @@
       <c r="N599" s="14"/>
       <c r="O599" s="2"/>
     </row>
-    <row r="600" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="600" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A600" s="25"/>
       <c r="B600" s="4"/>
       <c r="C600" s="12"/>
@@ -14286,7 +15450,7 @@
       <c r="N600" s="14"/>
       <c r="O600" s="2"/>
     </row>
-    <row r="601" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="601" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A601" s="25"/>
       <c r="B601" s="4"/>
       <c r="C601" s="12"/>
@@ -14303,7 +15467,7 @@
       <c r="N601" s="14"/>
       <c r="O601" s="2"/>
     </row>
-    <row r="602" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="602" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A602" s="25"/>
       <c r="B602" s="4"/>
       <c r="C602" s="12"/>
@@ -14320,7 +15484,7 @@
       <c r="N602" s="14"/>
       <c r="O602" s="2"/>
     </row>
-    <row r="603" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="603" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A603" s="25"/>
       <c r="B603" s="4"/>
       <c r="C603" s="12"/>
@@ -14337,7 +15501,7 @@
       <c r="N603" s="14"/>
       <c r="O603" s="2"/>
     </row>
-    <row r="604" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="604" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A604" s="25"/>
       <c r="B604" s="4"/>
       <c r="C604" s="12"/>
@@ -14354,7 +15518,7 @@
       <c r="N604" s="14"/>
       <c r="O604" s="2"/>
     </row>
-    <row r="605" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="605" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A605" s="25"/>
       <c r="B605" s="4"/>
       <c r="C605" s="12"/>
@@ -14371,7 +15535,7 @@
       <c r="N605" s="14"/>
       <c r="O605" s="2"/>
     </row>
-    <row r="606" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="606" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A606" s="25"/>
       <c r="B606" s="4"/>
       <c r="C606" s="12"/>
@@ -14388,7 +15552,7 @@
       <c r="N606" s="14"/>
       <c r="O606" s="2"/>
     </row>
-    <row r="607" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="607" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A607" s="25"/>
       <c r="B607" s="4"/>
       <c r="C607" s="12"/>
@@ -14405,7 +15569,7 @@
       <c r="N607" s="14"/>
       <c r="O607" s="2"/>
     </row>
-    <row r="608" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="608" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A608" s="25"/>
       <c r="B608" s="4"/>
       <c r="C608" s="12"/>
@@ -14422,7 +15586,7 @@
       <c r="N608" s="14"/>
       <c r="O608" s="2"/>
     </row>
-    <row r="609" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="609" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A609" s="25"/>
       <c r="B609" s="4"/>
       <c r="C609" s="12"/>
@@ -14439,7 +15603,7 @@
       <c r="N609" s="14"/>
       <c r="O609" s="2"/>
     </row>
-    <row r="610" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="610" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A610" s="25"/>
       <c r="B610" s="4"/>
       <c r="C610" s="12"/>
@@ -14456,7 +15620,7 @@
       <c r="N610" s="14"/>
       <c r="O610" s="2"/>
     </row>
-    <row r="611" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="611" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A611" s="25"/>
       <c r="B611" s="4"/>
       <c r="C611" s="12"/>
@@ -14473,7 +15637,7 @@
       <c r="N611" s="14"/>
       <c r="O611" s="2"/>
     </row>
-    <row r="612" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="612" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A612" s="25"/>
       <c r="B612" s="4"/>
       <c r="C612" s="12"/>
@@ -14490,7 +15654,7 @@
       <c r="N612" s="14"/>
       <c r="O612" s="2"/>
     </row>
-    <row r="613" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="613" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A613" s="25"/>
       <c r="B613" s="4"/>
       <c r="C613" s="12"/>
@@ -14507,7 +15671,7 @@
       <c r="N613" s="14"/>
       <c r="O613" s="2"/>
     </row>
-    <row r="614" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="614" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A614" s="25"/>
       <c r="B614" s="4"/>
       <c r="C614" s="12"/>
@@ -14524,7 +15688,7 @@
       <c r="N614" s="14"/>
       <c r="O614" s="2"/>
     </row>
-    <row r="615" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="615" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A615" s="25"/>
       <c r="B615" s="4"/>
       <c r="C615" s="12"/>
@@ -14541,7 +15705,7 @@
       <c r="N615" s="14"/>
       <c r="O615" s="2"/>
     </row>
-    <row r="616" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="616" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A616" s="25"/>
       <c r="B616" s="4"/>
       <c r="C616" s="12"/>
@@ -14558,7 +15722,7 @@
       <c r="N616" s="14"/>
       <c r="O616" s="2"/>
     </row>
-    <row r="617" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="617" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A617" s="25"/>
       <c r="B617" s="4"/>
       <c r="C617" s="12"/>
@@ -14575,7 +15739,7 @@
       <c r="N617" s="14"/>
       <c r="O617" s="2"/>
     </row>
-    <row r="618" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="618" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A618" s="25"/>
       <c r="B618" s="4"/>
       <c r="C618" s="12"/>
@@ -14592,7 +15756,7 @@
       <c r="N618" s="14"/>
       <c r="O618" s="2"/>
     </row>
-    <row r="619" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="619" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A619" s="25"/>
       <c r="B619" s="4"/>
       <c r="C619" s="12"/>
@@ -14609,7 +15773,7 @@
       <c r="N619" s="14"/>
       <c r="O619" s="2"/>
     </row>
-    <row r="620" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="620" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A620" s="25"/>
       <c r="B620" s="4"/>
       <c r="C620" s="12"/>
@@ -14626,7 +15790,7 @@
       <c r="N620" s="14"/>
       <c r="O620" s="2"/>
     </row>
-    <row r="621" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="621" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A621" s="25"/>
       <c r="B621" s="4"/>
       <c r="C621" s="12"/>
@@ -14643,7 +15807,7 @@
       <c r="N621" s="14"/>
       <c r="O621" s="2"/>
     </row>
-    <row r="622" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="622" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A622" s="25"/>
       <c r="B622" s="4"/>
       <c r="C622" s="12"/>
@@ -14660,7 +15824,7 @@
       <c r="N622" s="14"/>
       <c r="O622" s="2"/>
     </row>
-    <row r="623" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="623" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A623" s="25"/>
       <c r="B623" s="4"/>
       <c r="C623" s="12"/>
@@ -14677,7 +15841,7 @@
       <c r="N623" s="14"/>
       <c r="O623" s="2"/>
     </row>
-    <row r="624" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="624" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A624" s="25"/>
       <c r="B624" s="4"/>
       <c r="C624" s="12"/>
@@ -14694,7 +15858,7 @@
       <c r="N624" s="14"/>
       <c r="O624" s="2"/>
     </row>
-    <row r="625" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="625" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A625" s="25"/>
       <c r="B625" s="4"/>
       <c r="C625" s="12"/>
@@ -14711,7 +15875,7 @@
       <c r="N625" s="14"/>
       <c r="O625" s="2"/>
     </row>
-    <row r="626" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="626" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A626" s="25"/>
       <c r="B626" s="4"/>
       <c r="C626" s="12"/>
@@ -14728,7 +15892,7 @@
       <c r="N626" s="14"/>
       <c r="O626" s="2"/>
     </row>
-    <row r="627" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="627" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A627" s="25"/>
       <c r="B627" s="4"/>
       <c r="C627" s="12"/>
@@ -14745,7 +15909,7 @@
       <c r="N627" s="14"/>
       <c r="O627" s="2"/>
     </row>
-    <row r="628" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="628" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A628" s="25"/>
       <c r="B628" s="4"/>
       <c r="C628" s="12"/>
@@ -14762,7 +15926,7 @@
       <c r="N628" s="14"/>
       <c r="O628" s="2"/>
     </row>
-    <row r="629" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="629" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A629" s="25"/>
       <c r="B629" s="4"/>
       <c r="C629" s="12"/>
@@ -14779,7 +15943,7 @@
       <c r="N629" s="14"/>
       <c r="O629" s="2"/>
     </row>
-    <row r="630" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="630" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A630" s="25"/>
       <c r="B630" s="4"/>
       <c r="C630" s="12"/>
@@ -14796,7 +15960,7 @@
       <c r="N630" s="14"/>
       <c r="O630" s="2"/>
     </row>
-    <row r="631" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="631" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A631" s="25"/>
       <c r="B631" s="4"/>
       <c r="C631" s="12"/>
@@ -14813,7 +15977,7 @@
       <c r="N631" s="14"/>
       <c r="O631" s="2"/>
     </row>
-    <row r="632" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="632" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A632" s="25"/>
       <c r="B632" s="4"/>
       <c r="C632" s="12"/>
@@ -14830,7 +15994,7 @@
       <c r="N632" s="14"/>
       <c r="O632" s="2"/>
     </row>
-    <row r="633" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="633" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A633" s="25"/>
       <c r="B633" s="4"/>
       <c r="C633" s="12"/>
@@ -14847,7 +16011,7 @@
       <c r="N633" s="14"/>
       <c r="O633" s="2"/>
     </row>
-    <row r="634" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="634" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A634" s="25"/>
       <c r="B634" s="4"/>
       <c r="C634" s="12"/>
@@ -14864,7 +16028,7 @@
       <c r="N634" s="14"/>
       <c r="O634" s="2"/>
     </row>
-    <row r="635" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="635" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A635" s="25"/>
       <c r="B635" s="4"/>
       <c r="C635" s="12"/>
@@ -14881,7 +16045,7 @@
       <c r="N635" s="14"/>
       <c r="O635" s="2"/>
     </row>
-    <row r="636" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="636" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A636" s="25"/>
       <c r="B636" s="4"/>
       <c r="C636" s="12"/>
@@ -14898,7 +16062,7 @@
       <c r="N636" s="14"/>
       <c r="O636" s="2"/>
     </row>
-    <row r="637" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="637" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A637" s="25"/>
       <c r="B637" s="4"/>
       <c r="C637" s="12"/>
@@ -14915,7 +16079,7 @@
       <c r="N637" s="14"/>
       <c r="O637" s="2"/>
     </row>
-    <row r="638" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="638" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A638" s="25"/>
       <c r="B638" s="4"/>
       <c r="C638" s="12"/>
@@ -14932,7 +16096,7 @@
       <c r="N638" s="14"/>
       <c r="O638" s="2"/>
     </row>
-    <row r="639" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="639" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A639" s="25"/>
       <c r="B639" s="4"/>
       <c r="C639" s="12"/>
@@ -14949,7 +16113,7 @@
       <c r="N639" s="14"/>
       <c r="O639" s="2"/>
     </row>
-    <row r="640" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="640" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A640" s="25"/>
       <c r="B640" s="4"/>
       <c r="C640" s="12"/>
@@ -14966,7 +16130,7 @@
       <c r="N640" s="14"/>
       <c r="O640" s="2"/>
     </row>
-    <row r="641" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="641" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A641" s="25"/>
       <c r="B641" s="4"/>
       <c r="C641" s="12"/>
@@ -14983,7 +16147,7 @@
       <c r="N641" s="14"/>
       <c r="O641" s="2"/>
     </row>
-    <row r="642" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="642" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A642" s="25"/>
       <c r="B642" s="4"/>
       <c r="C642" s="12"/>
@@ -15000,7 +16164,7 @@
       <c r="N642" s="14"/>
       <c r="O642" s="2"/>
     </row>
-    <row r="643" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="643" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A643" s="25"/>
       <c r="B643" s="4"/>
       <c r="C643" s="12"/>
@@ -15017,7 +16181,7 @@
       <c r="N643" s="14"/>
       <c r="O643" s="2"/>
     </row>
-    <row r="644" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="644" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A644" s="25"/>
       <c r="B644" s="4"/>
       <c r="C644" s="12"/>
@@ -15034,7 +16198,7 @@
       <c r="N644" s="14"/>
       <c r="O644" s="2"/>
     </row>
-    <row r="645" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="645" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A645" s="25"/>
       <c r="B645" s="4"/>
       <c r="C645" s="12"/>
@@ -15051,7 +16215,7 @@
       <c r="N645" s="14"/>
       <c r="O645" s="2"/>
     </row>
-    <row r="646" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="646" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A646" s="25"/>
       <c r="B646" s="4"/>
       <c r="C646" s="12"/>
@@ -15068,7 +16232,7 @@
       <c r="N646" s="14"/>
       <c r="O646" s="2"/>
     </row>
-    <row r="647" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="647" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A647" s="25"/>
       <c r="B647" s="4"/>
       <c r="C647" s="12"/>
@@ -15085,7 +16249,7 @@
       <c r="N647" s="14"/>
       <c r="O647" s="2"/>
     </row>
-    <row r="648" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="648" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A648" s="25"/>
       <c r="B648" s="4"/>
       <c r="C648" s="12"/>
@@ -15102,7 +16266,7 @@
       <c r="N648" s="14"/>
       <c r="O648" s="2"/>
     </row>
-    <row r="649" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="649" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A649" s="25"/>
       <c r="B649" s="4"/>
       <c r="C649" s="12"/>
@@ -15119,7 +16283,7 @@
       <c r="N649" s="14"/>
       <c r="O649" s="2"/>
     </row>
-    <row r="650" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="650" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A650" s="25"/>
       <c r="B650" s="4"/>
       <c r="C650" s="12"/>
@@ -15136,360 +16300,360 @@
       <c r="N650" s="14"/>
       <c r="O650" s="2"/>
     </row>
-    <row r="651" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1001" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1002" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="651" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="652" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="653" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="654" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="655" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="656" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="657" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="658" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="659" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="660" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="661" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="662" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="663" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="664" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="665" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="666" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="667" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="668" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="669" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="670" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="671" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="672" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="673" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="674" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="675" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="676" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="677" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="678" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="679" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="680" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="681" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="682" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="683" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="684" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="685" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="686" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="687" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="688" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="689" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="690" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="691" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="692" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="693" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="694" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="695" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="696" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="697" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="698" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="699" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="700" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="701" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="702" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="703" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="704" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="705" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="706" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="707" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="708" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="709" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="710" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="711" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="712" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="713" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="714" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="715" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="716" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="717" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="718" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="719" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="720" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="721" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="722" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="723" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="724" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="725" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="726" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="727" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="728" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="729" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="730" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="731" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="732" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="733" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="734" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="735" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="736" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="737" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="738" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="739" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="740" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="741" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="742" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="743" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="744" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="745" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="746" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="747" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="748" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="749" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="750" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="751" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="752" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="753" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="754" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="755" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="756" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="757" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="758" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="759" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="760" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="761" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="762" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="763" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="764" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="765" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="766" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="767" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="768" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="769" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="770" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="771" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="772" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="773" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="774" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="775" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="776" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="777" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="778" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="779" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="780" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="781" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="782" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="783" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="784" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="785" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="786" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="787" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="788" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="789" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="790" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="791" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="792" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="793" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="794" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="795" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="796" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="797" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="798" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="799" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="800" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="801" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="802" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="803" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="804" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="805" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="806" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="807" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="808" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="809" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="810" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="811" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="812" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="813" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="814" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="815" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="816" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="817" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="818" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="819" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="820" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="821" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="822" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="823" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="824" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="825" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="826" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="827" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="828" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="829" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="830" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="831" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="832" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="833" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="834" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="835" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="836" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="837" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="838" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="839" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="840" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="841" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="842" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="843" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="844" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="845" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="846" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="847" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="848" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="849" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="850" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="851" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="852" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="853" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="854" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="855" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="856" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="857" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="858" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="859" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="860" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="861" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="862" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="863" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="864" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="865" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="866" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="867" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="868" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="869" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="870" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="871" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="872" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="873" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="874" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="875" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="876" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="877" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="878" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="879" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="880" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="881" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="882" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="883" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="884" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="885" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="886" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="887" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="888" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="889" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="890" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="891" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="892" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="893" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="894" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="895" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="896" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="897" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="898" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="899" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="900" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="901" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="902" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="903" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="904" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="905" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="906" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="907" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="908" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="909" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="910" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="911" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="912" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="913" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="914" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="915" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="916" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="917" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="918" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="919" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="920" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="921" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="922" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="923" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="924" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="925" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="926" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="927" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="928" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="929" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="930" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="931" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="932" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="933" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="934" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="935" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="936" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="937" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="938" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="939" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="940" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="941" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="942" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="943" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="944" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="945" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="946" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="947" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="948" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="949" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="950" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="951" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="952" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="953" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="954" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="955" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="956" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="957" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="958" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="959" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="960" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="961" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="962" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="963" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="964" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="965" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="966" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="967" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="968" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="969" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="970" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="971" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="972" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="973" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="974" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="975" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="976" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="977" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="978" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="979" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="980" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="981" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="982" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="983" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="984" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="985" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="986" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="987" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="988" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="989" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="990" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="991" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="992" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="993" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="994" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="995" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="996" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="997" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="998" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="999" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="1000" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="1001" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="1002" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="L1:O1"/>
@@ -15497,24 +16661,24 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="2" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="2" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="1" operator="beginsWith" priority="2" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="0" operator="beginsWith" priority="3" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C702" xr:uid="{E452C6B3-B243-3545-88CC-5779BCAB8940}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C702" type="list" xr:uid="{E452C6B3-B243-3545-88CC-5779BCAB8940}">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D700" xr:uid="{735992DB-15F3-994D-86FC-426B319FA577}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D700" type="list" xr:uid="{735992DB-15F3-994D-86FC-426B319FA577}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/artifact/script/web-05.xlsx
+++ b/artifact/script/web-05.xlsx
@@ -18,12 +18,12 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$33</definedName>
+    <definedName name="base">'#system'!$C$2:$C$34</definedName>
     <definedName name="csv">'#system'!$D$2:$D$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$10</definedName>
+    <definedName name="excel">'#system'!$F$2:$F$13</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1973" uniqueCount="510">
   <si>
     <t>description</t>
   </si>
@@ -1577,6 +1577,21 @@
   </si>
   <si>
     <t>json(file,worksheet,range,header,output)</t>
+  </si>
+  <si>
+    <t>saveCount(text,regex,saveVar)</t>
+  </si>
+  <si>
+    <t>assertPassword(file)</t>
+  </si>
+  <si>
+    <t>clearPassword(file,password)</t>
+  </si>
+  <si>
+    <t>csv(file,worksheet,range,output)</t>
+  </si>
+  <si>
+    <t>setPassword(file,password)</t>
   </si>
 </sst>
 </file>
@@ -1584,7 +1599,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="41" x14ac:knownFonts="1">
+  <fonts count="56" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1849,8 +1864,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="58">
+  <fills count="85">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2175,8 +2284,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="59">
+  <borders count="87">
     <border>
       <left/>
       <right/>
@@ -2778,6 +3040,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -2785,7 +3329,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="81">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -2955,49 +3499,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="38" fillId="33" fontId="26" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="36" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="36" fontId="28" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="39" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="46" fillId="39" fontId="29" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="31" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="45" borderId="50" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="50" fillId="45" fontId="33" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="48" borderId="54" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="54" fillId="48" fontId="34" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="51" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="51" fontId="35" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="51" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="51" fontId="36" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="54" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="54" fontId="37" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="57" fontId="38" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="54" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="54" fontId="39" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="40" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="60" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="63" borderId="70" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="66" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="72" borderId="78" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="75" borderId="82" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="78" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="78" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="81" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="84" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="81" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3430,7 +4019,7 @@
         <v>73</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>506</v>
       </c>
       <c r="G2" t="s">
         <v>78</v>
@@ -3510,7 +4099,7 @@
         <v>87</v>
       </c>
       <c r="F3" t="s">
-        <v>503</v>
+        <v>48</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
@@ -3584,7 +4173,7 @@
         <v>386</v>
       </c>
       <c r="F4" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="H4" t="s">
         <v>350</v>
@@ -3655,7 +4244,7 @@
         <v>335</v>
       </c>
       <c r="F5" t="s">
-        <v>327</v>
+        <v>508</v>
       </c>
       <c r="H5" t="s">
         <v>347</v>
@@ -3717,7 +4306,7 @@
         <v>387</v>
       </c>
       <c r="F6" t="s">
-        <v>328</v>
+        <v>504</v>
       </c>
       <c r="I6" t="s">
         <v>16</v>
@@ -3773,7 +4362,7 @@
         <v>365</v>
       </c>
       <c r="F7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="I7" t="s">
         <v>79</v>
@@ -3829,7 +4418,7 @@
         <v>366</v>
       </c>
       <c r="F8" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="I8" t="s">
         <v>38</v>
@@ -3882,7 +4471,7 @@
         <v>305</v>
       </c>
       <c r="F9" t="s">
-        <v>323</v>
+        <v>509</v>
       </c>
       <c r="I9" t="s">
         <v>389</v>
@@ -3923,7 +4512,7 @@
         <v>351</v>
       </c>
       <c r="F10" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="I10" t="s">
         <v>17</v>
@@ -3960,6 +4549,9 @@
       <c r="E11" t="s">
         <v>273</v>
       </c>
+      <c r="F11" t="s">
+        <v>322</v>
+      </c>
       <c r="I11" t="s">
         <v>42</v>
       </c>
@@ -3992,6 +4584,9 @@
       <c r="E12" t="s">
         <v>262</v>
       </c>
+      <c r="F12" t="s">
+        <v>323</v>
+      </c>
       <c r="I12" t="s">
         <v>80</v>
       </c>
@@ -4021,6 +4616,9 @@
       <c r="E13" t="s">
         <v>315</v>
       </c>
+      <c r="F13" t="s">
+        <v>324</v>
+      </c>
       <c r="I13" t="s">
         <v>81</v>
       </c>
@@ -4225,7 +4823,7 @@
         <v>55</v>
       </c>
       <c r="C23" t="s">
-        <v>224</v>
+        <v>505</v>
       </c>
       <c r="E23" t="s">
         <v>289</v>
@@ -4239,7 +4837,7 @@
         <v>56</v>
       </c>
       <c r="C24" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E24" t="s">
         <v>278</v>
@@ -4253,7 +4851,7 @@
         <v>413</v>
       </c>
       <c r="C25" t="s">
-        <v>415</v>
+        <v>225</v>
       </c>
       <c r="E25" t="s">
         <v>75</v>
@@ -4267,7 +4865,7 @@
         <v>226</v>
       </c>
       <c r="C26" t="s">
-        <v>63</v>
+        <v>415</v>
       </c>
       <c r="E26" t="s">
         <v>281</v>
@@ -4278,7 +4876,7 @@
     </row>
     <row r="27">
       <c r="C27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E27" t="s">
         <v>265</v>
@@ -4289,7 +4887,7 @@
     </row>
     <row r="28">
       <c r="C28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E28" t="s">
         <v>282</v>
@@ -4300,7 +4898,7 @@
     </row>
     <row r="29">
       <c r="C29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E29" t="s">
         <v>283</v>
@@ -4311,7 +4909,7 @@
     </row>
     <row r="30">
       <c r="C30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E30" t="s">
         <v>215</v>
@@ -4322,7 +4920,7 @@
     </row>
     <row r="31">
       <c r="C31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E31" t="s">
         <v>274</v>
@@ -4333,7 +4931,7 @@
     </row>
     <row r="32">
       <c r="C32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E32" t="s">
         <v>284</v>
@@ -4344,7 +4942,7 @@
     </row>
     <row r="33">
       <c r="C33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E33" t="s">
         <v>259</v>
@@ -4354,6 +4952,9 @@
       </c>
     </row>
     <row r="34">
+      <c r="C34" t="s">
+        <v>70</v>
+      </c>
       <c r="E34" t="s">
         <v>329</v>
       </c>

--- a/artifact/script/web-05.xlsx
+++ b/artifact/script/web-05.xlsx
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$114</definedName>
+    <definedName name="web">'#system'!$U$2:$U$115</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1973" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2899" uniqueCount="512">
   <si>
     <t>description</t>
   </si>
@@ -1592,6 +1592,12 @@
   </si>
   <si>
     <t>setPassword(file,password)</t>
+  </si>
+  <si>
+    <t>saveDivsAsCsv(headerCellsLoc,rowLocator,cellLocator,nextPageLocator,file)</t>
+  </si>
+  <si>
+    <t>saveDivsAsCsv(headers,rows,cells,nextPage,file)</t>
   </si>
 </sst>
 </file>
@@ -1599,7 +1605,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="56" x14ac:knownFonts="1">
+  <fonts count="86" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1958,8 +1964,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="85">
+  <fills count="139">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2437,8 +2631,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="87">
+  <borders count="143">
     <border>
       <left/>
       <right/>
@@ -3322,6 +3822,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -3329,7 +4393,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="111">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3544,49 +4608,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="40" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="60" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="66" fillId="60" fontId="41" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="42" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="63" borderId="70" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="70" fillId="63" fontId="43" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="66" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="74" fillId="66" fontId="44" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="45" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="46" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="47" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="72" borderId="78" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="78" fillId="72" fontId="48" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="75" borderId="82" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="82" fillId="75" fontId="49" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="78" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="78" fontId="50" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="78" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="78" fontId="51" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="81" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="81" fontId="52" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="84" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="53" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="81" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="81" fontId="54" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="55" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="94" fillId="87" fontId="56" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="57" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="90" fontId="58" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="102" fillId="93" fontId="59" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="60" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="61" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="62" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="106" fillId="99" fontId="63" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="110" fillId="102" fontId="64" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="105" fontId="65" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="105" fontId="66" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="108" fontId="67" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="68" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="108" fontId="69" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="70" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="114" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="117" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="120" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="126" borderId="134" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="129" borderId="138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="132" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="132" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="138" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3911,7 +5065,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA114"/>
+  <dimension ref="A1:AA115"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -5303,7 +6457,7 @@
         <v>428</v>
       </c>
       <c r="U77" t="s">
-        <v>200</v>
+        <v>511</v>
       </c>
     </row>
     <row r="78">
@@ -5311,7 +6465,7 @@
         <v>331</v>
       </c>
       <c r="U78" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="79">
@@ -5319,7 +6473,7 @@
         <v>269</v>
       </c>
       <c r="U79" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
     </row>
     <row r="80">
@@ -5327,7 +6481,7 @@
         <v>280</v>
       </c>
       <c r="U80" t="s">
-        <v>147</v>
+        <v>214</v>
       </c>
     </row>
     <row r="81">
@@ -5335,7 +6489,7 @@
         <v>286</v>
       </c>
       <c r="U81" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
     </row>
     <row r="82">
@@ -5343,7 +6497,7 @@
         <v>275</v>
       </c>
       <c r="U82" t="s">
-        <v>456</v>
+        <v>202</v>
       </c>
     </row>
     <row r="83">
@@ -5351,7 +6505,7 @@
         <v>270</v>
       </c>
       <c r="U83" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
     </row>
     <row r="84">
@@ -5359,7 +6513,7 @@
         <v>287</v>
       </c>
       <c r="U84" t="s">
-        <v>203</v>
+        <v>466</v>
       </c>
     </row>
     <row r="85">
@@ -5367,7 +6521,7 @@
         <v>271</v>
       </c>
       <c r="U85" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="86">
@@ -5375,7 +6529,7 @@
         <v>272</v>
       </c>
       <c r="U86" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="87">
@@ -5383,7 +6537,7 @@
         <v>304</v>
       </c>
       <c r="U87" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="88">
@@ -5391,7 +6545,7 @@
         <v>310</v>
       </c>
       <c r="U88" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
     </row>
     <row r="89">
@@ -5399,7 +6553,7 @@
         <v>294</v>
       </c>
       <c r="U89" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
     </row>
     <row r="90">
@@ -5407,7 +6561,7 @@
         <v>339</v>
       </c>
       <c r="U90" t="s">
-        <v>148</v>
+        <v>207</v>
       </c>
     </row>
     <row r="91">
@@ -5415,7 +6569,7 @@
         <v>276</v>
       </c>
       <c r="U91" t="s">
-        <v>382</v>
+        <v>148</v>
       </c>
     </row>
     <row r="92">
@@ -5423,116 +6577,121 @@
         <v>277</v>
       </c>
       <c r="U92" t="s">
-        <v>149</v>
+        <v>382</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>495</v>
+        <v>161</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>162</v>
+        <v>495</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>47</v>
+        <v>165</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>166</v>
+        <v>47</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="114">
       <c r="U114" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="U115" t="s">
         <v>169</v>
       </c>
     </row>

--- a/artifact/script/web-05.xlsx
+++ b/artifact/script/web-05.xlsx
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$115</definedName>
+    <definedName name="web">'#system'!$U$2:$U$116</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2899" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3363" uniqueCount="513">
   <si>
     <t>description</t>
   </si>
@@ -1598,6 +1598,9 @@
   </si>
   <si>
     <t>saveDivsAsCsv(headers,rows,cells,nextPage,file)</t>
+  </si>
+  <si>
+    <t>openHttpBasic(url,username,password)</t>
   </si>
 </sst>
 </file>
@@ -1605,7 +1608,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="86" x14ac:knownFonts="1">
+  <fonts count="101" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2152,8 +2155,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="139">
+  <fills count="166">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2937,8 +3034,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="143">
+  <borders count="171">
     <border>
       <left/>
       <right/>
@@ -4386,6 +4636,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4393,7 +4925,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="126">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4698,49 +5230,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="70" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="114" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="122" fillId="114" fontId="71" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="72" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="117" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="126" fillId="117" fontId="73" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="120" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="120" fontId="74" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="75" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="76" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="77" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="126" borderId="134" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="134" fillId="126" fontId="78" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="129" borderId="138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="138" fillId="129" fontId="79" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="132" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="132" fontId="80" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="132" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="132" fontId="81" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="82" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="138" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="138" fontId="83" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="84" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="85" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="141" borderId="150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="144" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="147" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="153" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="156" borderId="166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="159" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="159" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5065,7 +5642,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA115"/>
+  <dimension ref="A1:AA116"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -6401,7 +6978,7 @@
         <v>303</v>
       </c>
       <c r="U70" t="s">
-        <v>142</v>
+        <v>512</v>
       </c>
     </row>
     <row r="71">
@@ -6409,7 +6986,7 @@
         <v>410</v>
       </c>
       <c r="U71" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="72">
@@ -6417,7 +6994,7 @@
         <v>261</v>
       </c>
       <c r="U72" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="73">
@@ -6425,7 +7002,7 @@
         <v>343</v>
       </c>
       <c r="U73" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="74">
@@ -6433,7 +7010,7 @@
         <v>279</v>
       </c>
       <c r="U74" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="75">
@@ -6441,7 +7018,7 @@
         <v>285</v>
       </c>
       <c r="U75" t="s">
-        <v>198</v>
+        <v>146</v>
       </c>
     </row>
     <row r="76">
@@ -6449,7 +7026,7 @@
         <v>290</v>
       </c>
       <c r="U76" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="77">
@@ -6457,7 +7034,7 @@
         <v>428</v>
       </c>
       <c r="U77" t="s">
-        <v>511</v>
+        <v>199</v>
       </c>
     </row>
     <row r="78">
@@ -6465,7 +7042,7 @@
         <v>331</v>
       </c>
       <c r="U78" t="s">
-        <v>200</v>
+        <v>511</v>
       </c>
     </row>
     <row r="79">
@@ -6473,7 +7050,7 @@
         <v>269</v>
       </c>
       <c r="U79" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="80">
@@ -6481,7 +7058,7 @@
         <v>280</v>
       </c>
       <c r="U80" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
     </row>
     <row r="81">
@@ -6489,7 +7066,7 @@
         <v>286</v>
       </c>
       <c r="U81" t="s">
-        <v>147</v>
+        <v>214</v>
       </c>
     </row>
     <row r="82">
@@ -6497,7 +7074,7 @@
         <v>275</v>
       </c>
       <c r="U82" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
     </row>
     <row r="83">
@@ -6505,7 +7082,7 @@
         <v>270</v>
       </c>
       <c r="U83" t="s">
-        <v>456</v>
+        <v>202</v>
       </c>
     </row>
     <row r="84">
@@ -6513,7 +7090,7 @@
         <v>287</v>
       </c>
       <c r="U84" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
     </row>
     <row r="85">
@@ -6521,7 +7098,7 @@
         <v>271</v>
       </c>
       <c r="U85" t="s">
-        <v>203</v>
+        <v>466</v>
       </c>
     </row>
     <row r="86">
@@ -6529,7 +7106,7 @@
         <v>272</v>
       </c>
       <c r="U86" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="87">
@@ -6537,7 +7114,7 @@
         <v>304</v>
       </c>
       <c r="U87" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="88">
@@ -6545,7 +7122,7 @@
         <v>310</v>
       </c>
       <c r="U88" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="89">
@@ -6553,7 +7130,7 @@
         <v>294</v>
       </c>
       <c r="U89" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
     </row>
     <row r="90">
@@ -6561,7 +7138,7 @@
         <v>339</v>
       </c>
       <c r="U90" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
     </row>
     <row r="91">
@@ -6569,7 +7146,7 @@
         <v>276</v>
       </c>
       <c r="U91" t="s">
-        <v>148</v>
+        <v>207</v>
       </c>
     </row>
     <row r="92">
@@ -6577,121 +7154,126 @@
         <v>277</v>
       </c>
       <c r="U92" t="s">
-        <v>382</v>
+        <v>148</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>149</v>
+        <v>382</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>495</v>
+        <v>161</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>162</v>
+        <v>495</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>47</v>
+        <v>165</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>166</v>
+        <v>47</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="114">
       <c r="U114" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="115">
       <c r="U115" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="U116" t="s">
         <v>169</v>
       </c>
     </row>

--- a/artifact/script/web-05.xlsx
+++ b/artifact/script/web-05.xlsx
@@ -23,7 +23,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$13</definedName>
+    <definedName name="excel">'#system'!$F$2:$F$14</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3363" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3828" uniqueCount="514">
   <si>
     <t>description</t>
   </si>
@@ -1601,6 +1601,9 @@
   </si>
   <si>
     <t>openHttpBasic(url,username,password)</t>
+  </si>
+  <si>
+    <t>columnarCsv(file,worksheet,ranges,output)</t>
   </si>
 </sst>
 </file>
@@ -1608,7 +1611,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="101" x14ac:knownFonts="1">
+  <fonts count="116" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2249,8 +2252,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="166">
+  <fills count="193">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3187,8 +3284,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="171">
+  <borders count="199">
     <border>
       <left/>
       <right/>
@@ -4918,6 +5168,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4925,7 +5457,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="141">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5275,49 +5807,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="85" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="141" borderId="150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="150" fillId="141" fontId="86" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="87" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="144" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="154" fillId="144" fontId="88" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="89" fillId="147" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="147" fontId="89" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="90" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="91" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="92" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="153" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="162" fillId="153" fontId="93" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="156" borderId="166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="166" fillId="156" fontId="94" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="159" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="159" fontId="95" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="159" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="159" fontId="96" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="97" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="162" fontId="97" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="98" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="165" fontId="98" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="99" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="162" fontId="99" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="100" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="168" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="171" borderId="182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="174" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="180" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="183" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="186" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="186" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5975,7 +6552,7 @@
         <v>335</v>
       </c>
       <c r="F5" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="H5" t="s">
         <v>347</v>
@@ -6037,7 +6614,7 @@
         <v>387</v>
       </c>
       <c r="F6" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="I6" t="s">
         <v>16</v>
@@ -6093,7 +6670,7 @@
         <v>365</v>
       </c>
       <c r="F7" t="s">
-        <v>327</v>
+        <v>504</v>
       </c>
       <c r="I7" t="s">
         <v>79</v>
@@ -6149,7 +6726,7 @@
         <v>366</v>
       </c>
       <c r="F8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I8" t="s">
         <v>38</v>
@@ -6202,7 +6779,7 @@
         <v>305</v>
       </c>
       <c r="F9" t="s">
-        <v>509</v>
+        <v>328</v>
       </c>
       <c r="I9" t="s">
         <v>389</v>
@@ -6243,7 +6820,7 @@
         <v>351</v>
       </c>
       <c r="F10" t="s">
-        <v>321</v>
+        <v>509</v>
       </c>
       <c r="I10" t="s">
         <v>17</v>
@@ -6281,7 +6858,7 @@
         <v>273</v>
       </c>
       <c r="F11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I11" t="s">
         <v>42</v>
@@ -6316,7 +6893,7 @@
         <v>262</v>
       </c>
       <c r="F12" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I12" t="s">
         <v>80</v>
@@ -6348,7 +6925,7 @@
         <v>315</v>
       </c>
       <c r="F13" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I13" t="s">
         <v>81</v>
@@ -6378,6 +6955,9 @@
       </c>
       <c r="E14" t="s">
         <v>263</v>
+      </c>
+      <c r="F14" t="s">
+        <v>324</v>
       </c>
       <c r="I14" t="s">
         <v>82</v>

--- a/artifact/script/web-05.xlsx
+++ b/artifact/script/web-05.xlsx
@@ -26,7 +26,7 @@
     <definedName name="excel">'#system'!$F$2:$F$14</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$22</definedName>
+    <definedName name="io">'#system'!$I$2:$I$23</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
     <definedName name="json">'#system'!$K$2:$K$14</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3828" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4760" uniqueCount="515">
   <si>
     <t>description</t>
   </si>
@@ -1604,6 +1604,9 @@
   </si>
   <si>
     <t>columnarCsv(file,worksheet,ranges,output)</t>
+  </si>
+  <si>
+    <t>rename(target,newName)</t>
   </si>
 </sst>
 </file>
@@ -1611,7 +1614,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="116" x14ac:knownFonts="1">
+  <fonts count="146" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2346,8 +2349,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="193">
+  <fills count="247">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3437,8 +3628,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="199">
+  <borders count="255">
     <border>
       <left/>
       <right/>
@@ -5450,6 +5947,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -5457,7 +6518,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="171">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5852,49 +6913,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="100" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="101" fillId="168" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="178" fillId="168" fontId="101" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="102" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="103" fillId="171" borderId="182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="182" fillId="171" fontId="103" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="104" fillId="174" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="174" fontId="104" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="105" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="106" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="106" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="107" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="108" fillId="180" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="190" fillId="180" fontId="108" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="109" fillId="183" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="194" fillId="183" fontId="109" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="110" fillId="186" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="186" fontId="110" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="111" fillId="186" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="186" fontId="111" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="112" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="189" fontId="112" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="113" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="192" fontId="113" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="114" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="189" fontId="114" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="115" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="206" fillId="195" fontId="116" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="117" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="210" fillId="198" fontId="118" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="214" fillId="201" fontId="119" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="120" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="204" fontId="121" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="122" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="218" fillId="207" fontId="123" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="222" fillId="210" fontId="124" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="213" fontId="125" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="213" fontId="126" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="216" fontId="127" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="219" fontId="128" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="216" fontId="129" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="130" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="222" borderId="234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="225" borderId="238" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="228" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="234" borderId="246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="237" borderId="250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="240" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="240" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="246" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6960,7 +8111,7 @@
         <v>324</v>
       </c>
       <c r="I14" t="s">
-        <v>82</v>
+        <v>514</v>
       </c>
       <c r="K14" t="s">
         <v>43</v>
@@ -6989,7 +8140,7 @@
         <v>264</v>
       </c>
       <c r="I15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M15" t="s">
         <v>95</v>
@@ -7015,7 +8166,7 @@
         <v>316</v>
       </c>
       <c r="I16" t="s">
-        <v>379</v>
+        <v>83</v>
       </c>
       <c r="N16" t="s">
         <v>251</v>
@@ -7038,7 +8189,7 @@
         <v>88</v>
       </c>
       <c r="I17" t="s">
-        <v>44</v>
+        <v>379</v>
       </c>
       <c r="U17" t="s">
         <v>104</v>
@@ -7055,7 +8206,7 @@
         <v>89</v>
       </c>
       <c r="I18" t="s">
-        <v>391</v>
+        <v>44</v>
       </c>
       <c r="U18" t="s">
         <v>105</v>
@@ -7072,7 +8223,7 @@
         <v>295</v>
       </c>
       <c r="I19" t="s">
-        <v>84</v>
+        <v>391</v>
       </c>
       <c r="U19" t="s">
         <v>106</v>
@@ -7089,7 +8240,7 @@
         <v>296</v>
       </c>
       <c r="I20" t="s">
-        <v>497</v>
+        <v>84</v>
       </c>
       <c r="U20" t="s">
         <v>107</v>
@@ -7106,7 +8257,7 @@
         <v>297</v>
       </c>
       <c r="I21" t="s">
-        <v>45</v>
+        <v>497</v>
       </c>
       <c r="U21" t="s">
         <v>108</v>
@@ -7123,7 +8274,7 @@
         <v>298</v>
       </c>
       <c r="I22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U22" t="s">
         <v>109</v>
@@ -7138,6 +8289,9 @@
       </c>
       <c r="E23" t="s">
         <v>289</v>
+      </c>
+      <c r="I23" t="s">
+        <v>46</v>
       </c>
       <c r="U23" t="s">
         <v>110</v>

--- a/artifact/script/web-05.xlsx
+++ b/artifact/script/web-05.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$34</definedName>
+    <definedName name="base">'#system'!$C$2:$C$36</definedName>
     <definedName name="csv">'#system'!$D$2:$D$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4760" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5696" uniqueCount="517">
   <si>
     <t>description</t>
   </si>
@@ -1607,6 +1607,12 @@
   </si>
   <si>
     <t>rename(target,newName)</t>
+  </si>
+  <si>
+    <t>assertArrayContain(array,expected)</t>
+  </si>
+  <si>
+    <t>assertArrayNotContain(array,unexpected)</t>
   </si>
 </sst>
 </file>
@@ -1614,7 +1620,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="146" x14ac:knownFonts="1">
+  <fonts count="176" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2537,8 +2543,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="247">
+  <fills count="301">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3934,8 +4128,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="255">
+  <borders count="311">
     <border>
       <left/>
       <right/>
@@ -6511,6 +7011,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -6518,7 +7582,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="171">
+  <cellXfs count="201">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -7003,49 +8067,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="130" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="131" fillId="222" borderId="234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="234" fillId="222" fontId="131" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="132" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="133" fillId="225" borderId="238" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="238" fillId="225" fontId="133" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="134" fillId="228" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="242" fillId="228" fontId="134" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="135" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="136" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="231" fontId="136" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="137" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="138" fillId="234" borderId="246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="246" fillId="234" fontId="138" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="139" fillId="237" borderId="250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="250" fillId="237" fontId="139" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="140" fillId="240" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="240" fontId="140" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="141" fillId="240" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="240" fontId="141" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="142" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="243" fontId="142" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="143" fillId="246" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="246" fontId="143" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="144" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="243" fontId="144" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="145" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="262" fillId="249" fontId="146" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="147" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="266" fillId="252" fontId="148" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="270" fillId="255" fontId="149" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="150" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="258" fontId="151" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="152" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="274" fillId="261" fontId="153" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="278" fillId="264" fontId="154" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="267" fontId="155" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="267" fontId="156" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="270" fontId="157" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="273" fontId="158" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="270" fontId="159" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="160" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="276" borderId="290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="279" borderId="294" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="282" borderId="298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="285" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="288" borderId="302" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="291" borderId="306" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="294" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="294" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="297" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="300" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="297" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7549,7 +8703,7 @@
         <v>372</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>515</v>
       </c>
       <c r="D3" t="s">
         <v>364</v>
@@ -7623,7 +8777,7 @@
         <v>373</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>72</v>
@@ -7694,7 +8848,7 @@
         <v>374</v>
       </c>
       <c r="C5" t="s">
-        <v>223</v>
+        <v>516</v>
       </c>
       <c r="D5" t="s">
         <v>496</v>
@@ -7759,7 +8913,7 @@
         <v>375</v>
       </c>
       <c r="C6" t="s">
-        <v>317</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
         <v>387</v>
@@ -7815,7 +8969,7 @@
         <v>376</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>223</v>
       </c>
       <c r="E7" t="s">
         <v>365</v>
@@ -7871,7 +9025,7 @@
         <v>377</v>
       </c>
       <c r="C8" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="E8" t="s">
         <v>366</v>
@@ -7924,7 +9078,7 @@
         <v>378</v>
       </c>
       <c r="C9" t="s">
-        <v>254</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
         <v>305</v>
@@ -7965,7 +9119,7 @@
         <v>332</v>
       </c>
       <c r="C10" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E10" t="s">
         <v>351</v>
@@ -8003,7 +9157,7 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>340</v>
+        <v>254</v>
       </c>
       <c r="E11" t="s">
         <v>273</v>
@@ -8038,7 +9192,7 @@
         <v>195</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="E12" t="s">
         <v>262</v>
@@ -8070,7 +9224,7 @@
         <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>340</v>
       </c>
       <c r="E13" t="s">
         <v>315</v>
@@ -8102,7 +9256,7 @@
         <v>238</v>
       </c>
       <c r="C14" t="s">
-        <v>384</v>
+        <v>37</v>
       </c>
       <c r="E14" t="s">
         <v>263</v>
@@ -8134,7 +9288,7 @@
         <v>52</v>
       </c>
       <c r="C15" t="s">
-        <v>385</v>
+        <v>58</v>
       </c>
       <c r="E15" t="s">
         <v>264</v>
@@ -8160,7 +9314,7 @@
         <v>395</v>
       </c>
       <c r="C16" t="s">
-        <v>414</v>
+        <v>384</v>
       </c>
       <c r="E16" t="s">
         <v>316</v>
@@ -8183,7 +9337,7 @@
         <v>411</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>385</v>
       </c>
       <c r="E17" t="s">
         <v>88</v>
@@ -8200,7 +9354,7 @@
         <v>412</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>414</v>
       </c>
       <c r="E18" t="s">
         <v>89</v>
@@ -8217,7 +9371,7 @@
         <v>356</v>
       </c>
       <c r="C19" t="s">
-        <v>255</v>
+        <v>59</v>
       </c>
       <c r="E19" t="s">
         <v>295</v>
@@ -8234,7 +9388,7 @@
         <v>396</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E20" t="s">
         <v>296</v>
@@ -8251,7 +9405,7 @@
         <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>320</v>
+        <v>255</v>
       </c>
       <c r="E21" t="s">
         <v>297</v>
@@ -8268,7 +9422,7 @@
         <v>54</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E22" t="s">
         <v>298</v>
@@ -8285,7 +9439,7 @@
         <v>55</v>
       </c>
       <c r="C23" t="s">
-        <v>505</v>
+        <v>320</v>
       </c>
       <c r="E23" t="s">
         <v>289</v>
@@ -8302,7 +9456,7 @@
         <v>56</v>
       </c>
       <c r="C24" t="s">
-        <v>224</v>
+        <v>62</v>
       </c>
       <c r="E24" t="s">
         <v>278</v>
@@ -8316,7 +9470,7 @@
         <v>413</v>
       </c>
       <c r="C25" t="s">
-        <v>225</v>
+        <v>505</v>
       </c>
       <c r="E25" t="s">
         <v>75</v>
@@ -8330,7 +9484,7 @@
         <v>226</v>
       </c>
       <c r="C26" t="s">
-        <v>415</v>
+        <v>224</v>
       </c>
       <c r="E26" t="s">
         <v>281</v>
@@ -8341,7 +9495,7 @@
     </row>
     <row r="27">
       <c r="C27" t="s">
-        <v>63</v>
+        <v>225</v>
       </c>
       <c r="E27" t="s">
         <v>265</v>
@@ -8352,7 +9506,7 @@
     </row>
     <row r="28">
       <c r="C28" t="s">
-        <v>64</v>
+        <v>415</v>
       </c>
       <c r="E28" t="s">
         <v>282</v>
@@ -8363,7 +9517,7 @@
     </row>
     <row r="29">
       <c r="C29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E29" t="s">
         <v>283</v>
@@ -8374,7 +9528,7 @@
     </row>
     <row r="30">
       <c r="C30" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E30" t="s">
         <v>215</v>
@@ -8385,7 +9539,7 @@
     </row>
     <row r="31">
       <c r="C31" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E31" t="s">
         <v>274</v>
@@ -8396,7 +9550,7 @@
     </row>
     <row r="32">
       <c r="C32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E32" t="s">
         <v>284</v>
@@ -8407,7 +9561,7 @@
     </row>
     <row r="33">
       <c r="C33" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E33" t="s">
         <v>259</v>
@@ -8418,7 +9572,7 @@
     </row>
     <row r="34">
       <c r="C34" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E34" t="s">
         <v>329</v>
@@ -8428,6 +9582,9 @@
       </c>
     </row>
     <row r="35">
+      <c r="C35" t="s">
+        <v>69</v>
+      </c>
       <c r="E35" t="s">
         <v>306</v>
       </c>
@@ -8436,6 +9593,9 @@
       </c>
     </row>
     <row r="36">
+      <c r="C36" t="s">
+        <v>70</v>
+      </c>
       <c r="E36" t="s">
         <v>260</v>
       </c>

--- a/artifact/script/web-05.xlsx
+++ b/artifact/script/web-05.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10904"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11008"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/tutorials/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{58349933-5936-F843-9A3E-9DA4F72874ED}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37"/>
+  <xr:revisionPtr documentId="13_ncr:1_{95884A42-2F3F-A443-B848-8C2DCBFDF1E4}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38"/>
   <bookViews>
-    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="21040" windowWidth="51200" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="10960"/>
+    <workbookView activeTab="1" tabRatio="500" windowHeight="21040" windowWidth="51200" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="10960" firstSheet="1"/>
   </bookViews>
   <sheets>
     <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$116</definedName>
+    <definedName name="web">'#system'!$U$2:$U$117</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5696" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="518">
   <si>
     <t>description</t>
   </si>
@@ -1573,9 +1573,6 @@
     <t>web automation workshop 05 - BrowserStack</t>
   </si>
   <si>
-    <t>csv(file,worksheet,range,header,output)</t>
-  </si>
-  <si>
     <t>json(file,worksheet,range,header,output)</t>
   </si>
   <si>
@@ -1594,9 +1591,6 @@
     <t>setPassword(file,password)</t>
   </si>
   <si>
-    <t>saveDivsAsCsv(headerCellsLoc,rowLocator,cellLocator,nextPageLocator,file)</t>
-  </si>
-  <si>
     <t>saveDivsAsCsv(headers,rows,cells,nextPage,file)</t>
   </si>
   <si>
@@ -1613,6 +1607,15 @@
   </si>
   <si>
     <t>assertArrayNotContain(array,unexpected)</t>
+  </si>
+  <si>
+    <t>dummy</t>
+  </si>
+  <si>
+    <t>alert("running Nexial on ${nexial.browser}…");</t>
+  </si>
+  <si>
+    <t>deselect(locator,text)</t>
   </si>
 </sst>
 </file>
@@ -1620,7 +1623,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="176" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1791,948 +1794,8 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="3E511F"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="823C3C"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="5A5A32"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="12284A"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="0000FF"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="006100"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="808080"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="3E511F"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="823C3C"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="5A5A32"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="12284A"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="0000FF"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="006100"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="808080"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="3E511F"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="823C3C"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="5A5A32"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="12284A"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="0000FF"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="006100"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="808080"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="3E511F"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="823C3C"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="5A5A32"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="12284A"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="0000FF"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="006100"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="808080"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="3E511F"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="823C3C"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="5A5A32"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="12284A"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="0000FF"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="006100"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="808080"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="3E511F"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="823C3C"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="5A5A32"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="12284A"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="0000FF"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="006100"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="808080"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="3E511F"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="823C3C"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="5A5A32"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="12284A"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="0000FF"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="006100"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="808080"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="3E511F"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="823C3C"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="5A5A32"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="12284A"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="0000FF"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="006100"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="808080"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="3E511F"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="823C3C"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="5A5A32"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="12284A"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="0000FF"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="006100"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="808080"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="3E511F"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="823C3C"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="5A5A32"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="12284A"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="0000FF"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="006100"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="808080"/>
-      <u val="none"/>
-    </font>
   </fonts>
-  <fills count="301">
+  <fills count="31">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2904,1538 +1967,8 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6D7D7"/>
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6D7D7"/>
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6D7D7"/>
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6D7D7"/>
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6D7D7"/>
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6D7D7"/>
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6D7D7"/>
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6D7D7"/>
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6D7D7"/>
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6D7D7"/>
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6D7D7"/>
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6D7D7"/>
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6D7D7"/>
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6D7D7"/>
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6D7D7"/>
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6D7D7"/>
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6D7D7"/>
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6D7D7"/>
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6D7D7"/>
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6D7D7"/>
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="311">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -4755,2826 +2288,6 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin">
-        <color rgb="C8B4B4"/>
-      </right>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="BEC8CD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="BEC8CD"/>
-      </left>
-      <right style="thin">
-        <color rgb="BEC8CD"/>
-      </right>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDC3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDC3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDC3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin">
-        <color rgb="DCDCDC"/>
-      </right>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDCDCD"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="C3C3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin">
-        <color rgb="C8B4B4"/>
-      </right>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="BEC8CD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="BEC8CD"/>
-      </left>
-      <right style="thin">
-        <color rgb="BEC8CD"/>
-      </right>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDC3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDC3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDC3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin">
-        <color rgb="DCDCDC"/>
-      </right>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDCDCD"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="C3C3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin">
-        <color rgb="C8B4B4"/>
-      </right>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="BEC8CD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="BEC8CD"/>
-      </left>
-      <right style="thin">
-        <color rgb="BEC8CD"/>
-      </right>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDC3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDC3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDC3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin">
-        <color rgb="DCDCDC"/>
-      </right>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDCDCD"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="C3C3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin">
-        <color rgb="C8B4B4"/>
-      </right>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="BEC8CD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="BEC8CD"/>
-      </left>
-      <right style="thin">
-        <color rgb="BEC8CD"/>
-      </right>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDC3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDC3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDC3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin">
-        <color rgb="DCDCDC"/>
-      </right>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDCDCD"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="C3C3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin">
-        <color rgb="C8B4B4"/>
-      </right>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="BEC8CD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="BEC8CD"/>
-      </left>
-      <right style="thin">
-        <color rgb="BEC8CD"/>
-      </right>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDC3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDC3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDC3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin">
-        <color rgb="DCDCDC"/>
-      </right>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDCDCD"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="C3C3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin">
-        <color rgb="C8B4B4"/>
-      </right>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="BEC8CD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="BEC8CD"/>
-      </left>
-      <right style="thin">
-        <color rgb="BEC8CD"/>
-      </right>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDC3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDC3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDC3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin">
-        <color rgb="DCDCDC"/>
-      </right>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDCDCD"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="C3C3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin">
-        <color rgb="C8B4B4"/>
-      </right>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="BEC8CD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="BEC8CD"/>
-      </left>
-      <right style="thin">
-        <color rgb="BEC8CD"/>
-      </right>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDC3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDC3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDC3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin">
-        <color rgb="DCDCDC"/>
-      </right>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDCDCD"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="C3C3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin">
-        <color rgb="C8B4B4"/>
-      </right>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="BEC8CD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="BEC8CD"/>
-      </left>
-      <right style="thin">
-        <color rgb="BEC8CD"/>
-      </right>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDC3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDC3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDC3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin">
-        <color rgb="DCDCDC"/>
-      </right>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDCDCD"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="C3C3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin">
-        <color rgb="C8B4B4"/>
-      </right>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="BEC8CD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="BEC8CD"/>
-      </left>
-      <right style="thin">
-        <color rgb="BEC8CD"/>
-      </right>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDC3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDC3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDC3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin">
-        <color rgb="DCDCDC"/>
-      </right>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDCDCD"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="C3C3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin">
-        <color rgb="C8B4B4"/>
-      </right>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="BEC8CD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="BEC8CD"/>
-      </left>
-      <right style="thin">
-        <color rgb="BEC8CD"/>
-      </right>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDC3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDC3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDC3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin">
-        <color rgb="DCDCDC"/>
-      </right>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDCDCD"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="C3C3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -7582,7 +2295,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="201">
+  <cellXfs count="51">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -7686,19 +2399,19 @@
     <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="6" numFmtId="49" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -7707,499 +2420,49 @@
     <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="10" fillId="6" fontId="11" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="14" fillId="9" fontId="13" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="14" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="12" fontId="14" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="16" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="18" fontId="18" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="26" fillId="21" fontId="19" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="26" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="24" fontId="20" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="24" fontId="21" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="27" fontId="22" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="30" fontId="23" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="27" fontId="24" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="38" fillId="33" fontId="26" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="36" fontId="28" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="46" fillId="39" fontId="29" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="31" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="50" fillId="45" fontId="33" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="54" fillId="48" fontId="34" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="51" fontId="35" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="51" fontId="36" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="54" fontId="37" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="57" fontId="38" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="54" fontId="39" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="40" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="66" fillId="60" fontId="41" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="42" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="70" fillId="63" fontId="43" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="74" fillId="66" fontId="44" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="45" numFmtId="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="46" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="47" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="78" fillId="72" fontId="48" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="82" fillId="75" fontId="49" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="78" fontId="50" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="78" fontId="51" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="81" fontId="52" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="53" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="81" fontId="54" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="55" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="94" fillId="87" fontId="56" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="57" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="90" fontId="58" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="102" fillId="93" fontId="59" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="60" numFmtId="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="61" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="62" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="106" fillId="99" fontId="63" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="110" fillId="102" fontId="64" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="105" fontId="65" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="105" fontId="66" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="108" fontId="67" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="68" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="108" fontId="69" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="70" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="122" fillId="114" fontId="71" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="72" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="126" fillId="117" fontId="73" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="120" fontId="74" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="75" numFmtId="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="76" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="77" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="134" fillId="126" fontId="78" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="138" fillId="129" fontId="79" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="132" fontId="80" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="132" fontId="81" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="82" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="138" fontId="83" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="84" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="85" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="150" fillId="141" fontId="86" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="87" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="154" fillId="144" fontId="88" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="147" fontId="89" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="90" numFmtId="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="91" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="92" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="162" fillId="153" fontId="93" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="166" fillId="156" fontId="94" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="159" fontId="95" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="159" fontId="96" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="162" fontId="97" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="165" fontId="98" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="162" fontId="99" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="100" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="178" fillId="168" fontId="101" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="102" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="182" fillId="171" fontId="103" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="174" fontId="104" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="105" numFmtId="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="106" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="107" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="190" fillId="180" fontId="108" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="194" fillId="183" fontId="109" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="186" fontId="110" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="186" fontId="111" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="189" fontId="112" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="192" fontId="113" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="189" fontId="114" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="115" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="206" fillId="195" fontId="116" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="117" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="210" fillId="198" fontId="118" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="214" fillId="201" fontId="119" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="120" numFmtId="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="204" fontId="121" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="122" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="218" fillId="207" fontId="123" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="222" fillId="210" fontId="124" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="213" fontId="125" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="213" fontId="126" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="216" fontId="127" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="219" fontId="128" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="216" fontId="129" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="130" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="234" fillId="222" fontId="131" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="132" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="238" fillId="225" fontId="133" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="242" fillId="228" fontId="134" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="135" numFmtId="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="231" fontId="136" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="137" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="246" fillId="234" fontId="138" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="250" fillId="237" fontId="139" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="240" fontId="140" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="240" fontId="141" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="243" fontId="142" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="246" fontId="143" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="243" fontId="144" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="145" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="262" fillId="249" fontId="146" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="147" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="266" fillId="252" fontId="148" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="270" fillId="255" fontId="149" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="150" numFmtId="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="258" fontId="151" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="152" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="274" fillId="261" fontId="153" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="278" fillId="264" fontId="154" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="267" fontId="155" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="267" fontId="156" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="270" fontId="157" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="273" fontId="158" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="270" fontId="159" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="160" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="161" fillId="276" borderId="290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="163" fillId="279" borderId="294" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="164" fillId="282" borderId="298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="165" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="166" fillId="285" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="168" fillId="288" borderId="302" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="169" fillId="291" borderId="306" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="170" fillId="294" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="171" fillId="294" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="172" fillId="297" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="173" fillId="300" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="174" fillId="297" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="175" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8524,9 +2787,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA116"/>
+  <dimension ref="A1:AA117"/>
   <sheetViews>
-    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
+    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" tabSelected="false">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -8632,7 +2895,7 @@
         <v>73</v>
       </c>
       <c r="F2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G2" t="s">
         <v>78</v>
@@ -8703,7 +2966,7 @@
         <v>372</v>
       </c>
       <c r="C3" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D3" t="s">
         <v>364</v>
@@ -8786,7 +3049,7 @@
         <v>386</v>
       </c>
       <c r="F4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H4" t="s">
         <v>350</v>
@@ -8848,7 +3111,7 @@
         <v>374</v>
       </c>
       <c r="C5" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D5" t="s">
         <v>496</v>
@@ -8857,7 +3120,7 @@
         <v>335</v>
       </c>
       <c r="F5" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="H5" t="s">
         <v>347</v>
@@ -8919,7 +3182,7 @@
         <v>387</v>
       </c>
       <c r="F6" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I6" t="s">
         <v>16</v>
@@ -8975,7 +3238,7 @@
         <v>365</v>
       </c>
       <c r="F7" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="I7" t="s">
         <v>79</v>
@@ -9125,7 +3388,7 @@
         <v>351</v>
       </c>
       <c r="F10" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I10" t="s">
         <v>17</v>
@@ -9265,7 +3528,7 @@
         <v>324</v>
       </c>
       <c r="I14" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="K14" t="s">
         <v>43</v>
@@ -9470,7 +3733,7 @@
         <v>413</v>
       </c>
       <c r="C25" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E25" t="s">
         <v>75</v>
@@ -9736,7 +3999,7 @@
         <v>267</v>
       </c>
       <c r="U53" t="s">
-        <v>131</v>
+        <v>517</v>
       </c>
     </row>
     <row r="54">
@@ -9744,7 +4007,7 @@
         <v>291</v>
       </c>
       <c r="U54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="55">
@@ -9752,7 +4015,7 @@
         <v>292</v>
       </c>
       <c r="U55" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="56">
@@ -9760,7 +4023,7 @@
         <v>293</v>
       </c>
       <c r="U56" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="57">
@@ -9768,7 +4031,7 @@
         <v>302</v>
       </c>
       <c r="U57" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="58">
@@ -9776,7 +4039,7 @@
         <v>311</v>
       </c>
       <c r="U58" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="59">
@@ -9784,7 +4047,7 @@
         <v>336</v>
       </c>
       <c r="U59" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="60">
@@ -9792,7 +4055,7 @@
         <v>308</v>
       </c>
       <c r="U60" t="s">
-        <v>493</v>
+        <v>137</v>
       </c>
     </row>
     <row r="61">
@@ -9800,7 +4063,7 @@
         <v>309</v>
       </c>
       <c r="U61" t="s">
-        <v>213</v>
+        <v>493</v>
       </c>
     </row>
     <row r="62">
@@ -9808,7 +4071,7 @@
         <v>368</v>
       </c>
       <c r="U62" t="s">
-        <v>388</v>
+        <v>213</v>
       </c>
     </row>
     <row r="63">
@@ -9816,7 +4079,7 @@
         <v>369</v>
       </c>
       <c r="U63" t="s">
-        <v>499</v>
+        <v>388</v>
       </c>
     </row>
     <row r="64">
@@ -9824,7 +4087,7 @@
         <v>344</v>
       </c>
       <c r="U64" t="s">
-        <v>138</v>
+        <v>499</v>
       </c>
     </row>
     <row r="65">
@@ -9832,7 +4095,7 @@
         <v>312</v>
       </c>
       <c r="U65" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="66">
@@ -9840,7 +4103,7 @@
         <v>268</v>
       </c>
       <c r="U66" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="67">
@@ -9848,7 +4111,7 @@
         <v>352</v>
       </c>
       <c r="U67" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="68">
@@ -9856,7 +4119,7 @@
         <v>313</v>
       </c>
       <c r="U68" t="s">
-        <v>196</v>
+        <v>141</v>
       </c>
     </row>
     <row r="69">
@@ -9864,7 +4127,7 @@
         <v>409</v>
       </c>
       <c r="U69" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="70">
@@ -9872,7 +4135,7 @@
         <v>303</v>
       </c>
       <c r="U70" t="s">
-        <v>512</v>
+        <v>197</v>
       </c>
     </row>
     <row r="71">
@@ -9880,7 +4143,7 @@
         <v>410</v>
       </c>
       <c r="U71" t="s">
-        <v>142</v>
+        <v>510</v>
       </c>
     </row>
     <row r="72">
@@ -9888,7 +4151,7 @@
         <v>261</v>
       </c>
       <c r="U72" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="73">
@@ -9896,7 +4159,7 @@
         <v>343</v>
       </c>
       <c r="U73" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="74">
@@ -9904,7 +4167,7 @@
         <v>279</v>
       </c>
       <c r="U74" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="75">
@@ -9912,7 +4175,7 @@
         <v>285</v>
       </c>
       <c r="U75" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="76">
@@ -9920,7 +4183,7 @@
         <v>290</v>
       </c>
       <c r="U76" t="s">
-        <v>198</v>
+        <v>146</v>
       </c>
     </row>
     <row r="77">
@@ -9928,7 +4191,7 @@
         <v>428</v>
       </c>
       <c r="U77" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="78">
@@ -9936,7 +4199,7 @@
         <v>331</v>
       </c>
       <c r="U78" t="s">
-        <v>511</v>
+        <v>199</v>
       </c>
     </row>
     <row r="79">
@@ -9944,7 +4207,7 @@
         <v>269</v>
       </c>
       <c r="U79" t="s">
-        <v>200</v>
+        <v>509</v>
       </c>
     </row>
     <row r="80">
@@ -9952,7 +4215,7 @@
         <v>280</v>
       </c>
       <c r="U80" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="81">
@@ -9960,7 +4223,7 @@
         <v>286</v>
       </c>
       <c r="U81" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
     </row>
     <row r="82">
@@ -9968,7 +4231,7 @@
         <v>275</v>
       </c>
       <c r="U82" t="s">
-        <v>147</v>
+        <v>214</v>
       </c>
     </row>
     <row r="83">
@@ -9976,7 +4239,7 @@
         <v>270</v>
       </c>
       <c r="U83" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
     </row>
     <row r="84">
@@ -9984,7 +4247,7 @@
         <v>287</v>
       </c>
       <c r="U84" t="s">
-        <v>456</v>
+        <v>202</v>
       </c>
     </row>
     <row r="85">
@@ -9992,7 +4255,7 @@
         <v>271</v>
       </c>
       <c r="U85" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
     </row>
     <row r="86">
@@ -10000,7 +4263,7 @@
         <v>272</v>
       </c>
       <c r="U86" t="s">
-        <v>203</v>
+        <v>466</v>
       </c>
     </row>
     <row r="87">
@@ -10008,7 +4271,7 @@
         <v>304</v>
       </c>
       <c r="U87" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="88">
@@ -10016,7 +4279,7 @@
         <v>310</v>
       </c>
       <c r="U88" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="89">
@@ -10024,7 +4287,7 @@
         <v>294</v>
       </c>
       <c r="U89" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="90">
@@ -10032,7 +4295,7 @@
         <v>339</v>
       </c>
       <c r="U90" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
     </row>
     <row r="91">
@@ -10040,7 +4303,7 @@
         <v>276</v>
       </c>
       <c r="U91" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
     </row>
     <row r="92">
@@ -10048,126 +4311,131 @@
         <v>277</v>
       </c>
       <c r="U92" t="s">
-        <v>148</v>
+        <v>207</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>382</v>
+        <v>148</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>149</v>
+        <v>382</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>495</v>
+        <v>161</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>162</v>
+        <v>495</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>47</v>
+        <v>165</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
-        <v>166</v>
+        <v>47</v>
       </c>
     </row>
     <row r="114">
       <c r="U114" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="115">
       <c r="U115" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="116">
       <c r="U116" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="U117" t="s">
         <v>169</v>
       </c>
     </row>
@@ -10178,9 +4446,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{691DC43E-2E2B-AE40-B88B-B3C5C7CE75EB}">
-  <dimension ref="A1:P1002"/>
+  <dimension ref="A1:P1004"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+    <sheetView tabSelected="true" workbookViewId="0" zoomScaleNormal="100" zoomScale="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
@@ -10226,20 +4494,20 @@
       </c>
       <c r="J1" s="18"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="32" t="s">
+      <c r="L1" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="33"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="31"/>
     </row>
     <row customHeight="1" ht="93" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="32" t="s">
         <v>502</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
       <c r="E2" s="23" t="s">
         <v>435</v>
       </c>
@@ -10349,50 +4617,42 @@
     </row>
     <row customHeight="1" ht="24" r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="25"/>
-      <c r="B6" s="4" t="s">
-        <v>443</v>
-      </c>
+      <c r="B6" s="4"/>
       <c r="C6" s="12" t="s">
         <v>53</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>337</v>
+        <v>388</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>441</v>
+        <v>515</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>442</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>437</v>
-      </c>
+        <v>516</v>
+      </c>
+      <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="21"/>
       <c r="K6" s="2"/>
-      <c r="L6" s="14"/>
+      <c r="L6" s="14" t="s">
+        <v>438</v>
+      </c>
       <c r="M6" s="11"/>
       <c r="N6" s="14"/>
       <c r="O6" s="2"/>
     </row>
     <row customHeight="1" ht="24" r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="25"/>
-      <c r="B7" s="4" t="s">
-        <v>453</v>
-      </c>
+      <c r="B7" s="4"/>
       <c r="C7" s="12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>445</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -10405,20 +4665,24 @@
     </row>
     <row customHeight="1" ht="24" r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="25"/>
-      <c r="B8" s="4"/>
+      <c r="B8" s="4" t="s">
+        <v>443</v>
+      </c>
       <c r="C8" s="12" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>62</v>
+        <v>337</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>451</v>
-      </c>
-      <c r="G8" s="6"/>
+        <v>442</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>437</v>
+      </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="21"/>
@@ -10431,19 +4695,19 @@
     <row customHeight="1" ht="24" r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="25"/>
       <c r="B9" s="4" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>27</v>
+        <v>204</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
@@ -10462,13 +4726,13 @@
         <v>13</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
@@ -10482,7 +4746,9 @@
     </row>
     <row customHeight="1" ht="24" r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="25"/>
-      <c r="B11" s="4"/>
+      <c r="B11" s="4" t="s">
+        <v>444</v>
+      </c>
       <c r="C11" s="12" t="s">
         <v>13</v>
       </c>
@@ -10493,7 +4759,7 @@
         <v>452</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -10518,7 +4784,7 @@
         <v>452</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -10532,27 +4798,21 @@
     </row>
     <row customHeight="1" ht="24" r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="25"/>
-      <c r="B13" s="4" t="s">
-        <v>457</v>
-      </c>
+      <c r="B13" s="4"/>
       <c r="C13" s="12" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>118</v>
+        <v>27</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>476</v>
+        <v>452</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>455</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="21"/>
       <c r="K13" s="2"/>
@@ -10565,23 +4825,19 @@
       <c r="A14" s="25"/>
       <c r="B14" s="4"/>
       <c r="C14" s="12" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>118</v>
+        <v>27</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>476</v>
+        <v>452</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>458</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>459</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>461</v>
-      </c>
+        <v>446</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="21"/>
       <c r="K14" s="2"/>
@@ -10593,24 +4849,26 @@
     <row customHeight="1" ht="24" r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="25"/>
       <c r="B15" s="4" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>53</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>466</v>
+        <v>118</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="F15" s="9" t="s">
-        <v>467</v>
+      <c r="F15" s="6" t="s">
+        <v>439</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>477</v>
-      </c>
-      <c r="H15" s="6"/>
+        <v>454</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>455</v>
+      </c>
       <c r="I15" s="6"/>
       <c r="J15" s="21"/>
       <c r="K15" s="2"/>
@@ -10621,25 +4879,25 @@
     </row>
     <row customHeight="1" ht="24" r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="25"/>
-      <c r="B16" s="4" t="s">
-        <v>462</v>
-      </c>
+      <c r="B16" s="4"/>
       <c r="C16" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>477</v>
+        <v>458</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>437</v>
-      </c>
-      <c r="H16" s="6"/>
+        <v>459</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="I16" s="6"/>
       <c r="J16" s="21"/>
       <c r="K16" s="2"/>
@@ -10649,48 +4907,50 @@
       <c r="O16" s="2"/>
     </row>
     <row customHeight="1" ht="24" r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="25" t="s">
-        <v>463</v>
-      </c>
+      <c r="A17" s="25"/>
       <c r="B17" s="4" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>53</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>196</v>
+        <v>466</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>468</v>
-      </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
+        <v>476</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>477</v>
+      </c>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="21"/>
       <c r="K17" s="2"/>
-      <c r="L17" s="14" t="s">
-        <v>438</v>
-      </c>
+      <c r="L17" s="14"/>
       <c r="M17" s="11"/>
       <c r="N17" s="14"/>
       <c r="O17" s="2"/>
     </row>
     <row customHeight="1" ht="24" r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="25"/>
-      <c r="B18" s="4"/>
+      <c r="B18" s="4" t="s">
+        <v>462</v>
+      </c>
       <c r="C18" s="12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>337</v>
+        <v>71</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>437</v>
@@ -10705,18 +4965,20 @@
       <c r="O18" s="2"/>
     </row>
     <row customHeight="1" ht="24" r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" s="25"/>
+      <c r="A19" s="25" t="s">
+        <v>463</v>
+      </c>
       <c r="B19" s="4" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>53</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>76</v>
+        <v>196</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
@@ -10733,23 +4995,21 @@
     </row>
     <row customHeight="1" ht="24" r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="25"/>
-      <c r="B20" s="4" t="s">
-        <v>480</v>
-      </c>
+      <c r="B20" s="4"/>
       <c r="C20" s="12" t="s">
         <v>53</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>466</v>
+        <v>337</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>473</v>
+        <v>437</v>
       </c>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -10763,57 +5023,55 @@
     <row customHeight="1" ht="24" r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="25"/>
       <c r="B21" s="4" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>482</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>473</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>437</v>
-      </c>
+        <v>478</v>
+      </c>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="21"/>
       <c r="K21" s="2"/>
-      <c r="L21" s="14"/>
+      <c r="L21" s="14" t="s">
+        <v>438</v>
+      </c>
       <c r="M21" s="11"/>
       <c r="N21" s="14"/>
       <c r="O21" s="2"/>
     </row>
     <row customHeight="1" ht="24" r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A22" s="25" t="s">
-        <v>483</v>
-      </c>
+      <c r="A22" s="25"/>
       <c r="B22" s="4" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>53</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>196</v>
+        <v>466</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>485</v>
-      </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
+        <v>471</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>473</v>
+      </c>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="21"/>
       <c r="K22" s="2"/>
-      <c r="L22" s="14" t="s">
-        <v>438</v>
-      </c>
+      <c r="L22" s="14"/>
       <c r="M22" s="11"/>
       <c r="N22" s="14"/>
       <c r="O22" s="2"/>
@@ -10821,19 +5079,23 @@
     <row customHeight="1" ht="24" r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="25"/>
       <c r="B23" s="4" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>149</v>
+        <v>71</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>486</v>
-      </c>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
+        <v>482</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>437</v>
+      </c>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
       <c r="J23" s="21"/>
@@ -10844,28 +5106,30 @@
       <c r="O23" s="2"/>
     </row>
     <row customHeight="1" ht="24" r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24" s="25"/>
-      <c r="B24" s="4"/>
+      <c r="A24" s="25" t="s">
+        <v>483</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>484</v>
+      </c>
       <c r="C24" s="12" t="s">
         <v>53</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>337</v>
+        <v>196</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>486</v>
-      </c>
-      <c r="F24" s="21" t="s">
-        <v>487</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>437</v>
-      </c>
+        <v>485</v>
+      </c>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="21"/>
       <c r="K24" s="2"/>
-      <c r="L24" s="14"/>
+      <c r="L24" s="14" t="s">
+        <v>438</v>
+      </c>
       <c r="M24" s="11"/>
       <c r="N24" s="14"/>
       <c r="O24" s="2"/>
@@ -10873,23 +5137,19 @@
     <row customHeight="1" ht="24" r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="25"/>
       <c r="B25" s="4" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>53</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>466</v>
+        <v>149</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>488</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>489</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>490</v>
-      </c>
+        <v>486</v>
+      </c>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="21"/>
@@ -10901,20 +5161,18 @@
     </row>
     <row customHeight="1" ht="24" r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="25"/>
-      <c r="B26" s="4" t="s">
-        <v>481</v>
-      </c>
+      <c r="B26" s="4"/>
       <c r="C26" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>71</v>
+        <v>337</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>491</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>490</v>
+        <v>486</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>487</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>437</v>
@@ -10930,12 +5188,24 @@
     </row>
     <row customHeight="1" ht="24" r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="25"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
+      <c r="B27" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>490</v>
+      </c>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
       <c r="J27" s="21"/>
@@ -10947,12 +5217,24 @@
     </row>
     <row customHeight="1" ht="24" r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="25"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
+      <c r="B28" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>437</v>
+      </c>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
       <c r="J28" s="21"/>
@@ -10981,7 +5263,7 @@
     </row>
     <row customHeight="1" ht="24" r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="25"/>
-      <c r="B30" s="7"/>
+      <c r="B30" s="4"/>
       <c r="C30" s="12"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
@@ -11015,7 +5297,7 @@
     </row>
     <row customHeight="1" ht="24" r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="25"/>
-      <c r="B32" s="4"/>
+      <c r="B32" s="7"/>
       <c r="C32" s="12"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
@@ -11115,7 +5397,7 @@
       <c r="N37" s="14"/>
       <c r="O37" s="2"/>
     </row>
-    <row customHeight="1" ht="19" r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="24" r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="25"/>
       <c r="B38" s="4"/>
       <c r="C38" s="12"/>
@@ -11132,7 +5414,7 @@
       <c r="N38" s="14"/>
       <c r="O38" s="2"/>
     </row>
-    <row customHeight="1" ht="19" r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="24" r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="25"/>
       <c r="B39" s="4"/>
       <c r="C39" s="12"/>
@@ -21536,8 +15818,40 @@
       <c r="N650" s="14"/>
       <c r="O650" s="2"/>
     </row>
-    <row customHeight="1" ht="19" r="651" spans="1:15" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="652" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="651" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A651" s="25"/>
+      <c r="B651" s="4"/>
+      <c r="C651" s="12"/>
+      <c r="D651" s="6"/>
+      <c r="E651" s="6"/>
+      <c r="F651" s="6"/>
+      <c r="G651" s="6"/>
+      <c r="H651" s="6"/>
+      <c r="I651" s="6"/>
+      <c r="J651" s="21"/>
+      <c r="K651" s="2"/>
+      <c r="L651" s="14"/>
+      <c r="M651" s="11"/>
+      <c r="N651" s="14"/>
+      <c r="O651" s="2"/>
+    </row>
+    <row customHeight="1" ht="19" r="652" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A652" s="25"/>
+      <c r="B652" s="4"/>
+      <c r="C652" s="12"/>
+      <c r="D652" s="6"/>
+      <c r="E652" s="6"/>
+      <c r="F652" s="6"/>
+      <c r="G652" s="6"/>
+      <c r="H652" s="6"/>
+      <c r="I652" s="6"/>
+      <c r="J652" s="21"/>
+      <c r="K652" s="2"/>
+      <c r="L652" s="14"/>
+      <c r="M652" s="11"/>
+      <c r="N652" s="14"/>
+      <c r="O652" s="2"/>
+    </row>
     <row customHeight="1" ht="19" r="653" spans="1:15" x14ac:dyDescent="0.2"/>
     <row customHeight="1" ht="19" r="654" spans="1:15" x14ac:dyDescent="0.2"/>
     <row customHeight="1" ht="19" r="655" spans="1:15" x14ac:dyDescent="0.2"/>
@@ -21888,6 +16202,8 @@
     <row customHeight="1" ht="19" r="1000" x14ac:dyDescent="0.2"/>
     <row customHeight="1" ht="19" r="1001" x14ac:dyDescent="0.2"/>
     <row customHeight="1" ht="19" r="1002" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="1003" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="1004" x14ac:dyDescent="0.2"/>
   </sheetData>
   <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
@@ -21908,10 +16224,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C702" type="list" xr:uid="{E452C6B3-B243-3545-88CC-5779BCAB8940}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C704" type="list" xr:uid="{E452C6B3-B243-3545-88CC-5779BCAB8940}">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D700" type="list" xr:uid="{735992DB-15F3-994D-86FC-426B319FA577}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D702" type="list" xr:uid="{735992DB-15F3-994D-86FC-426B319FA577}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>

--- a/artifact/script/web-05.xlsx
+++ b/artifact/script/web-05.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr documentId="13_ncr:1_{95884A42-2F3F-A443-B848-8C2DCBFDF1E4}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38"/>
   <bookViews>
-    <workbookView activeTab="1" tabRatio="500" windowHeight="21040" windowWidth="51200" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="10960" firstSheet="1"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="21040" windowWidth="51200" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="10960"/>
   </bookViews>
   <sheets>
     <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
@@ -18,36 +18,37 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$36</definedName>
-    <definedName name="csv">'#system'!$D$2:$D$5</definedName>
+    <definedName name="base">'#system'!$D$2:$D$36</definedName>
+    <definedName name="csv">'#system'!$E$2:$E$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$14</definedName>
-    <definedName name="external">'#system'!$G$2:$G$3</definedName>
-    <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$23</definedName>
-    <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$14</definedName>
-    <definedName name="mail">'#system'!$L$2:$L$2</definedName>
+    <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
+    <definedName name="excel">'#system'!$G$2:$G$14</definedName>
+    <definedName name="external">'#system'!$H$2:$H$3</definedName>
+    <definedName name="image">'#system'!$I$2:$I$5</definedName>
+    <definedName name="io">'#system'!$J$2:$J$24</definedName>
+    <definedName name="jms">'#system'!$K$2:$K$4</definedName>
+    <definedName name="json">'#system'!$L$2:$L$14</definedName>
+    <definedName name="mail">'#system'!$M$2:$M$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$M$2:$M$15</definedName>
-    <definedName name="pdf">'#system'!$N$2:$N$16</definedName>
-    <definedName name="rdbms">'#system'!$O$2:$O$7</definedName>
-    <definedName name="redis">'#system'!$P$2:$P$10</definedName>
-    <definedName name="sms">'#system'!$Q$2:$Q$2</definedName>
-    <definedName name="sound">'#system'!$R$2:$R$5</definedName>
-    <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
-    <definedName name="step">'#system'!$T$2:$T$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$117</definedName>
-    <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
-    <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
-    <definedName name="ws">'#system'!$X$2:$X$16</definedName>
-    <definedName name="ws.async">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="xml">'#system'!$Z$2:$Z$11</definedName>
+    <definedName name="number">'#system'!$N$2:$N$15</definedName>
+    <definedName name="pdf">'#system'!$O$2:$O$16</definedName>
+    <definedName name="rdbms">'#system'!$P$2:$P$7</definedName>
+    <definedName name="redis">'#system'!$Q$2:$Q$10</definedName>
+    <definedName name="sms">'#system'!$R$2:$R$2</definedName>
+    <definedName name="sound">'#system'!$S$2:$S$5</definedName>
+    <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
+    <definedName name="step">'#system'!$U$2:$U$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$27</definedName>
+    <definedName name="web">'#system'!$V$2:$V$118</definedName>
+    <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
+    <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
+    <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
+    <definedName name="ws.async">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="xml">'#system'!$AA$2:$AA$11</definedName>
+    <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="524">
   <si>
     <t>description</t>
   </si>
@@ -1616,6 +1617,24 @@
   </si>
   <si>
     <t>deselect(locator,text)</t>
+  </si>
+  <si>
+    <t>aws.ses</t>
+  </si>
+  <si>
+    <t>sendHtmlMail(profile,to,subject,body)</t>
+  </si>
+  <si>
+    <t>sendTextMail(profile,to,subject,body)</t>
+  </si>
+  <si>
+    <t>base64(var,file)</t>
+  </si>
+  <si>
+    <t>clickWithKeys(locator,keys)</t>
+  </si>
+  <si>
+    <t>upload(url,body,fileParams,var)</t>
   </si>
 </sst>
 </file>
@@ -1623,7 +1642,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="42" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1794,8 +1813,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="31">
+  <fills count="58">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1967,8 +2087,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="31">
+  <borders count="59">
     <border>
       <left/>
       <right/>
@@ -2288,6 +2561,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -2295,7 +2850,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="67">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -2420,49 +2975,97 @@
     <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="10" fillId="6" fontId="11" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="14" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="14" fillId="9" fontId="13" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="12" fontId="14" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="16" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="18" fontId="18" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="26" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="26" fillId="21" fontId="19" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="24" fontId="20" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="24" fontId="21" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="27" fontId="22" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="30" fontId="23" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="27" fontId="24" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="39" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="42" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="48" borderId="50" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="51" borderId="54" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="54" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="54" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2787,9 +3390,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA117"/>
+  <dimension ref="A1:AB118"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -2806,75 +3409,78 @@
         <v>370</v>
       </c>
       <c r="C1" t="s">
+        <v>518</v>
+      </c>
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>50</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>346</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>332</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>24</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>195</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>51</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>238</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>52</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>395</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>411</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>412</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>356</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>396</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>53</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>54</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>55</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>56</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>413</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>226</v>
       </c>
     </row>
@@ -2886,1556 +3492,1576 @@
         <v>371</v>
       </c>
       <c r="C2" t="s">
+        <v>519</v>
+      </c>
+      <c r="D2" t="s">
         <v>57</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>71</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>73</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>505</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>78</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>348</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>314</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>383</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>432</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>416</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>429</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>252</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>216</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>397</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>418</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>419</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>380</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>406</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>96</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>170</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>175</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>182</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>431</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>518</v>
       </c>
       <c r="B3" t="s">
         <v>372</v>
       </c>
       <c r="C3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D3" t="s">
         <v>513</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>364</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>87</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>48</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>28</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>349</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>340</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>333</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>85</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>430</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>239</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>217</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>398</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>420</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>381</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>407</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>97</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>171</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>176</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>363</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>183</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>373</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>72</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>386</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>506</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>350</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>237</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>334</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>25</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>26</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>240</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>218</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>399</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>421</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>357</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>408</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>353</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>172</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>177</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>183</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>423</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
         <v>374</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>514</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>496</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>335</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>511</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>347</v>
       </c>
-      <c r="I5" t="s">
-        <v>71</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="J5" t="s">
+        <v>521</v>
+      </c>
+      <c r="L5" t="s">
         <v>86</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>30</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>241</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>219</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>400</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>422</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>358</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>354</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>173</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>178</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>184</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>424</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>375</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>387</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>507</v>
       </c>
-      <c r="I6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="J6" t="s">
+        <v>71</v>
+      </c>
+      <c r="L6" t="s">
         <v>29</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>31</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>242</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>390</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>401</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>360</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>98</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>500</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>179</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>185</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>425</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>376</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>223</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>365</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>503</v>
       </c>
-      <c r="I7" t="s">
-        <v>79</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="J7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" t="s">
         <v>314</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>33</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>243</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>417</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>402</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>359</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>99</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>501</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>180</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>186</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>426</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>346</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>377</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>317</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>366</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>327</v>
       </c>
-      <c r="I8" t="s">
-        <v>38</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="J8" t="s">
+        <v>79</v>
+      </c>
+      <c r="L8" t="s">
         <v>34</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>90</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>244</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>403</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>361</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>100</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>174</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>181</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>187</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>427</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>346</v>
       </c>
       <c r="B9" t="s">
         <v>378</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>32</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>305</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>328</v>
       </c>
-      <c r="I9" t="s">
-        <v>389</v>
-      </c>
-      <c r="K9" t="s">
+      <c r="J9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9" t="s">
         <v>35</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>91</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>245</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>404</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>362</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>208</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>188</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>332</v>
-      </c>
-      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
         <v>314</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>351</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>508</v>
       </c>
-      <c r="I10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="J10" t="s">
+        <v>389</v>
+      </c>
+      <c r="L10" t="s">
         <v>36</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>433</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>246</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>405</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>256</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>189</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
+        <v>332</v>
+      </c>
+      <c r="D11" t="s">
         <v>254</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>273</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>321</v>
       </c>
-      <c r="I11" t="s">
-        <v>42</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="J11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" t="s">
         <v>498</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>92</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>247</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>257</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>258</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>195</v>
-      </c>
-      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>318</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>262</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>322</v>
       </c>
-      <c r="I12" t="s">
-        <v>80</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="J12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L12" t="s">
         <v>39</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>41</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>248</v>
       </c>
-      <c r="U12" t="s">
+      <c r="V12" t="s">
         <v>101</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" t="s">
+        <v>195</v>
+      </c>
+      <c r="D13" t="s">
         <v>340</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>315</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>323</v>
       </c>
-      <c r="I13" t="s">
-        <v>81</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="J13" t="s">
+        <v>80</v>
+      </c>
+      <c r="L13" t="s">
         <v>40</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>93</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>253</v>
       </c>
-      <c r="U13" t="s">
+      <c r="V13" t="s">
         <v>325</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>238</v>
-      </c>
-      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" t="s">
         <v>37</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>263</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>324</v>
       </c>
-      <c r="I14" t="s">
-        <v>512</v>
-      </c>
-      <c r="K14" t="s">
+      <c r="J14" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" t="s">
         <v>43</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>94</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>249</v>
       </c>
-      <c r="U14" t="s">
+      <c r="V14" t="s">
         <v>102</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" t="s">
+        <v>238</v>
+      </c>
+      <c r="D15" t="s">
         <v>58</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>264</v>
       </c>
-      <c r="I15" t="s">
-        <v>82</v>
-      </c>
-      <c r="M15" t="s">
+      <c r="J15" t="s">
+        <v>512</v>
+      </c>
+      <c r="N15" t="s">
         <v>95</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>250</v>
       </c>
-      <c r="U15" t="s">
+      <c r="V15" t="s">
         <v>103</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>395</v>
-      </c>
-      <c r="C16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" t="s">
         <v>384</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>316</v>
       </c>
-      <c r="I16" t="s">
-        <v>83</v>
-      </c>
-      <c r="N16" t="s">
+      <c r="J16" t="s">
+        <v>82</v>
+      </c>
+      <c r="O16" t="s">
         <v>251</v>
       </c>
-      <c r="U16" t="s">
+      <c r="V16" t="s">
         <v>74</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>411</v>
-      </c>
-      <c r="C17" t="s">
+        <v>395</v>
+      </c>
+      <c r="D17" t="s">
         <v>385</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>88</v>
       </c>
-      <c r="I17" t="s">
-        <v>379</v>
-      </c>
-      <c r="U17" t="s">
+      <c r="J17" t="s">
+        <v>83</v>
+      </c>
+      <c r="V17" t="s">
         <v>104</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>412</v>
-      </c>
-      <c r="C18" t="s">
+        <v>411</v>
+      </c>
+      <c r="D18" t="s">
         <v>414</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>89</v>
       </c>
-      <c r="I18" t="s">
-        <v>44</v>
-      </c>
-      <c r="U18" t="s">
+      <c r="J18" t="s">
+        <v>379</v>
+      </c>
+      <c r="V18" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>356</v>
-      </c>
-      <c r="C19" t="s">
+        <v>412</v>
+      </c>
+      <c r="D19" t="s">
         <v>59</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>295</v>
       </c>
-      <c r="I19" t="s">
-        <v>391</v>
-      </c>
-      <c r="U19" t="s">
+      <c r="J19" t="s">
+        <v>44</v>
+      </c>
+      <c r="V19" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>396</v>
-      </c>
-      <c r="C20" t="s">
+        <v>356</v>
+      </c>
+      <c r="D20" t="s">
         <v>60</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>296</v>
       </c>
-      <c r="I20" t="s">
-        <v>84</v>
-      </c>
-      <c r="U20" t="s">
+      <c r="J20" t="s">
+        <v>391</v>
+      </c>
+      <c r="V20" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" t="s">
+        <v>396</v>
+      </c>
+      <c r="D21" t="s">
         <v>255</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>297</v>
       </c>
-      <c r="I21" t="s">
-        <v>497</v>
-      </c>
-      <c r="U21" t="s">
+      <c r="J21" t="s">
+        <v>84</v>
+      </c>
+      <c r="V21" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" t="s">
         <v>61</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>298</v>
       </c>
-      <c r="I22" t="s">
-        <v>45</v>
-      </c>
-      <c r="U22" t="s">
+      <c r="J22" t="s">
+        <v>497</v>
+      </c>
+      <c r="V22" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" t="s">
         <v>320</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>289</v>
       </c>
-      <c r="I23" t="s">
-        <v>46</v>
-      </c>
-      <c r="U23" t="s">
+      <c r="J23" t="s">
+        <v>45</v>
+      </c>
+      <c r="V23" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" t="s">
         <v>62</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>278</v>
       </c>
-      <c r="U24" t="s">
+      <c r="J24" t="s">
+        <v>46</v>
+      </c>
+      <c r="V24" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>413</v>
-      </c>
-      <c r="C25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" t="s">
         <v>504</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>75</v>
       </c>
-      <c r="U25" t="s">
+      <c r="V25" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>413</v>
+      </c>
+      <c r="D26" t="s">
+        <v>224</v>
+      </c>
+      <c r="F26" t="s">
+        <v>281</v>
+      </c>
+      <c r="V26" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
         <v>226</v>
       </c>
-      <c r="C26" t="s">
-        <v>224</v>
-      </c>
-      <c r="E26" t="s">
-        <v>281</v>
-      </c>
-      <c r="U26" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>225</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>265</v>
       </c>
-      <c r="U27" t="s">
+      <c r="V27" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="28">
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>415</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>282</v>
       </c>
-      <c r="U28" t="s">
+      <c r="V28" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="29">
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>63</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>283</v>
       </c>
-      <c r="U29" t="s">
+      <c r="V29" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="30">
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>64</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>215</v>
       </c>
-      <c r="U30" t="s">
+      <c r="V30" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="31">
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>65</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>274</v>
       </c>
-      <c r="U31" t="s">
+      <c r="V31" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="32">
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>66</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>284</v>
       </c>
-      <c r="U32" t="s">
+      <c r="V32" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="33">
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>67</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>259</v>
       </c>
-      <c r="U33" t="s">
+      <c r="V33" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="34">
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>68</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>329</v>
       </c>
-      <c r="U34" t="s">
+      <c r="V34" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="35">
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>69</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>306</v>
       </c>
-      <c r="U35" t="s">
+      <c r="V35" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="36">
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>70</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>260</v>
       </c>
-      <c r="U36" t="s">
+      <c r="V36" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="37">
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>307</v>
       </c>
-      <c r="U37" t="s">
+      <c r="V37" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="38">
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>266</v>
       </c>
-      <c r="U38" t="s">
+      <c r="V38" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="39">
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>77</v>
       </c>
-      <c r="U39" t="s">
+      <c r="V39" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="40">
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>211</v>
       </c>
-      <c r="U40" t="s">
+      <c r="V40" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="41">
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>288</v>
       </c>
-      <c r="U41" t="s">
+      <c r="V41" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="42">
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>299</v>
       </c>
-      <c r="U42" t="s">
+      <c r="V42" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="43">
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>300</v>
       </c>
-      <c r="U43" t="s">
+      <c r="V43" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="44">
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>342</v>
       </c>
-      <c r="U44" t="s">
+      <c r="V44" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="45">
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>341</v>
       </c>
-      <c r="U45" t="s">
+      <c r="V45" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="46">
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>210</v>
       </c>
-      <c r="U46" t="s">
+      <c r="V46" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="47">
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>319</v>
       </c>
-      <c r="U47" t="s">
+      <c r="V47" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="48">
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>338</v>
       </c>
-      <c r="U48" t="s">
+      <c r="V48" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="49">
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>367</v>
       </c>
-      <c r="U49" t="s">
+      <c r="V49" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="50">
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>301</v>
       </c>
-      <c r="U50" t="s">
+      <c r="V50" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="51">
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>355</v>
       </c>
-      <c r="U51" t="s">
+      <c r="V51" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="F52" t="s">
+        <v>330</v>
+      </c>
+      <c r="V52" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="52">
-      <c r="E52" t="s">
-        <v>330</v>
-      </c>
-      <c r="U52" t="s">
+    <row r="53">
+      <c r="F53" t="s">
+        <v>267</v>
+      </c>
+      <c r="V53" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="53">
-      <c r="E53" t="s">
-        <v>267</v>
-      </c>
-      <c r="U53" t="s">
+    <row r="54">
+      <c r="F54" t="s">
+        <v>291</v>
+      </c>
+      <c r="V54" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="54">
-      <c r="E54" t="s">
-        <v>291</v>
-      </c>
-      <c r="U54" t="s">
+    <row r="55">
+      <c r="F55" t="s">
+        <v>292</v>
+      </c>
+      <c r="V55" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="55">
-      <c r="E55" t="s">
-        <v>292</v>
-      </c>
-      <c r="U55" t="s">
+    <row r="56">
+      <c r="F56" t="s">
+        <v>293</v>
+      </c>
+      <c r="V56" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="56">
-      <c r="E56" t="s">
-        <v>293</v>
-      </c>
-      <c r="U56" t="s">
+    <row r="57">
+      <c r="F57" t="s">
+        <v>302</v>
+      </c>
+      <c r="V57" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="57">
-      <c r="E57" t="s">
-        <v>302</v>
-      </c>
-      <c r="U57" t="s">
+    <row r="58">
+      <c r="F58" t="s">
+        <v>311</v>
+      </c>
+      <c r="V58" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="58">
-      <c r="E58" t="s">
-        <v>311</v>
-      </c>
-      <c r="U58" t="s">
+    <row r="59">
+      <c r="F59" t="s">
+        <v>336</v>
+      </c>
+      <c r="V59" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="59">
-      <c r="E59" t="s">
-        <v>336</v>
-      </c>
-      <c r="U59" t="s">
+    <row r="60">
+      <c r="F60" t="s">
+        <v>308</v>
+      </c>
+      <c r="V60" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="60">
-      <c r="E60" t="s">
-        <v>308</v>
-      </c>
-      <c r="U60" t="s">
+    <row r="61">
+      <c r="F61" t="s">
+        <v>309</v>
+      </c>
+      <c r="V61" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="61">
-      <c r="E61" t="s">
-        <v>309</v>
-      </c>
-      <c r="U61" t="s">
+    <row r="62">
+      <c r="F62" t="s">
+        <v>368</v>
+      </c>
+      <c r="V62" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="62">
-      <c r="E62" t="s">
-        <v>368</v>
-      </c>
-      <c r="U62" t="s">
+    <row r="63">
+      <c r="F63" t="s">
+        <v>369</v>
+      </c>
+      <c r="V63" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="63">
-      <c r="E63" t="s">
-        <v>369</v>
-      </c>
-      <c r="U63" t="s">
+    <row r="64">
+      <c r="F64" t="s">
+        <v>344</v>
+      </c>
+      <c r="V64" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="64">
-      <c r="E64" t="s">
-        <v>344</v>
-      </c>
-      <c r="U64" t="s">
+    <row r="65">
+      <c r="F65" t="s">
+        <v>312</v>
+      </c>
+      <c r="V65" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="65">
-      <c r="E65" t="s">
-        <v>312</v>
-      </c>
-      <c r="U65" t="s">
+    <row r="66">
+      <c r="F66" t="s">
+        <v>268</v>
+      </c>
+      <c r="V66" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="66">
-      <c r="E66" t="s">
-        <v>268</v>
-      </c>
-      <c r="U66" t="s">
+    <row r="67">
+      <c r="F67" t="s">
+        <v>352</v>
+      </c>
+      <c r="V67" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="67">
-      <c r="E67" t="s">
-        <v>352</v>
-      </c>
-      <c r="U67" t="s">
+    <row r="68">
+      <c r="F68" t="s">
+        <v>313</v>
+      </c>
+      <c r="V68" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="68">
-      <c r="E68" t="s">
-        <v>313</v>
-      </c>
-      <c r="U68" t="s">
+    <row r="69">
+      <c r="F69" t="s">
+        <v>409</v>
+      </c>
+      <c r="V69" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="69">
-      <c r="E69" t="s">
-        <v>409</v>
-      </c>
-      <c r="U69" t="s">
+    <row r="70">
+      <c r="F70" t="s">
+        <v>303</v>
+      </c>
+      <c r="V70" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="70">
-      <c r="E70" t="s">
-        <v>303</v>
-      </c>
-      <c r="U70" t="s">
+    <row r="71">
+      <c r="F71" t="s">
+        <v>410</v>
+      </c>
+      <c r="V71" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="71">
-      <c r="E71" t="s">
-        <v>410</v>
-      </c>
-      <c r="U71" t="s">
+    <row r="72">
+      <c r="F72" t="s">
+        <v>261</v>
+      </c>
+      <c r="V72" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="72">
-      <c r="E72" t="s">
-        <v>261</v>
-      </c>
-      <c r="U72" t="s">
+    <row r="73">
+      <c r="F73" t="s">
+        <v>343</v>
+      </c>
+      <c r="V73" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="73">
-      <c r="E73" t="s">
-        <v>343</v>
-      </c>
-      <c r="U73" t="s">
+    <row r="74">
+      <c r="F74" t="s">
+        <v>279</v>
+      </c>
+      <c r="V74" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="74">
-      <c r="E74" t="s">
-        <v>279</v>
-      </c>
-      <c r="U74" t="s">
+    <row r="75">
+      <c r="F75" t="s">
+        <v>285</v>
+      </c>
+      <c r="V75" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="75">
-      <c r="E75" t="s">
-        <v>285</v>
-      </c>
-      <c r="U75" t="s">
+    <row r="76">
+      <c r="F76" t="s">
+        <v>290</v>
+      </c>
+      <c r="V76" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="76">
-      <c r="E76" t="s">
-        <v>290</v>
-      </c>
-      <c r="U76" t="s">
+    <row r="77">
+      <c r="F77" t="s">
+        <v>428</v>
+      </c>
+      <c r="V77" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="77">
-      <c r="E77" t="s">
-        <v>428</v>
-      </c>
-      <c r="U77" t="s">
+    <row r="78">
+      <c r="F78" t="s">
+        <v>331</v>
+      </c>
+      <c r="V78" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="78">
-      <c r="E78" t="s">
-        <v>331</v>
-      </c>
-      <c r="U78" t="s">
+    <row r="79">
+      <c r="F79" t="s">
+        <v>269</v>
+      </c>
+      <c r="V79" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="79">
-      <c r="E79" t="s">
-        <v>269</v>
-      </c>
-      <c r="U79" t="s">
+    <row r="80">
+      <c r="F80" t="s">
+        <v>280</v>
+      </c>
+      <c r="V80" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="80">
-      <c r="E80" t="s">
-        <v>280</v>
-      </c>
-      <c r="U80" t="s">
+    <row r="81">
+      <c r="F81" t="s">
+        <v>286</v>
+      </c>
+      <c r="V81" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="81">
-      <c r="E81" t="s">
-        <v>286</v>
-      </c>
-      <c r="U81" t="s">
+    <row r="82">
+      <c r="F82" t="s">
+        <v>275</v>
+      </c>
+      <c r="V82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="82">
-      <c r="E82" t="s">
-        <v>275</v>
-      </c>
-      <c r="U82" t="s">
+    <row r="83">
+      <c r="F83" t="s">
+        <v>270</v>
+      </c>
+      <c r="V83" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="83">
-      <c r="E83" t="s">
-        <v>270</v>
-      </c>
-      <c r="U83" t="s">
+    <row r="84">
+      <c r="F84" t="s">
+        <v>287</v>
+      </c>
+      <c r="V84" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="84">
-      <c r="E84" t="s">
-        <v>287</v>
-      </c>
-      <c r="U84" t="s">
+    <row r="85">
+      <c r="F85" t="s">
+        <v>271</v>
+      </c>
+      <c r="V85" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="85">
-      <c r="E85" t="s">
-        <v>271</v>
-      </c>
-      <c r="U85" t="s">
+    <row r="86">
+      <c r="F86" t="s">
+        <v>272</v>
+      </c>
+      <c r="V86" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="86">
-      <c r="E86" t="s">
-        <v>272</v>
-      </c>
-      <c r="U86" t="s">
+    <row r="87">
+      <c r="F87" t="s">
+        <v>304</v>
+      </c>
+      <c r="V87" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="87">
-      <c r="E87" t="s">
-        <v>304</v>
-      </c>
-      <c r="U87" t="s">
+    <row r="88">
+      <c r="F88" t="s">
+        <v>310</v>
+      </c>
+      <c r="V88" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="88">
-      <c r="E88" t="s">
-        <v>310</v>
-      </c>
-      <c r="U88" t="s">
+    <row r="89">
+      <c r="F89" t="s">
+        <v>294</v>
+      </c>
+      <c r="V89" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="89">
-      <c r="E89" t="s">
-        <v>294</v>
-      </c>
-      <c r="U89" t="s">
+    <row r="90">
+      <c r="F90" t="s">
+        <v>339</v>
+      </c>
+      <c r="V90" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="90">
-      <c r="E90" t="s">
-        <v>339</v>
-      </c>
-      <c r="U90" t="s">
+    <row r="91">
+      <c r="F91" t="s">
+        <v>276</v>
+      </c>
+      <c r="V91" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="91">
-      <c r="E91" t="s">
-        <v>276</v>
-      </c>
-      <c r="U91" t="s">
+    <row r="92">
+      <c r="F92" t="s">
+        <v>277</v>
+      </c>
+      <c r="V92" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="92">
-      <c r="E92" t="s">
-        <v>277</v>
-      </c>
-      <c r="U92" t="s">
+    <row r="93">
+      <c r="V93" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="93">
-      <c r="U93" t="s">
+    <row r="94">
+      <c r="V94" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="94">
-      <c r="U94" t="s">
+    <row r="95">
+      <c r="V95" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="95">
-      <c r="U95" t="s">
+    <row r="96">
+      <c r="V96" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="96">
-      <c r="U96" t="s">
+    <row r="97">
+      <c r="V97" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="97">
-      <c r="U97" t="s">
+    <row r="98">
+      <c r="V98" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="98">
-      <c r="U98" t="s">
+    <row r="99">
+      <c r="V99" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="99">
-      <c r="U99" t="s">
+    <row r="100">
+      <c r="V100" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="100">
-      <c r="U100" t="s">
+    <row r="101">
+      <c r="V101" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="101">
-      <c r="U101" t="s">
+    <row r="102">
+      <c r="V102" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="102">
-      <c r="U102" t="s">
+    <row r="103">
+      <c r="V103" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="103">
-      <c r="U103" t="s">
+    <row r="104">
+      <c r="V104" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="104">
-      <c r="U104" t="s">
+    <row r="105">
+      <c r="V105" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="105">
-      <c r="U105" t="s">
+    <row r="106">
+      <c r="V106" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="106">
-      <c r="U106" t="s">
+    <row r="107">
+      <c r="V107" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="107">
-      <c r="U107" t="s">
+    <row r="108">
+      <c r="V108" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="108">
-      <c r="U108" t="s">
+    <row r="109">
+      <c r="V109" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="109">
-      <c r="U109" t="s">
+    <row r="110">
+      <c r="V110" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="110">
-      <c r="U110" t="s">
+    <row r="111">
+      <c r="V111" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="111">
-      <c r="U111" t="s">
+    <row r="112">
+      <c r="V112" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="112">
-      <c r="U112" t="s">
+    <row r="113">
+      <c r="V113" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="113">
-      <c r="U113" t="s">
+    <row r="114">
+      <c r="V114" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="114">
-      <c r="U114" t="s">
+    <row r="115">
+      <c r="V115" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="115">
-      <c r="U115" t="s">
+    <row r="116">
+      <c r="V116" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="116">
-      <c r="U116" t="s">
+    <row r="117">
+      <c r="V117" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="117">
-      <c r="U117" t="s">
+    <row r="118">
+      <c r="V118" t="s">
         <v>169</v>
       </c>
     </row>
@@ -4448,7 +5074,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{691DC43E-2E2B-AE40-B88B-B3C5C7CE75EB}">
   <dimension ref="A1:P1004"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0" zoomScaleNormal="100" zoomScale="100">
+    <sheetView tabSelected="true" workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>

--- a/artifact/script/web-05.xlsx
+++ b/artifact/script/web-05.xlsx
@@ -25,7 +25,7 @@
     <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
     <definedName name="external">'#system'!$H$2:$H$3</definedName>
-    <definedName name="image">'#system'!$I$2:$I$5</definedName>
+    <definedName name="image">'#system'!$I$2:$I$6</definedName>
     <definedName name="io">'#system'!$J$2:$J$24</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
     <definedName name="json">'#system'!$L$2:$L$14</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2039" uniqueCount="525">
   <si>
     <t>description</t>
   </si>
@@ -1635,6 +1635,9 @@
   </si>
   <si>
     <t>upload(url,body,fileParams,var)</t>
+  </si>
+  <si>
+    <t>colorbit(source,bit,saveTo)</t>
   </si>
 </sst>
 </file>
@@ -1642,7 +1645,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="42" x14ac:knownFonts="1">
+  <fonts count="58" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1914,8 +1917,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="58">
+  <fills count="85">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2240,8 +2344,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="59">
+  <borders count="87">
     <border>
       <left/>
       <right/>
@@ -2843,6 +3100,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -2850,7 +3389,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="83">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3020,52 +3559,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="38" fillId="33" fontId="26" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="36" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="36" fontId="28" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="39" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="46" fillId="39" fontId="29" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="42" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="46" fillId="42" fontId="30" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="45" fontId="32" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="48" borderId="50" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="50" fillId="48" fontId="34" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="51" borderId="54" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="54" fillId="51" fontId="35" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="54" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="54" fontId="36" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="54" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="54" fontId="37" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="38" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="57" fontId="39" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="40" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="41" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="60" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="63" borderId="70" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="66" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="69" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="72" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="75" borderId="78" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="78" borderId="82" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="81" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="81" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="84" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3510,7 +4097,7 @@
         <v>78</v>
       </c>
       <c r="I2" t="s">
-        <v>348</v>
+        <v>524</v>
       </c>
       <c r="J2" t="s">
         <v>314</v>
@@ -3593,7 +4180,7 @@
         <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J3" t="s">
         <v>340</v>
@@ -3664,7 +4251,7 @@
         <v>506</v>
       </c>
       <c r="I4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J4" t="s">
         <v>237</v>
@@ -3735,7 +4322,7 @@
         <v>511</v>
       </c>
       <c r="I5" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="J5" t="s">
         <v>521</v>
@@ -3795,6 +4382,9 @@
       </c>
       <c r="G6" t="s">
         <v>507</v>
+      </c>
+      <c r="I6" t="s">
+        <v>347</v>
       </c>
       <c r="J6" t="s">
         <v>71</v>

--- a/artifact/script/web-05.xlsx
+++ b/artifact/script/web-05.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$D$2:$D$36</definedName>
+    <definedName name="base">'#system'!$D$2:$D$38</definedName>
     <definedName name="csv">'#system'!$E$2:$E$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -26,7 +26,7 @@
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
     <definedName name="external">'#system'!$H$2:$H$3</definedName>
     <definedName name="image">'#system'!$I$2:$I$6</definedName>
-    <definedName name="io">'#system'!$J$2:$J$24</definedName>
+    <definedName name="io">'#system'!$J$2:$J$25</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
     <definedName name="json">'#system'!$L$2:$L$14</definedName>
     <definedName name="mail">'#system'!$M$2:$M$2</definedName>
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
     <definedName name="step">'#system'!$U$2:$U$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$118</definedName>
+    <definedName name="web">'#system'!$V$2:$V$119</definedName>
     <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
     <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
     <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2039" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3000" uniqueCount="529">
   <si>
     <t>description</t>
   </si>
@@ -1638,6 +1638,18 @@
   </si>
   <si>
     <t>colorbit(source,bit,saveTo)</t>
+  </si>
+  <si>
+    <t>saveVariablesByPrefix(var,prefix)</t>
+  </si>
+  <si>
+    <t>saveVariablesByRegex(var,regex)</t>
+  </si>
+  <si>
+    <t>openIgnoreTimeout(url)</t>
+  </si>
+  <si>
+    <t>searchAndReplace(file,config,saveAs)</t>
   </si>
 </sst>
 </file>
@@ -1645,7 +1657,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="58" x14ac:knownFonts="1">
+  <fonts count="90" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2018,8 +2030,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="85">
+  <fills count="139">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2497,8 +2711,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="87">
+  <borders count="143">
     <border>
       <left/>
       <right/>
@@ -3382,6 +3902,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -3389,7 +4473,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="115">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3607,52 +4691,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="41" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="60" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="66" fillId="60" fontId="42" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="43" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="63" borderId="70" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="70" fillId="63" fontId="44" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="66" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="74" fillId="66" fontId="45" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="69" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="74" fillId="69" fontId="46" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="47" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="72" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="72" fontId="48" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="49" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="75" borderId="78" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="78" fillId="75" fontId="50" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="78" borderId="82" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="82" fillId="78" fontId="51" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="81" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="81" fontId="52" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="81" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="81" fontId="53" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="54" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="84" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="55" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="56" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="57" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="94" fillId="87" fontId="58" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="59" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="90" fontId="60" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="102" fillId="93" fontId="61" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="102" fillId="96" fontId="62" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="63" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="99" fontId="64" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="65" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="106" fillId="102" fontId="66" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="110" fillId="105" fontId="67" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="108" fontId="68" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="108" fontId="69" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="70" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="71" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="72" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="73" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="114" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="117" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="120" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="123" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="126" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="129" borderId="134" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="132" borderId="138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="135" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="135" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="138" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3977,7 +5157,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB118"/>
+  <dimension ref="A1:AB119"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -4845,7 +6025,7 @@
         <v>295</v>
       </c>
       <c r="J19" t="s">
-        <v>44</v>
+        <v>528</v>
       </c>
       <c r="V19" t="s">
         <v>106</v>
@@ -4862,7 +6042,7 @@
         <v>296</v>
       </c>
       <c r="J20" t="s">
-        <v>391</v>
+        <v>44</v>
       </c>
       <c r="V20" t="s">
         <v>107</v>
@@ -4879,7 +6059,7 @@
         <v>297</v>
       </c>
       <c r="J21" t="s">
-        <v>84</v>
+        <v>391</v>
       </c>
       <c r="V21" t="s">
         <v>108</v>
@@ -4896,7 +6076,7 @@
         <v>298</v>
       </c>
       <c r="J22" t="s">
-        <v>497</v>
+        <v>84</v>
       </c>
       <c r="V22" t="s">
         <v>109</v>
@@ -4913,7 +6093,7 @@
         <v>289</v>
       </c>
       <c r="J23" t="s">
-        <v>45</v>
+        <v>497</v>
       </c>
       <c r="V23" t="s">
         <v>110</v>
@@ -4930,7 +6110,7 @@
         <v>278</v>
       </c>
       <c r="J24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V24" t="s">
         <v>111</v>
@@ -4946,6 +6126,9 @@
       <c r="F25" t="s">
         <v>75</v>
       </c>
+      <c r="J25" t="s">
+        <v>46</v>
+      </c>
       <c r="V25" t="s">
         <v>112</v>
       </c>
@@ -4980,7 +6163,7 @@
     </row>
     <row r="28">
       <c r="D28" t="s">
-        <v>415</v>
+        <v>525</v>
       </c>
       <c r="F28" t="s">
         <v>282</v>
@@ -4991,7 +6174,7 @@
     </row>
     <row r="29">
       <c r="D29" t="s">
-        <v>63</v>
+        <v>526</v>
       </c>
       <c r="F29" t="s">
         <v>283</v>
@@ -5002,7 +6185,7 @@
     </row>
     <row r="30">
       <c r="D30" t="s">
-        <v>64</v>
+        <v>415</v>
       </c>
       <c r="F30" t="s">
         <v>215</v>
@@ -5013,7 +6196,7 @@
     </row>
     <row r="31">
       <c r="D31" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F31" t="s">
         <v>274</v>
@@ -5024,7 +6207,7 @@
     </row>
     <row r="32">
       <c r="D32" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F32" t="s">
         <v>284</v>
@@ -5035,7 +6218,7 @@
     </row>
     <row r="33">
       <c r="D33" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F33" t="s">
         <v>259</v>
@@ -5046,7 +6229,7 @@
     </row>
     <row r="34">
       <c r="D34" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F34" t="s">
         <v>329</v>
@@ -5057,7 +6240,7 @@
     </row>
     <row r="35">
       <c r="D35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F35" t="s">
         <v>306</v>
@@ -5068,7 +6251,7 @@
     </row>
     <row r="36">
       <c r="D36" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F36" t="s">
         <v>260</v>
@@ -5078,6 +6261,9 @@
       </c>
     </row>
     <row r="37">
+      <c r="D37" t="s">
+        <v>69</v>
+      </c>
       <c r="F37" t="s">
         <v>307</v>
       </c>
@@ -5086,6 +6272,9 @@
       </c>
     </row>
     <row r="38">
+      <c r="D38" t="s">
+        <v>70</v>
+      </c>
       <c r="F38" t="s">
         <v>266</v>
       </c>
@@ -5370,7 +6559,7 @@
         <v>343</v>
       </c>
       <c r="V73" t="s">
-        <v>142</v>
+        <v>527</v>
       </c>
     </row>
     <row r="74">
@@ -5378,7 +6567,7 @@
         <v>279</v>
       </c>
       <c r="V74" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="75">
@@ -5386,7 +6575,7 @@
         <v>285</v>
       </c>
       <c r="V75" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="76">
@@ -5394,7 +6583,7 @@
         <v>290</v>
       </c>
       <c r="V76" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="77">
@@ -5402,7 +6591,7 @@
         <v>428</v>
       </c>
       <c r="V77" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="78">
@@ -5410,7 +6599,7 @@
         <v>331</v>
       </c>
       <c r="V78" t="s">
-        <v>198</v>
+        <v>146</v>
       </c>
     </row>
     <row r="79">
@@ -5418,7 +6607,7 @@
         <v>269</v>
       </c>
       <c r="V79" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="80">
@@ -5426,7 +6615,7 @@
         <v>280</v>
       </c>
       <c r="V80" t="s">
-        <v>509</v>
+        <v>199</v>
       </c>
     </row>
     <row r="81">
@@ -5434,7 +6623,7 @@
         <v>286</v>
       </c>
       <c r="V81" t="s">
-        <v>200</v>
+        <v>509</v>
       </c>
     </row>
     <row r="82">
@@ -5442,7 +6631,7 @@
         <v>275</v>
       </c>
       <c r="V82" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="83">
@@ -5450,7 +6639,7 @@
         <v>270</v>
       </c>
       <c r="V83" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
     </row>
     <row r="84">
@@ -5458,7 +6647,7 @@
         <v>287</v>
       </c>
       <c r="V84" t="s">
-        <v>147</v>
+        <v>214</v>
       </c>
     </row>
     <row r="85">
@@ -5466,7 +6655,7 @@
         <v>271</v>
       </c>
       <c r="V85" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
     </row>
     <row r="86">
@@ -5474,7 +6663,7 @@
         <v>272</v>
       </c>
       <c r="V86" t="s">
-        <v>456</v>
+        <v>202</v>
       </c>
     </row>
     <row r="87">
@@ -5482,7 +6671,7 @@
         <v>304</v>
       </c>
       <c r="V87" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
     </row>
     <row r="88">
@@ -5490,7 +6679,7 @@
         <v>310</v>
       </c>
       <c r="V88" t="s">
-        <v>203</v>
+        <v>466</v>
       </c>
     </row>
     <row r="89">
@@ -5498,7 +6687,7 @@
         <v>294</v>
       </c>
       <c r="V89" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="90">
@@ -5506,7 +6695,7 @@
         <v>339</v>
       </c>
       <c r="V90" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="91">
@@ -5514,7 +6703,7 @@
         <v>276</v>
       </c>
       <c r="V91" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="92">
@@ -5522,136 +6711,141 @@
         <v>277</v>
       </c>
       <c r="V92" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
     </row>
     <row r="93">
       <c r="V93" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
     </row>
     <row r="94">
       <c r="V94" t="s">
-        <v>148</v>
+        <v>207</v>
       </c>
     </row>
     <row r="95">
       <c r="V95" t="s">
-        <v>382</v>
+        <v>148</v>
       </c>
     </row>
     <row r="96">
       <c r="V96" t="s">
-        <v>149</v>
+        <v>382</v>
       </c>
     </row>
     <row r="97">
       <c r="V97" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="98">
       <c r="V98" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="99">
       <c r="V99" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="100">
       <c r="V100" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="101">
       <c r="V101" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="102">
       <c r="V102" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="103">
       <c r="V103" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="104">
       <c r="V104" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="105">
       <c r="V105" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="106">
       <c r="V106" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="107">
       <c r="V107" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="108">
       <c r="V108" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="109">
       <c r="V109" t="s">
-        <v>495</v>
+        <v>161</v>
       </c>
     </row>
     <row r="110">
       <c r="V110" t="s">
-        <v>162</v>
+        <v>495</v>
       </c>
     </row>
     <row r="111">
       <c r="V111" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="112">
       <c r="V112" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="113">
       <c r="V113" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="114">
       <c r="V114" t="s">
-        <v>47</v>
+        <v>165</v>
       </c>
     </row>
     <row r="115">
       <c r="V115" t="s">
-        <v>166</v>
+        <v>47</v>
       </c>
     </row>
     <row r="116">
       <c r="V116" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="117">
       <c r="V117" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="118">
       <c r="V118" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="V119" t="s">
         <v>169</v>
       </c>
     </row>

--- a/artifact/script/web-05.xlsx
+++ b/artifact/script/web-05.xlsx
@@ -24,31 +24,32 @@
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
-    <definedName name="external">'#system'!$H$2:$H$3</definedName>
+    <definedName name="external">'#system'!$H$2:$H$4</definedName>
     <definedName name="image">'#system'!$I$2:$I$6</definedName>
     <definedName name="io">'#system'!$J$2:$J$25</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
-    <definedName name="json">'#system'!$L$2:$L$14</definedName>
-    <definedName name="mail">'#system'!$M$2:$M$2</definedName>
+    <definedName name="json">'#system'!$L$2:$L$16</definedName>
+    <definedName name="mail">'#system'!$N$2:$N$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$N$2:$N$15</definedName>
-    <definedName name="pdf">'#system'!$O$2:$O$16</definedName>
-    <definedName name="rdbms">'#system'!$P$2:$P$7</definedName>
-    <definedName name="redis">'#system'!$Q$2:$Q$10</definedName>
-    <definedName name="sms">'#system'!$R$2:$R$2</definedName>
-    <definedName name="sound">'#system'!$S$2:$S$5</definedName>
-    <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
-    <definedName name="step">'#system'!$U$2:$U$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$119</definedName>
-    <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
-    <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
-    <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
-    <definedName name="ws.async">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="xml">'#system'!$AA$2:$AA$11</definedName>
+    <definedName name="number">'#system'!$O$2:$O$15</definedName>
+    <definedName name="pdf">'#system'!$P$2:$P$16</definedName>
+    <definedName name="rdbms">'#system'!$Q$2:$Q$7</definedName>
+    <definedName name="redis">'#system'!$R$2:$R$10</definedName>
+    <definedName name="sms">'#system'!$S$2:$S$2</definedName>
+    <definedName name="sound">'#system'!$T$2:$T$5</definedName>
+    <definedName name="ssh">'#system'!$U$2:$U$9</definedName>
+    <definedName name="step">'#system'!$V$2:$V$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$28</definedName>
+    <definedName name="web">'#system'!$W$2:$W$122</definedName>
+    <definedName name="webalert">'#system'!$X$2:$X$8</definedName>
+    <definedName name="webcookie">'#system'!$Y$2:$Y$8</definedName>
+    <definedName name="ws">'#system'!$Z$2:$Z$17</definedName>
+    <definedName name="ws.async">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="xml">'#system'!$AB$2:$AB$13</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
+    <definedName name="macro">'#system'!$M$2:$M$4</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3000" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3494" uniqueCount="543">
   <si>
     <t>description</t>
   </si>
@@ -1650,6 +1651,48 @@
   </si>
   <si>
     <t>searchAndReplace(file,config,saveAs)</t>
+  </si>
+  <si>
+    <t>macro</t>
+  </si>
+  <si>
+    <t>runProgram(programPathAndParams)</t>
+  </si>
+  <si>
+    <t>runProgramNoWait(programPathAndParams)</t>
+  </si>
+  <si>
+    <t>beautify(json,var)</t>
+  </si>
+  <si>
+    <t>minify(json,var)</t>
+  </si>
+  <si>
+    <t>description()</t>
+  </si>
+  <si>
+    <t>expects(var,default)</t>
+  </si>
+  <si>
+    <t>produces(var,value)</t>
+  </si>
+  <si>
+    <t>assertIENativeMode()</t>
+  </si>
+  <si>
+    <t>clickOffset(locator,x,y)</t>
+  </si>
+  <si>
+    <t>dragTo(fromLocator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>saveAttributeList(var,locator,attrName)</t>
+  </si>
+  <si>
+    <t>beautify(xml,var)</t>
+  </si>
+  <si>
+    <t>minify(xml,var)</t>
   </si>
 </sst>
 </file>
@@ -1657,7 +1700,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="90" x14ac:knownFonts="1">
+  <fonts count="106" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2232,8 +2275,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="139">
+  <fills count="166">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3017,8 +3161,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="143">
+  <borders count="171">
     <border>
       <left/>
       <right/>
@@ -4466,6 +4763,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4473,7 +5052,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="131">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4787,52 +5366,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="73" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="114" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="122" fillId="114" fontId="74" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="75" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="117" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="126" fillId="117" fontId="76" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="120" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="120" fontId="77" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="123" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="123" fontId="78" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="79" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="126" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="126" fontId="80" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="81" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="129" borderId="134" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="134" fillId="129" fontId="82" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="132" borderId="138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="138" fillId="132" fontId="83" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="135" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="135" fontId="84" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="135" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="135" fontId="85" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="86" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="138" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="138" fontId="87" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="88" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="89" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="141" borderId="150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="144" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="147" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="150" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="153" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="156" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="159" borderId="166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="162" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="162" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5157,7 +5784,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB119"/>
+  <dimension ref="A1:AC122"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -5206,48 +5833,51 @@
         <v>24</v>
       </c>
       <c r="M1" t="s">
+        <v>529</v>
+      </c>
+      <c r="N1" t="s">
         <v>195</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>51</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>238</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>52</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>395</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>411</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>412</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>356</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>396</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>53</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>54</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>55</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>56</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>413</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>226</v>
       </c>
     </row>
@@ -5289,48 +5919,51 @@
         <v>432</v>
       </c>
       <c r="M2" t="s">
+        <v>534</v>
+      </c>
+      <c r="N2" t="s">
         <v>416</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>429</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>252</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>216</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>397</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>418</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>419</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>380</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>406</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>96</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>170</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>175</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>182</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>431</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>227</v>
       </c>
     </row>
@@ -5357,7 +5990,7 @@
         <v>48</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>530</v>
       </c>
       <c r="I3" t="s">
         <v>348</v>
@@ -5371,43 +6004,46 @@
       <c r="L3" t="s">
         <v>85</v>
       </c>
-      <c r="N3" t="s">
+      <c r="M3" t="s">
+        <v>535</v>
+      </c>
+      <c r="O3" t="s">
         <v>430</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>239</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>217</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>398</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>420</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>381</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>407</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>97</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>171</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>176</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>363</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>183</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>228</v>
       </c>
     </row>
@@ -5430,6 +6066,9 @@
       <c r="G4" t="s">
         <v>506</v>
       </c>
+      <c r="H4" t="s">
+        <v>531</v>
+      </c>
       <c r="I4" t="s">
         <v>349</v>
       </c>
@@ -5442,43 +6081,46 @@
       <c r="L4" t="s">
         <v>25</v>
       </c>
-      <c r="N4" t="s">
+      <c r="M4" t="s">
+        <v>536</v>
+      </c>
+      <c r="O4" t="s">
         <v>26</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>240</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>218</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>399</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>421</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>357</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>408</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>353</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>172</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>177</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>183</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>423</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>229</v>
       </c>
     </row>
@@ -5510,40 +6152,40 @@
       <c r="L5" t="s">
         <v>86</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>30</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>241</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>219</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>400</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>422</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>358</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>354</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>173</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>178</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>184</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>424</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>230</v>
       </c>
     </row>
@@ -5572,37 +6214,37 @@
       <c r="L6" t="s">
         <v>29</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>31</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>242</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>390</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>401</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>360</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>98</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>500</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>179</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>185</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>425</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>231</v>
       </c>
     </row>
@@ -5628,37 +6270,37 @@
       <c r="L7" t="s">
         <v>314</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>33</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>243</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>417</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>402</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>359</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>99</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>501</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>180</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>186</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>426</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>232</v>
       </c>
     </row>
@@ -5684,34 +6326,34 @@
       <c r="L8" t="s">
         <v>34</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>90</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>244</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>403</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>361</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>100</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>174</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>181</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>187</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>427</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>233</v>
       </c>
     </row>
@@ -5737,26 +6379,26 @@
       <c r="L9" t="s">
         <v>35</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>91</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>245</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>404</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>362</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>208</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>188</v>
       </c>
-      <c r="AA9" t="s">
-        <v>234</v>
+      <c r="AB9" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="10">
@@ -5778,23 +6420,23 @@
       <c r="L10" t="s">
         <v>36</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>433</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>246</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>405</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>256</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>189</v>
       </c>
-      <c r="AA10" t="s">
-        <v>235</v>
+      <c r="AB10" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="11">
@@ -5814,22 +6456,22 @@
         <v>17</v>
       </c>
       <c r="L11" t="s">
-        <v>498</v>
-      </c>
-      <c r="N11" t="s">
+        <v>532</v>
+      </c>
+      <c r="O11" t="s">
         <v>92</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>247</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>257</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>258</v>
       </c>
-      <c r="AA11" t="s">
-        <v>236</v>
+      <c r="AB11" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="12">
@@ -5849,24 +6491,27 @@
         <v>42</v>
       </c>
       <c r="L12" t="s">
-        <v>39</v>
-      </c>
-      <c r="N12" t="s">
+        <v>498</v>
+      </c>
+      <c r="O12" t="s">
         <v>41</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>248</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
         <v>101</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>190</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>195</v>
+        <v>529</v>
       </c>
       <c r="D13" t="s">
         <v>340</v>
@@ -5881,24 +6526,27 @@
         <v>80</v>
       </c>
       <c r="L13" t="s">
-        <v>40</v>
-      </c>
-      <c r="N13" t="s">
+        <v>533</v>
+      </c>
+      <c r="O13" t="s">
         <v>93</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>253</v>
       </c>
-      <c r="V13" t="s">
+      <c r="W13" t="s">
         <v>325</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>191</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>195</v>
       </c>
       <c r="D14" t="s">
         <v>37</v>
@@ -5913,24 +6561,24 @@
         <v>81</v>
       </c>
       <c r="L14" t="s">
-        <v>43</v>
-      </c>
-      <c r="N14" t="s">
+        <v>39</v>
+      </c>
+      <c r="O14" t="s">
         <v>94</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>249</v>
       </c>
-      <c r="V14" t="s">
+      <c r="W14" t="s">
         <v>102</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>238</v>
+        <v>51</v>
       </c>
       <c r="D15" t="s">
         <v>58</v>
@@ -5941,22 +6589,25 @@
       <c r="J15" t="s">
         <v>512</v>
       </c>
-      <c r="N15" t="s">
+      <c r="L15" t="s">
+        <v>40</v>
+      </c>
+      <c r="O15" t="s">
         <v>95</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>250</v>
       </c>
-      <c r="V15" t="s">
+      <c r="W15" t="s">
         <v>103</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>238</v>
       </c>
       <c r="D16" t="s">
         <v>384</v>
@@ -5967,19 +6618,22 @@
       <c r="J16" t="s">
         <v>82</v>
       </c>
-      <c r="O16" t="s">
+      <c r="L16" t="s">
+        <v>43</v>
+      </c>
+      <c r="P16" t="s">
         <v>251</v>
       </c>
-      <c r="V16" t="s">
+      <c r="W16" t="s">
         <v>74</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>395</v>
+        <v>52</v>
       </c>
       <c r="D17" t="s">
         <v>385</v>
@@ -5990,16 +6644,16 @@
       <c r="J17" t="s">
         <v>83</v>
       </c>
-      <c r="V17" t="s">
+      <c r="W17" t="s">
         <v>104</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="D18" t="s">
         <v>414</v>
@@ -6010,13 +6664,13 @@
       <c r="J18" t="s">
         <v>379</v>
       </c>
-      <c r="V18" t="s">
+      <c r="W18" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D19" t="s">
         <v>59</v>
@@ -6027,13 +6681,13 @@
       <c r="J19" t="s">
         <v>528</v>
       </c>
-      <c r="V19" t="s">
+      <c r="W19" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>356</v>
+        <v>412</v>
       </c>
       <c r="D20" t="s">
         <v>60</v>
@@ -6044,13 +6698,13 @@
       <c r="J20" t="s">
         <v>44</v>
       </c>
-      <c r="V20" t="s">
+      <c r="W20" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>396</v>
+        <v>356</v>
       </c>
       <c r="D21" t="s">
         <v>255</v>
@@ -6061,13 +6715,13 @@
       <c r="J21" t="s">
         <v>391</v>
       </c>
-      <c r="V21" t="s">
-        <v>108</v>
+      <c r="W21" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>396</v>
       </c>
       <c r="D22" t="s">
         <v>61</v>
@@ -6078,13 +6732,13 @@
       <c r="J22" t="s">
         <v>84</v>
       </c>
-      <c r="V22" t="s">
+      <c r="W22" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D23" t="s">
         <v>320</v>
@@ -6095,13 +6749,13 @@
       <c r="J23" t="s">
         <v>497</v>
       </c>
-      <c r="V23" t="s">
+      <c r="W23" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D24" t="s">
         <v>62</v>
@@ -6112,13 +6766,13 @@
       <c r="J24" t="s">
         <v>45</v>
       </c>
-      <c r="V24" t="s">
+      <c r="W24" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D25" t="s">
         <v>504</v>
@@ -6129,13 +6783,13 @@
       <c r="J25" t="s">
         <v>46</v>
       </c>
-      <c r="V25" t="s">
+      <c r="W25" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>413</v>
+        <v>56</v>
       </c>
       <c r="D26" t="s">
         <v>224</v>
@@ -6143,13 +6797,13 @@
       <c r="F26" t="s">
         <v>281</v>
       </c>
-      <c r="V26" t="s">
+      <c r="W26" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>226</v>
+        <v>413</v>
       </c>
       <c r="D27" t="s">
         <v>225</v>
@@ -6157,18 +6811,21 @@
       <c r="F27" t="s">
         <v>265</v>
       </c>
-      <c r="V27" t="s">
+      <c r="W27" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="s">
+        <v>226</v>
+      </c>
       <c r="D28" t="s">
         <v>525</v>
       </c>
       <c r="F28" t="s">
         <v>282</v>
       </c>
-      <c r="V28" t="s">
+      <c r="W28" t="s">
         <v>114</v>
       </c>
     </row>
@@ -6179,7 +6836,7 @@
       <c r="F29" t="s">
         <v>283</v>
       </c>
-      <c r="V29" t="s">
+      <c r="W29" t="s">
         <v>115</v>
       </c>
     </row>
@@ -6190,7 +6847,7 @@
       <c r="F30" t="s">
         <v>215</v>
       </c>
-      <c r="V30" t="s">
+      <c r="W30" t="s">
         <v>116</v>
       </c>
     </row>
@@ -6201,7 +6858,7 @@
       <c r="F31" t="s">
         <v>274</v>
       </c>
-      <c r="V31" t="s">
+      <c r="W31" t="s">
         <v>117</v>
       </c>
     </row>
@@ -6212,7 +6869,7 @@
       <c r="F32" t="s">
         <v>284</v>
       </c>
-      <c r="V32" t="s">
+      <c r="W32" t="s">
         <v>118</v>
       </c>
     </row>
@@ -6223,7 +6880,7 @@
       <c r="F33" t="s">
         <v>259</v>
       </c>
-      <c r="V33" t="s">
+      <c r="W33" t="s">
         <v>119</v>
       </c>
     </row>
@@ -6234,7 +6891,7 @@
       <c r="F34" t="s">
         <v>329</v>
       </c>
-      <c r="V34" t="s">
+      <c r="W34" t="s">
         <v>209</v>
       </c>
     </row>
@@ -6245,7 +6902,7 @@
       <c r="F35" t="s">
         <v>306</v>
       </c>
-      <c r="V35" t="s">
+      <c r="W35" t="s">
         <v>120</v>
       </c>
     </row>
@@ -6256,7 +6913,7 @@
       <c r="F36" t="s">
         <v>260</v>
       </c>
-      <c r="V36" t="s">
+      <c r="W36" t="s">
         <v>337</v>
       </c>
     </row>
@@ -6267,7 +6924,7 @@
       <c r="F37" t="s">
         <v>307</v>
       </c>
-      <c r="V37" t="s">
+      <c r="W37" t="s">
         <v>434</v>
       </c>
     </row>
@@ -6278,7 +6935,7 @@
       <c r="F38" t="s">
         <v>266</v>
       </c>
-      <c r="V38" t="s">
+      <c r="W38" t="s">
         <v>392</v>
       </c>
     </row>
@@ -6286,7 +6943,7 @@
       <c r="F39" t="s">
         <v>77</v>
       </c>
-      <c r="V39" t="s">
+      <c r="W39" t="s">
         <v>121</v>
       </c>
     </row>
@@ -6294,7 +6951,7 @@
       <c r="F40" t="s">
         <v>211</v>
       </c>
-      <c r="V40" t="s">
+      <c r="W40" t="s">
         <v>122</v>
       </c>
     </row>
@@ -6302,7 +6959,7 @@
       <c r="F41" t="s">
         <v>288</v>
       </c>
-      <c r="V41" t="s">
+      <c r="W41" t="s">
         <v>123</v>
       </c>
     </row>
@@ -6310,7 +6967,7 @@
       <c r="F42" t="s">
         <v>299</v>
       </c>
-      <c r="V42" t="s">
+      <c r="W42" t="s">
         <v>124</v>
       </c>
     </row>
@@ -6318,7 +6975,7 @@
       <c r="F43" t="s">
         <v>300</v>
       </c>
-      <c r="V43" t="s">
+      <c r="W43" t="s">
         <v>125</v>
       </c>
     </row>
@@ -6326,7 +6983,7 @@
       <c r="F44" t="s">
         <v>342</v>
       </c>
-      <c r="V44" t="s">
+      <c r="W44" t="s">
         <v>126</v>
       </c>
     </row>
@@ -6334,7 +6991,7 @@
       <c r="F45" t="s">
         <v>341</v>
       </c>
-      <c r="V45" t="s">
+      <c r="W45" t="s">
         <v>494</v>
       </c>
     </row>
@@ -6342,7 +6999,7 @@
       <c r="F46" t="s">
         <v>210</v>
       </c>
-      <c r="V46" t="s">
+      <c r="W46" t="s">
         <v>212</v>
       </c>
     </row>
@@ -6350,7 +7007,7 @@
       <c r="F47" t="s">
         <v>319</v>
       </c>
-      <c r="V47" t="s">
+      <c r="W47" t="s">
         <v>76</v>
       </c>
     </row>
@@ -6358,7 +7015,7 @@
       <c r="F48" t="s">
         <v>338</v>
       </c>
-      <c r="V48" t="s">
+      <c r="W48" t="s">
         <v>127</v>
       </c>
     </row>
@@ -6366,7 +7023,7 @@
       <c r="F49" t="s">
         <v>367</v>
       </c>
-      <c r="V49" t="s">
+      <c r="W49" t="s">
         <v>128</v>
       </c>
     </row>
@@ -6374,7 +7031,7 @@
       <c r="F50" t="s">
         <v>301</v>
       </c>
-      <c r="V50" t="s">
+      <c r="W50" t="s">
         <v>129</v>
       </c>
     </row>
@@ -6382,470 +7039,485 @@
       <c r="F51" t="s">
         <v>355</v>
       </c>
-      <c r="V51" t="s">
-        <v>522</v>
+      <c r="W51" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="52">
       <c r="F52" t="s">
         <v>330</v>
       </c>
-      <c r="V52" t="s">
-        <v>130</v>
+      <c r="W52" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="53">
       <c r="F53" t="s">
         <v>267</v>
       </c>
-      <c r="V53" t="s">
-        <v>345</v>
+      <c r="W53" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="54">
       <c r="F54" t="s">
         <v>291</v>
       </c>
-      <c r="V54" t="s">
-        <v>517</v>
+      <c r="W54" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="55">
       <c r="F55" t="s">
         <v>292</v>
       </c>
-      <c r="V55" t="s">
-        <v>131</v>
+      <c r="W55" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="56">
       <c r="F56" t="s">
         <v>293</v>
       </c>
-      <c r="V56" t="s">
-        <v>132</v>
+      <c r="W56" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="57">
       <c r="F57" t="s">
         <v>302</v>
       </c>
-      <c r="V57" t="s">
-        <v>133</v>
+      <c r="W57" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="58">
       <c r="F58" t="s">
         <v>311</v>
       </c>
-      <c r="V58" t="s">
-        <v>134</v>
+      <c r="W58" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="59">
       <c r="F59" t="s">
         <v>336</v>
       </c>
-      <c r="V59" t="s">
-        <v>135</v>
+      <c r="W59" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="60">
       <c r="F60" t="s">
         <v>308</v>
       </c>
-      <c r="V60" t="s">
-        <v>136</v>
+      <c r="W60" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="61">
       <c r="F61" t="s">
         <v>309</v>
       </c>
-      <c r="V61" t="s">
-        <v>137</v>
+      <c r="W61" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="62">
       <c r="F62" t="s">
         <v>368</v>
       </c>
-      <c r="V62" t="s">
-        <v>493</v>
+      <c r="W62" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="63">
       <c r="F63" t="s">
         <v>369</v>
       </c>
-      <c r="V63" t="s">
-        <v>213</v>
+      <c r="W63" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="64">
       <c r="F64" t="s">
         <v>344</v>
       </c>
-      <c r="V64" t="s">
-        <v>388</v>
+      <c r="W64" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="65">
       <c r="F65" t="s">
         <v>312</v>
       </c>
-      <c r="V65" t="s">
-        <v>499</v>
+      <c r="W65" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="66">
       <c r="F66" t="s">
         <v>268</v>
       </c>
-      <c r="V66" t="s">
-        <v>138</v>
+      <c r="W66" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="67">
       <c r="F67" t="s">
         <v>352</v>
       </c>
-      <c r="V67" t="s">
-        <v>139</v>
+      <c r="W67" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="68">
       <c r="F68" t="s">
         <v>313</v>
       </c>
-      <c r="V68" t="s">
-        <v>140</v>
+      <c r="W68" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="69">
       <c r="F69" t="s">
         <v>409</v>
       </c>
-      <c r="V69" t="s">
-        <v>141</v>
+      <c r="W69" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="70">
       <c r="F70" t="s">
         <v>303</v>
       </c>
-      <c r="V70" t="s">
-        <v>196</v>
+      <c r="W70" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" t="s">
         <v>410</v>
       </c>
-      <c r="V71" t="s">
-        <v>197</v>
+      <c r="W71" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="72">
       <c r="F72" t="s">
         <v>261</v>
       </c>
-      <c r="V72" t="s">
-        <v>510</v>
+      <c r="W72" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="73">
       <c r="F73" t="s">
         <v>343</v>
       </c>
-      <c r="V73" t="s">
-        <v>527</v>
+      <c r="W73" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="74">
       <c r="F74" t="s">
         <v>279</v>
       </c>
-      <c r="V74" t="s">
-        <v>142</v>
+      <c r="W74" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="75">
       <c r="F75" t="s">
         <v>285</v>
       </c>
-      <c r="V75" t="s">
-        <v>143</v>
+      <c r="W75" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="76">
       <c r="F76" t="s">
         <v>290</v>
       </c>
-      <c r="V76" t="s">
-        <v>144</v>
+      <c r="W76" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="77">
       <c r="F77" t="s">
         <v>428</v>
       </c>
-      <c r="V77" t="s">
-        <v>145</v>
+      <c r="W77" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="78">
       <c r="F78" t="s">
         <v>331</v>
       </c>
-      <c r="V78" t="s">
-        <v>146</v>
+      <c r="W78" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="79">
       <c r="F79" t="s">
         <v>269</v>
       </c>
-      <c r="V79" t="s">
-        <v>198</v>
+      <c r="W79" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="80">
       <c r="F80" t="s">
         <v>280</v>
       </c>
-      <c r="V80" t="s">
-        <v>199</v>
+      <c r="W80" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="81">
       <c r="F81" t="s">
         <v>286</v>
       </c>
-      <c r="V81" t="s">
-        <v>509</v>
+      <c r="W81" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="82">
       <c r="F82" t="s">
         <v>275</v>
       </c>
-      <c r="V82" t="s">
-        <v>200</v>
+      <c r="W82" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="83">
       <c r="F83" t="s">
         <v>270</v>
       </c>
-      <c r="V83" t="s">
-        <v>201</v>
+      <c r="W83" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="84">
       <c r="F84" t="s">
         <v>287</v>
       </c>
-      <c r="V84" t="s">
-        <v>214</v>
+      <c r="W84" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="85">
       <c r="F85" t="s">
         <v>271</v>
       </c>
-      <c r="V85" t="s">
-        <v>147</v>
+      <c r="W85" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="86">
       <c r="F86" t="s">
         <v>272</v>
       </c>
-      <c r="V86" t="s">
-        <v>202</v>
+      <c r="W86" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="87">
       <c r="F87" t="s">
         <v>304</v>
       </c>
-      <c r="V87" t="s">
-        <v>456</v>
+      <c r="W87" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="88">
       <c r="F88" t="s">
         <v>310</v>
       </c>
-      <c r="V88" t="s">
-        <v>466</v>
+      <c r="W88" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="89">
       <c r="F89" t="s">
         <v>294</v>
       </c>
-      <c r="V89" t="s">
-        <v>203</v>
+      <c r="W89" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="90">
       <c r="F90" t="s">
         <v>339</v>
       </c>
-      <c r="V90" t="s">
-        <v>204</v>
+      <c r="W90" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="91">
       <c r="F91" t="s">
         <v>276</v>
       </c>
-      <c r="V91" t="s">
-        <v>205</v>
+      <c r="W91" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="92">
       <c r="F92" t="s">
         <v>277</v>
       </c>
-      <c r="V92" t="s">
+      <c r="W92" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="W93" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="W94" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="W95" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="93">
-      <c r="V93" t="s">
+    <row r="96">
+      <c r="W96" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="94">
-      <c r="V94" t="s">
+    <row r="97">
+      <c r="W97" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="95">
-      <c r="V95" t="s">
+    <row r="98">
+      <c r="W98" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="96">
-      <c r="V96" t="s">
+    <row r="99">
+      <c r="W99" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="97">
-      <c r="V97" t="s">
+    <row r="100">
+      <c r="W100" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="98">
-      <c r="V98" t="s">
+    <row r="101">
+      <c r="W101" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="99">
-      <c r="V99" t="s">
+    <row r="102">
+      <c r="W102" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="100">
-      <c r="V100" t="s">
+    <row r="103">
+      <c r="W103" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="101">
-      <c r="V101" t="s">
+    <row r="104">
+      <c r="W104" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="102">
-      <c r="V102" t="s">
+    <row r="105">
+      <c r="W105" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="103">
-      <c r="V103" t="s">
+    <row r="106">
+      <c r="W106" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="104">
-      <c r="V104" t="s">
+    <row r="107">
+      <c r="W107" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="105">
-      <c r="V105" t="s">
+    <row r="108">
+      <c r="W108" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="106">
-      <c r="V106" t="s">
+    <row r="109">
+      <c r="W109" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="107">
-      <c r="V107" t="s">
+    <row r="110">
+      <c r="W110" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="108">
-      <c r="V108" t="s">
+    <row r="111">
+      <c r="W111" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="109">
-      <c r="V109" t="s">
+    <row r="112">
+      <c r="W112" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="110">
-      <c r="V110" t="s">
+    <row r="113">
+      <c r="W113" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="111">
-      <c r="V111" t="s">
+    <row r="114">
+      <c r="W114" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="112">
-      <c r="V112" t="s">
+    <row r="115">
+      <c r="W115" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="113">
-      <c r="V113" t="s">
+    <row r="116">
+      <c r="W116" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="114">
-      <c r="V114" t="s">
+    <row r="117">
+      <c r="W117" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="115">
-      <c r="V115" t="s">
+    <row r="118">
+      <c r="W118" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="116">
-      <c r="V116" t="s">
+    <row r="119">
+      <c r="W119" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="117">
-      <c r="V117" t="s">
+    <row r="120">
+      <c r="W120" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="118">
-      <c r="V118" t="s">
+    <row r="121">
+      <c r="W121" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="119">
-      <c r="V119" t="s">
+    <row r="122">
+      <c r="W122" t="s">
         <v>169</v>
       </c>
     </row>

--- a/artifact/script/web-05.xlsx
+++ b/artifact/script/web-05.xlsx
@@ -18,38 +18,39 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$D$2:$D$38</definedName>
-    <definedName name="csv">'#system'!$E$2:$E$5</definedName>
+    <definedName name="base">'#system'!$E$2:$E$38</definedName>
+    <definedName name="csv">'#system'!$F$2:$F$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
-    <definedName name="excel">'#system'!$G$2:$G$14</definedName>
-    <definedName name="external">'#system'!$H$2:$H$4</definedName>
-    <definedName name="image">'#system'!$I$2:$I$6</definedName>
-    <definedName name="io">'#system'!$J$2:$J$25</definedName>
-    <definedName name="jms">'#system'!$K$2:$K$4</definedName>
-    <definedName name="json">'#system'!$L$2:$L$16</definedName>
-    <definedName name="mail">'#system'!$N$2:$N$2</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$92</definedName>
+    <definedName name="excel">'#system'!$H$2:$H$14</definedName>
+    <definedName name="external">'#system'!$I$2:$I$4</definedName>
+    <definedName name="image">'#system'!$J$2:$J$6</definedName>
+    <definedName name="io">'#system'!$K$2:$K$25</definedName>
+    <definedName name="jms">'#system'!$L$2:$L$4</definedName>
+    <definedName name="json">'#system'!$M$2:$M$16</definedName>
+    <definedName name="mail">'#system'!$O$2:$O$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$O$2:$O$15</definedName>
-    <definedName name="pdf">'#system'!$P$2:$P$16</definedName>
-    <definedName name="rdbms">'#system'!$Q$2:$Q$7</definedName>
-    <definedName name="redis">'#system'!$R$2:$R$10</definedName>
-    <definedName name="sms">'#system'!$S$2:$S$2</definedName>
-    <definedName name="sound">'#system'!$T$2:$T$5</definedName>
-    <definedName name="ssh">'#system'!$U$2:$U$9</definedName>
-    <definedName name="step">'#system'!$V$2:$V$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$28</definedName>
-    <definedName name="web">'#system'!$W$2:$W$122</definedName>
-    <definedName name="webalert">'#system'!$X$2:$X$8</definedName>
-    <definedName name="webcookie">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="ws">'#system'!$Z$2:$Z$17</definedName>
-    <definedName name="ws.async">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="xml">'#system'!$AB$2:$AB$13</definedName>
+    <definedName name="number">'#system'!$P$2:$P$16</definedName>
+    <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
+    <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
+    <definedName name="redis">'#system'!$S$2:$S$10</definedName>
+    <definedName name="sms">'#system'!$T$2:$T$2</definedName>
+    <definedName name="sound">'#system'!$U$2:$U$5</definedName>
+    <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
+    <definedName name="step">'#system'!$W$2:$W$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$29</definedName>
+    <definedName name="web">'#system'!$X$2:$X$124</definedName>
+    <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
+    <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
+    <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="xml">'#system'!$AC$2:$AC$21</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="macro">'#system'!$M$2:$M$4</definedName>
+    <definedName name="macro">'#system'!$N$2:$N$4</definedName>
+    <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3494" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5019" uniqueCount="560">
   <si>
     <t>description</t>
   </si>
@@ -1693,6 +1694,57 @@
   </si>
   <si>
     <t>minify(xml,var)</t>
+  </si>
+  <si>
+    <t>aws.sqs</t>
+  </si>
+  <si>
+    <t>deleteMessage(profile,queue,receiptHandle)</t>
+  </si>
+  <si>
+    <t>receiveMessage(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>receiveMessages(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>sendMessage(profile,queue,message,var)</t>
+  </si>
+  <si>
+    <t>append(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>clear(xml,xpath,var)</t>
+  </si>
+  <si>
+    <t>delete(xml,xpath,var)</t>
+  </si>
+  <si>
+    <t>prepend(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>replace(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>rightClick(locator)</t>
+  </si>
+  <si>
+    <t>insertAfter(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>insertBefore(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>replaceIn(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>roundTo(var,closestDigit)</t>
+  </si>
+  <si>
+    <t>whole(var)</t>
+  </si>
+  <si>
+    <t>assertElementsPresent(prefix)</t>
   </si>
 </sst>
 </file>
@@ -1700,7 +1752,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="106" x14ac:knownFonts="1">
+  <fonts count="154" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2376,8 +2428,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="166">
+  <fills count="247">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3314,8 +3669,467 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="171">
+  <borders count="255">
     <border>
       <left/>
       <right/>
@@ -5045,6 +5859,852 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -5052,7 +6712,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="179">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5414,52 +7074,196 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="89" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="141" borderId="150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="150" fillId="141" fontId="90" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="91" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="144" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="154" fillId="144" fontId="92" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="147" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="147" fontId="93" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="150" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="150" fontId="94" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="95" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="153" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="153" fontId="96" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="97" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="98" fillId="156" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="162" fillId="156" fontId="98" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="99" fillId="159" borderId="166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="166" fillId="159" fontId="99" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="100" fillId="162" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="162" fontId="100" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="101" fillId="162" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="162" fontId="101" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="102" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="103" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="165" fontId="103" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="104" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="104" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="105" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="178" fillId="168" fontId="106" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="107" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="182" fillId="171" fontId="108" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="174" fontId="109" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="177" fontId="110" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="111" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="180" fontId="112" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="113" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="190" fillId="183" fontId="114" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="194" fillId="186" fontId="115" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="189" fontId="116" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="189" fontId="117" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="118" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="192" fontId="119" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="120" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="121" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="206" fillId="195" fontId="122" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="123" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="210" fillId="198" fontId="124" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="214" fillId="201" fontId="125" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="214" fillId="204" fontId="126" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="127" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="207" fontId="128" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="129" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="218" fillId="210" fontId="130" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="222" fillId="213" fontId="131" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="216" fontId="132" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="216" fontId="133" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="204" fontId="134" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="219" fontId="135" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="204" fontId="136" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="137" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="222" borderId="234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="225" borderId="238" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="228" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="231" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="234" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="237" borderId="246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="240" borderId="250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="243" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="243" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="246" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5784,7 +7588,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC122"/>
+  <dimension ref="A1:AD124"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -5806,78 +7610,81 @@
         <v>518</v>
       </c>
       <c r="D1" t="s">
+        <v>543</v>
+      </c>
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>50</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>346</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>332</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>24</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>529</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>195</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>51</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>238</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>52</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>395</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>411</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>412</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>356</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>396</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>53</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>54</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>55</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>56</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>413</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>226</v>
       </c>
     </row>
@@ -5892,79 +7699,82 @@
         <v>519</v>
       </c>
       <c r="D2" t="s">
+        <v>544</v>
+      </c>
+      <c r="E2" t="s">
         <v>57</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>71</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>73</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>505</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>78</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>524</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>314</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>383</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>432</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>534</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>416</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>429</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>252</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>216</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>397</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>418</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>419</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>380</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>406</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>96</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>170</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>175</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>182</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>431</v>
       </c>
-      <c r="AB2" t="s">
-        <v>227</v>
+      <c r="AC2" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="3">
@@ -5978,1546 +7788,1595 @@
         <v>520</v>
       </c>
       <c r="D3" t="s">
+        <v>545</v>
+      </c>
+      <c r="E3" t="s">
         <v>513</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>364</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>87</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>48</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>530</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>348</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>340</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>333</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>85</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>535</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>430</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>239</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>217</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>398</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>420</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>381</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>407</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>97</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>171</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>176</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>363</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>183</v>
       </c>
-      <c r="AB3" t="s">
-        <v>228</v>
+      <c r="AC3" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>543</v>
       </c>
       <c r="B4" t="s">
         <v>373</v>
       </c>
       <c r="D4" t="s">
+        <v>546</v>
+      </c>
+      <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>72</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>386</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>506</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>531</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>349</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>237</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>334</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>25</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>536</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>26</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>240</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>218</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>399</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>421</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>357</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>408</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>353</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>172</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>177</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>183</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>423</v>
       </c>
-      <c r="AB4" t="s">
-        <v>229</v>
+      <c r="AC4" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>374</v>
       </c>
       <c r="D5" t="s">
+        <v>547</v>
+      </c>
+      <c r="E5" t="s">
         <v>514</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>496</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>335</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>511</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>350</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>521</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>86</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>30</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>241</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>219</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>400</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>422</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>358</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>354</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>173</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>178</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>184</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>424</v>
       </c>
-      <c r="AB5" t="s">
-        <v>230</v>
+      <c r="AC5" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
         <v>375</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>387</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>507</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>347</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>71</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>29</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>31</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>242</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>390</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>401</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>360</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>98</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>500</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>179</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>185</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>425</v>
       </c>
-      <c r="AB6" t="s">
-        <v>231</v>
+      <c r="AC6" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>376</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>223</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>365</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>503</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>16</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>314</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>33</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>243</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>417</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>402</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>359</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>99</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>501</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>180</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>186</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>426</v>
       </c>
-      <c r="AB7" t="s">
-        <v>232</v>
+      <c r="AC7" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>377</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>317</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>366</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>327</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>79</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>34</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>90</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>244</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>403</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>361</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>100</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>174</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>181</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>187</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>427</v>
       </c>
-      <c r="AB8" t="s">
-        <v>233</v>
+      <c r="AC8" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>346</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>378</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>32</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>305</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>328</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>38</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>35</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>91</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>245</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>404</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>362</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>208</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>188</v>
       </c>
-      <c r="AB9" t="s">
-        <v>541</v>
+      <c r="AC9" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
+        <v>346</v>
+      </c>
+      <c r="E10" t="s">
         <v>314</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>351</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>508</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>389</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>36</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>433</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>246</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>405</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>256</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>189</v>
       </c>
-      <c r="AB10" t="s">
-        <v>542</v>
+      <c r="AC10" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>332</v>
-      </c>
-      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
         <v>254</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>273</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>321</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>17</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>532</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>92</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>247</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>257</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>258</v>
       </c>
-      <c r="AB11" t="s">
-        <v>234</v>
+      <c r="AC11" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
+        <v>332</v>
+      </c>
+      <c r="E12" t="s">
         <v>318</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>262</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>322</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>42</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>498</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>41</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>248</v>
       </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
         <v>101</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12" t="s">
         <v>190</v>
       </c>
-      <c r="AB12" t="s">
-        <v>235</v>
+      <c r="AC12" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>529</v>
-      </c>
-      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
         <v>340</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>315</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>323</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>80</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>533</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>93</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>253</v>
       </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
         <v>325</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AA13" t="s">
         <v>191</v>
       </c>
-      <c r="AB13" t="s">
-        <v>236</v>
+      <c r="AC13" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>195</v>
-      </c>
-      <c r="D14" t="s">
+        <v>529</v>
+      </c>
+      <c r="E14" t="s">
         <v>37</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>263</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>324</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>81</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>39</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>94</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>249</v>
       </c>
-      <c r="W14" t="s">
+      <c r="X14" t="s">
         <v>102</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="AA14" t="s">
         <v>192</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" t="s">
+        <v>195</v>
+      </c>
+      <c r="E15" t="s">
         <v>58</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>264</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>512</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>40</v>
       </c>
-      <c r="O15" t="s">
-        <v>95</v>
-      </c>
       <c r="P15" t="s">
+        <v>557</v>
+      </c>
+      <c r="Q15" t="s">
         <v>250</v>
       </c>
-      <c r="W15" t="s">
+      <c r="X15" t="s">
         <v>103</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AA15" t="s">
         <v>193</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>238</v>
-      </c>
-      <c r="D16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" t="s">
         <v>384</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>316</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>82</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>43</v>
       </c>
       <c r="P16" t="s">
+        <v>558</v>
+      </c>
+      <c r="Q16" t="s">
         <v>251</v>
       </c>
-      <c r="W16" t="s">
+      <c r="X16" t="s">
         <v>74</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="AA16" t="s">
         <v>194</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" t="s">
+        <v>238</v>
+      </c>
+      <c r="E17" t="s">
         <v>385</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>88</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>83</v>
       </c>
-      <c r="W17" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z17" t="s">
+      <c r="X17" t="s">
+        <v>559</v>
+      </c>
+      <c r="AA17" t="s">
         <v>523</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>395</v>
-      </c>
-      <c r="D18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" t="s">
         <v>414</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>89</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>379</v>
       </c>
-      <c r="W18" t="s">
-        <v>105</v>
+      <c r="X18" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>411</v>
-      </c>
-      <c r="D19" t="s">
+        <v>395</v>
+      </c>
+      <c r="E19" t="s">
         <v>59</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>295</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>528</v>
       </c>
-      <c r="W19" t="s">
-        <v>106</v>
+      <c r="X19" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>412</v>
-      </c>
-      <c r="D20" t="s">
+        <v>411</v>
+      </c>
+      <c r="E20" t="s">
         <v>60</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>296</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>44</v>
       </c>
-      <c r="W20" t="s">
-        <v>107</v>
+      <c r="X20" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>356</v>
-      </c>
-      <c r="D21" t="s">
+        <v>412</v>
+      </c>
+      <c r="E21" t="s">
         <v>255</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>297</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>391</v>
       </c>
-      <c r="W21" t="s">
-        <v>537</v>
+      <c r="X21" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>396</v>
-      </c>
-      <c r="D22" t="s">
+        <v>356</v>
+      </c>
+      <c r="E22" t="s">
         <v>61</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>298</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>84</v>
       </c>
-      <c r="W22" t="s">
-        <v>109</v>
+      <c r="X22" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" t="s">
+        <v>396</v>
+      </c>
+      <c r="E23" t="s">
         <v>320</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>289</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>497</v>
       </c>
-      <c r="W23" t="s">
-        <v>110</v>
+      <c r="X23" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" t="s">
         <v>62</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>278</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>45</v>
       </c>
-      <c r="W24" t="s">
-        <v>111</v>
+      <c r="X24" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>55</v>
-      </c>
-      <c r="D25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" t="s">
         <v>504</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>75</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>46</v>
       </c>
-      <c r="W25" t="s">
-        <v>112</v>
+      <c r="X25" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" t="s">
         <v>224</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>281</v>
       </c>
-      <c r="W26" t="s">
-        <v>113</v>
+      <c r="X26" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>413</v>
-      </c>
-      <c r="D27" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" t="s">
         <v>225</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>265</v>
       </c>
-      <c r="W27" t="s">
-        <v>326</v>
+      <c r="X27" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>413</v>
+      </c>
+      <c r="E28" t="s">
+        <v>525</v>
+      </c>
+      <c r="G28" t="s">
+        <v>282</v>
+      </c>
+      <c r="X28" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
         <v>226</v>
       </c>
-      <c r="D28" t="s">
-        <v>525</v>
-      </c>
-      <c r="F28" t="s">
-        <v>282</v>
-      </c>
-      <c r="W28" t="s">
+      <c r="E29" t="s">
+        <v>526</v>
+      </c>
+      <c r="G29" t="s">
+        <v>283</v>
+      </c>
+      <c r="X29" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="29">
-      <c r="D29" t="s">
-        <v>526</v>
-      </c>
-      <c r="F29" t="s">
-        <v>283</v>
-      </c>
-      <c r="W29" t="s">
+    <row r="30">
+      <c r="E30" t="s">
+        <v>415</v>
+      </c>
+      <c r="G30" t="s">
+        <v>215</v>
+      </c>
+      <c r="X30" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="30">
-      <c r="D30" t="s">
-        <v>415</v>
-      </c>
-      <c r="F30" t="s">
-        <v>215</v>
-      </c>
-      <c r="W30" t="s">
+    <row r="31">
+      <c r="E31" t="s">
+        <v>63</v>
+      </c>
+      <c r="G31" t="s">
+        <v>274</v>
+      </c>
+      <c r="X31" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="31">
-      <c r="D31" t="s">
-        <v>63</v>
-      </c>
-      <c r="F31" t="s">
-        <v>274</v>
-      </c>
-      <c r="W31" t="s">
+    <row r="32">
+      <c r="E32" t="s">
+        <v>64</v>
+      </c>
+      <c r="G32" t="s">
+        <v>284</v>
+      </c>
+      <c r="X32" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="32">
-      <c r="D32" t="s">
-        <v>64</v>
-      </c>
-      <c r="F32" t="s">
-        <v>284</v>
-      </c>
-      <c r="W32" t="s">
+    <row r="33">
+      <c r="E33" t="s">
+        <v>65</v>
+      </c>
+      <c r="G33" t="s">
+        <v>259</v>
+      </c>
+      <c r="X33" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="33">
-      <c r="D33" t="s">
-        <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>259</v>
-      </c>
-      <c r="W33" t="s">
+    <row r="34">
+      <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="G34" t="s">
+        <v>329</v>
+      </c>
+      <c r="X34" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="34">
-      <c r="D34" t="s">
-        <v>66</v>
-      </c>
-      <c r="F34" t="s">
-        <v>329</v>
-      </c>
-      <c r="W34" t="s">
+    <row r="35">
+      <c r="E35" t="s">
+        <v>67</v>
+      </c>
+      <c r="G35" t="s">
+        <v>306</v>
+      </c>
+      <c r="X35" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="35">
-      <c r="D35" t="s">
-        <v>67</v>
-      </c>
-      <c r="F35" t="s">
-        <v>306</v>
-      </c>
-      <c r="W35" t="s">
+    <row r="36">
+      <c r="E36" t="s">
+        <v>68</v>
+      </c>
+      <c r="G36" t="s">
+        <v>260</v>
+      </c>
+      <c r="X36" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="36">
-      <c r="D36" t="s">
-        <v>68</v>
-      </c>
-      <c r="F36" t="s">
-        <v>260</v>
-      </c>
-      <c r="W36" t="s">
+    <row r="37">
+      <c r="E37" t="s">
+        <v>69</v>
+      </c>
+      <c r="G37" t="s">
+        <v>307</v>
+      </c>
+      <c r="X37" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="37">
-      <c r="D37" t="s">
-        <v>69</v>
-      </c>
-      <c r="F37" t="s">
-        <v>307</v>
-      </c>
-      <c r="W37" t="s">
+    <row r="38">
+      <c r="E38" t="s">
+        <v>70</v>
+      </c>
+      <c r="G38" t="s">
+        <v>266</v>
+      </c>
+      <c r="X38" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="38">
-      <c r="D38" t="s">
-        <v>70</v>
-      </c>
-      <c r="F38" t="s">
-        <v>266</v>
-      </c>
-      <c r="W38" t="s">
+    <row r="39">
+      <c r="G39" t="s">
+        <v>77</v>
+      </c>
+      <c r="X39" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="39">
-      <c r="F39" t="s">
-        <v>77</v>
-      </c>
-      <c r="W39" t="s">
+    <row r="40">
+      <c r="G40" t="s">
+        <v>211</v>
+      </c>
+      <c r="X40" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="40">
-      <c r="F40" t="s">
-        <v>211</v>
-      </c>
-      <c r="W40" t="s">
+    <row r="41">
+      <c r="G41" t="s">
+        <v>288</v>
+      </c>
+      <c r="X41" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="41">
-      <c r="F41" t="s">
-        <v>288</v>
-      </c>
-      <c r="W41" t="s">
+    <row r="42">
+      <c r="G42" t="s">
+        <v>299</v>
+      </c>
+      <c r="X42" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="42">
-      <c r="F42" t="s">
-        <v>299</v>
-      </c>
-      <c r="W42" t="s">
+    <row r="43">
+      <c r="G43" t="s">
+        <v>300</v>
+      </c>
+      <c r="X43" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="43">
-      <c r="F43" t="s">
-        <v>300</v>
-      </c>
-      <c r="W43" t="s">
+    <row r="44">
+      <c r="G44" t="s">
+        <v>342</v>
+      </c>
+      <c r="X44" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="44">
-      <c r="F44" t="s">
-        <v>342</v>
-      </c>
-      <c r="W44" t="s">
+    <row r="45">
+      <c r="G45" t="s">
+        <v>341</v>
+      </c>
+      <c r="X45" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="45">
-      <c r="F45" t="s">
-        <v>341</v>
-      </c>
-      <c r="W45" t="s">
+    <row r="46">
+      <c r="G46" t="s">
+        <v>210</v>
+      </c>
+      <c r="X46" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="46">
-      <c r="F46" t="s">
-        <v>210</v>
-      </c>
-      <c r="W46" t="s">
+    <row r="47">
+      <c r="G47" t="s">
+        <v>319</v>
+      </c>
+      <c r="X47" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="47">
-      <c r="F47" t="s">
-        <v>319</v>
-      </c>
-      <c r="W47" t="s">
+    <row r="48">
+      <c r="G48" t="s">
+        <v>338</v>
+      </c>
+      <c r="X48" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="48">
-      <c r="F48" t="s">
-        <v>338</v>
-      </c>
-      <c r="W48" t="s">
+    <row r="49">
+      <c r="G49" t="s">
+        <v>367</v>
+      </c>
+      <c r="X49" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="49">
-      <c r="F49" t="s">
-        <v>367</v>
-      </c>
-      <c r="W49" t="s">
+    <row r="50">
+      <c r="G50" t="s">
+        <v>301</v>
+      </c>
+      <c r="X50" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="50">
-      <c r="F50" t="s">
-        <v>301</v>
-      </c>
-      <c r="W50" t="s">
+    <row r="51">
+      <c r="G51" t="s">
+        <v>355</v>
+      </c>
+      <c r="X51" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="51">
-      <c r="F51" t="s">
-        <v>355</v>
-      </c>
-      <c r="W51" t="s">
+    <row r="52">
+      <c r="G52" t="s">
+        <v>330</v>
+      </c>
+      <c r="X52" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="52">
-      <c r="F52" t="s">
-        <v>330</v>
-      </c>
-      <c r="W52" t="s">
+    <row r="53">
+      <c r="G53" t="s">
+        <v>267</v>
+      </c>
+      <c r="X53" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="53">
-      <c r="F53" t="s">
-        <v>267</v>
-      </c>
-      <c r="W53" t="s">
+    <row r="54">
+      <c r="G54" t="s">
+        <v>291</v>
+      </c>
+      <c r="X54" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="54">
-      <c r="F54" t="s">
-        <v>291</v>
-      </c>
-      <c r="W54" t="s">
+    <row r="55">
+      <c r="G55" t="s">
+        <v>292</v>
+      </c>
+      <c r="X55" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="55">
-      <c r="F55" t="s">
-        <v>292</v>
-      </c>
-      <c r="W55" t="s">
+    <row r="56">
+      <c r="G56" t="s">
+        <v>293</v>
+      </c>
+      <c r="X56" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="56">
-      <c r="F56" t="s">
-        <v>293</v>
-      </c>
-      <c r="W56" t="s">
+    <row r="57">
+      <c r="G57" t="s">
+        <v>302</v>
+      </c>
+      <c r="X57" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="57">
-      <c r="F57" t="s">
-        <v>302</v>
-      </c>
-      <c r="W57" t="s">
+    <row r="58">
+      <c r="G58" t="s">
+        <v>311</v>
+      </c>
+      <c r="X58" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="58">
-      <c r="F58" t="s">
-        <v>311</v>
-      </c>
-      <c r="W58" t="s">
+    <row r="59">
+      <c r="G59" t="s">
+        <v>336</v>
+      </c>
+      <c r="X59" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="59">
-      <c r="F59" t="s">
-        <v>336</v>
-      </c>
-      <c r="W59" t="s">
+    <row r="60">
+      <c r="G60" t="s">
+        <v>308</v>
+      </c>
+      <c r="X60" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="60">
-      <c r="F60" t="s">
-        <v>308</v>
-      </c>
-      <c r="W60" t="s">
+    <row r="61">
+      <c r="G61" t="s">
+        <v>309</v>
+      </c>
+      <c r="X61" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="61">
-      <c r="F61" t="s">
-        <v>309</v>
-      </c>
-      <c r="W61" t="s">
+    <row r="62">
+      <c r="G62" t="s">
+        <v>368</v>
+      </c>
+      <c r="X62" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="62">
-      <c r="F62" t="s">
-        <v>368</v>
-      </c>
-      <c r="W62" t="s">
+    <row r="63">
+      <c r="G63" t="s">
+        <v>369</v>
+      </c>
+      <c r="X63" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="63">
-      <c r="F63" t="s">
-        <v>369</v>
-      </c>
-      <c r="W63" t="s">
+    <row r="64">
+      <c r="G64" t="s">
+        <v>344</v>
+      </c>
+      <c r="X64" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="64">
-      <c r="F64" t="s">
-        <v>344</v>
-      </c>
-      <c r="W64" t="s">
+    <row r="65">
+      <c r="G65" t="s">
+        <v>312</v>
+      </c>
+      <c r="X65" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="65">
-      <c r="F65" t="s">
-        <v>312</v>
-      </c>
-      <c r="W65" t="s">
+    <row r="66">
+      <c r="G66" t="s">
+        <v>268</v>
+      </c>
+      <c r="X66" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="66">
-      <c r="F66" t="s">
-        <v>268</v>
-      </c>
-      <c r="W66" t="s">
+    <row r="67">
+      <c r="G67" t="s">
+        <v>352</v>
+      </c>
+      <c r="X67" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="67">
-      <c r="F67" t="s">
-        <v>352</v>
-      </c>
-      <c r="W67" t="s">
+    <row r="68">
+      <c r="G68" t="s">
+        <v>313</v>
+      </c>
+      <c r="X68" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="68">
-      <c r="F68" t="s">
-        <v>313</v>
-      </c>
-      <c r="W68" t="s">
+    <row r="69">
+      <c r="G69" t="s">
+        <v>409</v>
+      </c>
+      <c r="X69" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="69">
-      <c r="F69" t="s">
-        <v>409</v>
-      </c>
-      <c r="W69" t="s">
+    <row r="70">
+      <c r="G70" t="s">
+        <v>303</v>
+      </c>
+      <c r="X70" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="70">
-      <c r="F70" t="s">
-        <v>303</v>
-      </c>
-      <c r="W70" t="s">
+    <row r="71">
+      <c r="G71" t="s">
+        <v>410</v>
+      </c>
+      <c r="X71" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="71">
-      <c r="F71" t="s">
-        <v>410</v>
-      </c>
-      <c r="W71" t="s">
+    <row r="72">
+      <c r="G72" t="s">
+        <v>261</v>
+      </c>
+      <c r="X72" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="72">
-      <c r="F72" t="s">
-        <v>261</v>
-      </c>
-      <c r="W72" t="s">
+    <row r="73">
+      <c r="G73" t="s">
+        <v>343</v>
+      </c>
+      <c r="X73" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="73">
-      <c r="F73" t="s">
-        <v>343</v>
-      </c>
-      <c r="W73" t="s">
+    <row r="74">
+      <c r="G74" t="s">
+        <v>279</v>
+      </c>
+      <c r="X74" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="74">
-      <c r="F74" t="s">
-        <v>279</v>
-      </c>
-      <c r="W74" t="s">
+    <row r="75">
+      <c r="G75" t="s">
+        <v>285</v>
+      </c>
+      <c r="X75" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="75">
-      <c r="F75" t="s">
-        <v>285</v>
-      </c>
-      <c r="W75" t="s">
+    <row r="76">
+      <c r="G76" t="s">
+        <v>290</v>
+      </c>
+      <c r="X76" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="76">
-      <c r="F76" t="s">
-        <v>290</v>
-      </c>
-      <c r="W76" t="s">
+    <row r="77">
+      <c r="G77" t="s">
+        <v>428</v>
+      </c>
+      <c r="X77" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="77">
-      <c r="F77" t="s">
-        <v>428</v>
-      </c>
-      <c r="W77" t="s">
+    <row r="78">
+      <c r="G78" t="s">
+        <v>331</v>
+      </c>
+      <c r="X78" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="78">
-      <c r="F78" t="s">
-        <v>331</v>
-      </c>
-      <c r="W78" t="s">
+    <row r="79">
+      <c r="G79" t="s">
+        <v>269</v>
+      </c>
+      <c r="X79" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="79">
-      <c r="F79" t="s">
-        <v>269</v>
-      </c>
-      <c r="W79" t="s">
+    <row r="80">
+      <c r="G80" t="s">
+        <v>280</v>
+      </c>
+      <c r="X80" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="G81" t="s">
+        <v>286</v>
+      </c>
+      <c r="X81" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="80">
-      <c r="F80" t="s">
-        <v>280</v>
-      </c>
-      <c r="W80" t="s">
+    <row r="82">
+      <c r="G82" t="s">
+        <v>275</v>
+      </c>
+      <c r="X82" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="81">
-      <c r="F81" t="s">
-        <v>286</v>
-      </c>
-      <c r="W81" t="s">
+    <row r="83">
+      <c r="G83" t="s">
+        <v>270</v>
+      </c>
+      <c r="X83" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="82">
-      <c r="F82" t="s">
-        <v>275</v>
-      </c>
-      <c r="W82" t="s">
+    <row r="84">
+      <c r="G84" t="s">
+        <v>287</v>
+      </c>
+      <c r="X84" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="83">
-      <c r="F83" t="s">
-        <v>270</v>
-      </c>
-      <c r="W83" t="s">
+    <row r="85">
+      <c r="G85" t="s">
+        <v>271</v>
+      </c>
+      <c r="X85" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="84">
-      <c r="F84" t="s">
-        <v>287</v>
-      </c>
-      <c r="W84" t="s">
+    <row r="86">
+      <c r="G86" t="s">
+        <v>272</v>
+      </c>
+      <c r="X86" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="85">
-      <c r="F85" t="s">
-        <v>271</v>
-      </c>
-      <c r="W85" t="s">
+    <row r="87">
+      <c r="G87" t="s">
+        <v>304</v>
+      </c>
+      <c r="X87" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="86">
-      <c r="F86" t="s">
-        <v>272</v>
-      </c>
-      <c r="W86" t="s">
+    <row r="88">
+      <c r="G88" t="s">
+        <v>310</v>
+      </c>
+      <c r="X88" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="87">
-      <c r="F87" t="s">
-        <v>304</v>
-      </c>
-      <c r="W87" t="s">
+    <row r="89">
+      <c r="G89" t="s">
+        <v>294</v>
+      </c>
+      <c r="X89" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="88">
-      <c r="F88" t="s">
-        <v>310</v>
-      </c>
-      <c r="W88" t="s">
+    <row r="90">
+      <c r="G90" t="s">
+        <v>339</v>
+      </c>
+      <c r="X90" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="89">
-      <c r="F89" t="s">
-        <v>294</v>
-      </c>
-      <c r="W89" t="s">
+    <row r="91">
+      <c r="G91" t="s">
+        <v>276</v>
+      </c>
+      <c r="X91" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="90">
-      <c r="F90" t="s">
-        <v>339</v>
-      </c>
-      <c r="W90" t="s">
+    <row r="92">
+      <c r="G92" t="s">
+        <v>277</v>
+      </c>
+      <c r="X92" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="91">
-      <c r="F91" t="s">
-        <v>276</v>
-      </c>
-      <c r="W91" t="s">
+    <row r="93">
+      <c r="X93" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="92">
-      <c r="F92" t="s">
-        <v>277</v>
-      </c>
-      <c r="W92" t="s">
+    <row r="94">
+      <c r="X94" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="93">
-      <c r="W93" t="s">
+    <row r="95">
+      <c r="X95" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="94">
-      <c r="W94" t="s">
+    <row r="96">
+      <c r="X96" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="95">
-      <c r="W95" t="s">
+    <row r="97">
+      <c r="X97" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="96">
-      <c r="W96" t="s">
+    <row r="98">
+      <c r="X98" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="97">
-      <c r="W97" t="s">
+    <row r="99">
+      <c r="X99" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="98">
-      <c r="W98" t="s">
+    <row r="100">
+      <c r="X100" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="99">
-      <c r="W99" t="s">
+    <row r="101">
+      <c r="X101" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="100">
-      <c r="W100" t="s">
+    <row r="102">
+      <c r="X102" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="101">
-      <c r="W101" t="s">
+    <row r="103">
+      <c r="X103" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="102">
-      <c r="W102" t="s">
+    <row r="104">
+      <c r="X104" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="103">
-      <c r="W103" t="s">
+    <row r="105">
+      <c r="X105" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="104">
-      <c r="W104" t="s">
+    <row r="106">
+      <c r="X106" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="105">
-      <c r="W105" t="s">
+    <row r="107">
+      <c r="X107" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="106">
-      <c r="W106" t="s">
+    <row r="108">
+      <c r="X108" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="107">
-      <c r="W107" t="s">
+    <row r="109">
+      <c r="X109" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="108">
-      <c r="W108" t="s">
+    <row r="110">
+      <c r="X110" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="109">
-      <c r="W109" t="s">
+    <row r="111">
+      <c r="X111" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="110">
-      <c r="W110" t="s">
+    <row r="112">
+      <c r="X112" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="111">
-      <c r="W111" t="s">
+    <row r="113">
+      <c r="X113" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="112">
-      <c r="W112" t="s">
+    <row r="114">
+      <c r="X114" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="113">
-      <c r="W113" t="s">
+    <row r="115">
+      <c r="X115" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="114">
-      <c r="W114" t="s">
+    <row r="116">
+      <c r="X116" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="115">
-      <c r="W115" t="s">
+    <row r="117">
+      <c r="X117" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="116">
-      <c r="W116" t="s">
+    <row r="118">
+      <c r="X118" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="117">
-      <c r="W117" t="s">
+    <row r="119">
+      <c r="X119" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="118">
-      <c r="W118" t="s">
+    <row r="120">
+      <c r="X120" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="119">
-      <c r="W119" t="s">
+    <row r="121">
+      <c r="X121" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="120">
-      <c r="W120" t="s">
+    <row r="122">
+      <c r="X122" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="121">
-      <c r="W121" t="s">
+    <row r="123">
+      <c r="X123" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="122">
-      <c r="W122" t="s">
+    <row r="124">
+      <c r="X124" t="s">
         <v>169</v>
       </c>
     </row>

--- a/artifact/script/web-05.xlsx
+++ b/artifact/script/web-05.xlsx
@@ -19,14 +19,14 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="base">'#system'!$E$2:$E$38</definedName>
-    <definedName name="csv">'#system'!$F$2:$F$5</definedName>
+    <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$92</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
-    <definedName name="io">'#system'!$K$2:$K$25</definedName>
+    <definedName name="io">'#system'!$K$2:$K$28</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
     <definedName name="mail">'#system'!$O$2:$O$2</definedName>
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$124</definedName>
+    <definedName name="web">'#system'!$X$2:$X$125</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5019" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5537" uniqueCount="567">
   <si>
     <t>description</t>
   </si>
@@ -1745,6 +1745,27 @@
   </si>
   <si>
     <t>assertElementsPresent(prefix)</t>
+  </si>
+  <si>
+    <t>toExcel(csvFile,excel,worksheet,startCell)</t>
+  </si>
+  <si>
+    <t>clickElementOffset(name,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>saveTextByLocator(var,locator)</t>
+  </si>
+  <si>
+    <t>copyFilesByRegex(sourceDir,regex,target)</t>
+  </si>
+  <si>
+    <t>deleteFilesByRegex(sourceDir,regex)</t>
+  </si>
+  <si>
+    <t>moveFilesByRegex(sourceDir,regex,target)</t>
+  </si>
+  <si>
+    <t>saveValues(var,locator)</t>
   </si>
 </sst>
 </file>
@@ -1752,7 +1773,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="154" x14ac:knownFonts="1">
+  <fonts count="170" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2731,8 +2752,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="247">
+  <fills count="274">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4128,8 +4250,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="255">
+  <borders count="283">
     <border>
       <left/>
       <right/>
@@ -6705,6 +6980,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -6712,7 +7269,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="179">
+  <cellXfs count="195">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -7218,52 +7775,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="137" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="138" fillId="222" borderId="234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="234" fillId="222" fontId="138" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="139" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="140" fillId="225" borderId="238" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="238" fillId="225" fontId="140" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="141" fillId="228" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="242" fillId="228" fontId="141" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="142" fillId="231" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="242" fillId="231" fontId="142" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="143" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="143" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="144" fillId="234" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="234" fontId="144" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="145" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="146" fillId="237" borderId="246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="246" fillId="237" fontId="146" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="147" fillId="240" borderId="250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="250" fillId="240" fontId="147" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="148" fillId="243" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="243" fontId="148" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="149" fillId="243" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="243" fontId="149" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="150" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="231" fontId="150" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="151" fillId="246" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="246" fontId="151" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="152" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="231" fontId="152" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="153" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="153" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="249" borderId="262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="252" borderId="266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="255" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="258" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="261" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="264" borderId="274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="267" borderId="278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="270" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="270" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="273" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7588,7 +8193,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD124"/>
+  <dimension ref="A1:AD125"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -8018,6 +8623,9 @@
       <c r="E6" t="s">
         <v>27</v>
       </c>
+      <c r="F6" t="s">
+        <v>560</v>
+      </c>
       <c r="G6" t="s">
         <v>387</v>
       </c>
@@ -8140,7 +8748,7 @@
         <v>327</v>
       </c>
       <c r="K8" t="s">
-        <v>79</v>
+        <v>563</v>
       </c>
       <c r="M8" t="s">
         <v>34</v>
@@ -8193,7 +8801,7 @@
         <v>328</v>
       </c>
       <c r="K9" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="M9" t="s">
         <v>35</v>
@@ -8234,7 +8842,7 @@
         <v>508</v>
       </c>
       <c r="K10" t="s">
-        <v>389</v>
+        <v>38</v>
       </c>
       <c r="M10" t="s">
         <v>36</v>
@@ -8272,7 +8880,7 @@
         <v>321</v>
       </c>
       <c r="K11" t="s">
-        <v>17</v>
+        <v>564</v>
       </c>
       <c r="M11" t="s">
         <v>532</v>
@@ -8307,7 +8915,7 @@
         <v>322</v>
       </c>
       <c r="K12" t="s">
-        <v>42</v>
+        <v>389</v>
       </c>
       <c r="M12" t="s">
         <v>498</v>
@@ -8342,7 +8950,7 @@
         <v>323</v>
       </c>
       <c r="K13" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="M13" t="s">
         <v>533</v>
@@ -8377,7 +8985,7 @@
         <v>324</v>
       </c>
       <c r="K14" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="M14" t="s">
         <v>39</v>
@@ -8409,7 +9017,7 @@
         <v>264</v>
       </c>
       <c r="K15" t="s">
-        <v>512</v>
+        <v>565</v>
       </c>
       <c r="M15" t="s">
         <v>40</v>
@@ -8441,7 +9049,7 @@
         <v>316</v>
       </c>
       <c r="K16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M16" t="s">
         <v>43</v>
@@ -8473,7 +9081,7 @@
         <v>88</v>
       </c>
       <c r="K17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="X17" t="s">
         <v>559</v>
@@ -8496,7 +9104,7 @@
         <v>89</v>
       </c>
       <c r="K18" t="s">
-        <v>379</v>
+        <v>512</v>
       </c>
       <c r="X18" t="s">
         <v>104</v>
@@ -8516,7 +9124,7 @@
         <v>295</v>
       </c>
       <c r="K19" t="s">
-        <v>528</v>
+        <v>82</v>
       </c>
       <c r="X19" t="s">
         <v>105</v>
@@ -8536,7 +9144,7 @@
         <v>296</v>
       </c>
       <c r="K20" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="X20" t="s">
         <v>106</v>
@@ -8556,7 +9164,7 @@
         <v>297</v>
       </c>
       <c r="K21" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="X21" t="s">
         <v>107</v>
@@ -8576,7 +9184,7 @@
         <v>298</v>
       </c>
       <c r="K22" t="s">
-        <v>84</v>
+        <v>528</v>
       </c>
       <c r="X22" t="s">
         <v>537</v>
@@ -8593,7 +9201,7 @@
         <v>289</v>
       </c>
       <c r="K23" t="s">
-        <v>497</v>
+        <v>44</v>
       </c>
       <c r="X23" t="s">
         <v>109</v>
@@ -8610,7 +9218,7 @@
         <v>278</v>
       </c>
       <c r="K24" t="s">
-        <v>45</v>
+        <v>391</v>
       </c>
       <c r="X24" t="s">
         <v>110</v>
@@ -8627,7 +9235,7 @@
         <v>75</v>
       </c>
       <c r="K25" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="X25" t="s">
         <v>111</v>
@@ -8643,6 +9251,9 @@
       <c r="G26" t="s">
         <v>281</v>
       </c>
+      <c r="K26" t="s">
+        <v>497</v>
+      </c>
       <c r="X26" t="s">
         <v>112</v>
       </c>
@@ -8657,6 +9268,9 @@
       <c r="G27" t="s">
         <v>265</v>
       </c>
+      <c r="K27" t="s">
+        <v>45</v>
+      </c>
       <c r="X27" t="s">
         <v>113</v>
       </c>
@@ -8671,6 +9285,9 @@
       <c r="G28" t="s">
         <v>282</v>
       </c>
+      <c r="K28" t="s">
+        <v>46</v>
+      </c>
       <c r="X28" t="s">
         <v>326</v>
       </c>
@@ -8727,7 +9344,7 @@
         <v>65</v>
       </c>
       <c r="G33" t="s">
-        <v>259</v>
+        <v>561</v>
       </c>
       <c r="X33" t="s">
         <v>118</v>
@@ -8738,7 +9355,7 @@
         <v>66</v>
       </c>
       <c r="G34" t="s">
-        <v>329</v>
+        <v>259</v>
       </c>
       <c r="X34" t="s">
         <v>119</v>
@@ -8749,7 +9366,7 @@
         <v>67</v>
       </c>
       <c r="G35" t="s">
-        <v>306</v>
+        <v>329</v>
       </c>
       <c r="X35" t="s">
         <v>209</v>
@@ -8760,7 +9377,7 @@
         <v>68</v>
       </c>
       <c r="G36" t="s">
-        <v>260</v>
+        <v>306</v>
       </c>
       <c r="X36" t="s">
         <v>120</v>
@@ -8771,7 +9388,7 @@
         <v>69</v>
       </c>
       <c r="G37" t="s">
-        <v>307</v>
+        <v>260</v>
       </c>
       <c r="X37" t="s">
         <v>337</v>
@@ -8782,7 +9399,7 @@
         <v>70</v>
       </c>
       <c r="G38" t="s">
-        <v>266</v>
+        <v>307</v>
       </c>
       <c r="X38" t="s">
         <v>434</v>
@@ -8790,7 +9407,7 @@
     </row>
     <row r="39">
       <c r="G39" t="s">
-        <v>77</v>
+        <v>266</v>
       </c>
       <c r="X39" t="s">
         <v>392</v>
@@ -8798,7 +9415,7 @@
     </row>
     <row r="40">
       <c r="G40" t="s">
-        <v>211</v>
+        <v>77</v>
       </c>
       <c r="X40" t="s">
         <v>121</v>
@@ -8806,7 +9423,7 @@
     </row>
     <row r="41">
       <c r="G41" t="s">
-        <v>288</v>
+        <v>211</v>
       </c>
       <c r="X41" t="s">
         <v>122</v>
@@ -8814,7 +9431,7 @@
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="X42" t="s">
         <v>123</v>
@@ -8822,7 +9439,7 @@
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="X43" t="s">
         <v>124</v>
@@ -8830,7 +9447,7 @@
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>342</v>
+        <v>300</v>
       </c>
       <c r="X44" t="s">
         <v>125</v>
@@ -8838,7 +9455,7 @@
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="X45" t="s">
         <v>126</v>
@@ -8846,7 +9463,7 @@
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>210</v>
+        <v>341</v>
       </c>
       <c r="X46" t="s">
         <v>494</v>
@@ -8854,7 +9471,7 @@
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>319</v>
+        <v>210</v>
       </c>
       <c r="X47" t="s">
         <v>212</v>
@@ -8862,7 +9479,7 @@
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
       <c r="X48" t="s">
         <v>76</v>
@@ -8870,7 +9487,7 @@
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>367</v>
+        <v>338</v>
       </c>
       <c r="X49" t="s">
         <v>127</v>
@@ -8878,7 +9495,7 @@
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>301</v>
+        <v>367</v>
       </c>
       <c r="X50" t="s">
         <v>128</v>
@@ -8886,7 +9503,7 @@
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>355</v>
+        <v>301</v>
       </c>
       <c r="X51" t="s">
         <v>129</v>
@@ -8894,7 +9511,7 @@
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>330</v>
+        <v>355</v>
       </c>
       <c r="X52" t="s">
         <v>538</v>
@@ -8902,7 +9519,7 @@
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>267</v>
+        <v>330</v>
       </c>
       <c r="X53" t="s">
         <v>522</v>
@@ -8910,7 +9527,7 @@
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>291</v>
+        <v>267</v>
       </c>
       <c r="X54" t="s">
         <v>130</v>
@@ -8918,7 +9535,7 @@
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="X55" t="s">
         <v>345</v>
@@ -8926,7 +9543,7 @@
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="X56" t="s">
         <v>517</v>
@@ -8934,7 +9551,7 @@
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="X57" t="s">
         <v>131</v>
@@ -8942,7 +9559,7 @@
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="X58" t="s">
         <v>132</v>
@@ -8950,7 +9567,7 @@
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>336</v>
+        <v>311</v>
       </c>
       <c r="X59" t="s">
         <v>133</v>
@@ -8958,7 +9575,7 @@
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>308</v>
+        <v>336</v>
       </c>
       <c r="X60" t="s">
         <v>134</v>
@@ -8966,7 +9583,7 @@
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="X61" t="s">
         <v>135</v>
@@ -8974,7 +9591,7 @@
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>368</v>
+        <v>309</v>
       </c>
       <c r="X62" t="s">
         <v>136</v>
@@ -8982,7 +9599,7 @@
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="X63" t="s">
         <v>137</v>
@@ -8990,7 +9607,7 @@
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>344</v>
+        <v>369</v>
       </c>
       <c r="X64" t="s">
         <v>493</v>
@@ -8998,7 +9615,7 @@
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>312</v>
+        <v>344</v>
       </c>
       <c r="X65" t="s">
         <v>539</v>
@@ -9006,7 +9623,7 @@
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>268</v>
+        <v>312</v>
       </c>
       <c r="X66" t="s">
         <v>213</v>
@@ -9014,7 +9631,7 @@
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>352</v>
+        <v>268</v>
       </c>
       <c r="X67" t="s">
         <v>388</v>
@@ -9022,7 +9639,7 @@
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>313</v>
+        <v>352</v>
       </c>
       <c r="X68" t="s">
         <v>499</v>
@@ -9030,7 +9647,7 @@
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>409</v>
+        <v>313</v>
       </c>
       <c r="X69" t="s">
         <v>138</v>
@@ -9038,7 +9655,7 @@
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>303</v>
+        <v>409</v>
       </c>
       <c r="X70" t="s">
         <v>139</v>
@@ -9046,7 +9663,7 @@
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>410</v>
+        <v>303</v>
       </c>
       <c r="X71" t="s">
         <v>140</v>
@@ -9054,7 +9671,7 @@
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>261</v>
+        <v>410</v>
       </c>
       <c r="X72" t="s">
         <v>141</v>
@@ -9062,7 +9679,7 @@
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>343</v>
+        <v>261</v>
       </c>
       <c r="X73" t="s">
         <v>196</v>
@@ -9070,7 +9687,7 @@
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>279</v>
+        <v>562</v>
       </c>
       <c r="X74" t="s">
         <v>197</v>
@@ -9078,7 +9695,7 @@
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>285</v>
+        <v>343</v>
       </c>
       <c r="X75" t="s">
         <v>510</v>
@@ -9086,7 +9703,7 @@
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="X76" t="s">
         <v>527</v>
@@ -9094,7 +9711,7 @@
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>428</v>
+        <v>285</v>
       </c>
       <c r="X77" t="s">
         <v>142</v>
@@ -9102,7 +9719,7 @@
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>331</v>
+        <v>290</v>
       </c>
       <c r="X78" t="s">
         <v>143</v>
@@ -9110,7 +9727,7 @@
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>269</v>
+        <v>428</v>
       </c>
       <c r="X79" t="s">
         <v>144</v>
@@ -9118,7 +9735,7 @@
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>280</v>
+        <v>331</v>
       </c>
       <c r="X80" t="s">
         <v>553</v>
@@ -9126,7 +9743,7 @@
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="X81" t="s">
         <v>145</v>
@@ -9134,7 +9751,7 @@
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="X82" t="s">
         <v>146</v>
@@ -9142,7 +9759,7 @@
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="X83" t="s">
         <v>198</v>
@@ -9150,7 +9767,7 @@
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="X84" t="s">
         <v>540</v>
@@ -9158,7 +9775,7 @@
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="X85" t="s">
         <v>199</v>
@@ -9166,7 +9783,7 @@
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="X86" t="s">
         <v>509</v>
@@ -9174,7 +9791,7 @@
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>304</v>
+        <v>271</v>
       </c>
       <c r="X87" t="s">
         <v>200</v>
@@ -9182,7 +9799,7 @@
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>310</v>
+        <v>272</v>
       </c>
       <c r="X88" t="s">
         <v>201</v>
@@ -9190,7 +9807,7 @@
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="X89" t="s">
         <v>214</v>
@@ -9198,7 +9815,7 @@
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>339</v>
+        <v>310</v>
       </c>
       <c r="X90" t="s">
         <v>147</v>
@@ -9206,7 +9823,7 @@
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>276</v>
+        <v>294</v>
       </c>
       <c r="X91" t="s">
         <v>202</v>
@@ -9214,18 +9831,24 @@
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>277</v>
+        <v>339</v>
       </c>
       <c r="X92" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="93">
+      <c r="G93" t="s">
+        <v>276</v>
+      </c>
       <c r="X93" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="94">
+      <c r="G94" t="s">
+        <v>277</v>
+      </c>
       <c r="X94" t="s">
         <v>203</v>
       </c>
@@ -9257,126 +9880,131 @@
     </row>
     <row r="100">
       <c r="X100" t="s">
-        <v>148</v>
+        <v>566</v>
       </c>
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>382</v>
+        <v>148</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>149</v>
+        <v>382</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>495</v>
+        <v>161</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>162</v>
+        <v>495</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>47</v>
+        <v>165</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>166</v>
+        <v>47</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="123">
       <c r="X123" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="124">
       <c r="X124" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="X125" t="s">
         <v>169</v>
       </c>
     </row>

--- a/artifact/script/web-05.xlsx
+++ b/artifact/script/web-05.xlsx
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$125</definedName>
+    <definedName name="web">'#system'!$X$2:$X$127</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5537" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6577" uniqueCount="569">
   <si>
     <t>description</t>
   </si>
@@ -1766,6 +1766,12 @@
   </si>
   <si>
     <t>saveValues(var,locator)</t>
+  </si>
+  <si>
+    <t>scrollElement(locator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>scrollPage(xOffset,yOffset)</t>
   </si>
 </sst>
 </file>
@@ -1773,7 +1779,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="170" x14ac:knownFonts="1">
+  <fonts count="202" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2853,8 +2859,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="274">
+  <fills count="334">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4403,8 +4611,348 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="283">
+  <borders count="339">
     <border>
       <left/>
       <right/>
@@ -7262,6 +7810,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -7269,7 +8381,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="195">
+  <cellXfs count="227">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -7823,52 +8935,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="153" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="154" fillId="249" borderId="262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="262" fillId="249" fontId="154" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="155" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="156" fillId="252" borderId="266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="266" fillId="252" fontId="156" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="157" fillId="255" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="270" fillId="255" fontId="157" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="158" fillId="258" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="270" fillId="258" fontId="158" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="159" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="160" fillId="261" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="261" fontId="160" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="161" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="161" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="162" fillId="264" borderId="274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="274" fillId="264" fontId="162" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="163" fillId="267" borderId="278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="278" fillId="267" fontId="163" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="164" fillId="270" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="270" fontId="164" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="165" fillId="270" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="270" fontId="165" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="166" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="258" fontId="166" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="167" fillId="273" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="273" fontId="167" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="168" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="258" fontId="168" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="169" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="290" fillId="276" fontId="170" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="171" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="294" fillId="279" fontId="172" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="298" fillId="282" fontId="173" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="298" fillId="285" fontId="174" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="175" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="288" fontId="176" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="177" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="302" fillId="291" fontId="178" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="306" fillId="294" fontId="179" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="310" fillId="297" fontId="180" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="310" fillId="297" fontId="181" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="285" fontId="182" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="300" fontId="183" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="285" fontId="184" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="303" fontId="185" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="186" fillId="306" borderId="318" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="309" borderId="322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="312" borderId="326" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="190" fillId="315" borderId="326" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="318" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="321" borderId="330" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="324" borderId="334" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="327" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="327" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="315" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="330" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="315" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="333" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8193,7 +9401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD125"/>
+  <dimension ref="A1:AD127"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -9885,126 +11093,136 @@
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>148</v>
+        <v>567</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>382</v>
+        <v>148</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>149</v>
+        <v>568</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>150</v>
+        <v>382</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>495</v>
+        <v>160</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>163</v>
+        <v>495</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>47</v>
+        <v>164</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="123">
       <c r="X123" t="s">
-        <v>167</v>
+        <v>47</v>
       </c>
     </row>
     <row r="124">
       <c r="X124" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="125">
       <c r="X125" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="X126" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="X127" t="s">
         <v>169</v>
       </c>
     </row>

--- a/artifact/script/web-05.xlsx
+++ b/artifact/script/web-05.xlsx
@@ -29,28 +29,29 @@
     <definedName name="io">'#system'!$K$2:$K$28</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
-    <definedName name="mail">'#system'!$O$2:$O$2</definedName>
+    <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$P$2:$P$16</definedName>
-    <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
-    <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
-    <definedName name="redis">'#system'!$S$2:$S$10</definedName>
-    <definedName name="sms">'#system'!$T$2:$T$2</definedName>
-    <definedName name="sound">'#system'!$U$2:$U$5</definedName>
-    <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
-    <definedName name="step">'#system'!$W$2:$W$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$127</definedName>
-    <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
-    <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="xml">'#system'!$AC$2:$AC$21</definedName>
+    <definedName name="number">'#system'!$Q$2:$Q$16</definedName>
+    <definedName name="pdf">'#system'!$R$2:$R$16</definedName>
+    <definedName name="rdbms">'#system'!$S$2:$S$7</definedName>
+    <definedName name="redis">'#system'!$T$2:$T$10</definedName>
+    <definedName name="sms">'#system'!$U$2:$U$2</definedName>
+    <definedName name="sound">'#system'!$V$2:$V$5</definedName>
+    <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
+    <definedName name="step">'#system'!$X$2:$X$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$30</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$127</definedName>
+    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
+    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="macro">'#system'!$N$2:$N$4</definedName>
+    <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$7</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6577" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7633" uniqueCount="576">
   <si>
     <t>description</t>
   </si>
@@ -1772,6 +1773,27 @@
   </si>
   <si>
     <t>scrollPage(xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>localdb</t>
+  </si>
+  <si>
+    <t>cloneTable(var,source,target)</t>
+  </si>
+  <si>
+    <t>dropTables(var,tables)</t>
+  </si>
+  <si>
+    <t>exportCSV(sql,output)</t>
+  </si>
+  <si>
+    <t>importRecords(var,sourceDb,sql,table)</t>
+  </si>
+  <si>
+    <t>purge(var)</t>
+  </si>
+  <si>
+    <t>runSQLs(var,sqls)</t>
   </si>
 </sst>
 </file>
@@ -1779,7 +1801,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="202" x14ac:knownFonts="1">
+  <fonts count="234" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3061,8 +3083,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="334">
+  <fills count="394">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4951,8 +5175,348 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="339">
+  <borders count="395">
     <border>
       <left/>
       <right/>
@@ -8374,6 +8938,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -8381,7 +9509,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="227">
+  <cellXfs count="259">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -9031,52 +10159,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="303" fontId="185" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="186" fillId="306" borderId="318" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="318" fillId="306" fontId="186" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="187" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="187" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="188" fillId="309" borderId="322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="322" fillId="309" fontId="188" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="189" fillId="312" borderId="326" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="326" fillId="312" fontId="189" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="190" fillId="315" borderId="326" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="326" fillId="315" fontId="190" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="191" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="191" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="192" fillId="318" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="318" fontId="192" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="193" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="193" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="194" fillId="321" borderId="330" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="330" fillId="321" fontId="194" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="195" fillId="324" borderId="334" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="334" fillId="324" fontId="195" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="196" fillId="327" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="338" fillId="327" fontId="196" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="197" fillId="327" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="338" fillId="327" fontId="197" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="198" fillId="315" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="315" fontId="198" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="199" fillId="330" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="330" fontId="199" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="200" fillId="315" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="315" fontId="200" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="201" fillId="333" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="333" fontId="201" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="346" fillId="336" fontId="202" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="203" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="350" fillId="339" fontId="204" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="354" fillId="342" fontId="205" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="354" fillId="345" fontId="206" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="207" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="348" fontId="208" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="209" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="358" fillId="351" fontId="210" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="362" fillId="354" fontId="211" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="366" fillId="357" fontId="212" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="366" fillId="357" fontId="213" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="345" fontId="214" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="360" fontId="215" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="345" fontId="216" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="363" fontId="217" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="218" fillId="366" borderId="374" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="219" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="220" fillId="369" borderId="378" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="221" fillId="372" borderId="382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="222" fillId="375" borderId="382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="223" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="224" fillId="378" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="225" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="226" fillId="381" borderId="386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="227" fillId="384" borderId="390" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="228" fillId="387" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="229" fillId="387" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="230" fillId="375" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="231" fillId="390" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="232" fillId="375" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="233" fillId="393" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9401,7 +10625,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD127"/>
+  <dimension ref="A1:AE127"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -9453,51 +10677,54 @@
         <v>24</v>
       </c>
       <c r="N1" t="s">
+        <v>569</v>
+      </c>
+      <c r="O1" t="s">
         <v>529</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>195</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>51</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>238</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>52</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>395</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>411</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>412</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>356</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>396</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>53</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>54</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>55</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>56</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>413</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>226</v>
       </c>
     </row>
@@ -9542,51 +10769,54 @@
         <v>432</v>
       </c>
       <c r="N2" t="s">
+        <v>570</v>
+      </c>
+      <c r="O2" t="s">
         <v>534</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>416</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>429</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>252</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>216</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>397</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>418</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>419</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>380</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>406</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>96</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>170</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>175</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>182</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>431</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>548</v>
       </c>
     </row>
@@ -9631,45 +10861,48 @@
         <v>85</v>
       </c>
       <c r="N3" t="s">
+        <v>571</v>
+      </c>
+      <c r="O3" t="s">
         <v>535</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>430</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>239</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>217</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>398</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>420</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>381</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>407</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>97</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>171</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>176</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>363</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>183</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>227</v>
       </c>
     </row>
@@ -9711,45 +10944,48 @@
         <v>25</v>
       </c>
       <c r="N4" t="s">
+        <v>572</v>
+      </c>
+      <c r="O4" t="s">
         <v>536</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>26</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>240</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>218</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>399</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>421</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>357</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>408</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>353</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>172</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>177</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>183</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>423</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>228</v>
       </c>
     </row>
@@ -9784,40 +11020,43 @@
       <c r="M5" t="s">
         <v>86</v>
       </c>
-      <c r="P5" t="s">
+      <c r="N5" t="s">
+        <v>573</v>
+      </c>
+      <c r="Q5" t="s">
         <v>30</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>241</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>219</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>400</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>422</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>358</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>354</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>173</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>178</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>184</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>424</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>229</v>
       </c>
     </row>
@@ -9849,37 +11088,40 @@
       <c r="M6" t="s">
         <v>29</v>
       </c>
-      <c r="P6" t="s">
+      <c r="N6" t="s">
+        <v>574</v>
+      </c>
+      <c r="Q6" t="s">
         <v>31</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>242</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>390</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>401</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>360</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>98</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>500</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>179</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>185</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>425</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>230</v>
       </c>
     </row>
@@ -9905,37 +11147,40 @@
       <c r="M7" t="s">
         <v>314</v>
       </c>
-      <c r="P7" t="s">
+      <c r="N7" t="s">
+        <v>575</v>
+      </c>
+      <c r="Q7" t="s">
         <v>33</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>243</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>417</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>402</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>359</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>99</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>501</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>180</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>186</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>426</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>231</v>
       </c>
     </row>
@@ -9961,34 +11206,34 @@
       <c r="M8" t="s">
         <v>34</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>90</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>244</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>403</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>361</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>100</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>174</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>181</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>187</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>427</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>232</v>
       </c>
     </row>
@@ -10014,25 +11259,25 @@
       <c r="M9" t="s">
         <v>35</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>91</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>245</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>404</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>362</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>208</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>188</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>233</v>
       </c>
     </row>
@@ -10055,22 +11300,22 @@
       <c r="M10" t="s">
         <v>36</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>433</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>246</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>405</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>256</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>189</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>541</v>
       </c>
     </row>
@@ -10093,19 +11338,19 @@
       <c r="M11" t="s">
         <v>532</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>92</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>247</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>257</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>258</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>549</v>
       </c>
     </row>
@@ -10128,19 +11373,19 @@
       <c r="M12" t="s">
         <v>498</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>41</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>248</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>101</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>190</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>550</v>
       </c>
     </row>
@@ -10163,25 +11408,25 @@
       <c r="M13" t="s">
         <v>533</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>93</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>253</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>325</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>191</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>529</v>
+        <v>569</v>
       </c>
       <c r="E14" t="s">
         <v>37</v>
@@ -10198,25 +11443,25 @@
       <c r="M14" t="s">
         <v>39</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>94</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>249</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>102</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AB14" t="s">
         <v>192</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AD14" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>195</v>
+        <v>529</v>
       </c>
       <c r="E15" t="s">
         <v>58</v>
@@ -10230,25 +11475,25 @@
       <c r="M15" t="s">
         <v>40</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>557</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>250</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>103</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AB15" t="s">
         <v>193</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>195</v>
       </c>
       <c r="E16" t="s">
         <v>384</v>
@@ -10262,25 +11507,25 @@
       <c r="M16" t="s">
         <v>43</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>558</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>251</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>74</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AB16" t="s">
         <v>194</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AD16" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>238</v>
+        <v>51</v>
       </c>
       <c r="E17" t="s">
         <v>385</v>
@@ -10291,19 +11536,19 @@
       <c r="K17" t="s">
         <v>81</v>
       </c>
-      <c r="X17" t="s">
+      <c r="Y17" t="s">
         <v>559</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AB17" t="s">
         <v>523</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AD17" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>238</v>
       </c>
       <c r="E18" t="s">
         <v>414</v>
@@ -10314,16 +11559,16 @@
       <c r="K18" t="s">
         <v>512</v>
       </c>
-      <c r="X18" t="s">
+      <c r="Y18" t="s">
         <v>104</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AD18" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>395</v>
+        <v>52</v>
       </c>
       <c r="E19" t="s">
         <v>59</v>
@@ -10334,16 +11579,16 @@
       <c r="K19" t="s">
         <v>82</v>
       </c>
-      <c r="X19" t="s">
+      <c r="Y19" t="s">
         <v>105</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="AD19" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="E20" t="s">
         <v>60</v>
@@ -10354,16 +11599,16 @@
       <c r="K20" t="s">
         <v>83</v>
       </c>
-      <c r="X20" t="s">
+      <c r="Y20" t="s">
         <v>106</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="AD20" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E21" t="s">
         <v>255</v>
@@ -10374,16 +11619,16 @@
       <c r="K21" t="s">
         <v>379</v>
       </c>
-      <c r="X21" t="s">
+      <c r="Y21" t="s">
         <v>107</v>
       </c>
-      <c r="AC21" t="s">
+      <c r="AD21" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>356</v>
+        <v>412</v>
       </c>
       <c r="E22" t="s">
         <v>61</v>
@@ -10394,13 +11639,13 @@
       <c r="K22" t="s">
         <v>528</v>
       </c>
-      <c r="X22" t="s">
+      <c r="Y22" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>396</v>
+        <v>356</v>
       </c>
       <c r="E23" t="s">
         <v>320</v>
@@ -10411,13 +11656,13 @@
       <c r="K23" t="s">
         <v>44</v>
       </c>
-      <c r="X23" t="s">
+      <c r="Y23" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>396</v>
       </c>
       <c r="E24" t="s">
         <v>62</v>
@@ -10428,13 +11673,13 @@
       <c r="K24" t="s">
         <v>391</v>
       </c>
-      <c r="X24" t="s">
+      <c r="Y24" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E25" t="s">
         <v>504</v>
@@ -10445,13 +11690,13 @@
       <c r="K25" t="s">
         <v>84</v>
       </c>
-      <c r="X25" t="s">
+      <c r="Y25" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E26" t="s">
         <v>224</v>
@@ -10462,13 +11707,13 @@
       <c r="K26" t="s">
         <v>497</v>
       </c>
-      <c r="X26" t="s">
+      <c r="Y26" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E27" t="s">
         <v>225</v>
@@ -10479,13 +11724,13 @@
       <c r="K27" t="s">
         <v>45</v>
       </c>
-      <c r="X27" t="s">
+      <c r="Y27" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>413</v>
+        <v>56</v>
       </c>
       <c r="E28" t="s">
         <v>525</v>
@@ -10496,13 +11741,13 @@
       <c r="K28" t="s">
         <v>46</v>
       </c>
-      <c r="X28" t="s">
+      <c r="Y28" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>226</v>
+        <v>413</v>
       </c>
       <c r="E29" t="s">
         <v>526</v>
@@ -10510,18 +11755,21 @@
       <c r="G29" t="s">
         <v>283</v>
       </c>
-      <c r="X29" t="s">
+      <c r="Y29" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="s">
+        <v>226</v>
+      </c>
       <c r="E30" t="s">
         <v>415</v>
       </c>
       <c r="G30" t="s">
         <v>215</v>
       </c>
-      <c r="X30" t="s">
+      <c r="Y30" t="s">
         <v>115</v>
       </c>
     </row>
@@ -10532,7 +11780,7 @@
       <c r="G31" t="s">
         <v>274</v>
       </c>
-      <c r="X31" t="s">
+      <c r="Y31" t="s">
         <v>116</v>
       </c>
     </row>
@@ -10543,7 +11791,7 @@
       <c r="G32" t="s">
         <v>284</v>
       </c>
-      <c r="X32" t="s">
+      <c r="Y32" t="s">
         <v>117</v>
       </c>
     </row>
@@ -10554,7 +11802,7 @@
       <c r="G33" t="s">
         <v>561</v>
       </c>
-      <c r="X33" t="s">
+      <c r="Y33" t="s">
         <v>118</v>
       </c>
     </row>
@@ -10565,7 +11813,7 @@
       <c r="G34" t="s">
         <v>259</v>
       </c>
-      <c r="X34" t="s">
+      <c r="Y34" t="s">
         <v>119</v>
       </c>
     </row>
@@ -10576,7 +11824,7 @@
       <c r="G35" t="s">
         <v>329</v>
       </c>
-      <c r="X35" t="s">
+      <c r="Y35" t="s">
         <v>209</v>
       </c>
     </row>
@@ -10587,7 +11835,7 @@
       <c r="G36" t="s">
         <v>306</v>
       </c>
-      <c r="X36" t="s">
+      <c r="Y36" t="s">
         <v>120</v>
       </c>
     </row>
@@ -10598,7 +11846,7 @@
       <c r="G37" t="s">
         <v>260</v>
       </c>
-      <c r="X37" t="s">
+      <c r="Y37" t="s">
         <v>337</v>
       </c>
     </row>
@@ -10609,7 +11857,7 @@
       <c r="G38" t="s">
         <v>307</v>
       </c>
-      <c r="X38" t="s">
+      <c r="Y38" t="s">
         <v>434</v>
       </c>
     </row>
@@ -10617,7 +11865,7 @@
       <c r="G39" t="s">
         <v>266</v>
       </c>
-      <c r="X39" t="s">
+      <c r="Y39" t="s">
         <v>392</v>
       </c>
     </row>
@@ -10625,7 +11873,7 @@
       <c r="G40" t="s">
         <v>77</v>
       </c>
-      <c r="X40" t="s">
+      <c r="Y40" t="s">
         <v>121</v>
       </c>
     </row>
@@ -10633,7 +11881,7 @@
       <c r="G41" t="s">
         <v>211</v>
       </c>
-      <c r="X41" t="s">
+      <c r="Y41" t="s">
         <v>122</v>
       </c>
     </row>
@@ -10641,7 +11889,7 @@
       <c r="G42" t="s">
         <v>288</v>
       </c>
-      <c r="X42" t="s">
+      <c r="Y42" t="s">
         <v>123</v>
       </c>
     </row>
@@ -10649,7 +11897,7 @@
       <c r="G43" t="s">
         <v>299</v>
       </c>
-      <c r="X43" t="s">
+      <c r="Y43" t="s">
         <v>124</v>
       </c>
     </row>
@@ -10657,7 +11905,7 @@
       <c r="G44" t="s">
         <v>300</v>
       </c>
-      <c r="X44" t="s">
+      <c r="Y44" t="s">
         <v>125</v>
       </c>
     </row>
@@ -10665,7 +11913,7 @@
       <c r="G45" t="s">
         <v>342</v>
       </c>
-      <c r="X45" t="s">
+      <c r="Y45" t="s">
         <v>126</v>
       </c>
     </row>
@@ -10673,7 +11921,7 @@
       <c r="G46" t="s">
         <v>341</v>
       </c>
-      <c r="X46" t="s">
+      <c r="Y46" t="s">
         <v>494</v>
       </c>
     </row>
@@ -10681,7 +11929,7 @@
       <c r="G47" t="s">
         <v>210</v>
       </c>
-      <c r="X47" t="s">
+      <c r="Y47" t="s">
         <v>212</v>
       </c>
     </row>
@@ -10689,7 +11937,7 @@
       <c r="G48" t="s">
         <v>319</v>
       </c>
-      <c r="X48" t="s">
+      <c r="Y48" t="s">
         <v>76</v>
       </c>
     </row>
@@ -10697,7 +11945,7 @@
       <c r="G49" t="s">
         <v>338</v>
       </c>
-      <c r="X49" t="s">
+      <c r="Y49" t="s">
         <v>127</v>
       </c>
     </row>
@@ -10705,7 +11953,7 @@
       <c r="G50" t="s">
         <v>367</v>
       </c>
-      <c r="X50" t="s">
+      <c r="Y50" t="s">
         <v>128</v>
       </c>
     </row>
@@ -10713,7 +11961,7 @@
       <c r="G51" t="s">
         <v>301</v>
       </c>
-      <c r="X51" t="s">
+      <c r="Y51" t="s">
         <v>129</v>
       </c>
     </row>
@@ -10721,7 +11969,7 @@
       <c r="G52" t="s">
         <v>355</v>
       </c>
-      <c r="X52" t="s">
+      <c r="Y52" t="s">
         <v>538</v>
       </c>
     </row>
@@ -10729,7 +11977,7 @@
       <c r="G53" t="s">
         <v>330</v>
       </c>
-      <c r="X53" t="s">
+      <c r="Y53" t="s">
         <v>522</v>
       </c>
     </row>
@@ -10737,7 +11985,7 @@
       <c r="G54" t="s">
         <v>267</v>
       </c>
-      <c r="X54" t="s">
+      <c r="Y54" t="s">
         <v>130</v>
       </c>
     </row>
@@ -10745,7 +11993,7 @@
       <c r="G55" t="s">
         <v>291</v>
       </c>
-      <c r="X55" t="s">
+      <c r="Y55" t="s">
         <v>345</v>
       </c>
     </row>
@@ -10753,7 +12001,7 @@
       <c r="G56" t="s">
         <v>292</v>
       </c>
-      <c r="X56" t="s">
+      <c r="Y56" t="s">
         <v>517</v>
       </c>
     </row>
@@ -10761,7 +12009,7 @@
       <c r="G57" t="s">
         <v>293</v>
       </c>
-      <c r="X57" t="s">
+      <c r="Y57" t="s">
         <v>131</v>
       </c>
     </row>
@@ -10769,7 +12017,7 @@
       <c r="G58" t="s">
         <v>302</v>
       </c>
-      <c r="X58" t="s">
+      <c r="Y58" t="s">
         <v>132</v>
       </c>
     </row>
@@ -10777,7 +12025,7 @@
       <c r="G59" t="s">
         <v>311</v>
       </c>
-      <c r="X59" t="s">
+      <c r="Y59" t="s">
         <v>133</v>
       </c>
     </row>
@@ -10785,7 +12033,7 @@
       <c r="G60" t="s">
         <v>336</v>
       </c>
-      <c r="X60" t="s">
+      <c r="Y60" t="s">
         <v>134</v>
       </c>
     </row>
@@ -10793,7 +12041,7 @@
       <c r="G61" t="s">
         <v>308</v>
       </c>
-      <c r="X61" t="s">
+      <c r="Y61" t="s">
         <v>135</v>
       </c>
     </row>
@@ -10801,7 +12049,7 @@
       <c r="G62" t="s">
         <v>309</v>
       </c>
-      <c r="X62" t="s">
+      <c r="Y62" t="s">
         <v>136</v>
       </c>
     </row>
@@ -10809,7 +12057,7 @@
       <c r="G63" t="s">
         <v>368</v>
       </c>
-      <c r="X63" t="s">
+      <c r="Y63" t="s">
         <v>137</v>
       </c>
     </row>
@@ -10817,7 +12065,7 @@
       <c r="G64" t="s">
         <v>369</v>
       </c>
-      <c r="X64" t="s">
+      <c r="Y64" t="s">
         <v>493</v>
       </c>
     </row>
@@ -10825,7 +12073,7 @@
       <c r="G65" t="s">
         <v>344</v>
       </c>
-      <c r="X65" t="s">
+      <c r="Y65" t="s">
         <v>539</v>
       </c>
     </row>
@@ -10833,7 +12081,7 @@
       <c r="G66" t="s">
         <v>312</v>
       </c>
-      <c r="X66" t="s">
+      <c r="Y66" t="s">
         <v>213</v>
       </c>
     </row>
@@ -10841,7 +12089,7 @@
       <c r="G67" t="s">
         <v>268</v>
       </c>
-      <c r="X67" t="s">
+      <c r="Y67" t="s">
         <v>388</v>
       </c>
     </row>
@@ -10849,7 +12097,7 @@
       <c r="G68" t="s">
         <v>352</v>
       </c>
-      <c r="X68" t="s">
+      <c r="Y68" t="s">
         <v>499</v>
       </c>
     </row>
@@ -10857,7 +12105,7 @@
       <c r="G69" t="s">
         <v>313</v>
       </c>
-      <c r="X69" t="s">
+      <c r="Y69" t="s">
         <v>138</v>
       </c>
     </row>
@@ -10865,7 +12113,7 @@
       <c r="G70" t="s">
         <v>409</v>
       </c>
-      <c r="X70" t="s">
+      <c r="Y70" t="s">
         <v>139</v>
       </c>
     </row>
@@ -10873,7 +12121,7 @@
       <c r="G71" t="s">
         <v>303</v>
       </c>
-      <c r="X71" t="s">
+      <c r="Y71" t="s">
         <v>140</v>
       </c>
     </row>
@@ -10881,7 +12129,7 @@
       <c r="G72" t="s">
         <v>410</v>
       </c>
-      <c r="X72" t="s">
+      <c r="Y72" t="s">
         <v>141</v>
       </c>
     </row>
@@ -10889,7 +12137,7 @@
       <c r="G73" t="s">
         <v>261</v>
       </c>
-      <c r="X73" t="s">
+      <c r="Y73" t="s">
         <v>196</v>
       </c>
     </row>
@@ -10897,7 +12145,7 @@
       <c r="G74" t="s">
         <v>562</v>
       </c>
-      <c r="X74" t="s">
+      <c r="Y74" t="s">
         <v>197</v>
       </c>
     </row>
@@ -10905,7 +12153,7 @@
       <c r="G75" t="s">
         <v>343</v>
       </c>
-      <c r="X75" t="s">
+      <c r="Y75" t="s">
         <v>510</v>
       </c>
     </row>
@@ -10913,7 +12161,7 @@
       <c r="G76" t="s">
         <v>279</v>
       </c>
-      <c r="X76" t="s">
+      <c r="Y76" t="s">
         <v>527</v>
       </c>
     </row>
@@ -10921,7 +12169,7 @@
       <c r="G77" t="s">
         <v>285</v>
       </c>
-      <c r="X77" t="s">
+      <c r="Y77" t="s">
         <v>142</v>
       </c>
     </row>
@@ -10929,7 +12177,7 @@
       <c r="G78" t="s">
         <v>290</v>
       </c>
-      <c r="X78" t="s">
+      <c r="Y78" t="s">
         <v>143</v>
       </c>
     </row>
@@ -10937,7 +12185,7 @@
       <c r="G79" t="s">
         <v>428</v>
       </c>
-      <c r="X79" t="s">
+      <c r="Y79" t="s">
         <v>144</v>
       </c>
     </row>
@@ -10945,7 +12193,7 @@
       <c r="G80" t="s">
         <v>331</v>
       </c>
-      <c r="X80" t="s">
+      <c r="Y80" t="s">
         <v>553</v>
       </c>
     </row>
@@ -10953,7 +12201,7 @@
       <c r="G81" t="s">
         <v>269</v>
       </c>
-      <c r="X81" t="s">
+      <c r="Y81" t="s">
         <v>145</v>
       </c>
     </row>
@@ -10961,7 +12209,7 @@
       <c r="G82" t="s">
         <v>280</v>
       </c>
-      <c r="X82" t="s">
+      <c r="Y82" t="s">
         <v>146</v>
       </c>
     </row>
@@ -10969,7 +12217,7 @@
       <c r="G83" t="s">
         <v>286</v>
       </c>
-      <c r="X83" t="s">
+      <c r="Y83" t="s">
         <v>198</v>
       </c>
     </row>
@@ -10977,7 +12225,7 @@
       <c r="G84" t="s">
         <v>275</v>
       </c>
-      <c r="X84" t="s">
+      <c r="Y84" t="s">
         <v>540</v>
       </c>
     </row>
@@ -10985,7 +12233,7 @@
       <c r="G85" t="s">
         <v>270</v>
       </c>
-      <c r="X85" t="s">
+      <c r="Y85" t="s">
         <v>199</v>
       </c>
     </row>
@@ -10993,7 +12241,7 @@
       <c r="G86" t="s">
         <v>287</v>
       </c>
-      <c r="X86" t="s">
+      <c r="Y86" t="s">
         <v>509</v>
       </c>
     </row>
@@ -11001,7 +12249,7 @@
       <c r="G87" t="s">
         <v>271</v>
       </c>
-      <c r="X87" t="s">
+      <c r="Y87" t="s">
         <v>200</v>
       </c>
     </row>
@@ -11009,7 +12257,7 @@
       <c r="G88" t="s">
         <v>272</v>
       </c>
-      <c r="X88" t="s">
+      <c r="Y88" t="s">
         <v>201</v>
       </c>
     </row>
@@ -11017,7 +12265,7 @@
       <c r="G89" t="s">
         <v>304</v>
       </c>
-      <c r="X89" t="s">
+      <c r="Y89" t="s">
         <v>214</v>
       </c>
     </row>
@@ -11025,7 +12273,7 @@
       <c r="G90" t="s">
         <v>310</v>
       </c>
-      <c r="X90" t="s">
+      <c r="Y90" t="s">
         <v>147</v>
       </c>
     </row>
@@ -11033,7 +12281,7 @@
       <c r="G91" t="s">
         <v>294</v>
       </c>
-      <c r="X91" t="s">
+      <c r="Y91" t="s">
         <v>202</v>
       </c>
     </row>
@@ -11041,7 +12289,7 @@
       <c r="G92" t="s">
         <v>339</v>
       </c>
-      <c r="X92" t="s">
+      <c r="Y92" t="s">
         <v>456</v>
       </c>
     </row>
@@ -11049,7 +12297,7 @@
       <c r="G93" t="s">
         <v>276</v>
       </c>
-      <c r="X93" t="s">
+      <c r="Y93" t="s">
         <v>466</v>
       </c>
     </row>
@@ -11057,172 +12305,172 @@
       <c r="G94" t="s">
         <v>277</v>
       </c>
-      <c r="X94" t="s">
+      <c r="Y94" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="95">
-      <c r="X95" t="s">
+      <c r="Y95" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="96">
-      <c r="X96" t="s">
+      <c r="Y96" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="97">
-      <c r="X97" t="s">
+      <c r="Y97" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="98">
-      <c r="X98" t="s">
+      <c r="Y98" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="99">
-      <c r="X99" t="s">
+      <c r="Y99" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="100">
-      <c r="X100" t="s">
+      <c r="Y100" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="101">
-      <c r="X101" t="s">
+      <c r="Y101" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="102">
-      <c r="X102" t="s">
+      <c r="Y102" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="103">
-      <c r="X103" t="s">
+      <c r="Y103" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="104">
-      <c r="X104" t="s">
+      <c r="Y104" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="105">
-      <c r="X105" t="s">
+      <c r="Y105" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="106">
-      <c r="X106" t="s">
+      <c r="Y106" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="107">
-      <c r="X107" t="s">
+      <c r="Y107" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="108">
-      <c r="X108" t="s">
+      <c r="Y108" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="109">
-      <c r="X109" t="s">
+      <c r="Y109" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="110">
-      <c r="X110" t="s">
+      <c r="Y110" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="111">
-      <c r="X111" t="s">
+      <c r="Y111" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="112">
-      <c r="X112" t="s">
+      <c r="Y112" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="113">
-      <c r="X113" t="s">
+      <c r="Y113" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="114">
-      <c r="X114" t="s">
+      <c r="Y114" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="115">
-      <c r="X115" t="s">
+      <c r="Y115" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="116">
-      <c r="X116" t="s">
+      <c r="Y116" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="117">
-      <c r="X117" t="s">
+      <c r="Y117" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="118">
-      <c r="X118" t="s">
+      <c r="Y118" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="119">
-      <c r="X119" t="s">
+      <c r="Y119" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="120">
-      <c r="X120" t="s">
+      <c r="Y120" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="121">
-      <c r="X121" t="s">
+      <c r="Y121" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="122">
-      <c r="X122" t="s">
+      <c r="Y122" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="123">
-      <c r="X123" t="s">
+      <c r="Y123" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="124">
-      <c r="X124" t="s">
+      <c r="Y124" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="125">
-      <c r="X125" t="s">
+      <c r="Y125" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="126">
-      <c r="X126" t="s">
+      <c r="Y126" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="127">
-      <c r="X127" t="s">
+      <c r="Y127" t="s">
         <v>169</v>
       </c>
     </row>

--- a/artifact/script/web-05.xlsx
+++ b/artifact/script/web-05.xlsx
@@ -26,7 +26,7 @@
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
-    <definedName name="io">'#system'!$K$2:$K$28</definedName>
+    <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
@@ -51,7 +51,7 @@
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$7</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$10</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7633" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8696" uniqueCount="580">
   <si>
     <t>description</t>
   </si>
@@ -1794,6 +1794,18 @@
   </si>
   <si>
     <t>runSQLs(var,sqls)</t>
+  </si>
+  <si>
+    <t>exportJSON(sql,output,header)</t>
+  </si>
+  <si>
+    <t>exportXML(sql,output,root,row,cell)</t>
+  </si>
+  <si>
+    <t>importCSV(var,csv,table)</t>
+  </si>
+  <si>
+    <t>writeBase64decode(encodedSource,decodedTarget)</t>
   </si>
 </sst>
 </file>
@@ -1801,7 +1813,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="234" x14ac:knownFonts="1">
+  <fonts count="266" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3285,8 +3297,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="394">
+  <fills count="454">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5515,8 +5729,348 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="395">
+  <borders count="451">
     <border>
       <left/>
       <right/>
@@ -9502,6 +10056,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -9509,7 +10627,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="259">
+  <cellXfs count="291">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -10255,52 +11373,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="363" fontId="217" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="218" fillId="366" borderId="374" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="374" fillId="366" fontId="218" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="219" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="219" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="220" fillId="369" borderId="378" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="378" fillId="369" fontId="220" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="221" fillId="372" borderId="382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="382" fillId="372" fontId="221" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="222" fillId="375" borderId="382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="382" fillId="375" fontId="222" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="223" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="223" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="224" fillId="378" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="378" fontId="224" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="225" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="225" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="226" fillId="381" borderId="386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="386" fillId="381" fontId="226" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="227" fillId="384" borderId="390" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="390" fillId="384" fontId="227" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="228" fillId="387" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="394" fillId="387" fontId="228" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="229" fillId="387" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="394" fillId="387" fontId="229" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="230" fillId="375" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="375" fontId="230" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="231" fillId="390" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="390" fontId="231" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="232" fillId="375" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="375" fontId="232" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="233" fillId="393" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="393" fontId="233" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="402" fillId="396" fontId="234" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="235" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="406" fillId="399" fontId="236" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="410" fillId="402" fontId="237" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="410" fillId="405" fontId="238" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="239" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="408" fontId="240" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="241" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="414" fillId="411" fontId="242" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="418" fillId="414" fontId="243" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="422" fillId="417" fontId="244" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="422" fillId="417" fontId="245" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="405" fontId="246" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="420" fontId="247" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="405" fontId="248" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="423" fontId="249" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="250" fillId="426" borderId="430" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="251" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="252" fillId="429" borderId="434" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="253" fillId="432" borderId="438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="254" fillId="435" borderId="438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="255" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="256" fillId="438" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="257" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="258" fillId="441" borderId="442" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="259" fillId="444" borderId="446" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="260" fillId="447" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="261" fillId="447" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="262" fillId="435" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="263" fillId="450" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="264" fillId="435" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="265" fillId="453" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -11021,7 +12235,7 @@
         <v>86</v>
       </c>
       <c r="N5" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="Q5" t="s">
         <v>30</v>
@@ -11089,7 +12303,7 @@
         <v>29</v>
       </c>
       <c r="N6" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="Q6" t="s">
         <v>31</v>
@@ -11148,7 +12362,7 @@
         <v>314</v>
       </c>
       <c r="N7" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="Q7" t="s">
         <v>33</v>
@@ -11206,6 +12420,9 @@
       <c r="M8" t="s">
         <v>34</v>
       </c>
+      <c r="N8" t="s">
+        <v>573</v>
+      </c>
       <c r="Q8" t="s">
         <v>90</v>
       </c>
@@ -11259,6 +12476,9 @@
       <c r="M9" t="s">
         <v>35</v>
       </c>
+      <c r="N9" t="s">
+        <v>574</v>
+      </c>
       <c r="Q9" t="s">
         <v>91</v>
       </c>
@@ -11300,6 +12520,9 @@
       <c r="M10" t="s">
         <v>36</v>
       </c>
+      <c r="N10" t="s">
+        <v>575</v>
+      </c>
       <c r="Q10" t="s">
         <v>433</v>
       </c>
@@ -11688,7 +12911,7 @@
         <v>75</v>
       </c>
       <c r="K25" t="s">
-        <v>84</v>
+        <v>579</v>
       </c>
       <c r="Y25" t="s">
         <v>111</v>
@@ -11705,7 +12928,7 @@
         <v>281</v>
       </c>
       <c r="K26" t="s">
-        <v>497</v>
+        <v>84</v>
       </c>
       <c r="Y26" t="s">
         <v>112</v>
@@ -11722,7 +12945,7 @@
         <v>265</v>
       </c>
       <c r="K27" t="s">
-        <v>45</v>
+        <v>497</v>
       </c>
       <c r="Y27" t="s">
         <v>113</v>
@@ -11739,7 +12962,7 @@
         <v>282</v>
       </c>
       <c r="K28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y28" t="s">
         <v>326</v>
@@ -11754,6 +12977,9 @@
       </c>
       <c r="G29" t="s">
         <v>283</v>
+      </c>
+      <c r="K29" t="s">
+        <v>46</v>
       </c>
       <c r="Y29" t="s">
         <v>114</v>

--- a/artifact/script/web-05.xlsx
+++ b/artifact/script/web-05.xlsx
@@ -50,8 +50,8 @@
     <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
-    <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$10</definedName>
+    <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8696" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9231" uniqueCount="584">
   <si>
     <t>description</t>
   </si>
@@ -1806,6 +1806,18 @@
   </si>
   <si>
     <t>writeBase64decode(encodedSource,decodedTarget)</t>
+  </si>
+  <si>
+    <t>purgeQueue(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>writeBase64decode(encodedSource,decodedTarget,append)</t>
+  </si>
+  <si>
+    <t>exportEXCEL(sql,output,sheet,start)</t>
+  </si>
+  <si>
+    <t>importEXCEL(var,excel,sheet,ranges,table)</t>
   </si>
 </sst>
 </file>
@@ -1813,7 +1825,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="266" x14ac:knownFonts="1">
+  <fonts count="282" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3499,8 +3511,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="454">
+  <fills count="484">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6069,8 +6182,178 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="451">
+  <borders count="479">
     <border>
       <left/>
       <right/>
@@ -10620,6 +10903,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -10627,7 +11192,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="291">
+  <cellXfs count="307">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -11469,52 +12034,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="423" fontId="249" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="250" fillId="426" borderId="430" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="430" fillId="426" fontId="250" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="251" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="251" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="252" fillId="429" borderId="434" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="434" fillId="429" fontId="252" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="253" fillId="432" borderId="438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="438" fillId="432" fontId="253" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="254" fillId="435" borderId="438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="438" fillId="435" fontId="254" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="255" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="255" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="256" fillId="438" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="438" fontId="256" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="257" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="257" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="258" fillId="441" borderId="442" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="442" fillId="441" fontId="258" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="259" fillId="444" borderId="446" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="446" fillId="444" fontId="259" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="260" fillId="447" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="450" fillId="447" fontId="260" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="261" fillId="447" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="450" fillId="447" fontId="261" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="262" fillId="435" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="435" fontId="262" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="263" fillId="450" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="450" fontId="263" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="264" fillId="435" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="435" fontId="264" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="265" fillId="453" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="453" fontId="265" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="266" fillId="456" borderId="458" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="267" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="268" fillId="459" borderId="462" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="269" fillId="462" borderId="466" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="270" fillId="465" borderId="466" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="271" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="272" fillId="468" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="274" fillId="471" borderId="470" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="275" fillId="474" borderId="474" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="276" fillId="477" borderId="478" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="277" fillId="477" borderId="478" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="278" fillId="465" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="279" fillId="480" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="280" fillId="465" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="281" fillId="483" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -12045,7 +12658,7 @@
         <v>520</v>
       </c>
       <c r="D3" t="s">
-        <v>545</v>
+        <v>580</v>
       </c>
       <c r="E3" t="s">
         <v>513</v>
@@ -12128,7 +12741,7 @@
         <v>373</v>
       </c>
       <c r="D4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
@@ -12211,7 +12824,7 @@
         <v>374</v>
       </c>
       <c r="D5" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E5" t="s">
         <v>514</v>
@@ -12235,7 +12848,7 @@
         <v>86</v>
       </c>
       <c r="N5" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="Q5" t="s">
         <v>30</v>
@@ -12281,6 +12894,9 @@
       <c r="B6" t="s">
         <v>375</v>
       </c>
+      <c r="D6" t="s">
+        <v>547</v>
+      </c>
       <c r="E6" t="s">
         <v>27</v>
       </c>
@@ -12303,7 +12919,7 @@
         <v>29</v>
       </c>
       <c r="N6" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="Q6" t="s">
         <v>31</v>
@@ -12362,7 +12978,7 @@
         <v>314</v>
       </c>
       <c r="N7" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="Q7" t="s">
         <v>33</v>
@@ -12421,7 +13037,7 @@
         <v>34</v>
       </c>
       <c r="N8" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="Q8" t="s">
         <v>90</v>
@@ -12477,7 +13093,7 @@
         <v>35</v>
       </c>
       <c r="N9" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="Q9" t="s">
         <v>91</v>
@@ -12521,7 +13137,7 @@
         <v>36</v>
       </c>
       <c r="N10" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="Q10" t="s">
         <v>433</v>
@@ -12561,6 +13177,9 @@
       <c r="M11" t="s">
         <v>532</v>
       </c>
+      <c r="N11" t="s">
+        <v>574</v>
+      </c>
       <c r="Q11" t="s">
         <v>92</v>
       </c>
@@ -12596,6 +13215,9 @@
       <c r="M12" t="s">
         <v>498</v>
       </c>
+      <c r="N12" t="s">
+        <v>575</v>
+      </c>
       <c r="Q12" t="s">
         <v>41</v>
       </c>
@@ -12911,7 +13533,7 @@
         <v>75</v>
       </c>
       <c r="K25" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="Y25" t="s">
         <v>111</v>

--- a/artifact/script/web-05.xlsx
+++ b/artifact/script/web-05.xlsx
@@ -18,17 +18,17 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$E$2:$E$38</definedName>
+    <definedName name="base">'#system'!$E$2:$E$39</definedName>
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$98</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
-    <definedName name="external">'#system'!$I$2:$I$4</definedName>
-    <definedName name="image">'#system'!$J$2:$J$6</definedName>
+    <definedName name="external">'#system'!$I$2:$I$5</definedName>
+    <definedName name="image">'#system'!$J$2:$J$7</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$16</definedName>
+    <definedName name="json">'#system'!$M$2:$M$18</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -42,12 +42,12 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$127</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$134</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
     <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9231" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9788" uniqueCount="607">
   <si>
     <t>description</t>
   </si>
@@ -1818,6 +1818,75 @@
   </si>
   <si>
     <t>importEXCEL(var,excel,sheet,ranges,table)</t>
+  </si>
+  <si>
+    <t>outputToCloud(resource)</t>
+  </si>
+  <si>
+    <t>assertElementNotPresent(name)</t>
+  </si>
+  <si>
+    <t>clickScreen(button,modifiers,x,y)</t>
+  </si>
+  <si>
+    <t>mouseWheel(amount,modifiers,x,y)</t>
+  </si>
+  <si>
+    <t>saveModalDialogTextByLocator(var,locator)</t>
+  </si>
+  <si>
+    <t>typeKeys(os,keystrokes)</t>
+  </si>
+  <si>
+    <t>tail(id,file)</t>
+  </si>
+  <si>
+    <t>saveDiff(var,baseline,actual)</t>
+  </si>
+  <si>
+    <t>compact(var,json,removeEmpty)</t>
+  </si>
+  <si>
+    <t>storeKeys(json,jsonpath,var)</t>
+  </si>
+  <si>
+    <t>assertMultiSelect(locator)</t>
+  </si>
+  <si>
+    <t>assertSingleSelect(locator)</t>
+  </si>
+  <si>
+    <t>assertTextNotContains(locator,text)</t>
+  </si>
+  <si>
+    <t>clickAll(locator)</t>
+  </si>
+  <si>
+    <t>saveInfiniteDivsAsCsv(config,file)</t>
+  </si>
+  <si>
+    <t>saveInfiniteTableAsCsv(config,file)</t>
+  </si>
+  <si>
+    <t>updateAttribute(locator,attrName,value)</t>
+  </si>
+  <si>
+    <t>assertSoap(wsdl,xml)</t>
+  </si>
+  <si>
+    <t>assertSoapFaultCode(expected,xml)</t>
+  </si>
+  <si>
+    <t>assertSoapFaultString(expected,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultCode(var,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultDetail(var,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultString(var,xml)</t>
   </si>
 </sst>
 </file>
@@ -1825,7 +1894,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="282" x14ac:knownFonts="1">
+  <fonts count="298" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3612,8 +3681,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="484">
+  <fills count="511">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6352,8 +6522,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="479">
+  <borders count="511">
     <border>
       <left/>
       <right/>
@@ -11185,6 +11508,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -11192,7 +11841,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="307">
+  <cellXfs count="323">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -12082,52 +12731,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="453" fontId="265" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="266" fillId="456" borderId="458" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="458" fillId="456" fontId="266" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="267" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="267" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="268" fillId="459" borderId="462" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="462" fillId="459" fontId="268" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="269" fillId="462" borderId="466" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="466" fillId="462" fontId="269" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="270" fillId="465" borderId="466" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="466" fillId="465" fontId="270" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="271" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="271" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="272" fillId="468" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="468" fontId="272" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="273" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="274" fillId="471" borderId="470" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="470" fillId="471" fontId="274" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="275" fillId="474" borderId="474" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="474" fillId="474" fontId="275" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="276" fillId="477" borderId="478" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="478" fillId="477" fontId="276" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="277" fillId="477" borderId="478" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="478" fillId="477" fontId="277" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="278" fillId="465" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="465" fontId="278" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="279" fillId="480" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="480" fontId="279" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="280" fillId="465" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="465" fontId="280" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="281" fillId="483" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="483" fontId="281" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="282" fillId="486" borderId="486" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="283" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="284" fillId="489" borderId="490" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="285" fillId="492" borderId="494" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="286" fillId="495" borderId="498" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="287" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="288" fillId="498" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="290" fillId="501" borderId="502" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="291" fillId="492" borderId="506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="292" fillId="504" borderId="510" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="504" borderId="510" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="294" fillId="495" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="295" fillId="507" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="296" fillId="495" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="297" fillId="510" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -12452,7 +13149,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE127"/>
+  <dimension ref="A1:AE134"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -12833,10 +13530,13 @@
         <v>496</v>
       </c>
       <c r="G5" t="s">
-        <v>335</v>
+        <v>585</v>
       </c>
       <c r="H5" t="s">
         <v>511</v>
+      </c>
+      <c r="I5" t="s">
+        <v>590</v>
       </c>
       <c r="J5" t="s">
         <v>350</v>
@@ -12904,7 +13604,7 @@
         <v>560</v>
       </c>
       <c r="G6" t="s">
-        <v>387</v>
+        <v>335</v>
       </c>
       <c r="H6" t="s">
         <v>507</v>
@@ -12966,11 +13666,14 @@
         <v>223</v>
       </c>
       <c r="G7" t="s">
-        <v>365</v>
+        <v>387</v>
       </c>
       <c r="H7" t="s">
         <v>503</v>
       </c>
+      <c r="J7" t="s">
+        <v>591</v>
+      </c>
       <c r="K7" t="s">
         <v>16</v>
       </c>
@@ -13011,7 +13714,7 @@
         <v>426</v>
       </c>
       <c r="AD7" t="s">
-        <v>231</v>
+        <v>601</v>
       </c>
     </row>
     <row r="8">
@@ -13025,7 +13728,7 @@
         <v>317</v>
       </c>
       <c r="G8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H8" t="s">
         <v>327</v>
@@ -13067,7 +13770,7 @@
         <v>427</v>
       </c>
       <c r="AD8" t="s">
-        <v>232</v>
+        <v>602</v>
       </c>
     </row>
     <row r="9">
@@ -13081,7 +13784,7 @@
         <v>32</v>
       </c>
       <c r="G9" t="s">
-        <v>305</v>
+        <v>366</v>
       </c>
       <c r="H9" t="s">
         <v>328</v>
@@ -13114,7 +13817,7 @@
         <v>188</v>
       </c>
       <c r="AD9" t="s">
-        <v>233</v>
+        <v>603</v>
       </c>
     </row>
     <row r="10">
@@ -13125,7 +13828,7 @@
         <v>314</v>
       </c>
       <c r="G10" t="s">
-        <v>351</v>
+        <v>305</v>
       </c>
       <c r="H10" t="s">
         <v>508</v>
@@ -13155,7 +13858,7 @@
         <v>189</v>
       </c>
       <c r="AD10" t="s">
-        <v>541</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11">
@@ -13166,7 +13869,7 @@
         <v>254</v>
       </c>
       <c r="G11" t="s">
-        <v>273</v>
+        <v>351</v>
       </c>
       <c r="H11" t="s">
         <v>321</v>
@@ -13193,7 +13896,7 @@
         <v>258</v>
       </c>
       <c r="AD11" t="s">
-        <v>549</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12">
@@ -13204,7 +13907,7 @@
         <v>318</v>
       </c>
       <c r="G12" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="H12" t="s">
         <v>322</v>
@@ -13213,7 +13916,7 @@
         <v>389</v>
       </c>
       <c r="M12" t="s">
-        <v>498</v>
+        <v>592</v>
       </c>
       <c r="N12" t="s">
         <v>575</v>
@@ -13231,7 +13934,7 @@
         <v>190</v>
       </c>
       <c r="AD12" t="s">
-        <v>550</v>
+        <v>233</v>
       </c>
     </row>
     <row r="13">
@@ -13242,7 +13945,7 @@
         <v>340</v>
       </c>
       <c r="G13" t="s">
-        <v>315</v>
+        <v>262</v>
       </c>
       <c r="H13" t="s">
         <v>323</v>
@@ -13251,7 +13954,7 @@
         <v>17</v>
       </c>
       <c r="M13" t="s">
-        <v>533</v>
+        <v>498</v>
       </c>
       <c r="Q13" t="s">
         <v>93</v>
@@ -13266,7 +13969,7 @@
         <v>191</v>
       </c>
       <c r="AD13" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
     </row>
     <row r="14">
@@ -13277,7 +13980,7 @@
         <v>37</v>
       </c>
       <c r="G14" t="s">
-        <v>263</v>
+        <v>315</v>
       </c>
       <c r="H14" t="s">
         <v>324</v>
@@ -13286,7 +13989,7 @@
         <v>42</v>
       </c>
       <c r="M14" t="s">
-        <v>39</v>
+        <v>533</v>
       </c>
       <c r="Q14" t="s">
         <v>94</v>
@@ -13301,7 +14004,7 @@
         <v>192</v>
       </c>
       <c r="AD14" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
     </row>
     <row r="15">
@@ -13312,13 +14015,13 @@
         <v>58</v>
       </c>
       <c r="G15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K15" t="s">
         <v>565</v>
       </c>
       <c r="M15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q15" t="s">
         <v>557</v>
@@ -13333,7 +14036,7 @@
         <v>193</v>
       </c>
       <c r="AD15" t="s">
-        <v>542</v>
+        <v>550</v>
       </c>
     </row>
     <row r="16">
@@ -13344,13 +14047,13 @@
         <v>384</v>
       </c>
       <c r="G16" t="s">
-        <v>316</v>
+        <v>264</v>
       </c>
       <c r="K16" t="s">
         <v>80</v>
       </c>
       <c r="M16" t="s">
-        <v>43</v>
+        <v>593</v>
       </c>
       <c r="Q16" t="s">
         <v>558</v>
@@ -13365,7 +14068,7 @@
         <v>194</v>
       </c>
       <c r="AD16" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="17">
@@ -13376,11 +14079,14 @@
         <v>385</v>
       </c>
       <c r="G17" t="s">
-        <v>88</v>
+        <v>316</v>
       </c>
       <c r="K17" t="s">
         <v>81</v>
       </c>
+      <c r="M17" t="s">
+        <v>40</v>
+      </c>
       <c r="Y17" t="s">
         <v>559</v>
       </c>
@@ -13388,7 +14094,7 @@
         <v>523</v>
       </c>
       <c r="AD17" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="18">
@@ -13399,16 +14105,19 @@
         <v>414</v>
       </c>
       <c r="G18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K18" t="s">
         <v>512</v>
       </c>
+      <c r="M18" t="s">
+        <v>43</v>
+      </c>
       <c r="Y18" t="s">
         <v>104</v>
       </c>
       <c r="AD18" t="s">
-        <v>556</v>
+        <v>542</v>
       </c>
     </row>
     <row r="19">
@@ -13419,7 +14128,7 @@
         <v>59</v>
       </c>
       <c r="G19" t="s">
-        <v>295</v>
+        <v>89</v>
       </c>
       <c r="K19" t="s">
         <v>82</v>
@@ -13428,7 +14137,7 @@
         <v>105</v>
       </c>
       <c r="AD19" t="s">
-        <v>234</v>
+        <v>551</v>
       </c>
     </row>
     <row r="20">
@@ -13439,7 +14148,7 @@
         <v>60</v>
       </c>
       <c r="G20" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K20" t="s">
         <v>83</v>
@@ -13448,7 +14157,7 @@
         <v>106</v>
       </c>
       <c r="AD20" t="s">
-        <v>235</v>
+        <v>552</v>
       </c>
     </row>
     <row r="21">
@@ -13459,7 +14168,7 @@
         <v>255</v>
       </c>
       <c r="G21" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K21" t="s">
         <v>379</v>
@@ -13468,7 +14177,7 @@
         <v>107</v>
       </c>
       <c r="AD21" t="s">
-        <v>236</v>
+        <v>556</v>
       </c>
     </row>
     <row r="22">
@@ -13476,16 +14185,19 @@
         <v>412</v>
       </c>
       <c r="E22" t="s">
-        <v>61</v>
+        <v>584</v>
       </c>
       <c r="G22" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K22" t="s">
         <v>528</v>
       </c>
       <c r="Y22" t="s">
         <v>537</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="23">
@@ -13493,16 +14205,19 @@
         <v>356</v>
       </c>
       <c r="E23" t="s">
-        <v>320</v>
+        <v>61</v>
       </c>
       <c r="G23" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="K23" t="s">
         <v>44</v>
       </c>
       <c r="Y23" t="s">
         <v>109</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="24">
@@ -13510,16 +14225,19 @@
         <v>396</v>
       </c>
       <c r="E24" t="s">
-        <v>62</v>
+        <v>320</v>
       </c>
       <c r="G24" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="K24" t="s">
         <v>391</v>
       </c>
       <c r="Y24" t="s">
-        <v>110</v>
+        <v>594</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="25">
@@ -13527,16 +14245,19 @@
         <v>53</v>
       </c>
       <c r="E25" t="s">
-        <v>504</v>
+        <v>62</v>
       </c>
       <c r="G25" t="s">
-        <v>75</v>
+        <v>278</v>
       </c>
       <c r="K25" t="s">
         <v>581</v>
       </c>
       <c r="Y25" t="s">
-        <v>111</v>
+        <v>110</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="26">
@@ -13544,16 +14265,19 @@
         <v>54</v>
       </c>
       <c r="E26" t="s">
-        <v>224</v>
+        <v>504</v>
       </c>
       <c r="G26" t="s">
-        <v>281</v>
+        <v>75</v>
       </c>
       <c r="K26" t="s">
         <v>84</v>
       </c>
       <c r="Y26" t="s">
-        <v>112</v>
+        <v>111</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="27">
@@ -13561,16 +14285,19 @@
         <v>55</v>
       </c>
       <c r="E27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G27" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="K27" t="s">
         <v>497</v>
       </c>
       <c r="Y27" t="s">
-        <v>113</v>
+        <v>112</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="28">
@@ -13578,16 +14305,16 @@
         <v>56</v>
       </c>
       <c r="E28" t="s">
-        <v>525</v>
+        <v>225</v>
       </c>
       <c r="G28" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="K28" t="s">
         <v>45</v>
       </c>
       <c r="Y28" t="s">
-        <v>326</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29">
@@ -13595,16 +14322,16 @@
         <v>413</v>
       </c>
       <c r="E29" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G29" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K29" t="s">
         <v>46</v>
       </c>
       <c r="Y29" t="s">
-        <v>114</v>
+        <v>326</v>
       </c>
     </row>
     <row r="30">
@@ -13612,713 +14339,763 @@
         <v>226</v>
       </c>
       <c r="E30" t="s">
-        <v>415</v>
+        <v>526</v>
       </c>
       <c r="G30" t="s">
-        <v>215</v>
+        <v>283</v>
       </c>
       <c r="Y30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31">
       <c r="E31" t="s">
-        <v>63</v>
+        <v>415</v>
       </c>
       <c r="G31" t="s">
-        <v>274</v>
+        <v>215</v>
       </c>
       <c r="Y31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32">
       <c r="E32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G32" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="Y32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33">
       <c r="E33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G33" t="s">
-        <v>561</v>
+        <v>284</v>
       </c>
       <c r="Y33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G34" t="s">
-        <v>259</v>
+        <v>561</v>
       </c>
       <c r="Y34" t="s">
-        <v>119</v>
+        <v>595</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G35" t="s">
-        <v>329</v>
+        <v>259</v>
       </c>
       <c r="Y35" t="s">
-        <v>209</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G36" t="s">
-        <v>306</v>
+        <v>329</v>
       </c>
       <c r="Y36" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G37" t="s">
-        <v>260</v>
+        <v>306</v>
       </c>
       <c r="Y37" t="s">
-        <v>337</v>
+        <v>209</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" t="s">
+        <v>69</v>
+      </c>
+      <c r="G38" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="E39" t="s">
         <v>70</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G39" t="s">
         <v>307</v>
       </c>
-      <c r="Y38" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="G39" t="s">
-        <v>266</v>
-      </c>
       <c r="Y39" t="s">
-        <v>392</v>
+        <v>337</v>
       </c>
     </row>
     <row r="40">
       <c r="G40" t="s">
-        <v>77</v>
+        <v>266</v>
       </c>
       <c r="Y40" t="s">
-        <v>121</v>
+        <v>434</v>
       </c>
     </row>
     <row r="41">
       <c r="G41" t="s">
-        <v>211</v>
+        <v>77</v>
       </c>
       <c r="Y41" t="s">
-        <v>122</v>
+        <v>596</v>
       </c>
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>288</v>
+        <v>211</v>
       </c>
       <c r="Y42" t="s">
-        <v>123</v>
+        <v>392</v>
       </c>
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>299</v>
+        <v>586</v>
       </c>
       <c r="Y43" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="Y44" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>342</v>
+        <v>299</v>
       </c>
       <c r="Y45" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>341</v>
+        <v>300</v>
       </c>
       <c r="Y46" t="s">
-        <v>494</v>
+        <v>124</v>
       </c>
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>210</v>
+        <v>342</v>
       </c>
       <c r="Y47" t="s">
-        <v>212</v>
+        <v>125</v>
       </c>
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>319</v>
+        <v>341</v>
       </c>
       <c r="Y48" t="s">
-        <v>76</v>
+        <v>126</v>
       </c>
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>338</v>
+        <v>210</v>
       </c>
       <c r="Y49" t="s">
-        <v>127</v>
+        <v>494</v>
       </c>
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>367</v>
+        <v>319</v>
       </c>
       <c r="Y50" t="s">
-        <v>128</v>
+        <v>212</v>
       </c>
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="Y51" t="s">
-        <v>129</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="Y52" t="s">
-        <v>538</v>
+        <v>597</v>
       </c>
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="Y53" t="s">
-        <v>522</v>
+        <v>127</v>
       </c>
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>267</v>
+        <v>355</v>
       </c>
       <c r="Y54" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>291</v>
+        <v>330</v>
       </c>
       <c r="Y55" t="s">
-        <v>345</v>
+        <v>129</v>
       </c>
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="Y56" t="s">
-        <v>517</v>
+        <v>538</v>
       </c>
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="Y57" t="s">
-        <v>131</v>
+        <v>522</v>
       </c>
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="Y58" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>311</v>
+        <v>587</v>
       </c>
       <c r="Y59" t="s">
-        <v>133</v>
+        <v>345</v>
       </c>
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>336</v>
+        <v>293</v>
       </c>
       <c r="Y60" t="s">
-        <v>134</v>
+        <v>517</v>
       </c>
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="Y61" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Y62" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>368</v>
+        <v>336</v>
       </c>
       <c r="Y63" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>369</v>
+        <v>308</v>
       </c>
       <c r="Y64" t="s">
-        <v>493</v>
+        <v>134</v>
       </c>
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>344</v>
+        <v>309</v>
       </c>
       <c r="Y65" t="s">
-        <v>539</v>
+        <v>135</v>
       </c>
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>312</v>
+        <v>368</v>
       </c>
       <c r="Y66" t="s">
-        <v>213</v>
+        <v>136</v>
       </c>
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>268</v>
+        <v>369</v>
       </c>
       <c r="Y67" t="s">
-        <v>388</v>
+        <v>137</v>
       </c>
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="Y68" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Y69" t="s">
-        <v>138</v>
+        <v>539</v>
       </c>
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>409</v>
+        <v>268</v>
       </c>
       <c r="Y70" t="s">
-        <v>139</v>
+        <v>213</v>
       </c>
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>303</v>
+        <v>588</v>
       </c>
       <c r="Y71" t="s">
-        <v>140</v>
+        <v>388</v>
       </c>
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>410</v>
+        <v>313</v>
       </c>
       <c r="Y72" t="s">
-        <v>141</v>
+        <v>499</v>
       </c>
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>261</v>
+        <v>409</v>
       </c>
       <c r="Y73" t="s">
-        <v>196</v>
+        <v>138</v>
       </c>
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>562</v>
+        <v>303</v>
       </c>
       <c r="Y74" t="s">
-        <v>197</v>
+        <v>139</v>
       </c>
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>343</v>
+        <v>410</v>
       </c>
       <c r="Y75" t="s">
-        <v>510</v>
+        <v>140</v>
       </c>
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="Y76" t="s">
-        <v>527</v>
+        <v>141</v>
       </c>
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>285</v>
+        <v>562</v>
       </c>
       <c r="Y77" t="s">
-        <v>142</v>
+        <v>196</v>
       </c>
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>290</v>
+        <v>343</v>
       </c>
       <c r="Y78" t="s">
-        <v>143</v>
+        <v>197</v>
       </c>
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>428</v>
+        <v>279</v>
       </c>
       <c r="Y79" t="s">
-        <v>144</v>
+        <v>510</v>
       </c>
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>331</v>
+        <v>285</v>
       </c>
       <c r="Y80" t="s">
-        <v>553</v>
+        <v>527</v>
       </c>
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>269</v>
+        <v>290</v>
       </c>
       <c r="Y81" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>280</v>
+        <v>428</v>
       </c>
       <c r="Y82" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>286</v>
+        <v>331</v>
       </c>
       <c r="Y83" t="s">
-        <v>198</v>
+        <v>144</v>
       </c>
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="Y84" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="Y85" t="s">
-        <v>199</v>
+        <v>145</v>
       </c>
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Y86" t="s">
-        <v>509</v>
+        <v>146</v>
       </c>
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Y87" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>272</v>
+        <v>589</v>
       </c>
       <c r="Y88" t="s">
-        <v>201</v>
+        <v>540</v>
       </c>
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>304</v>
+        <v>270</v>
       </c>
       <c r="Y89" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>310</v>
+        <v>287</v>
       </c>
       <c r="Y90" t="s">
-        <v>147</v>
+        <v>509</v>
       </c>
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>294</v>
+        <v>271</v>
       </c>
       <c r="Y91" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>339</v>
+        <v>272</v>
       </c>
       <c r="Y92" t="s">
-        <v>456</v>
+        <v>201</v>
       </c>
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="Y93" t="s">
-        <v>466</v>
+        <v>598</v>
       </c>
     </row>
     <row r="94">
       <c r="G94" t="s">
+        <v>310</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="G95" t="s">
+        <v>294</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="G96" t="s">
+        <v>339</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="G97" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="G98" t="s">
         <v>277</v>
       </c>
-      <c r="Y94" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="Y95" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="Y96" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="Y97" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="98">
       <c r="Y98" t="s">
-        <v>222</v>
+        <v>456</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>207</v>
+        <v>466</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>566</v>
+        <v>203</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>567</v>
+        <v>204</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>148</v>
+        <v>205</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>568</v>
+        <v>206</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>382</v>
+        <v>222</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>149</v>
+        <v>207</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>150</v>
+        <v>566</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>151</v>
+        <v>567</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>153</v>
+        <v>568</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>154</v>
+        <v>382</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>495</v>
+        <v>156</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>47</v>
+        <v>161</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>166</v>
+        <v>495</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>168</v>
+        <v>600</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="Y128" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="Y129" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="Y130" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="Y131" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="Y132" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="Y133" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="Y134" t="s">
         <v>169</v>
       </c>
     </row>

--- a/artifact/script/web-05.xlsx
+++ b/artifact/script/web-05.xlsx
@@ -18,40 +18,41 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$E$2:$E$39</definedName>
-    <definedName name="csv">'#system'!$F$2:$F$6</definedName>
+    <definedName name="base">'#system'!$F$2:$F$40</definedName>
+    <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$98</definedName>
-    <definedName name="excel">'#system'!$H$2:$H$14</definedName>
-    <definedName name="external">'#system'!$I$2:$I$5</definedName>
-    <definedName name="image">'#system'!$J$2:$J$7</definedName>
-    <definedName name="io">'#system'!$K$2:$K$29</definedName>
-    <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$18</definedName>
-    <definedName name="mail">'#system'!$P$2:$P$2</definedName>
+    <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$14</definedName>
+    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="image">'#system'!$K$2:$K$7</definedName>
+    <definedName name="io">'#system'!$L$2:$L$30</definedName>
+    <definedName name="jms">'#system'!$M$2:$M$4</definedName>
+    <definedName name="json">'#system'!$N$2:$N$18</definedName>
+    <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$Q$2:$Q$16</definedName>
-    <definedName name="pdf">'#system'!$R$2:$R$16</definedName>
-    <definedName name="rdbms">'#system'!$S$2:$S$7</definedName>
-    <definedName name="redis">'#system'!$T$2:$T$10</definedName>
-    <definedName name="sms">'#system'!$U$2:$U$2</definedName>
-    <definedName name="sound">'#system'!$V$2:$V$5</definedName>
-    <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
-    <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$134</definedName>
-    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
-    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
+    <definedName name="number">'#system'!$R$2:$R$16</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$16</definedName>
+    <definedName name="rdbms">'#system'!$T$2:$T$7</definedName>
+    <definedName name="redis">'#system'!$U$2:$U$10</definedName>
+    <definedName name="sms">'#system'!$V$2:$V$2</definedName>
+    <definedName name="sound">'#system'!$W$2:$W$5</definedName>
+    <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
+    <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$31</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
+    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
+    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="macro">'#system'!$O$2:$O$4</definedName>
+    <definedName name="macro">'#system'!$P$2:$P$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
+    <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
+    <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -66,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9788" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10913" uniqueCount="618">
   <si>
     <t>description</t>
   </si>
@@ -1887,6 +1888,39 @@
   </si>
   <si>
     <t>storeSoapFaultString(var,xml)</t>
+  </si>
+  <si>
+    <t>aws.vision</t>
+  </si>
+  <si>
+    <t>saveText(profile,image,var)</t>
+  </si>
+  <si>
+    <t>assertNotContain(text,substring)</t>
+  </si>
+  <si>
+    <t>clear(variables)</t>
+  </si>
+  <si>
+    <t>saveMatches(var,path,fileFilter,textFilter)</t>
+  </si>
+  <si>
+    <t>assertAttributeNotContain(locator,attrName,contains)</t>
+  </si>
+  <si>
+    <t>assertTextNotContain(locator,text)</t>
+  </si>
+  <si>
+    <t>screenshot(file,locator)</t>
+  </si>
+  <si>
+    <t>clearVariables(variables)</t>
+  </si>
+  <si>
+    <t>assertPath(path)</t>
+  </si>
+  <si>
+    <t>assertAttributeContain(locator,attrName,contains)</t>
   </si>
 </sst>
 </file>
@@ -1894,7 +1928,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="298" x14ac:knownFonts="1">
+  <fonts count="330" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3782,8 +3816,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="511">
+  <fills count="565">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6675,8 +6911,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="511">
+  <borders count="575">
     <border>
       <left/>
       <right/>
@@ -11834,6 +12376,658 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -11841,7 +13035,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="323">
+  <cellXfs count="355">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -12779,52 +13973,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="483" fontId="281" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="282" fillId="486" borderId="486" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="486" fillId="486" fontId="282" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="283" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="283" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="284" fillId="489" borderId="490" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="490" fillId="489" fontId="284" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="285" fillId="492" borderId="494" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="494" fillId="492" fontId="285" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="286" fillId="495" borderId="498" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="498" fillId="495" fontId="286" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="287" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="287" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="288" fillId="498" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="498" fontId="288" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="289" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="290" fillId="501" borderId="502" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="502" fillId="501" fontId="290" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="291" fillId="492" borderId="506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="506" fillId="492" fontId="291" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="292" fillId="504" borderId="510" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="510" fillId="504" fontId="292" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="293" fillId="504" borderId="510" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="510" fillId="504" fontId="293" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="294" fillId="495" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="495" fontId="294" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="295" fillId="507" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="507" fontId="295" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="296" fillId="495" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="495" fontId="296" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="297" fillId="510" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="510" fontId="297" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="518" fillId="513" fontId="298" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="299" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="522" fillId="516" fontId="300" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="526" fillId="519" fontId="301" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="530" fillId="522" fontId="302" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="303" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="525" fontId="304" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="305" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="534" fillId="528" fontId="306" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="538" fillId="519" fontId="307" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="542" fillId="531" fontId="308" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="542" fillId="531" fontId="309" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="522" fontId="310" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="534" fontId="311" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="522" fontId="312" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="537" fontId="313" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="314" fillId="540" borderId="550" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="316" fillId="543" borderId="554" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="317" fillId="546" borderId="558" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="318" fillId="549" borderId="562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="319" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="320" fillId="552" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="322" fillId="555" borderId="566" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="323" fillId="546" borderId="570" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="324" fillId="558" borderId="574" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="325" fillId="558" borderId="574" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="326" fillId="549" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="327" fillId="561" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="328" fillId="549" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="329" fillId="564" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -13149,7 +14439,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE134"/>
+  <dimension ref="A1:AF135"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -13174,81 +14464,84 @@
         <v>543</v>
       </c>
       <c r="E1" t="s">
+        <v>607</v>
+      </c>
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>50</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>346</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>332</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>24</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>569</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>529</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>195</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>51</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>238</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>52</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>395</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>411</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>412</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>356</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>396</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>53</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>54</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>55</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>56</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>413</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>226</v>
       </c>
     </row>
@@ -13266,81 +14559,84 @@
         <v>544</v>
       </c>
       <c r="E2" t="s">
+        <v>608</v>
+      </c>
+      <c r="F2" t="s">
         <v>57</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>71</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>73</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>505</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>78</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>524</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>314</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>383</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>432</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>570</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>534</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>416</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>429</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>252</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>216</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>397</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>418</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>419</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>380</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>406</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>96</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>170</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>175</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>182</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>431</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>548</v>
       </c>
     </row>
@@ -13357,76 +14653,76 @@
       <c r="D3" t="s">
         <v>580</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>513</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>364</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>87</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>48</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>530</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>348</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>340</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>333</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>85</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>571</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>535</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>430</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>239</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>217</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>398</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>420</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>381</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>407</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>97</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>171</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>176</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>363</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>183</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>227</v>
       </c>
     </row>
@@ -13440,82 +14736,82 @@
       <c r="D4" t="s">
         <v>545</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>72</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>386</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>506</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>531</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>349</v>
       </c>
-      <c r="K4" t="s">
-        <v>237</v>
-      </c>
       <c r="L4" t="s">
+        <v>616</v>
+      </c>
+      <c r="M4" t="s">
         <v>334</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>25</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>572</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>536</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>26</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>240</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>218</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>399</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>421</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>357</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>408</v>
       </c>
-      <c r="Y4" t="s">
-        <v>353</v>
-      </c>
       <c r="Z4" t="s">
+        <v>617</v>
+      </c>
+      <c r="AA4" t="s">
         <v>172</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>177</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>183</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>423</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>607</v>
       </c>
       <c r="B5" t="s">
         <v>374</v>
@@ -13523,73 +14819,73 @@
       <c r="D5" t="s">
         <v>546</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>514</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>496</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>585</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>511</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>590</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>350</v>
       </c>
-      <c r="K5" t="s">
-        <v>521</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="L5" t="s">
+        <v>237</v>
+      </c>
+      <c r="N5" t="s">
         <v>86</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>582</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>30</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>241</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>219</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>400</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>422</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>358</v>
       </c>
-      <c r="Y5" t="s">
-        <v>354</v>
-      </c>
       <c r="Z5" t="s">
+        <v>612</v>
+      </c>
+      <c r="AA5" t="s">
         <v>173</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>178</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>184</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>424</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>375</v>
@@ -13597,1505 +14893,1519 @@
       <c r="D6" t="s">
         <v>547</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>560</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>335</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>507</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>347</v>
       </c>
-      <c r="K6" t="s">
-        <v>71</v>
-      </c>
-      <c r="M6" t="s">
+      <c r="L6" t="s">
+        <v>521</v>
+      </c>
+      <c r="N6" t="s">
         <v>29</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>576</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>31</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>242</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>390</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>401</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>360</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>98</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>500</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>179</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>185</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>425</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
         <v>376</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>223</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>387</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>503</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>591</v>
       </c>
-      <c r="K7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M7" t="s">
+      <c r="L7" t="s">
+        <v>71</v>
+      </c>
+      <c r="N7" t="s">
         <v>314</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>577</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>33</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>243</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>417</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>402</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>359</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>99</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>501</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>180</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>186</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>426</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>377</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>317</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>365</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>327</v>
       </c>
-      <c r="K8" t="s">
-        <v>563</v>
-      </c>
-      <c r="M8" t="s">
+      <c r="L8" t="s">
+        <v>16</v>
+      </c>
+      <c r="N8" t="s">
         <v>34</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>578</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>90</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>244</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>403</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>361</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>100</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>174</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>181</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>187</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>427</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>378</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>32</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>366</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>328</v>
       </c>
-      <c r="K9" t="s">
-        <v>79</v>
-      </c>
-      <c r="M9" t="s">
+      <c r="L9" t="s">
+        <v>563</v>
+      </c>
+      <c r="N9" t="s">
         <v>35</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>583</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>91</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>245</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>404</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>362</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>208</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>188</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>346</v>
-      </c>
-      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
         <v>314</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>305</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>508</v>
       </c>
-      <c r="K10" t="s">
-        <v>38</v>
-      </c>
-      <c r="M10" t="s">
+      <c r="L10" t="s">
+        <v>79</v>
+      </c>
+      <c r="N10" t="s">
         <v>36</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>573</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>433</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>246</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>405</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>256</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>189</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s">
-        <v>254</v>
-      </c>
-      <c r="G11" t="s">
+        <v>346</v>
+      </c>
+      <c r="F11" t="s">
+        <v>609</v>
+      </c>
+      <c r="H11" t="s">
         <v>351</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>321</v>
       </c>
-      <c r="K11" t="s">
-        <v>564</v>
-      </c>
-      <c r="M11" t="s">
+      <c r="L11" t="s">
+        <v>38</v>
+      </c>
+      <c r="N11" t="s">
         <v>532</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>574</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>92</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>247</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>257</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>258</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>332</v>
-      </c>
-      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
         <v>318</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>273</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>322</v>
       </c>
-      <c r="K12" t="s">
-        <v>389</v>
-      </c>
-      <c r="M12" t="s">
+      <c r="L12" t="s">
+        <v>564</v>
+      </c>
+      <c r="N12" t="s">
         <v>592</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>575</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>41</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>248</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>101</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>190</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" t="s">
+        <v>332</v>
+      </c>
+      <c r="F13" t="s">
         <v>340</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>262</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>323</v>
       </c>
-      <c r="K13" t="s">
-        <v>17</v>
-      </c>
-      <c r="M13" t="s">
+      <c r="L13" t="s">
+        <v>389</v>
+      </c>
+      <c r="N13" t="s">
         <v>498</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>93</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>253</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>325</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>191</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>569</v>
-      </c>
-      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" t="s">
         <v>37</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>315</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>324</v>
       </c>
-      <c r="K14" t="s">
-        <v>42</v>
-      </c>
-      <c r="M14" t="s">
+      <c r="L14" t="s">
+        <v>17</v>
+      </c>
+      <c r="N14" t="s">
         <v>533</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>94</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>249</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>102</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>192</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>529</v>
-      </c>
-      <c r="E15" t="s">
+        <v>569</v>
+      </c>
+      <c r="F15" t="s">
         <v>58</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>263</v>
       </c>
-      <c r="K15" t="s">
-        <v>565</v>
-      </c>
-      <c r="M15" t="s">
+      <c r="L15" t="s">
+        <v>42</v>
+      </c>
+      <c r="N15" t="s">
         <v>39</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>557</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>250</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>103</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>193</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>195</v>
-      </c>
-      <c r="E16" t="s">
+        <v>529</v>
+      </c>
+      <c r="F16" t="s">
         <v>384</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>264</v>
       </c>
-      <c r="K16" t="s">
-        <v>80</v>
-      </c>
-      <c r="M16" t="s">
+      <c r="L16" t="s">
+        <v>565</v>
+      </c>
+      <c r="N16" t="s">
         <v>593</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>558</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>251</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>74</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>194</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" t="s">
+        <v>195</v>
+      </c>
+      <c r="F17" t="s">
         <v>385</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>316</v>
       </c>
-      <c r="K17" t="s">
-        <v>81</v>
-      </c>
-      <c r="M17" t="s">
+      <c r="L17" t="s">
+        <v>80</v>
+      </c>
+      <c r="N17" t="s">
         <v>40</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>559</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>523</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>238</v>
-      </c>
-      <c r="E18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
         <v>414</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>88</v>
       </c>
-      <c r="K18" t="s">
-        <v>512</v>
-      </c>
-      <c r="M18" t="s">
+      <c r="L18" t="s">
+        <v>81</v>
+      </c>
+      <c r="N18" t="s">
         <v>43</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>104</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" t="s">
-        <v>59</v>
-      </c>
-      <c r="G19" t="s">
+        <v>238</v>
+      </c>
+      <c r="F19" t="s">
+        <v>615</v>
+      </c>
+      <c r="H19" t="s">
         <v>89</v>
       </c>
-      <c r="K19" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y19" t="s">
+      <c r="L19" t="s">
+        <v>512</v>
+      </c>
+      <c r="Z19" t="s">
         <v>105</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>395</v>
-      </c>
-      <c r="E20" t="s">
-        <v>60</v>
-      </c>
-      <c r="G20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" t="s">
+        <v>59</v>
+      </c>
+      <c r="H20" t="s">
         <v>295</v>
       </c>
-      <c r="K20" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y20" t="s">
+      <c r="L20" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z20" t="s">
         <v>106</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>411</v>
-      </c>
-      <c r="E21" t="s">
-        <v>255</v>
-      </c>
-      <c r="G21" t="s">
+        <v>395</v>
+      </c>
+      <c r="F21" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21" t="s">
         <v>296</v>
       </c>
-      <c r="K21" t="s">
-        <v>379</v>
-      </c>
-      <c r="Y21" t="s">
+      <c r="L21" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z21" t="s">
         <v>107</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AE21" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>412</v>
-      </c>
-      <c r="E22" t="s">
-        <v>584</v>
-      </c>
-      <c r="G22" t="s">
+        <v>411</v>
+      </c>
+      <c r="F22" t="s">
+        <v>255</v>
+      </c>
+      <c r="H22" t="s">
         <v>297</v>
       </c>
-      <c r="K22" t="s">
-        <v>528</v>
-      </c>
-      <c r="Y22" t="s">
+      <c r="L22" t="s">
+        <v>611</v>
+      </c>
+      <c r="Z22" t="s">
         <v>537</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AE22" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>356</v>
-      </c>
-      <c r="E23" t="s">
-        <v>61</v>
-      </c>
-      <c r="G23" t="s">
+        <v>412</v>
+      </c>
+      <c r="F23" t="s">
+        <v>584</v>
+      </c>
+      <c r="H23" t="s">
         <v>298</v>
       </c>
-      <c r="K23" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y23" t="s">
+      <c r="L23" t="s">
+        <v>528</v>
+      </c>
+      <c r="Z23" t="s">
         <v>109</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AE23" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>396</v>
-      </c>
-      <c r="E24" t="s">
-        <v>320</v>
-      </c>
-      <c r="G24" t="s">
+        <v>356</v>
+      </c>
+      <c r="F24" t="s">
+        <v>61</v>
+      </c>
+      <c r="H24" t="s">
         <v>289</v>
       </c>
-      <c r="K24" t="s">
-        <v>391</v>
-      </c>
-      <c r="Y24" t="s">
+      <c r="L24" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z24" t="s">
         <v>594</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
         <v>605</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>53</v>
-      </c>
-      <c r="E25" t="s">
-        <v>62</v>
-      </c>
-      <c r="G25" t="s">
+        <v>396</v>
+      </c>
+      <c r="F25" t="s">
+        <v>320</v>
+      </c>
+      <c r="H25" t="s">
         <v>278</v>
       </c>
-      <c r="K25" t="s">
-        <v>581</v>
-      </c>
-      <c r="Y25" t="s">
+      <c r="L25" t="s">
+        <v>391</v>
+      </c>
+      <c r="Z25" t="s">
         <v>110</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AE25" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>54</v>
-      </c>
-      <c r="E26" t="s">
-        <v>504</v>
-      </c>
-      <c r="G26" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26" t="s">
+        <v>62</v>
+      </c>
+      <c r="H26" t="s">
         <v>75</v>
       </c>
-      <c r="K26" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y26" t="s">
+      <c r="L26" t="s">
+        <v>581</v>
+      </c>
+      <c r="Z26" t="s">
         <v>111</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AE26" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>55</v>
-      </c>
-      <c r="E27" t="s">
-        <v>224</v>
-      </c>
-      <c r="G27" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" t="s">
+        <v>504</v>
+      </c>
+      <c r="H27" t="s">
         <v>281</v>
       </c>
-      <c r="K27" t="s">
-        <v>497</v>
-      </c>
-      <c r="Y27" t="s">
+      <c r="L27" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z27" t="s">
         <v>112</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AE27" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>56</v>
-      </c>
-      <c r="E28" t="s">
-        <v>225</v>
-      </c>
-      <c r="G28" t="s">
+        <v>55</v>
+      </c>
+      <c r="F28" t="s">
+        <v>224</v>
+      </c>
+      <c r="H28" t="s">
         <v>265</v>
       </c>
-      <c r="K28" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y28" t="s">
+      <c r="L28" t="s">
+        <v>497</v>
+      </c>
+      <c r="Z28" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>413</v>
-      </c>
-      <c r="E29" t="s">
-        <v>525</v>
-      </c>
-      <c r="G29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
+        <v>225</v>
+      </c>
+      <c r="H29" t="s">
         <v>282</v>
       </c>
-      <c r="K29" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y29" t="s">
+      <c r="L29" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z29" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>413</v>
+      </c>
+      <c r="F30" t="s">
+        <v>525</v>
+      </c>
+      <c r="H30" t="s">
+        <v>283</v>
+      </c>
+      <c r="L30" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
         <v>226</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F31" t="s">
         <v>526</v>
       </c>
-      <c r="G30" t="s">
-        <v>283</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="E31" t="s">
+      <c r="H31" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="F32" t="s">
         <v>415</v>
       </c>
-      <c r="G31" t="s">
-        <v>215</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="E32" t="s">
+      <c r="H32" t="s">
+        <v>274</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="F33" t="s">
         <v>63</v>
       </c>
-      <c r="G32" t="s">
-        <v>274</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="E33" t="s">
+      <c r="H33" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="F34" t="s">
         <v>64</v>
       </c>
-      <c r="G33" t="s">
-        <v>284</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="E34" t="s">
+      <c r="H34" t="s">
+        <v>561</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="F35" t="s">
         <v>65</v>
       </c>
-      <c r="G34" t="s">
-        <v>561</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="E35" t="s">
+      <c r="H35" t="s">
+        <v>259</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="F36" t="s">
         <v>66</v>
       </c>
-      <c r="G35" t="s">
-        <v>259</v>
-      </c>
-      <c r="Y35" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="E36" t="s">
+      <c r="H36" t="s">
+        <v>329</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="F37" t="s">
         <v>67</v>
       </c>
-      <c r="G36" t="s">
-        <v>329</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="E37" t="s">
+      <c r="H37" t="s">
+        <v>306</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="F38" t="s">
         <v>68</v>
       </c>
-      <c r="G37" t="s">
-        <v>306</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="E38" t="s">
+      <c r="H38" t="s">
+        <v>260</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="F39" t="s">
         <v>69</v>
       </c>
-      <c r="G38" t="s">
-        <v>260</v>
-      </c>
-      <c r="Y38" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="E39" t="s">
+      <c r="H39" t="s">
+        <v>307</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="F40" t="s">
         <v>70</v>
       </c>
-      <c r="G39" t="s">
-        <v>307</v>
-      </c>
-      <c r="Y39" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>266</v>
       </c>
-      <c r="Y40" t="s">
+      <c r="Z40" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="41">
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>77</v>
       </c>
-      <c r="Y41" t="s">
-        <v>596</v>
+      <c r="Z41" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="42">
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>211</v>
       </c>
-      <c r="Y42" t="s">
+      <c r="Z42" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="43">
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>586</v>
       </c>
-      <c r="Y43" t="s">
+      <c r="Z43" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="44">
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>288</v>
       </c>
-      <c r="Y44" t="s">
+      <c r="Z44" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="45">
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>299</v>
       </c>
-      <c r="Y45" t="s">
+      <c r="Z45" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="46">
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>300</v>
       </c>
-      <c r="Y46" t="s">
+      <c r="Z46" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="47">
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>342</v>
       </c>
-      <c r="Y47" t="s">
+      <c r="Z47" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="48">
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>341</v>
       </c>
-      <c r="Y48" t="s">
+      <c r="Z48" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="49">
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>210</v>
       </c>
-      <c r="Y49" t="s">
+      <c r="Z49" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="50">
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>319</v>
       </c>
-      <c r="Y50" t="s">
+      <c r="Z50" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="51">
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>338</v>
       </c>
-      <c r="Y51" t="s">
+      <c r="Z51" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="52">
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>367</v>
       </c>
-      <c r="Y52" t="s">
+      <c r="Z52" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="53">
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>301</v>
       </c>
-      <c r="Y53" t="s">
+      <c r="Z53" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="54">
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>355</v>
       </c>
-      <c r="Y54" t="s">
+      <c r="Z54" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="55">
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>330</v>
       </c>
-      <c r="Y55" t="s">
+      <c r="Z55" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="56">
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>267</v>
       </c>
-      <c r="Y56" t="s">
+      <c r="Z56" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="57">
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>291</v>
       </c>
-      <c r="Y57" t="s">
+      <c r="Z57" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="58">
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>292</v>
       </c>
-      <c r="Y58" t="s">
+      <c r="Z58" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="59">
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>587</v>
       </c>
-      <c r="Y59" t="s">
+      <c r="Z59" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="60">
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>293</v>
       </c>
-      <c r="Y60" t="s">
+      <c r="Z60" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="61">
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>302</v>
       </c>
-      <c r="Y61" t="s">
+      <c r="Z61" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="62">
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>311</v>
       </c>
-      <c r="Y62" t="s">
+      <c r="Z62" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="63">
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>336</v>
       </c>
-      <c r="Y63" t="s">
+      <c r="Z63" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="64">
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>308</v>
       </c>
-      <c r="Y64" t="s">
+      <c r="Z64" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="65">
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>309</v>
       </c>
-      <c r="Y65" t="s">
+      <c r="Z65" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="66">
-      <c r="G66" t="s">
+      <c r="H66" t="s">
         <v>368</v>
       </c>
-      <c r="Y66" t="s">
+      <c r="Z66" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="67">
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>369</v>
       </c>
-      <c r="Y67" t="s">
+      <c r="Z67" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="68">
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>344</v>
       </c>
-      <c r="Y68" t="s">
+      <c r="Z68" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="69">
-      <c r="G69" t="s">
+      <c r="H69" t="s">
         <v>312</v>
       </c>
-      <c r="Y69" t="s">
+      <c r="Z69" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="70">
-      <c r="G70" t="s">
+      <c r="H70" t="s">
         <v>268</v>
       </c>
-      <c r="Y70" t="s">
+      <c r="Z70" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="71">
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>588</v>
       </c>
-      <c r="Y71" t="s">
+      <c r="Z71" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="72">
-      <c r="G72" t="s">
+      <c r="H72" t="s">
         <v>313</v>
       </c>
-      <c r="Y72" t="s">
+      <c r="Z72" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="73">
-      <c r="G73" t="s">
+      <c r="H73" t="s">
         <v>409</v>
       </c>
-      <c r="Y73" t="s">
+      <c r="Z73" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="74">
-      <c r="G74" t="s">
+      <c r="H74" t="s">
         <v>303</v>
       </c>
-      <c r="Y74" t="s">
+      <c r="Z74" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="75">
-      <c r="G75" t="s">
+      <c r="H75" t="s">
         <v>410</v>
       </c>
-      <c r="Y75" t="s">
+      <c r="Z75" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="76">
-      <c r="G76" t="s">
+      <c r="H76" t="s">
         <v>261</v>
       </c>
-      <c r="Y76" t="s">
+      <c r="Z76" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="77">
-      <c r="G77" t="s">
+      <c r="H77" t="s">
         <v>562</v>
       </c>
-      <c r="Y77" t="s">
+      <c r="Z77" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="78">
-      <c r="G78" t="s">
+      <c r="H78" t="s">
         <v>343</v>
       </c>
-      <c r="Y78" t="s">
+      <c r="Z78" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="79">
-      <c r="G79" t="s">
+      <c r="H79" t="s">
         <v>279</v>
       </c>
-      <c r="Y79" t="s">
+      <c r="Z79" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="80">
-      <c r="G80" t="s">
+      <c r="H80" t="s">
         <v>285</v>
       </c>
-      <c r="Y80" t="s">
+      <c r="Z80" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="81">
-      <c r="G81" t="s">
+      <c r="H81" t="s">
         <v>290</v>
       </c>
-      <c r="Y81" t="s">
+      <c r="Z81" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="82">
-      <c r="G82" t="s">
+      <c r="H82" t="s">
         <v>428</v>
       </c>
-      <c r="Y82" t="s">
+      <c r="Z82" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="83">
-      <c r="G83" t="s">
+      <c r="H83" t="s">
         <v>331</v>
       </c>
-      <c r="Y83" t="s">
+      <c r="Z83" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="84">
-      <c r="G84" t="s">
+      <c r="H84" t="s">
         <v>269</v>
       </c>
-      <c r="Y84" t="s">
+      <c r="Z84" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="85">
-      <c r="G85" t="s">
+      <c r="H85" t="s">
         <v>280</v>
       </c>
-      <c r="Y85" t="s">
+      <c r="Z85" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="86">
-      <c r="G86" t="s">
+      <c r="H86" t="s">
         <v>286</v>
       </c>
-      <c r="Y86" t="s">
+      <c r="Z86" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="87">
-      <c r="G87" t="s">
+      <c r="H87" t="s">
         <v>275</v>
       </c>
-      <c r="Y87" t="s">
+      <c r="Z87" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="88">
-      <c r="G88" t="s">
+      <c r="H88" t="s">
         <v>589</v>
       </c>
-      <c r="Y88" t="s">
+      <c r="Z88" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="89">
-      <c r="G89" t="s">
+      <c r="H89" t="s">
         <v>270</v>
       </c>
-      <c r="Y89" t="s">
+      <c r="Z89" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="90">
-      <c r="G90" t="s">
+      <c r="H90" t="s">
         <v>287</v>
       </c>
-      <c r="Y90" t="s">
+      <c r="Z90" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="91">
-      <c r="G91" t="s">
+      <c r="H91" t="s">
         <v>271</v>
       </c>
-      <c r="Y91" t="s">
+      <c r="Z91" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="92">
-      <c r="G92" t="s">
+      <c r="H92" t="s">
         <v>272</v>
       </c>
-      <c r="Y92" t="s">
+      <c r="Z92" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="93">
-      <c r="G93" t="s">
+      <c r="H93" t="s">
         <v>304</v>
       </c>
-      <c r="Y93" t="s">
+      <c r="Z93" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="94">
-      <c r="G94" t="s">
+      <c r="H94" t="s">
         <v>310</v>
       </c>
-      <c r="Y94" t="s">
+      <c r="Z94" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="95">
-      <c r="G95" t="s">
+      <c r="H95" t="s">
         <v>294</v>
       </c>
-      <c r="Y95" t="s">
+      <c r="Z95" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="96">
-      <c r="G96" t="s">
+      <c r="H96" t="s">
         <v>339</v>
       </c>
-      <c r="Y96" t="s">
+      <c r="Z96" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="97">
-      <c r="G97" t="s">
+      <c r="H97" t="s">
         <v>276</v>
       </c>
-      <c r="Y97" t="s">
+      <c r="Z97" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="98">
-      <c r="G98" t="s">
+      <c r="H98" t="s">
         <v>277</v>
       </c>
-      <c r="Y98" t="s">
+      <c r="Z98" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="99">
-      <c r="Y99" t="s">
+      <c r="Z99" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="100">
-      <c r="Y100" t="s">
+      <c r="Z100" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="101">
-      <c r="Y101" t="s">
+      <c r="Z101" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="102">
-      <c r="Y102" t="s">
+      <c r="Z102" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="103">
-      <c r="Y103" t="s">
+      <c r="Z103" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="104">
-      <c r="Y104" t="s">
+      <c r="Z104" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="105">
-      <c r="Y105" t="s">
+      <c r="Z105" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="106">
-      <c r="Y106" t="s">
+      <c r="Z106" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="107">
-      <c r="Y107" t="s">
+      <c r="Z107" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="Z108" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="108">
-      <c r="Y108" t="s">
+    <row r="109">
+      <c r="Z109" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="109">
-      <c r="Y109" t="s">
+    <row r="110">
+      <c r="Z110" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="110">
-      <c r="Y110" t="s">
+    <row r="111">
+      <c r="Z111" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="111">
-      <c r="Y111" t="s">
+    <row r="112">
+      <c r="Z112" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="112">
-      <c r="Y112" t="s">
+    <row r="113">
+      <c r="Z113" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="113">
-      <c r="Y113" t="s">
+    <row r="114">
+      <c r="Z114" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="114">
-      <c r="Y114" t="s">
+    <row r="115">
+      <c r="Z115" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="115">
-      <c r="Y115" t="s">
+    <row r="116">
+      <c r="Z116" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="116">
-      <c r="Y116" t="s">
+    <row r="117">
+      <c r="Z117" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="117">
-      <c r="Y117" t="s">
+    <row r="118">
+      <c r="Z118" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="118">
-      <c r="Y118" t="s">
+    <row r="119">
+      <c r="Z119" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="119">
-      <c r="Y119" t="s">
+    <row r="120">
+      <c r="Z120" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="120">
-      <c r="Y120" t="s">
+    <row r="121">
+      <c r="Z121" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="121">
-      <c r="Y121" t="s">
+    <row r="122">
+      <c r="Z122" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="122">
-      <c r="Y122" t="s">
+    <row r="123">
+      <c r="Z123" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="123">
-      <c r="Y123" t="s">
+    <row r="124">
+      <c r="Z124" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="124">
-      <c r="Y124" t="s">
+    <row r="125">
+      <c r="Z125" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="125">
-      <c r="Y125" t="s">
+    <row r="126">
+      <c r="Z126" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="126">
-      <c r="Y126" t="s">
+    <row r="127">
+      <c r="Z127" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="127">
-      <c r="Y127" t="s">
+    <row r="128">
+      <c r="Z128" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="128">
-      <c r="Y128" t="s">
+    <row r="129">
+      <c r="Z129" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="129">
-      <c r="Y129" t="s">
+    <row r="130">
+      <c r="Z130" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="130">
-      <c r="Y130" t="s">
+    <row r="131">
+      <c r="Z131" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="131">
-      <c r="Y131" t="s">
+    <row r="132">
+      <c r="Z132" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="132">
-      <c r="Y132" t="s">
+    <row r="133">
+      <c r="Z133" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="133">
-      <c r="Y133" t="s">
+    <row r="134">
+      <c r="Z134" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="134">
-      <c r="Y134" t="s">
+    <row r="135">
+      <c r="Z135" t="s">
         <v>169</v>
       </c>
     </row>

--- a/artifact/script/web-05.xlsx
+++ b/artifact/script/web-05.xlsx
@@ -18,13 +18,13 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$F$2:$F$40</definedName>
+    <definedName name="base">'#system'!$F$2:$F$39</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$14</definedName>
-    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$137</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10913" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12043" uniqueCount="621">
   <si>
     <t>description</t>
   </si>
@@ -1921,6 +1921,15 @@
   </si>
   <si>
     <t>assertAttributeContain(locator,attrName,contains)</t>
+  </si>
+  <si>
+    <t>terminate(programName)</t>
+  </si>
+  <si>
+    <t>saveSelectedText(var,locator)</t>
+  </si>
+  <si>
+    <t>saveSelectedValue(var,locator)</t>
   </si>
 </sst>
 </file>
@@ -1928,7 +1937,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="330" x14ac:knownFonts="1">
+  <fonts count="362" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4018,8 +4027,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="565">
+  <fills count="619">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7217,8 +7428,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="575">
+  <borders count="639">
     <border>
       <left/>
       <right/>
@@ -13028,6 +13545,658 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -13035,7 +14204,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="355">
+  <cellXfs count="387">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -14069,52 +15238,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="537" fontId="313" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="314" fillId="540" borderId="550" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="550" fillId="540" fontId="314" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="315" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="316" fillId="543" borderId="554" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="554" fillId="543" fontId="316" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="317" fillId="546" borderId="558" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="558" fillId="546" fontId="317" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="318" fillId="549" borderId="562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="562" fillId="549" fontId="318" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="319" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="319" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="320" fillId="552" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="552" fontId="320" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="321" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="555" borderId="566" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="566" fillId="555" fontId="322" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="323" fillId="546" borderId="570" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="570" fillId="546" fontId="323" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="324" fillId="558" borderId="574" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="574" fillId="558" fontId="324" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="325" fillId="558" borderId="574" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="574" fillId="558" fontId="325" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="326" fillId="549" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="549" fontId="326" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="327" fillId="561" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="561" fontId="327" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="328" fillId="549" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="549" fontId="328" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="329" fillId="564" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="564" fontId="329" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="582" fillId="567" fontId="330" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="331" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="586" fillId="570" fontId="332" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="590" fillId="573" fontId="333" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="594" fillId="576" fontId="334" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="335" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="579" fontId="336" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="337" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="598" fillId="582" fontId="338" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="602" fillId="573" fontId="339" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="606" fillId="585" fontId="340" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="606" fillId="585" fontId="341" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="576" fontId="342" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="588" fontId="343" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="576" fontId="344" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="591" fontId="345" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="346" fillId="594" borderId="614" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="347" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="348" fillId="597" borderId="618" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="349" fillId="600" borderId="622" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="350" fillId="603" borderId="626" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="351" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="352" fillId="606" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="353" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="354" fillId="609" borderId="630" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="355" fillId="600" borderId="634" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="356" fillId="612" borderId="638" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="357" fillId="612" borderId="638" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="358" fillId="603" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="359" fillId="615" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="360" fillId="603" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="361" fillId="618" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -14439,7 +15704,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF135"/>
+  <dimension ref="A1:AF137"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -14905,6 +16170,9 @@
       <c r="I6" t="s">
         <v>507</v>
       </c>
+      <c r="J6" t="s">
+        <v>618</v>
+      </c>
       <c r="K6" t="s">
         <v>347</v>
       </c>
@@ -15421,7 +16689,7 @@
         <v>238</v>
       </c>
       <c r="F19" t="s">
-        <v>615</v>
+        <v>59</v>
       </c>
       <c r="H19" t="s">
         <v>89</v>
@@ -15441,7 +16709,7 @@
         <v>52</v>
       </c>
       <c r="F20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H20" t="s">
         <v>295</v>
@@ -15461,7 +16729,7 @@
         <v>395</v>
       </c>
       <c r="F21" t="s">
-        <v>60</v>
+        <v>255</v>
       </c>
       <c r="H21" t="s">
         <v>296</v>
@@ -15481,7 +16749,7 @@
         <v>411</v>
       </c>
       <c r="F22" t="s">
-        <v>255</v>
+        <v>584</v>
       </c>
       <c r="H22" t="s">
         <v>297</v>
@@ -15501,7 +16769,7 @@
         <v>412</v>
       </c>
       <c r="F23" t="s">
-        <v>584</v>
+        <v>61</v>
       </c>
       <c r="H23" t="s">
         <v>298</v>
@@ -15521,7 +16789,7 @@
         <v>356</v>
       </c>
       <c r="F24" t="s">
-        <v>61</v>
+        <v>320</v>
       </c>
       <c r="H24" t="s">
         <v>289</v>
@@ -15541,7 +16809,7 @@
         <v>396</v>
       </c>
       <c r="F25" t="s">
-        <v>320</v>
+        <v>62</v>
       </c>
       <c r="H25" t="s">
         <v>278</v>
@@ -15561,7 +16829,7 @@
         <v>53</v>
       </c>
       <c r="F26" t="s">
-        <v>62</v>
+        <v>504</v>
       </c>
       <c r="H26" t="s">
         <v>75</v>
@@ -15581,7 +16849,7 @@
         <v>54</v>
       </c>
       <c r="F27" t="s">
-        <v>504</v>
+        <v>224</v>
       </c>
       <c r="H27" t="s">
         <v>281</v>
@@ -15601,7 +16869,7 @@
         <v>55</v>
       </c>
       <c r="F28" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H28" t="s">
         <v>265</v>
@@ -15618,7 +16886,7 @@
         <v>56</v>
       </c>
       <c r="F29" t="s">
-        <v>225</v>
+        <v>525</v>
       </c>
       <c r="H29" t="s">
         <v>282</v>
@@ -15635,7 +16903,7 @@
         <v>413</v>
       </c>
       <c r="F30" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H30" t="s">
         <v>283</v>
@@ -15652,7 +16920,7 @@
         <v>226</v>
       </c>
       <c r="F31" t="s">
-        <v>526</v>
+        <v>415</v>
       </c>
       <c r="H31" t="s">
         <v>215</v>
@@ -15663,7 +16931,7 @@
     </row>
     <row r="32">
       <c r="F32" t="s">
-        <v>415</v>
+        <v>63</v>
       </c>
       <c r="H32" t="s">
         <v>274</v>
@@ -15674,7 +16942,7 @@
     </row>
     <row r="33">
       <c r="F33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H33" t="s">
         <v>284</v>
@@ -15685,7 +16953,7 @@
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H34" t="s">
         <v>561</v>
@@ -15696,7 +16964,7 @@
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H35" t="s">
         <v>259</v>
@@ -15707,7 +16975,7 @@
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H36" t="s">
         <v>329</v>
@@ -15718,7 +16986,7 @@
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H37" t="s">
         <v>306</v>
@@ -15729,7 +16997,7 @@
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H38" t="s">
         <v>260</v>
@@ -15740,7 +17008,7 @@
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H39" t="s">
         <v>307</v>
@@ -15750,9 +17018,6 @@
       </c>
     </row>
     <row r="40">
-      <c r="F40" t="s">
-        <v>70</v>
-      </c>
       <c r="H40" t="s">
         <v>266</v>
       </c>
@@ -16226,186 +17491,196 @@
     </row>
     <row r="99">
       <c r="Z99" t="s">
-        <v>466</v>
+        <v>619</v>
       </c>
     </row>
     <row r="100">
       <c r="Z100" t="s">
-        <v>203</v>
+        <v>620</v>
       </c>
     </row>
     <row r="101">
       <c r="Z101" t="s">
-        <v>204</v>
+        <v>466</v>
       </c>
     </row>
     <row r="102">
       <c r="Z102" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="103">
       <c r="Z103" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="104">
       <c r="Z104" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
     </row>
     <row r="105">
       <c r="Z105" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="106">
       <c r="Z106" t="s">
-        <v>566</v>
+        <v>222</v>
       </c>
     </row>
     <row r="107">
       <c r="Z107" t="s">
-        <v>614</v>
+        <v>207</v>
       </c>
     </row>
     <row r="108">
       <c r="Z108" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="109">
       <c r="Z109" t="s">
-        <v>148</v>
+        <v>614</v>
       </c>
     </row>
     <row r="110">
       <c r="Z110" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="111">
       <c r="Z111" t="s">
-        <v>382</v>
+        <v>148</v>
       </c>
     </row>
     <row r="112">
       <c r="Z112" t="s">
-        <v>149</v>
+        <v>568</v>
       </c>
     </row>
     <row r="113">
       <c r="Z113" t="s">
-        <v>150</v>
+        <v>382</v>
       </c>
     </row>
     <row r="114">
       <c r="Z114" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="115">
       <c r="Z115" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="116">
       <c r="Z116" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="117">
       <c r="Z117" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="118">
       <c r="Z118" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="119">
       <c r="Z119" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="120">
       <c r="Z120" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="121">
       <c r="Z121" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="122">
       <c r="Z122" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="123">
       <c r="Z123" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="124">
       <c r="Z124" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="125">
       <c r="Z125" t="s">
-        <v>495</v>
+        <v>160</v>
       </c>
     </row>
     <row r="126">
       <c r="Z126" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="127">
       <c r="Z127" t="s">
-        <v>600</v>
+        <v>495</v>
       </c>
     </row>
     <row r="128">
       <c r="Z128" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="129">
       <c r="Z129" t="s">
-        <v>164</v>
+        <v>600</v>
       </c>
     </row>
     <row r="130">
       <c r="Z130" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="131">
       <c r="Z131" t="s">
-        <v>47</v>
+        <v>164</v>
       </c>
     </row>
     <row r="132">
       <c r="Z132" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="133">
       <c r="Z133" t="s">
-        <v>167</v>
+        <v>47</v>
       </c>
     </row>
     <row r="134">
       <c r="Z134" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="135">
       <c r="Z135" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="Z136" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="Z137" t="s">
         <v>169</v>
       </c>
     </row>

--- a/artifact/script/web-05.xlsx
+++ b/artifact/script/web-05.xlsx
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12043" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12608" uniqueCount="621">
   <si>
     <t>description</t>
   </si>
@@ -1937,7 +1937,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="362" x14ac:knownFonts="1">
+  <fonts count="378" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4229,8 +4229,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="619">
+  <fills count="646">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7734,8 +7835,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="639">
+  <borders count="671">
     <border>
       <left/>
       <right/>
@@ -14197,6 +14451,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -14204,7 +14784,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="387">
+  <cellXfs count="403">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -15334,52 +15914,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="591" fontId="345" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="346" fillId="594" borderId="614" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="614" fillId="594" fontId="346" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="347" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="347" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="348" fillId="597" borderId="618" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="618" fillId="597" fontId="348" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="349" fillId="600" borderId="622" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="622" fillId="600" fontId="349" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="350" fillId="603" borderId="626" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="626" fillId="603" fontId="350" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="351" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="351" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="352" fillId="606" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="606" fontId="352" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="353" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="353" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="354" fillId="609" borderId="630" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="630" fillId="609" fontId="354" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="355" fillId="600" borderId="634" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="634" fillId="600" fontId="355" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="356" fillId="612" borderId="638" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="638" fillId="612" fontId="356" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="357" fillId="612" borderId="638" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="638" fillId="612" fontId="357" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="358" fillId="603" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="603" fontId="358" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="359" fillId="615" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="615" fontId="359" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="360" fillId="603" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="603" fontId="360" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="361" fillId="618" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="618" fontId="361" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="362" fillId="621" borderId="646" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="363" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="364" fillId="624" borderId="650" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="365" fillId="627" borderId="654" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="366" fillId="630" borderId="658" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="367" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="368" fillId="633" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="369" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="370" fillId="636" borderId="662" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="371" fillId="627" borderId="666" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="372" fillId="639" borderId="670" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="373" fillId="639" borderId="670" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="374" fillId="630" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="375" fillId="642" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="376" fillId="630" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="377" fillId="645" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/artifact/script/web-05.xlsx
+++ b/artifact/script/web-05.xlsx
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12608" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13738" uniqueCount="621">
   <si>
     <t>description</t>
   </si>
@@ -1937,7 +1937,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="378" x14ac:knownFonts="1">
+  <fonts count="410" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4330,8 +4330,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="646">
+  <fills count="700">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7988,8 +8190,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="671">
+  <borders count="735">
     <border>
       <left/>
       <right/>
@@ -12643,6 +13151,658 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -14784,7 +15944,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="403">
+  <cellXfs count="435">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -15962,52 +17122,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="618" fontId="361" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="362" fillId="621" borderId="646" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="646" fillId="621" fontId="362" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="363" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="363" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="364" fillId="624" borderId="650" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="650" fillId="624" fontId="364" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="365" fillId="627" borderId="654" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="654" fillId="627" fontId="365" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="366" fillId="630" borderId="658" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="658" fillId="630" fontId="366" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="367" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="367" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="368" fillId="633" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="633" fontId="368" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="369" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="369" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="370" fillId="636" borderId="662" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="662" fillId="636" fontId="370" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="371" fillId="627" borderId="666" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="666" fillId="627" fontId="371" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="372" fillId="639" borderId="670" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="670" fillId="639" fontId="372" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="373" fillId="639" borderId="670" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="670" fillId="639" fontId="373" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="374" fillId="630" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="630" fontId="374" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="375" fillId="642" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="642" fontId="375" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="376" fillId="630" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="630" fontId="376" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="377" fillId="645" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="645" fontId="377" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="678" fillId="648" fontId="378" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="379" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="682" fillId="651" fontId="380" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="686" fillId="654" fontId="381" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="690" fillId="657" fontId="382" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="383" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="660" fontId="384" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="385" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="694" fillId="663" fontId="386" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="698" fillId="654" fontId="387" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="702" fillId="666" fontId="388" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="702" fillId="666" fontId="389" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="657" fontId="390" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="669" fontId="391" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="657" fontId="392" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="672" fontId="393" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="394" fillId="675" borderId="710" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="395" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="396" fillId="678" borderId="714" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="397" fillId="681" borderId="718" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="398" fillId="684" borderId="722" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="399" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="400" fillId="687" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="401" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="402" fillId="690" borderId="726" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="403" fillId="681" borderId="730" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="404" fillId="693" borderId="734" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="405" fillId="693" borderId="734" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="406" fillId="684" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="407" fillId="696" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="408" fillId="684" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="409" fillId="699" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
